--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -312,8 +312,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,9 +4678,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5002,10 +5002,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1019" min="12" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1019" min="12" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,9 +5257,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,15 +5576,15 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1019" min="12" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1019" min="12" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5844,9 +5844,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6168,11 +6168,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6484,9 +6484,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="15" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="15" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6804,10 +6804,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7115,7 +7115,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
@@ -7123,10 +7123,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7243,6 +7243,1014 @@
         <f aca="false">P5/P6</f>
         <v>0.00274223034734918</v>
       </c>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -7424,7 +8432,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
@@ -7432,10 +8440,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7489,6 +8497,1012 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0"/>
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0"/>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
+      <c r="BE1" s="0"/>
+      <c r="BF1" s="0"/>
+      <c r="BG1" s="0"/>
+      <c r="BH1" s="0"/>
+      <c r="BI1" s="0"/>
+      <c r="BJ1" s="0"/>
+      <c r="BK1" s="0"/>
+      <c r="BL1" s="0"/>
+      <c r="BM1" s="0"/>
+      <c r="BN1" s="0"/>
+      <c r="BO1" s="0"/>
+      <c r="BP1" s="0"/>
+      <c r="BQ1" s="0"/>
+      <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
+      <c r="BT1" s="0"/>
+      <c r="BU1" s="0"/>
+      <c r="BV1" s="0"/>
+      <c r="BW1" s="0"/>
+      <c r="BX1" s="0"/>
+      <c r="BY1" s="0"/>
+      <c r="BZ1" s="0"/>
+      <c r="CA1" s="0"/>
+      <c r="CB1" s="0"/>
+      <c r="CC1" s="0"/>
+      <c r="CD1" s="0"/>
+      <c r="CE1" s="0"/>
+      <c r="CF1" s="0"/>
+      <c r="CG1" s="0"/>
+      <c r="CH1" s="0"/>
+      <c r="CI1" s="0"/>
+      <c r="CJ1" s="0"/>
+      <c r="CK1" s="0"/>
+      <c r="CL1" s="0"/>
+      <c r="CM1" s="0"/>
+      <c r="CN1" s="0"/>
+      <c r="CO1" s="0"/>
+      <c r="CP1" s="0"/>
+      <c r="CQ1" s="0"/>
+      <c r="CR1" s="0"/>
+      <c r="CS1" s="0"/>
+      <c r="CT1" s="0"/>
+      <c r="CU1" s="0"/>
+      <c r="CV1" s="0"/>
+      <c r="CW1" s="0"/>
+      <c r="CX1" s="0"/>
+      <c r="CY1" s="0"/>
+      <c r="CZ1" s="0"/>
+      <c r="DA1" s="0"/>
+      <c r="DB1" s="0"/>
+      <c r="DC1" s="0"/>
+      <c r="DD1" s="0"/>
+      <c r="DE1" s="0"/>
+      <c r="DF1" s="0"/>
+      <c r="DG1" s="0"/>
+      <c r="DH1" s="0"/>
+      <c r="DI1" s="0"/>
+      <c r="DJ1" s="0"/>
+      <c r="DK1" s="0"/>
+      <c r="DL1" s="0"/>
+      <c r="DM1" s="0"/>
+      <c r="DN1" s="0"/>
+      <c r="DO1" s="0"/>
+      <c r="DP1" s="0"/>
+      <c r="DQ1" s="0"/>
+      <c r="DR1" s="0"/>
+      <c r="DS1" s="0"/>
+      <c r="DT1" s="0"/>
+      <c r="DU1" s="0"/>
+      <c r="DV1" s="0"/>
+      <c r="DW1" s="0"/>
+      <c r="DX1" s="0"/>
+      <c r="DY1" s="0"/>
+      <c r="DZ1" s="0"/>
+      <c r="EA1" s="0"/>
+      <c r="EB1" s="0"/>
+      <c r="EC1" s="0"/>
+      <c r="ED1" s="0"/>
+      <c r="EE1" s="0"/>
+      <c r="EF1" s="0"/>
+      <c r="EG1" s="0"/>
+      <c r="EH1" s="0"/>
+      <c r="EI1" s="0"/>
+      <c r="EJ1" s="0"/>
+      <c r="EK1" s="0"/>
+      <c r="EL1" s="0"/>
+      <c r="EM1" s="0"/>
+      <c r="EN1" s="0"/>
+      <c r="EO1" s="0"/>
+      <c r="EP1" s="0"/>
+      <c r="EQ1" s="0"/>
+      <c r="ER1" s="0"/>
+      <c r="ES1" s="0"/>
+      <c r="ET1" s="0"/>
+      <c r="EU1" s="0"/>
+      <c r="EV1" s="0"/>
+      <c r="EW1" s="0"/>
+      <c r="EX1" s="0"/>
+      <c r="EY1" s="0"/>
+      <c r="EZ1" s="0"/>
+      <c r="FA1" s="0"/>
+      <c r="FB1" s="0"/>
+      <c r="FC1" s="0"/>
+      <c r="FD1" s="0"/>
+      <c r="FE1" s="0"/>
+      <c r="FF1" s="0"/>
+      <c r="FG1" s="0"/>
+      <c r="FH1" s="0"/>
+      <c r="FI1" s="0"/>
+      <c r="FJ1" s="0"/>
+      <c r="FK1" s="0"/>
+      <c r="FL1" s="0"/>
+      <c r="FM1" s="0"/>
+      <c r="FN1" s="0"/>
+      <c r="FO1" s="0"/>
+      <c r="FP1" s="0"/>
+      <c r="FQ1" s="0"/>
+      <c r="FR1" s="0"/>
+      <c r="FS1" s="0"/>
+      <c r="FT1" s="0"/>
+      <c r="FU1" s="0"/>
+      <c r="FV1" s="0"/>
+      <c r="FW1" s="0"/>
+      <c r="FX1" s="0"/>
+      <c r="FY1" s="0"/>
+      <c r="FZ1" s="0"/>
+      <c r="GA1" s="0"/>
+      <c r="GB1" s="0"/>
+      <c r="GC1" s="0"/>
+      <c r="GD1" s="0"/>
+      <c r="GE1" s="0"/>
+      <c r="GF1" s="0"/>
+      <c r="GG1" s="0"/>
+      <c r="GH1" s="0"/>
+      <c r="GI1" s="0"/>
+      <c r="GJ1" s="0"/>
+      <c r="GK1" s="0"/>
+      <c r="GL1" s="0"/>
+      <c r="GM1" s="0"/>
+      <c r="GN1" s="0"/>
+      <c r="GO1" s="0"/>
+      <c r="GP1" s="0"/>
+      <c r="GQ1" s="0"/>
+      <c r="GR1" s="0"/>
+      <c r="GS1" s="0"/>
+      <c r="GT1" s="0"/>
+      <c r="GU1" s="0"/>
+      <c r="GV1" s="0"/>
+      <c r="GW1" s="0"/>
+      <c r="GX1" s="0"/>
+      <c r="GY1" s="0"/>
+      <c r="GZ1" s="0"/>
+      <c r="HA1" s="0"/>
+      <c r="HB1" s="0"/>
+      <c r="HC1" s="0"/>
+      <c r="HD1" s="0"/>
+      <c r="HE1" s="0"/>
+      <c r="HF1" s="0"/>
+      <c r="HG1" s="0"/>
+      <c r="HH1" s="0"/>
+      <c r="HI1" s="0"/>
+      <c r="HJ1" s="0"/>
+      <c r="HK1" s="0"/>
+      <c r="HL1" s="0"/>
+      <c r="HM1" s="0"/>
+      <c r="HN1" s="0"/>
+      <c r="HO1" s="0"/>
+      <c r="HP1" s="0"/>
+      <c r="HQ1" s="0"/>
+      <c r="HR1" s="0"/>
+      <c r="HS1" s="0"/>
+      <c r="HT1" s="0"/>
+      <c r="HU1" s="0"/>
+      <c r="HV1" s="0"/>
+      <c r="HW1" s="0"/>
+      <c r="HX1" s="0"/>
+      <c r="HY1" s="0"/>
+      <c r="HZ1" s="0"/>
+      <c r="IA1" s="0"/>
+      <c r="IB1" s="0"/>
+      <c r="IC1" s="0"/>
+      <c r="ID1" s="0"/>
+      <c r="IE1" s="0"/>
+      <c r="IF1" s="0"/>
+      <c r="IG1" s="0"/>
+      <c r="IH1" s="0"/>
+      <c r="II1" s="0"/>
+      <c r="IJ1" s="0"/>
+      <c r="IK1" s="0"/>
+      <c r="IL1" s="0"/>
+      <c r="IM1" s="0"/>
+      <c r="IN1" s="0"/>
+      <c r="IO1" s="0"/>
+      <c r="IP1" s="0"/>
+      <c r="IQ1" s="0"/>
+      <c r="IR1" s="0"/>
+      <c r="IS1" s="0"/>
+      <c r="IT1" s="0"/>
+      <c r="IU1" s="0"/>
+      <c r="IV1" s="0"/>
+      <c r="IW1" s="0"/>
+      <c r="IX1" s="0"/>
+      <c r="IY1" s="0"/>
+      <c r="IZ1" s="0"/>
+      <c r="JA1" s="0"/>
+      <c r="JB1" s="0"/>
+      <c r="JC1" s="0"/>
+      <c r="JD1" s="0"/>
+      <c r="JE1" s="0"/>
+      <c r="JF1" s="0"/>
+      <c r="JG1" s="0"/>
+      <c r="JH1" s="0"/>
+      <c r="JI1" s="0"/>
+      <c r="JJ1" s="0"/>
+      <c r="JK1" s="0"/>
+      <c r="JL1" s="0"/>
+      <c r="JM1" s="0"/>
+      <c r="JN1" s="0"/>
+      <c r="JO1" s="0"/>
+      <c r="JP1" s="0"/>
+      <c r="JQ1" s="0"/>
+      <c r="JR1" s="0"/>
+      <c r="JS1" s="0"/>
+      <c r="JT1" s="0"/>
+      <c r="JU1" s="0"/>
+      <c r="JV1" s="0"/>
+      <c r="JW1" s="0"/>
+      <c r="JX1" s="0"/>
+      <c r="JY1" s="0"/>
+      <c r="JZ1" s="0"/>
+      <c r="KA1" s="0"/>
+      <c r="KB1" s="0"/>
+      <c r="KC1" s="0"/>
+      <c r="KD1" s="0"/>
+      <c r="KE1" s="0"/>
+      <c r="KF1" s="0"/>
+      <c r="KG1" s="0"/>
+      <c r="KH1" s="0"/>
+      <c r="KI1" s="0"/>
+      <c r="KJ1" s="0"/>
+      <c r="KK1" s="0"/>
+      <c r="KL1" s="0"/>
+      <c r="KM1" s="0"/>
+      <c r="KN1" s="0"/>
+      <c r="KO1" s="0"/>
+      <c r="KP1" s="0"/>
+      <c r="KQ1" s="0"/>
+      <c r="KR1" s="0"/>
+      <c r="KS1" s="0"/>
+      <c r="KT1" s="0"/>
+      <c r="KU1" s="0"/>
+      <c r="KV1" s="0"/>
+      <c r="KW1" s="0"/>
+      <c r="KX1" s="0"/>
+      <c r="KY1" s="0"/>
+      <c r="KZ1" s="0"/>
+      <c r="LA1" s="0"/>
+      <c r="LB1" s="0"/>
+      <c r="LC1" s="0"/>
+      <c r="LD1" s="0"/>
+      <c r="LE1" s="0"/>
+      <c r="LF1" s="0"/>
+      <c r="LG1" s="0"/>
+      <c r="LH1" s="0"/>
+      <c r="LI1" s="0"/>
+      <c r="LJ1" s="0"/>
+      <c r="LK1" s="0"/>
+      <c r="LL1" s="0"/>
+      <c r="LM1" s="0"/>
+      <c r="LN1" s="0"/>
+      <c r="LO1" s="0"/>
+      <c r="LP1" s="0"/>
+      <c r="LQ1" s="0"/>
+      <c r="LR1" s="0"/>
+      <c r="LS1" s="0"/>
+      <c r="LT1" s="0"/>
+      <c r="LU1" s="0"/>
+      <c r="LV1" s="0"/>
+      <c r="LW1" s="0"/>
+      <c r="LX1" s="0"/>
+      <c r="LY1" s="0"/>
+      <c r="LZ1" s="0"/>
+      <c r="MA1" s="0"/>
+      <c r="MB1" s="0"/>
+      <c r="MC1" s="0"/>
+      <c r="MD1" s="0"/>
+      <c r="ME1" s="0"/>
+      <c r="MF1" s="0"/>
+      <c r="MG1" s="0"/>
+      <c r="MH1" s="0"/>
+      <c r="MI1" s="0"/>
+      <c r="MJ1" s="0"/>
+      <c r="MK1" s="0"/>
+      <c r="ML1" s="0"/>
+      <c r="MM1" s="0"/>
+      <c r="MN1" s="0"/>
+      <c r="MO1" s="0"/>
+      <c r="MP1" s="0"/>
+      <c r="MQ1" s="0"/>
+      <c r="MR1" s="0"/>
+      <c r="MS1" s="0"/>
+      <c r="MT1" s="0"/>
+      <c r="MU1" s="0"/>
+      <c r="MV1" s="0"/>
+      <c r="MW1" s="0"/>
+      <c r="MX1" s="0"/>
+      <c r="MY1" s="0"/>
+      <c r="MZ1" s="0"/>
+      <c r="NA1" s="0"/>
+      <c r="NB1" s="0"/>
+      <c r="NC1" s="0"/>
+      <c r="ND1" s="0"/>
+      <c r="NE1" s="0"/>
+      <c r="NF1" s="0"/>
+      <c r="NG1" s="0"/>
+      <c r="NH1" s="0"/>
+      <c r="NI1" s="0"/>
+      <c r="NJ1" s="0"/>
+      <c r="NK1" s="0"/>
+      <c r="NL1" s="0"/>
+      <c r="NM1" s="0"/>
+      <c r="NN1" s="0"/>
+      <c r="NO1" s="0"/>
+      <c r="NP1" s="0"/>
+      <c r="NQ1" s="0"/>
+      <c r="NR1" s="0"/>
+      <c r="NS1" s="0"/>
+      <c r="NT1" s="0"/>
+      <c r="NU1" s="0"/>
+      <c r="NV1" s="0"/>
+      <c r="NW1" s="0"/>
+      <c r="NX1" s="0"/>
+      <c r="NY1" s="0"/>
+      <c r="NZ1" s="0"/>
+      <c r="OA1" s="0"/>
+      <c r="OB1" s="0"/>
+      <c r="OC1" s="0"/>
+      <c r="OD1" s="0"/>
+      <c r="OE1" s="0"/>
+      <c r="OF1" s="0"/>
+      <c r="OG1" s="0"/>
+      <c r="OH1" s="0"/>
+      <c r="OI1" s="0"/>
+      <c r="OJ1" s="0"/>
+      <c r="OK1" s="0"/>
+      <c r="OL1" s="0"/>
+      <c r="OM1" s="0"/>
+      <c r="ON1" s="0"/>
+      <c r="OO1" s="0"/>
+      <c r="OP1" s="0"/>
+      <c r="OQ1" s="0"/>
+      <c r="OR1" s="0"/>
+      <c r="OS1" s="0"/>
+      <c r="OT1" s="0"/>
+      <c r="OU1" s="0"/>
+      <c r="OV1" s="0"/>
+      <c r="OW1" s="0"/>
+      <c r="OX1" s="0"/>
+      <c r="OY1" s="0"/>
+      <c r="OZ1" s="0"/>
+      <c r="PA1" s="0"/>
+      <c r="PB1" s="0"/>
+      <c r="PC1" s="0"/>
+      <c r="PD1" s="0"/>
+      <c r="PE1" s="0"/>
+      <c r="PF1" s="0"/>
+      <c r="PG1" s="0"/>
+      <c r="PH1" s="0"/>
+      <c r="PI1" s="0"/>
+      <c r="PJ1" s="0"/>
+      <c r="PK1" s="0"/>
+      <c r="PL1" s="0"/>
+      <c r="PM1" s="0"/>
+      <c r="PN1" s="0"/>
+      <c r="PO1" s="0"/>
+      <c r="PP1" s="0"/>
+      <c r="PQ1" s="0"/>
+      <c r="PR1" s="0"/>
+      <c r="PS1" s="0"/>
+      <c r="PT1" s="0"/>
+      <c r="PU1" s="0"/>
+      <c r="PV1" s="0"/>
+      <c r="PW1" s="0"/>
+      <c r="PX1" s="0"/>
+      <c r="PY1" s="0"/>
+      <c r="PZ1" s="0"/>
+      <c r="QA1" s="0"/>
+      <c r="QB1" s="0"/>
+      <c r="QC1" s="0"/>
+      <c r="QD1" s="0"/>
+      <c r="QE1" s="0"/>
+      <c r="QF1" s="0"/>
+      <c r="QG1" s="0"/>
+      <c r="QH1" s="0"/>
+      <c r="QI1" s="0"/>
+      <c r="QJ1" s="0"/>
+      <c r="QK1" s="0"/>
+      <c r="QL1" s="0"/>
+      <c r="QM1" s="0"/>
+      <c r="QN1" s="0"/>
+      <c r="QO1" s="0"/>
+      <c r="QP1" s="0"/>
+      <c r="QQ1" s="0"/>
+      <c r="QR1" s="0"/>
+      <c r="QS1" s="0"/>
+      <c r="QT1" s="0"/>
+      <c r="QU1" s="0"/>
+      <c r="QV1" s="0"/>
+      <c r="QW1" s="0"/>
+      <c r="QX1" s="0"/>
+      <c r="QY1" s="0"/>
+      <c r="QZ1" s="0"/>
+      <c r="RA1" s="0"/>
+      <c r="RB1" s="0"/>
+      <c r="RC1" s="0"/>
+      <c r="RD1" s="0"/>
+      <c r="RE1" s="0"/>
+      <c r="RF1" s="0"/>
+      <c r="RG1" s="0"/>
+      <c r="RH1" s="0"/>
+      <c r="RI1" s="0"/>
+      <c r="RJ1" s="0"/>
+      <c r="RK1" s="0"/>
+      <c r="RL1" s="0"/>
+      <c r="RM1" s="0"/>
+      <c r="RN1" s="0"/>
+      <c r="RO1" s="0"/>
+      <c r="RP1" s="0"/>
+      <c r="RQ1" s="0"/>
+      <c r="RR1" s="0"/>
+      <c r="RS1" s="0"/>
+      <c r="RT1" s="0"/>
+      <c r="RU1" s="0"/>
+      <c r="RV1" s="0"/>
+      <c r="RW1" s="0"/>
+      <c r="RX1" s="0"/>
+      <c r="RY1" s="0"/>
+      <c r="RZ1" s="0"/>
+      <c r="SA1" s="0"/>
+      <c r="SB1" s="0"/>
+      <c r="SC1" s="0"/>
+      <c r="SD1" s="0"/>
+      <c r="SE1" s="0"/>
+      <c r="SF1" s="0"/>
+      <c r="SG1" s="0"/>
+      <c r="SH1" s="0"/>
+      <c r="SI1" s="0"/>
+      <c r="SJ1" s="0"/>
+      <c r="SK1" s="0"/>
+      <c r="SL1" s="0"/>
+      <c r="SM1" s="0"/>
+      <c r="SN1" s="0"/>
+      <c r="SO1" s="0"/>
+      <c r="SP1" s="0"/>
+      <c r="SQ1" s="0"/>
+      <c r="SR1" s="0"/>
+      <c r="SS1" s="0"/>
+      <c r="ST1" s="0"/>
+      <c r="SU1" s="0"/>
+      <c r="SV1" s="0"/>
+      <c r="SW1" s="0"/>
+      <c r="SX1" s="0"/>
+      <c r="SY1" s="0"/>
+      <c r="SZ1" s="0"/>
+      <c r="TA1" s="0"/>
+      <c r="TB1" s="0"/>
+      <c r="TC1" s="0"/>
+      <c r="TD1" s="0"/>
+      <c r="TE1" s="0"/>
+      <c r="TF1" s="0"/>
+      <c r="TG1" s="0"/>
+      <c r="TH1" s="0"/>
+      <c r="TI1" s="0"/>
+      <c r="TJ1" s="0"/>
+      <c r="TK1" s="0"/>
+      <c r="TL1" s="0"/>
+      <c r="TM1" s="0"/>
+      <c r="TN1" s="0"/>
+      <c r="TO1" s="0"/>
+      <c r="TP1" s="0"/>
+      <c r="TQ1" s="0"/>
+      <c r="TR1" s="0"/>
+      <c r="TS1" s="0"/>
+      <c r="TT1" s="0"/>
+      <c r="TU1" s="0"/>
+      <c r="TV1" s="0"/>
+      <c r="TW1" s="0"/>
+      <c r="TX1" s="0"/>
+      <c r="TY1" s="0"/>
+      <c r="TZ1" s="0"/>
+      <c r="UA1" s="0"/>
+      <c r="UB1" s="0"/>
+      <c r="UC1" s="0"/>
+      <c r="UD1" s="0"/>
+      <c r="UE1" s="0"/>
+      <c r="UF1" s="0"/>
+      <c r="UG1" s="0"/>
+      <c r="UH1" s="0"/>
+      <c r="UI1" s="0"/>
+      <c r="UJ1" s="0"/>
+      <c r="UK1" s="0"/>
+      <c r="UL1" s="0"/>
+      <c r="UM1" s="0"/>
+      <c r="UN1" s="0"/>
+      <c r="UO1" s="0"/>
+      <c r="UP1" s="0"/>
+      <c r="UQ1" s="0"/>
+      <c r="UR1" s="0"/>
+      <c r="US1" s="0"/>
+      <c r="UT1" s="0"/>
+      <c r="UU1" s="0"/>
+      <c r="UV1" s="0"/>
+      <c r="UW1" s="0"/>
+      <c r="UX1" s="0"/>
+      <c r="UY1" s="0"/>
+      <c r="UZ1" s="0"/>
+      <c r="VA1" s="0"/>
+      <c r="VB1" s="0"/>
+      <c r="VC1" s="0"/>
+      <c r="VD1" s="0"/>
+      <c r="VE1" s="0"/>
+      <c r="VF1" s="0"/>
+      <c r="VG1" s="0"/>
+      <c r="VH1" s="0"/>
+      <c r="VI1" s="0"/>
+      <c r="VJ1" s="0"/>
+      <c r="VK1" s="0"/>
+      <c r="VL1" s="0"/>
+      <c r="VM1" s="0"/>
+      <c r="VN1" s="0"/>
+      <c r="VO1" s="0"/>
+      <c r="VP1" s="0"/>
+      <c r="VQ1" s="0"/>
+      <c r="VR1" s="0"/>
+      <c r="VS1" s="0"/>
+      <c r="VT1" s="0"/>
+      <c r="VU1" s="0"/>
+      <c r="VV1" s="0"/>
+      <c r="VW1" s="0"/>
+      <c r="VX1" s="0"/>
+      <c r="VY1" s="0"/>
+      <c r="VZ1" s="0"/>
+      <c r="WA1" s="0"/>
+      <c r="WB1" s="0"/>
+      <c r="WC1" s="0"/>
+      <c r="WD1" s="0"/>
+      <c r="WE1" s="0"/>
+      <c r="WF1" s="0"/>
+      <c r="WG1" s="0"/>
+      <c r="WH1" s="0"/>
+      <c r="WI1" s="0"/>
+      <c r="WJ1" s="0"/>
+      <c r="WK1" s="0"/>
+      <c r="WL1" s="0"/>
+      <c r="WM1" s="0"/>
+      <c r="WN1" s="0"/>
+      <c r="WO1" s="0"/>
+      <c r="WP1" s="0"/>
+      <c r="WQ1" s="0"/>
+      <c r="WR1" s="0"/>
+      <c r="WS1" s="0"/>
+      <c r="WT1" s="0"/>
+      <c r="WU1" s="0"/>
+      <c r="WV1" s="0"/>
+      <c r="WW1" s="0"/>
+      <c r="WX1" s="0"/>
+      <c r="WY1" s="0"/>
+      <c r="WZ1" s="0"/>
+      <c r="XA1" s="0"/>
+      <c r="XB1" s="0"/>
+      <c r="XC1" s="0"/>
+      <c r="XD1" s="0"/>
+      <c r="XE1" s="0"/>
+      <c r="XF1" s="0"/>
+      <c r="XG1" s="0"/>
+      <c r="XH1" s="0"/>
+      <c r="XI1" s="0"/>
+      <c r="XJ1" s="0"/>
+      <c r="XK1" s="0"/>
+      <c r="XL1" s="0"/>
+      <c r="XM1" s="0"/>
+      <c r="XN1" s="0"/>
+      <c r="XO1" s="0"/>
+      <c r="XP1" s="0"/>
+      <c r="XQ1" s="0"/>
+      <c r="XR1" s="0"/>
+      <c r="XS1" s="0"/>
+      <c r="XT1" s="0"/>
+      <c r="XU1" s="0"/>
+      <c r="XV1" s="0"/>
+      <c r="XW1" s="0"/>
+      <c r="XX1" s="0"/>
+      <c r="XY1" s="0"/>
+      <c r="XZ1" s="0"/>
+      <c r="YA1" s="0"/>
+      <c r="YB1" s="0"/>
+      <c r="YC1" s="0"/>
+      <c r="YD1" s="0"/>
+      <c r="YE1" s="0"/>
+      <c r="YF1" s="0"/>
+      <c r="YG1" s="0"/>
+      <c r="YH1" s="0"/>
+      <c r="YI1" s="0"/>
+      <c r="YJ1" s="0"/>
+      <c r="YK1" s="0"/>
+      <c r="YL1" s="0"/>
+      <c r="YM1" s="0"/>
+      <c r="YN1" s="0"/>
+      <c r="YO1" s="0"/>
+      <c r="YP1" s="0"/>
+      <c r="YQ1" s="0"/>
+      <c r="YR1" s="0"/>
+      <c r="YS1" s="0"/>
+      <c r="YT1" s="0"/>
+      <c r="YU1" s="0"/>
+      <c r="YV1" s="0"/>
+      <c r="YW1" s="0"/>
+      <c r="YX1" s="0"/>
+      <c r="YY1" s="0"/>
+      <c r="YZ1" s="0"/>
+      <c r="ZA1" s="0"/>
+      <c r="ZB1" s="0"/>
+      <c r="ZC1" s="0"/>
+      <c r="ZD1" s="0"/>
+      <c r="ZE1" s="0"/>
+      <c r="ZF1" s="0"/>
+      <c r="ZG1" s="0"/>
+      <c r="ZH1" s="0"/>
+      <c r="ZI1" s="0"/>
+      <c r="ZJ1" s="0"/>
+      <c r="ZK1" s="0"/>
+      <c r="ZL1" s="0"/>
+      <c r="ZM1" s="0"/>
+      <c r="ZN1" s="0"/>
+      <c r="ZO1" s="0"/>
+      <c r="ZP1" s="0"/>
+      <c r="ZQ1" s="0"/>
+      <c r="ZR1" s="0"/>
+      <c r="ZS1" s="0"/>
+      <c r="ZT1" s="0"/>
+      <c r="ZU1" s="0"/>
+      <c r="ZV1" s="0"/>
+      <c r="ZW1" s="0"/>
+      <c r="ZX1" s="0"/>
+      <c r="ZY1" s="0"/>
+      <c r="ZZ1" s="0"/>
+      <c r="AAA1" s="0"/>
+      <c r="AAB1" s="0"/>
+      <c r="AAC1" s="0"/>
+      <c r="AAD1" s="0"/>
+      <c r="AAE1" s="0"/>
+      <c r="AAF1" s="0"/>
+      <c r="AAG1" s="0"/>
+      <c r="AAH1" s="0"/>
+      <c r="AAI1" s="0"/>
+      <c r="AAJ1" s="0"/>
+      <c r="AAK1" s="0"/>
+      <c r="AAL1" s="0"/>
+      <c r="AAM1" s="0"/>
+      <c r="AAN1" s="0"/>
+      <c r="AAO1" s="0"/>
+      <c r="AAP1" s="0"/>
+      <c r="AAQ1" s="0"/>
+      <c r="AAR1" s="0"/>
+      <c r="AAS1" s="0"/>
+      <c r="AAT1" s="0"/>
+      <c r="AAU1" s="0"/>
+      <c r="AAV1" s="0"/>
+      <c r="AAW1" s="0"/>
+      <c r="AAX1" s="0"/>
+      <c r="AAY1" s="0"/>
+      <c r="AAZ1" s="0"/>
+      <c r="ABA1" s="0"/>
+      <c r="ABB1" s="0"/>
+      <c r="ABC1" s="0"/>
+      <c r="ABD1" s="0"/>
+      <c r="ABE1" s="0"/>
+      <c r="ABF1" s="0"/>
+      <c r="ABG1" s="0"/>
+      <c r="ABH1" s="0"/>
+      <c r="ABI1" s="0"/>
+      <c r="ABJ1" s="0"/>
+      <c r="ABK1" s="0"/>
+      <c r="ABL1" s="0"/>
+      <c r="ABM1" s="0"/>
+      <c r="ABN1" s="0"/>
+      <c r="ABO1" s="0"/>
+      <c r="ABP1" s="0"/>
+      <c r="ABQ1" s="0"/>
+      <c r="ABR1" s="0"/>
+      <c r="ABS1" s="0"/>
+      <c r="ABT1" s="0"/>
+      <c r="ABU1" s="0"/>
+      <c r="ABV1" s="0"/>
+      <c r="ABW1" s="0"/>
+      <c r="ABX1" s="0"/>
+      <c r="ABY1" s="0"/>
+      <c r="ABZ1" s="0"/>
+      <c r="ACA1" s="0"/>
+      <c r="ACB1" s="0"/>
+      <c r="ACC1" s="0"/>
+      <c r="ACD1" s="0"/>
+      <c r="ACE1" s="0"/>
+      <c r="ACF1" s="0"/>
+      <c r="ACG1" s="0"/>
+      <c r="ACH1" s="0"/>
+      <c r="ACI1" s="0"/>
+      <c r="ACJ1" s="0"/>
+      <c r="ACK1" s="0"/>
+      <c r="ACL1" s="0"/>
+      <c r="ACM1" s="0"/>
+      <c r="ACN1" s="0"/>
+      <c r="ACO1" s="0"/>
+      <c r="ACP1" s="0"/>
+      <c r="ACQ1" s="0"/>
+      <c r="ACR1" s="0"/>
+      <c r="ACS1" s="0"/>
+      <c r="ACT1" s="0"/>
+      <c r="ACU1" s="0"/>
+      <c r="ACV1" s="0"/>
+      <c r="ACW1" s="0"/>
+      <c r="ACX1" s="0"/>
+      <c r="ACY1" s="0"/>
+      <c r="ACZ1" s="0"/>
+      <c r="ADA1" s="0"/>
+      <c r="ADB1" s="0"/>
+      <c r="ADC1" s="0"/>
+      <c r="ADD1" s="0"/>
+      <c r="ADE1" s="0"/>
+      <c r="ADF1" s="0"/>
+      <c r="ADG1" s="0"/>
+      <c r="ADH1" s="0"/>
+      <c r="ADI1" s="0"/>
+      <c r="ADJ1" s="0"/>
+      <c r="ADK1" s="0"/>
+      <c r="ADL1" s="0"/>
+      <c r="ADM1" s="0"/>
+      <c r="ADN1" s="0"/>
+      <c r="ADO1" s="0"/>
+      <c r="ADP1" s="0"/>
+      <c r="ADQ1" s="0"/>
+      <c r="ADR1" s="0"/>
+      <c r="ADS1" s="0"/>
+      <c r="ADT1" s="0"/>
+      <c r="ADU1" s="0"/>
+      <c r="ADV1" s="0"/>
+      <c r="ADW1" s="0"/>
+      <c r="ADX1" s="0"/>
+      <c r="ADY1" s="0"/>
+      <c r="ADZ1" s="0"/>
+      <c r="AEA1" s="0"/>
+      <c r="AEB1" s="0"/>
+      <c r="AEC1" s="0"/>
+      <c r="AED1" s="0"/>
+      <c r="AEE1" s="0"/>
+      <c r="AEF1" s="0"/>
+      <c r="AEG1" s="0"/>
+      <c r="AEH1" s="0"/>
+      <c r="AEI1" s="0"/>
+      <c r="AEJ1" s="0"/>
+      <c r="AEK1" s="0"/>
+      <c r="AEL1" s="0"/>
+      <c r="AEM1" s="0"/>
+      <c r="AEN1" s="0"/>
+      <c r="AEO1" s="0"/>
+      <c r="AEP1" s="0"/>
+      <c r="AEQ1" s="0"/>
+      <c r="AER1" s="0"/>
+      <c r="AES1" s="0"/>
+      <c r="AET1" s="0"/>
+      <c r="AEU1" s="0"/>
+      <c r="AEV1" s="0"/>
+      <c r="AEW1" s="0"/>
+      <c r="AEX1" s="0"/>
+      <c r="AEY1" s="0"/>
+      <c r="AEZ1" s="0"/>
+      <c r="AFA1" s="0"/>
+      <c r="AFB1" s="0"/>
+      <c r="AFC1" s="0"/>
+      <c r="AFD1" s="0"/>
+      <c r="AFE1" s="0"/>
+      <c r="AFF1" s="0"/>
+      <c r="AFG1" s="0"/>
+      <c r="AFH1" s="0"/>
+      <c r="AFI1" s="0"/>
+      <c r="AFJ1" s="0"/>
+      <c r="AFK1" s="0"/>
+      <c r="AFL1" s="0"/>
+      <c r="AFM1" s="0"/>
+      <c r="AFN1" s="0"/>
+      <c r="AFO1" s="0"/>
+      <c r="AFP1" s="0"/>
+      <c r="AFQ1" s="0"/>
+      <c r="AFR1" s="0"/>
+      <c r="AFS1" s="0"/>
+      <c r="AFT1" s="0"/>
+      <c r="AFU1" s="0"/>
+      <c r="AFV1" s="0"/>
+      <c r="AFW1" s="0"/>
+      <c r="AFX1" s="0"/>
+      <c r="AFY1" s="0"/>
+      <c r="AFZ1" s="0"/>
+      <c r="AGA1" s="0"/>
+      <c r="AGB1" s="0"/>
+      <c r="AGC1" s="0"/>
+      <c r="AGD1" s="0"/>
+      <c r="AGE1" s="0"/>
+      <c r="AGF1" s="0"/>
+      <c r="AGG1" s="0"/>
+      <c r="AGH1" s="0"/>
+      <c r="AGI1" s="0"/>
+      <c r="AGJ1" s="0"/>
+      <c r="AGK1" s="0"/>
+      <c r="AGL1" s="0"/>
+      <c r="AGM1" s="0"/>
+      <c r="AGN1" s="0"/>
+      <c r="AGO1" s="0"/>
+      <c r="AGP1" s="0"/>
+      <c r="AGQ1" s="0"/>
+      <c r="AGR1" s="0"/>
+      <c r="AGS1" s="0"/>
+      <c r="AGT1" s="0"/>
+      <c r="AGU1" s="0"/>
+      <c r="AGV1" s="0"/>
+      <c r="AGW1" s="0"/>
+      <c r="AGX1" s="0"/>
+      <c r="AGY1" s="0"/>
+      <c r="AGZ1" s="0"/>
+      <c r="AHA1" s="0"/>
+      <c r="AHB1" s="0"/>
+      <c r="AHC1" s="0"/>
+      <c r="AHD1" s="0"/>
+      <c r="AHE1" s="0"/>
+      <c r="AHF1" s="0"/>
+      <c r="AHG1" s="0"/>
+      <c r="AHH1" s="0"/>
+      <c r="AHI1" s="0"/>
+      <c r="AHJ1" s="0"/>
+      <c r="AHK1" s="0"/>
+      <c r="AHL1" s="0"/>
+      <c r="AHM1" s="0"/>
+      <c r="AHN1" s="0"/>
+      <c r="AHO1" s="0"/>
+      <c r="AHP1" s="0"/>
+      <c r="AHQ1" s="0"/>
+      <c r="AHR1" s="0"/>
+      <c r="AHS1" s="0"/>
+      <c r="AHT1" s="0"/>
+      <c r="AHU1" s="0"/>
+      <c r="AHV1" s="0"/>
+      <c r="AHW1" s="0"/>
+      <c r="AHX1" s="0"/>
+      <c r="AHY1" s="0"/>
+      <c r="AHZ1" s="0"/>
+      <c r="AIA1" s="0"/>
+      <c r="AIB1" s="0"/>
+      <c r="AIC1" s="0"/>
+      <c r="AID1" s="0"/>
+      <c r="AIE1" s="0"/>
+      <c r="AIF1" s="0"/>
+      <c r="AIG1" s="0"/>
+      <c r="AIH1" s="0"/>
+      <c r="AII1" s="0"/>
+      <c r="AIJ1" s="0"/>
+      <c r="AIK1" s="0"/>
+      <c r="AIL1" s="0"/>
+      <c r="AIM1" s="0"/>
+      <c r="AIN1" s="0"/>
+      <c r="AIO1" s="0"/>
+      <c r="AIP1" s="0"/>
+      <c r="AIQ1" s="0"/>
+      <c r="AIR1" s="0"/>
+      <c r="AIS1" s="0"/>
+      <c r="AIT1" s="0"/>
+      <c r="AIU1" s="0"/>
+      <c r="AIV1" s="0"/>
+      <c r="AIW1" s="0"/>
+      <c r="AIX1" s="0"/>
+      <c r="AIY1" s="0"/>
+      <c r="AIZ1" s="0"/>
+      <c r="AJA1" s="0"/>
+      <c r="AJB1" s="0"/>
+      <c r="AJC1" s="0"/>
+      <c r="AJD1" s="0"/>
+      <c r="AJE1" s="0"/>
+      <c r="AJF1" s="0"/>
+      <c r="AJG1" s="0"/>
+      <c r="AJH1" s="0"/>
+      <c r="AJI1" s="0"/>
+      <c r="AJJ1" s="0"/>
+      <c r="AJK1" s="0"/>
+      <c r="AJL1" s="0"/>
+      <c r="AJM1" s="0"/>
+      <c r="AJN1" s="0"/>
+      <c r="AJO1" s="0"/>
+      <c r="AJP1" s="0"/>
+      <c r="AJQ1" s="0"/>
+      <c r="AJR1" s="0"/>
+      <c r="AJS1" s="0"/>
+      <c r="AJT1" s="0"/>
+      <c r="AJU1" s="0"/>
+      <c r="AJV1" s="0"/>
+      <c r="AJW1" s="0"/>
+      <c r="AJX1" s="0"/>
+      <c r="AJY1" s="0"/>
+      <c r="AJZ1" s="0"/>
+      <c r="AKA1" s="0"/>
+      <c r="AKB1" s="0"/>
+      <c r="AKC1" s="0"/>
+      <c r="AKD1" s="0"/>
+      <c r="AKE1" s="0"/>
+      <c r="AKF1" s="0"/>
+      <c r="AKG1" s="0"/>
+      <c r="AKH1" s="0"/>
+      <c r="AKI1" s="0"/>
+      <c r="AKJ1" s="0"/>
+      <c r="AKK1" s="0"/>
+      <c r="AKL1" s="0"/>
+      <c r="AKM1" s="0"/>
+      <c r="AKN1" s="0"/>
+      <c r="AKO1" s="0"/>
+      <c r="AKP1" s="0"/>
+      <c r="AKQ1" s="0"/>
+      <c r="AKR1" s="0"/>
+      <c r="AKS1" s="0"/>
+      <c r="AKT1" s="0"/>
+      <c r="AKU1" s="0"/>
+      <c r="AKV1" s="0"/>
+      <c r="AKW1" s="0"/>
+      <c r="AKX1" s="0"/>
+      <c r="AKY1" s="0"/>
+      <c r="AKZ1" s="0"/>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -7554,6 +9568,1014 @@
         <f aca="false">P5/P6</f>
         <v>0</v>
       </c>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -7743,8 +10765,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8080,10 +11102,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8390,8 +11412,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8743,10 +11765,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9054,9 +12076,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9370,10 +12392,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9685,9 +12707,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9985,9 +13007,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10301,7 +13323,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -10309,10 +13331,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10364,6 +13386,1014 @@
       <c r="P1" s="2" t="n">
         <v>2014</v>
       </c>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0"/>
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0"/>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
+      <c r="BE1" s="0"/>
+      <c r="BF1" s="0"/>
+      <c r="BG1" s="0"/>
+      <c r="BH1" s="0"/>
+      <c r="BI1" s="0"/>
+      <c r="BJ1" s="0"/>
+      <c r="BK1" s="0"/>
+      <c r="BL1" s="0"/>
+      <c r="BM1" s="0"/>
+      <c r="BN1" s="0"/>
+      <c r="BO1" s="0"/>
+      <c r="BP1" s="0"/>
+      <c r="BQ1" s="0"/>
+      <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
+      <c r="BT1" s="0"/>
+      <c r="BU1" s="0"/>
+      <c r="BV1" s="0"/>
+      <c r="BW1" s="0"/>
+      <c r="BX1" s="0"/>
+      <c r="BY1" s="0"/>
+      <c r="BZ1" s="0"/>
+      <c r="CA1" s="0"/>
+      <c r="CB1" s="0"/>
+      <c r="CC1" s="0"/>
+      <c r="CD1" s="0"/>
+      <c r="CE1" s="0"/>
+      <c r="CF1" s="0"/>
+      <c r="CG1" s="0"/>
+      <c r="CH1" s="0"/>
+      <c r="CI1" s="0"/>
+      <c r="CJ1" s="0"/>
+      <c r="CK1" s="0"/>
+      <c r="CL1" s="0"/>
+      <c r="CM1" s="0"/>
+      <c r="CN1" s="0"/>
+      <c r="CO1" s="0"/>
+      <c r="CP1" s="0"/>
+      <c r="CQ1" s="0"/>
+      <c r="CR1" s="0"/>
+      <c r="CS1" s="0"/>
+      <c r="CT1" s="0"/>
+      <c r="CU1" s="0"/>
+      <c r="CV1" s="0"/>
+      <c r="CW1" s="0"/>
+      <c r="CX1" s="0"/>
+      <c r="CY1" s="0"/>
+      <c r="CZ1" s="0"/>
+      <c r="DA1" s="0"/>
+      <c r="DB1" s="0"/>
+      <c r="DC1" s="0"/>
+      <c r="DD1" s="0"/>
+      <c r="DE1" s="0"/>
+      <c r="DF1" s="0"/>
+      <c r="DG1" s="0"/>
+      <c r="DH1" s="0"/>
+      <c r="DI1" s="0"/>
+      <c r="DJ1" s="0"/>
+      <c r="DK1" s="0"/>
+      <c r="DL1" s="0"/>
+      <c r="DM1" s="0"/>
+      <c r="DN1" s="0"/>
+      <c r="DO1" s="0"/>
+      <c r="DP1" s="0"/>
+      <c r="DQ1" s="0"/>
+      <c r="DR1" s="0"/>
+      <c r="DS1" s="0"/>
+      <c r="DT1" s="0"/>
+      <c r="DU1" s="0"/>
+      <c r="DV1" s="0"/>
+      <c r="DW1" s="0"/>
+      <c r="DX1" s="0"/>
+      <c r="DY1" s="0"/>
+      <c r="DZ1" s="0"/>
+      <c r="EA1" s="0"/>
+      <c r="EB1" s="0"/>
+      <c r="EC1" s="0"/>
+      <c r="ED1" s="0"/>
+      <c r="EE1" s="0"/>
+      <c r="EF1" s="0"/>
+      <c r="EG1" s="0"/>
+      <c r="EH1" s="0"/>
+      <c r="EI1" s="0"/>
+      <c r="EJ1" s="0"/>
+      <c r="EK1" s="0"/>
+      <c r="EL1" s="0"/>
+      <c r="EM1" s="0"/>
+      <c r="EN1" s="0"/>
+      <c r="EO1" s="0"/>
+      <c r="EP1" s="0"/>
+      <c r="EQ1" s="0"/>
+      <c r="ER1" s="0"/>
+      <c r="ES1" s="0"/>
+      <c r="ET1" s="0"/>
+      <c r="EU1" s="0"/>
+      <c r="EV1" s="0"/>
+      <c r="EW1" s="0"/>
+      <c r="EX1" s="0"/>
+      <c r="EY1" s="0"/>
+      <c r="EZ1" s="0"/>
+      <c r="FA1" s="0"/>
+      <c r="FB1" s="0"/>
+      <c r="FC1" s="0"/>
+      <c r="FD1" s="0"/>
+      <c r="FE1" s="0"/>
+      <c r="FF1" s="0"/>
+      <c r="FG1" s="0"/>
+      <c r="FH1" s="0"/>
+      <c r="FI1" s="0"/>
+      <c r="FJ1" s="0"/>
+      <c r="FK1" s="0"/>
+      <c r="FL1" s="0"/>
+      <c r="FM1" s="0"/>
+      <c r="FN1" s="0"/>
+      <c r="FO1" s="0"/>
+      <c r="FP1" s="0"/>
+      <c r="FQ1" s="0"/>
+      <c r="FR1" s="0"/>
+      <c r="FS1" s="0"/>
+      <c r="FT1" s="0"/>
+      <c r="FU1" s="0"/>
+      <c r="FV1" s="0"/>
+      <c r="FW1" s="0"/>
+      <c r="FX1" s="0"/>
+      <c r="FY1" s="0"/>
+      <c r="FZ1" s="0"/>
+      <c r="GA1" s="0"/>
+      <c r="GB1" s="0"/>
+      <c r="GC1" s="0"/>
+      <c r="GD1" s="0"/>
+      <c r="GE1" s="0"/>
+      <c r="GF1" s="0"/>
+      <c r="GG1" s="0"/>
+      <c r="GH1" s="0"/>
+      <c r="GI1" s="0"/>
+      <c r="GJ1" s="0"/>
+      <c r="GK1" s="0"/>
+      <c r="GL1" s="0"/>
+      <c r="GM1" s="0"/>
+      <c r="GN1" s="0"/>
+      <c r="GO1" s="0"/>
+      <c r="GP1" s="0"/>
+      <c r="GQ1" s="0"/>
+      <c r="GR1" s="0"/>
+      <c r="GS1" s="0"/>
+      <c r="GT1" s="0"/>
+      <c r="GU1" s="0"/>
+      <c r="GV1" s="0"/>
+      <c r="GW1" s="0"/>
+      <c r="GX1" s="0"/>
+      <c r="GY1" s="0"/>
+      <c r="GZ1" s="0"/>
+      <c r="HA1" s="0"/>
+      <c r="HB1" s="0"/>
+      <c r="HC1" s="0"/>
+      <c r="HD1" s="0"/>
+      <c r="HE1" s="0"/>
+      <c r="HF1" s="0"/>
+      <c r="HG1" s="0"/>
+      <c r="HH1" s="0"/>
+      <c r="HI1" s="0"/>
+      <c r="HJ1" s="0"/>
+      <c r="HK1" s="0"/>
+      <c r="HL1" s="0"/>
+      <c r="HM1" s="0"/>
+      <c r="HN1" s="0"/>
+      <c r="HO1" s="0"/>
+      <c r="HP1" s="0"/>
+      <c r="HQ1" s="0"/>
+      <c r="HR1" s="0"/>
+      <c r="HS1" s="0"/>
+      <c r="HT1" s="0"/>
+      <c r="HU1" s="0"/>
+      <c r="HV1" s="0"/>
+      <c r="HW1" s="0"/>
+      <c r="HX1" s="0"/>
+      <c r="HY1" s="0"/>
+      <c r="HZ1" s="0"/>
+      <c r="IA1" s="0"/>
+      <c r="IB1" s="0"/>
+      <c r="IC1" s="0"/>
+      <c r="ID1" s="0"/>
+      <c r="IE1" s="0"/>
+      <c r="IF1" s="0"/>
+      <c r="IG1" s="0"/>
+      <c r="IH1" s="0"/>
+      <c r="II1" s="0"/>
+      <c r="IJ1" s="0"/>
+      <c r="IK1" s="0"/>
+      <c r="IL1" s="0"/>
+      <c r="IM1" s="0"/>
+      <c r="IN1" s="0"/>
+      <c r="IO1" s="0"/>
+      <c r="IP1" s="0"/>
+      <c r="IQ1" s="0"/>
+      <c r="IR1" s="0"/>
+      <c r="IS1" s="0"/>
+      <c r="IT1" s="0"/>
+      <c r="IU1" s="0"/>
+      <c r="IV1" s="0"/>
+      <c r="IW1" s="0"/>
+      <c r="IX1" s="0"/>
+      <c r="IY1" s="0"/>
+      <c r="IZ1" s="0"/>
+      <c r="JA1" s="0"/>
+      <c r="JB1" s="0"/>
+      <c r="JC1" s="0"/>
+      <c r="JD1" s="0"/>
+      <c r="JE1" s="0"/>
+      <c r="JF1" s="0"/>
+      <c r="JG1" s="0"/>
+      <c r="JH1" s="0"/>
+      <c r="JI1" s="0"/>
+      <c r="JJ1" s="0"/>
+      <c r="JK1" s="0"/>
+      <c r="JL1" s="0"/>
+      <c r="JM1" s="0"/>
+      <c r="JN1" s="0"/>
+      <c r="JO1" s="0"/>
+      <c r="JP1" s="0"/>
+      <c r="JQ1" s="0"/>
+      <c r="JR1" s="0"/>
+      <c r="JS1" s="0"/>
+      <c r="JT1" s="0"/>
+      <c r="JU1" s="0"/>
+      <c r="JV1" s="0"/>
+      <c r="JW1" s="0"/>
+      <c r="JX1" s="0"/>
+      <c r="JY1" s="0"/>
+      <c r="JZ1" s="0"/>
+      <c r="KA1" s="0"/>
+      <c r="KB1" s="0"/>
+      <c r="KC1" s="0"/>
+      <c r="KD1" s="0"/>
+      <c r="KE1" s="0"/>
+      <c r="KF1" s="0"/>
+      <c r="KG1" s="0"/>
+      <c r="KH1" s="0"/>
+      <c r="KI1" s="0"/>
+      <c r="KJ1" s="0"/>
+      <c r="KK1" s="0"/>
+      <c r="KL1" s="0"/>
+      <c r="KM1" s="0"/>
+      <c r="KN1" s="0"/>
+      <c r="KO1" s="0"/>
+      <c r="KP1" s="0"/>
+      <c r="KQ1" s="0"/>
+      <c r="KR1" s="0"/>
+      <c r="KS1" s="0"/>
+      <c r="KT1" s="0"/>
+      <c r="KU1" s="0"/>
+      <c r="KV1" s="0"/>
+      <c r="KW1" s="0"/>
+      <c r="KX1" s="0"/>
+      <c r="KY1" s="0"/>
+      <c r="KZ1" s="0"/>
+      <c r="LA1" s="0"/>
+      <c r="LB1" s="0"/>
+      <c r="LC1" s="0"/>
+      <c r="LD1" s="0"/>
+      <c r="LE1" s="0"/>
+      <c r="LF1" s="0"/>
+      <c r="LG1" s="0"/>
+      <c r="LH1" s="0"/>
+      <c r="LI1" s="0"/>
+      <c r="LJ1" s="0"/>
+      <c r="LK1" s="0"/>
+      <c r="LL1" s="0"/>
+      <c r="LM1" s="0"/>
+      <c r="LN1" s="0"/>
+      <c r="LO1" s="0"/>
+      <c r="LP1" s="0"/>
+      <c r="LQ1" s="0"/>
+      <c r="LR1" s="0"/>
+      <c r="LS1" s="0"/>
+      <c r="LT1" s="0"/>
+      <c r="LU1" s="0"/>
+      <c r="LV1" s="0"/>
+      <c r="LW1" s="0"/>
+      <c r="LX1" s="0"/>
+      <c r="LY1" s="0"/>
+      <c r="LZ1" s="0"/>
+      <c r="MA1" s="0"/>
+      <c r="MB1" s="0"/>
+      <c r="MC1" s="0"/>
+      <c r="MD1" s="0"/>
+      <c r="ME1" s="0"/>
+      <c r="MF1" s="0"/>
+      <c r="MG1" s="0"/>
+      <c r="MH1" s="0"/>
+      <c r="MI1" s="0"/>
+      <c r="MJ1" s="0"/>
+      <c r="MK1" s="0"/>
+      <c r="ML1" s="0"/>
+      <c r="MM1" s="0"/>
+      <c r="MN1" s="0"/>
+      <c r="MO1" s="0"/>
+      <c r="MP1" s="0"/>
+      <c r="MQ1" s="0"/>
+      <c r="MR1" s="0"/>
+      <c r="MS1" s="0"/>
+      <c r="MT1" s="0"/>
+      <c r="MU1" s="0"/>
+      <c r="MV1" s="0"/>
+      <c r="MW1" s="0"/>
+      <c r="MX1" s="0"/>
+      <c r="MY1" s="0"/>
+      <c r="MZ1" s="0"/>
+      <c r="NA1" s="0"/>
+      <c r="NB1" s="0"/>
+      <c r="NC1" s="0"/>
+      <c r="ND1" s="0"/>
+      <c r="NE1" s="0"/>
+      <c r="NF1" s="0"/>
+      <c r="NG1" s="0"/>
+      <c r="NH1" s="0"/>
+      <c r="NI1" s="0"/>
+      <c r="NJ1" s="0"/>
+      <c r="NK1" s="0"/>
+      <c r="NL1" s="0"/>
+      <c r="NM1" s="0"/>
+      <c r="NN1" s="0"/>
+      <c r="NO1" s="0"/>
+      <c r="NP1" s="0"/>
+      <c r="NQ1" s="0"/>
+      <c r="NR1" s="0"/>
+      <c r="NS1" s="0"/>
+      <c r="NT1" s="0"/>
+      <c r="NU1" s="0"/>
+      <c r="NV1" s="0"/>
+      <c r="NW1" s="0"/>
+      <c r="NX1" s="0"/>
+      <c r="NY1" s="0"/>
+      <c r="NZ1" s="0"/>
+      <c r="OA1" s="0"/>
+      <c r="OB1" s="0"/>
+      <c r="OC1" s="0"/>
+      <c r="OD1" s="0"/>
+      <c r="OE1" s="0"/>
+      <c r="OF1" s="0"/>
+      <c r="OG1" s="0"/>
+      <c r="OH1" s="0"/>
+      <c r="OI1" s="0"/>
+      <c r="OJ1" s="0"/>
+      <c r="OK1" s="0"/>
+      <c r="OL1" s="0"/>
+      <c r="OM1" s="0"/>
+      <c r="ON1" s="0"/>
+      <c r="OO1" s="0"/>
+      <c r="OP1" s="0"/>
+      <c r="OQ1" s="0"/>
+      <c r="OR1" s="0"/>
+      <c r="OS1" s="0"/>
+      <c r="OT1" s="0"/>
+      <c r="OU1" s="0"/>
+      <c r="OV1" s="0"/>
+      <c r="OW1" s="0"/>
+      <c r="OX1" s="0"/>
+      <c r="OY1" s="0"/>
+      <c r="OZ1" s="0"/>
+      <c r="PA1" s="0"/>
+      <c r="PB1" s="0"/>
+      <c r="PC1" s="0"/>
+      <c r="PD1" s="0"/>
+      <c r="PE1" s="0"/>
+      <c r="PF1" s="0"/>
+      <c r="PG1" s="0"/>
+      <c r="PH1" s="0"/>
+      <c r="PI1" s="0"/>
+      <c r="PJ1" s="0"/>
+      <c r="PK1" s="0"/>
+      <c r="PL1" s="0"/>
+      <c r="PM1" s="0"/>
+      <c r="PN1" s="0"/>
+      <c r="PO1" s="0"/>
+      <c r="PP1" s="0"/>
+      <c r="PQ1" s="0"/>
+      <c r="PR1" s="0"/>
+      <c r="PS1" s="0"/>
+      <c r="PT1" s="0"/>
+      <c r="PU1" s="0"/>
+      <c r="PV1" s="0"/>
+      <c r="PW1" s="0"/>
+      <c r="PX1" s="0"/>
+      <c r="PY1" s="0"/>
+      <c r="PZ1" s="0"/>
+      <c r="QA1" s="0"/>
+      <c r="QB1" s="0"/>
+      <c r="QC1" s="0"/>
+      <c r="QD1" s="0"/>
+      <c r="QE1" s="0"/>
+      <c r="QF1" s="0"/>
+      <c r="QG1" s="0"/>
+      <c r="QH1" s="0"/>
+      <c r="QI1" s="0"/>
+      <c r="QJ1" s="0"/>
+      <c r="QK1" s="0"/>
+      <c r="QL1" s="0"/>
+      <c r="QM1" s="0"/>
+      <c r="QN1" s="0"/>
+      <c r="QO1" s="0"/>
+      <c r="QP1" s="0"/>
+      <c r="QQ1" s="0"/>
+      <c r="QR1" s="0"/>
+      <c r="QS1" s="0"/>
+      <c r="QT1" s="0"/>
+      <c r="QU1" s="0"/>
+      <c r="QV1" s="0"/>
+      <c r="QW1" s="0"/>
+      <c r="QX1" s="0"/>
+      <c r="QY1" s="0"/>
+      <c r="QZ1" s="0"/>
+      <c r="RA1" s="0"/>
+      <c r="RB1" s="0"/>
+      <c r="RC1" s="0"/>
+      <c r="RD1" s="0"/>
+      <c r="RE1" s="0"/>
+      <c r="RF1" s="0"/>
+      <c r="RG1" s="0"/>
+      <c r="RH1" s="0"/>
+      <c r="RI1" s="0"/>
+      <c r="RJ1" s="0"/>
+      <c r="RK1" s="0"/>
+      <c r="RL1" s="0"/>
+      <c r="RM1" s="0"/>
+      <c r="RN1" s="0"/>
+      <c r="RO1" s="0"/>
+      <c r="RP1" s="0"/>
+      <c r="RQ1" s="0"/>
+      <c r="RR1" s="0"/>
+      <c r="RS1" s="0"/>
+      <c r="RT1" s="0"/>
+      <c r="RU1" s="0"/>
+      <c r="RV1" s="0"/>
+      <c r="RW1" s="0"/>
+      <c r="RX1" s="0"/>
+      <c r="RY1" s="0"/>
+      <c r="RZ1" s="0"/>
+      <c r="SA1" s="0"/>
+      <c r="SB1" s="0"/>
+      <c r="SC1" s="0"/>
+      <c r="SD1" s="0"/>
+      <c r="SE1" s="0"/>
+      <c r="SF1" s="0"/>
+      <c r="SG1" s="0"/>
+      <c r="SH1" s="0"/>
+      <c r="SI1" s="0"/>
+      <c r="SJ1" s="0"/>
+      <c r="SK1" s="0"/>
+      <c r="SL1" s="0"/>
+      <c r="SM1" s="0"/>
+      <c r="SN1" s="0"/>
+      <c r="SO1" s="0"/>
+      <c r="SP1" s="0"/>
+      <c r="SQ1" s="0"/>
+      <c r="SR1" s="0"/>
+      <c r="SS1" s="0"/>
+      <c r="ST1" s="0"/>
+      <c r="SU1" s="0"/>
+      <c r="SV1" s="0"/>
+      <c r="SW1" s="0"/>
+      <c r="SX1" s="0"/>
+      <c r="SY1" s="0"/>
+      <c r="SZ1" s="0"/>
+      <c r="TA1" s="0"/>
+      <c r="TB1" s="0"/>
+      <c r="TC1" s="0"/>
+      <c r="TD1" s="0"/>
+      <c r="TE1" s="0"/>
+      <c r="TF1" s="0"/>
+      <c r="TG1" s="0"/>
+      <c r="TH1" s="0"/>
+      <c r="TI1" s="0"/>
+      <c r="TJ1" s="0"/>
+      <c r="TK1" s="0"/>
+      <c r="TL1" s="0"/>
+      <c r="TM1" s="0"/>
+      <c r="TN1" s="0"/>
+      <c r="TO1" s="0"/>
+      <c r="TP1" s="0"/>
+      <c r="TQ1" s="0"/>
+      <c r="TR1" s="0"/>
+      <c r="TS1" s="0"/>
+      <c r="TT1" s="0"/>
+      <c r="TU1" s="0"/>
+      <c r="TV1" s="0"/>
+      <c r="TW1" s="0"/>
+      <c r="TX1" s="0"/>
+      <c r="TY1" s="0"/>
+      <c r="TZ1" s="0"/>
+      <c r="UA1" s="0"/>
+      <c r="UB1" s="0"/>
+      <c r="UC1" s="0"/>
+      <c r="UD1" s="0"/>
+      <c r="UE1" s="0"/>
+      <c r="UF1" s="0"/>
+      <c r="UG1" s="0"/>
+      <c r="UH1" s="0"/>
+      <c r="UI1" s="0"/>
+      <c r="UJ1" s="0"/>
+      <c r="UK1" s="0"/>
+      <c r="UL1" s="0"/>
+      <c r="UM1" s="0"/>
+      <c r="UN1" s="0"/>
+      <c r="UO1" s="0"/>
+      <c r="UP1" s="0"/>
+      <c r="UQ1" s="0"/>
+      <c r="UR1" s="0"/>
+      <c r="US1" s="0"/>
+      <c r="UT1" s="0"/>
+      <c r="UU1" s="0"/>
+      <c r="UV1" s="0"/>
+      <c r="UW1" s="0"/>
+      <c r="UX1" s="0"/>
+      <c r="UY1" s="0"/>
+      <c r="UZ1" s="0"/>
+      <c r="VA1" s="0"/>
+      <c r="VB1" s="0"/>
+      <c r="VC1" s="0"/>
+      <c r="VD1" s="0"/>
+      <c r="VE1" s="0"/>
+      <c r="VF1" s="0"/>
+      <c r="VG1" s="0"/>
+      <c r="VH1" s="0"/>
+      <c r="VI1" s="0"/>
+      <c r="VJ1" s="0"/>
+      <c r="VK1" s="0"/>
+      <c r="VL1" s="0"/>
+      <c r="VM1" s="0"/>
+      <c r="VN1" s="0"/>
+      <c r="VO1" s="0"/>
+      <c r="VP1" s="0"/>
+      <c r="VQ1" s="0"/>
+      <c r="VR1" s="0"/>
+      <c r="VS1" s="0"/>
+      <c r="VT1" s="0"/>
+      <c r="VU1" s="0"/>
+      <c r="VV1" s="0"/>
+      <c r="VW1" s="0"/>
+      <c r="VX1" s="0"/>
+      <c r="VY1" s="0"/>
+      <c r="VZ1" s="0"/>
+      <c r="WA1" s="0"/>
+      <c r="WB1" s="0"/>
+      <c r="WC1" s="0"/>
+      <c r="WD1" s="0"/>
+      <c r="WE1" s="0"/>
+      <c r="WF1" s="0"/>
+      <c r="WG1" s="0"/>
+      <c r="WH1" s="0"/>
+      <c r="WI1" s="0"/>
+      <c r="WJ1" s="0"/>
+      <c r="WK1" s="0"/>
+      <c r="WL1" s="0"/>
+      <c r="WM1" s="0"/>
+      <c r="WN1" s="0"/>
+      <c r="WO1" s="0"/>
+      <c r="WP1" s="0"/>
+      <c r="WQ1" s="0"/>
+      <c r="WR1" s="0"/>
+      <c r="WS1" s="0"/>
+      <c r="WT1" s="0"/>
+      <c r="WU1" s="0"/>
+      <c r="WV1" s="0"/>
+      <c r="WW1" s="0"/>
+      <c r="WX1" s="0"/>
+      <c r="WY1" s="0"/>
+      <c r="WZ1" s="0"/>
+      <c r="XA1" s="0"/>
+      <c r="XB1" s="0"/>
+      <c r="XC1" s="0"/>
+      <c r="XD1" s="0"/>
+      <c r="XE1" s="0"/>
+      <c r="XF1" s="0"/>
+      <c r="XG1" s="0"/>
+      <c r="XH1" s="0"/>
+      <c r="XI1" s="0"/>
+      <c r="XJ1" s="0"/>
+      <c r="XK1" s="0"/>
+      <c r="XL1" s="0"/>
+      <c r="XM1" s="0"/>
+      <c r="XN1" s="0"/>
+      <c r="XO1" s="0"/>
+      <c r="XP1" s="0"/>
+      <c r="XQ1" s="0"/>
+      <c r="XR1" s="0"/>
+      <c r="XS1" s="0"/>
+      <c r="XT1" s="0"/>
+      <c r="XU1" s="0"/>
+      <c r="XV1" s="0"/>
+      <c r="XW1" s="0"/>
+      <c r="XX1" s="0"/>
+      <c r="XY1" s="0"/>
+      <c r="XZ1" s="0"/>
+      <c r="YA1" s="0"/>
+      <c r="YB1" s="0"/>
+      <c r="YC1" s="0"/>
+      <c r="YD1" s="0"/>
+      <c r="YE1" s="0"/>
+      <c r="YF1" s="0"/>
+      <c r="YG1" s="0"/>
+      <c r="YH1" s="0"/>
+      <c r="YI1" s="0"/>
+      <c r="YJ1" s="0"/>
+      <c r="YK1" s="0"/>
+      <c r="YL1" s="0"/>
+      <c r="YM1" s="0"/>
+      <c r="YN1" s="0"/>
+      <c r="YO1" s="0"/>
+      <c r="YP1" s="0"/>
+      <c r="YQ1" s="0"/>
+      <c r="YR1" s="0"/>
+      <c r="YS1" s="0"/>
+      <c r="YT1" s="0"/>
+      <c r="YU1" s="0"/>
+      <c r="YV1" s="0"/>
+      <c r="YW1" s="0"/>
+      <c r="YX1" s="0"/>
+      <c r="YY1" s="0"/>
+      <c r="YZ1" s="0"/>
+      <c r="ZA1" s="0"/>
+      <c r="ZB1" s="0"/>
+      <c r="ZC1" s="0"/>
+      <c r="ZD1" s="0"/>
+      <c r="ZE1" s="0"/>
+      <c r="ZF1" s="0"/>
+      <c r="ZG1" s="0"/>
+      <c r="ZH1" s="0"/>
+      <c r="ZI1" s="0"/>
+      <c r="ZJ1" s="0"/>
+      <c r="ZK1" s="0"/>
+      <c r="ZL1" s="0"/>
+      <c r="ZM1" s="0"/>
+      <c r="ZN1" s="0"/>
+      <c r="ZO1" s="0"/>
+      <c r="ZP1" s="0"/>
+      <c r="ZQ1" s="0"/>
+      <c r="ZR1" s="0"/>
+      <c r="ZS1" s="0"/>
+      <c r="ZT1" s="0"/>
+      <c r="ZU1" s="0"/>
+      <c r="ZV1" s="0"/>
+      <c r="ZW1" s="0"/>
+      <c r="ZX1" s="0"/>
+      <c r="ZY1" s="0"/>
+      <c r="ZZ1" s="0"/>
+      <c r="AAA1" s="0"/>
+      <c r="AAB1" s="0"/>
+      <c r="AAC1" s="0"/>
+      <c r="AAD1" s="0"/>
+      <c r="AAE1" s="0"/>
+      <c r="AAF1" s="0"/>
+      <c r="AAG1" s="0"/>
+      <c r="AAH1" s="0"/>
+      <c r="AAI1" s="0"/>
+      <c r="AAJ1" s="0"/>
+      <c r="AAK1" s="0"/>
+      <c r="AAL1" s="0"/>
+      <c r="AAM1" s="0"/>
+      <c r="AAN1" s="0"/>
+      <c r="AAO1" s="0"/>
+      <c r="AAP1" s="0"/>
+      <c r="AAQ1" s="0"/>
+      <c r="AAR1" s="0"/>
+      <c r="AAS1" s="0"/>
+      <c r="AAT1" s="0"/>
+      <c r="AAU1" s="0"/>
+      <c r="AAV1" s="0"/>
+      <c r="AAW1" s="0"/>
+      <c r="AAX1" s="0"/>
+      <c r="AAY1" s="0"/>
+      <c r="AAZ1" s="0"/>
+      <c r="ABA1" s="0"/>
+      <c r="ABB1" s="0"/>
+      <c r="ABC1" s="0"/>
+      <c r="ABD1" s="0"/>
+      <c r="ABE1" s="0"/>
+      <c r="ABF1" s="0"/>
+      <c r="ABG1" s="0"/>
+      <c r="ABH1" s="0"/>
+      <c r="ABI1" s="0"/>
+      <c r="ABJ1" s="0"/>
+      <c r="ABK1" s="0"/>
+      <c r="ABL1" s="0"/>
+      <c r="ABM1" s="0"/>
+      <c r="ABN1" s="0"/>
+      <c r="ABO1" s="0"/>
+      <c r="ABP1" s="0"/>
+      <c r="ABQ1" s="0"/>
+      <c r="ABR1" s="0"/>
+      <c r="ABS1" s="0"/>
+      <c r="ABT1" s="0"/>
+      <c r="ABU1" s="0"/>
+      <c r="ABV1" s="0"/>
+      <c r="ABW1" s="0"/>
+      <c r="ABX1" s="0"/>
+      <c r="ABY1" s="0"/>
+      <c r="ABZ1" s="0"/>
+      <c r="ACA1" s="0"/>
+      <c r="ACB1" s="0"/>
+      <c r="ACC1" s="0"/>
+      <c r="ACD1" s="0"/>
+      <c r="ACE1" s="0"/>
+      <c r="ACF1" s="0"/>
+      <c r="ACG1" s="0"/>
+      <c r="ACH1" s="0"/>
+      <c r="ACI1" s="0"/>
+      <c r="ACJ1" s="0"/>
+      <c r="ACK1" s="0"/>
+      <c r="ACL1" s="0"/>
+      <c r="ACM1" s="0"/>
+      <c r="ACN1" s="0"/>
+      <c r="ACO1" s="0"/>
+      <c r="ACP1" s="0"/>
+      <c r="ACQ1" s="0"/>
+      <c r="ACR1" s="0"/>
+      <c r="ACS1" s="0"/>
+      <c r="ACT1" s="0"/>
+      <c r="ACU1" s="0"/>
+      <c r="ACV1" s="0"/>
+      <c r="ACW1" s="0"/>
+      <c r="ACX1" s="0"/>
+      <c r="ACY1" s="0"/>
+      <c r="ACZ1" s="0"/>
+      <c r="ADA1" s="0"/>
+      <c r="ADB1" s="0"/>
+      <c r="ADC1" s="0"/>
+      <c r="ADD1" s="0"/>
+      <c r="ADE1" s="0"/>
+      <c r="ADF1" s="0"/>
+      <c r="ADG1" s="0"/>
+      <c r="ADH1" s="0"/>
+      <c r="ADI1" s="0"/>
+      <c r="ADJ1" s="0"/>
+      <c r="ADK1" s="0"/>
+      <c r="ADL1" s="0"/>
+      <c r="ADM1" s="0"/>
+      <c r="ADN1" s="0"/>
+      <c r="ADO1" s="0"/>
+      <c r="ADP1" s="0"/>
+      <c r="ADQ1" s="0"/>
+      <c r="ADR1" s="0"/>
+      <c r="ADS1" s="0"/>
+      <c r="ADT1" s="0"/>
+      <c r="ADU1" s="0"/>
+      <c r="ADV1" s="0"/>
+      <c r="ADW1" s="0"/>
+      <c r="ADX1" s="0"/>
+      <c r="ADY1" s="0"/>
+      <c r="ADZ1" s="0"/>
+      <c r="AEA1" s="0"/>
+      <c r="AEB1" s="0"/>
+      <c r="AEC1" s="0"/>
+      <c r="AED1" s="0"/>
+      <c r="AEE1" s="0"/>
+      <c r="AEF1" s="0"/>
+      <c r="AEG1" s="0"/>
+      <c r="AEH1" s="0"/>
+      <c r="AEI1" s="0"/>
+      <c r="AEJ1" s="0"/>
+      <c r="AEK1" s="0"/>
+      <c r="AEL1" s="0"/>
+      <c r="AEM1" s="0"/>
+      <c r="AEN1" s="0"/>
+      <c r="AEO1" s="0"/>
+      <c r="AEP1" s="0"/>
+      <c r="AEQ1" s="0"/>
+      <c r="AER1" s="0"/>
+      <c r="AES1" s="0"/>
+      <c r="AET1" s="0"/>
+      <c r="AEU1" s="0"/>
+      <c r="AEV1" s="0"/>
+      <c r="AEW1" s="0"/>
+      <c r="AEX1" s="0"/>
+      <c r="AEY1" s="0"/>
+      <c r="AEZ1" s="0"/>
+      <c r="AFA1" s="0"/>
+      <c r="AFB1" s="0"/>
+      <c r="AFC1" s="0"/>
+      <c r="AFD1" s="0"/>
+      <c r="AFE1" s="0"/>
+      <c r="AFF1" s="0"/>
+      <c r="AFG1" s="0"/>
+      <c r="AFH1" s="0"/>
+      <c r="AFI1" s="0"/>
+      <c r="AFJ1" s="0"/>
+      <c r="AFK1" s="0"/>
+      <c r="AFL1" s="0"/>
+      <c r="AFM1" s="0"/>
+      <c r="AFN1" s="0"/>
+      <c r="AFO1" s="0"/>
+      <c r="AFP1" s="0"/>
+      <c r="AFQ1" s="0"/>
+      <c r="AFR1" s="0"/>
+      <c r="AFS1" s="0"/>
+      <c r="AFT1" s="0"/>
+      <c r="AFU1" s="0"/>
+      <c r="AFV1" s="0"/>
+      <c r="AFW1" s="0"/>
+      <c r="AFX1" s="0"/>
+      <c r="AFY1" s="0"/>
+      <c r="AFZ1" s="0"/>
+      <c r="AGA1" s="0"/>
+      <c r="AGB1" s="0"/>
+      <c r="AGC1" s="0"/>
+      <c r="AGD1" s="0"/>
+      <c r="AGE1" s="0"/>
+      <c r="AGF1" s="0"/>
+      <c r="AGG1" s="0"/>
+      <c r="AGH1" s="0"/>
+      <c r="AGI1" s="0"/>
+      <c r="AGJ1" s="0"/>
+      <c r="AGK1" s="0"/>
+      <c r="AGL1" s="0"/>
+      <c r="AGM1" s="0"/>
+      <c r="AGN1" s="0"/>
+      <c r="AGO1" s="0"/>
+      <c r="AGP1" s="0"/>
+      <c r="AGQ1" s="0"/>
+      <c r="AGR1" s="0"/>
+      <c r="AGS1" s="0"/>
+      <c r="AGT1" s="0"/>
+      <c r="AGU1" s="0"/>
+      <c r="AGV1" s="0"/>
+      <c r="AGW1" s="0"/>
+      <c r="AGX1" s="0"/>
+      <c r="AGY1" s="0"/>
+      <c r="AGZ1" s="0"/>
+      <c r="AHA1" s="0"/>
+      <c r="AHB1" s="0"/>
+      <c r="AHC1" s="0"/>
+      <c r="AHD1" s="0"/>
+      <c r="AHE1" s="0"/>
+      <c r="AHF1" s="0"/>
+      <c r="AHG1" s="0"/>
+      <c r="AHH1" s="0"/>
+      <c r="AHI1" s="0"/>
+      <c r="AHJ1" s="0"/>
+      <c r="AHK1" s="0"/>
+      <c r="AHL1" s="0"/>
+      <c r="AHM1" s="0"/>
+      <c r="AHN1" s="0"/>
+      <c r="AHO1" s="0"/>
+      <c r="AHP1" s="0"/>
+      <c r="AHQ1" s="0"/>
+      <c r="AHR1" s="0"/>
+      <c r="AHS1" s="0"/>
+      <c r="AHT1" s="0"/>
+      <c r="AHU1" s="0"/>
+      <c r="AHV1" s="0"/>
+      <c r="AHW1" s="0"/>
+      <c r="AHX1" s="0"/>
+      <c r="AHY1" s="0"/>
+      <c r="AHZ1" s="0"/>
+      <c r="AIA1" s="0"/>
+      <c r="AIB1" s="0"/>
+      <c r="AIC1" s="0"/>
+      <c r="AID1" s="0"/>
+      <c r="AIE1" s="0"/>
+      <c r="AIF1" s="0"/>
+      <c r="AIG1" s="0"/>
+      <c r="AIH1" s="0"/>
+      <c r="AII1" s="0"/>
+      <c r="AIJ1" s="0"/>
+      <c r="AIK1" s="0"/>
+      <c r="AIL1" s="0"/>
+      <c r="AIM1" s="0"/>
+      <c r="AIN1" s="0"/>
+      <c r="AIO1" s="0"/>
+      <c r="AIP1" s="0"/>
+      <c r="AIQ1" s="0"/>
+      <c r="AIR1" s="0"/>
+      <c r="AIS1" s="0"/>
+      <c r="AIT1" s="0"/>
+      <c r="AIU1" s="0"/>
+      <c r="AIV1" s="0"/>
+      <c r="AIW1" s="0"/>
+      <c r="AIX1" s="0"/>
+      <c r="AIY1" s="0"/>
+      <c r="AIZ1" s="0"/>
+      <c r="AJA1" s="0"/>
+      <c r="AJB1" s="0"/>
+      <c r="AJC1" s="0"/>
+      <c r="AJD1" s="0"/>
+      <c r="AJE1" s="0"/>
+      <c r="AJF1" s="0"/>
+      <c r="AJG1" s="0"/>
+      <c r="AJH1" s="0"/>
+      <c r="AJI1" s="0"/>
+      <c r="AJJ1" s="0"/>
+      <c r="AJK1" s="0"/>
+      <c r="AJL1" s="0"/>
+      <c r="AJM1" s="0"/>
+      <c r="AJN1" s="0"/>
+      <c r="AJO1" s="0"/>
+      <c r="AJP1" s="0"/>
+      <c r="AJQ1" s="0"/>
+      <c r="AJR1" s="0"/>
+      <c r="AJS1" s="0"/>
+      <c r="AJT1" s="0"/>
+      <c r="AJU1" s="0"/>
+      <c r="AJV1" s="0"/>
+      <c r="AJW1" s="0"/>
+      <c r="AJX1" s="0"/>
+      <c r="AJY1" s="0"/>
+      <c r="AJZ1" s="0"/>
+      <c r="AKA1" s="0"/>
+      <c r="AKB1" s="0"/>
+      <c r="AKC1" s="0"/>
+      <c r="AKD1" s="0"/>
+      <c r="AKE1" s="0"/>
+      <c r="AKF1" s="0"/>
+      <c r="AKG1" s="0"/>
+      <c r="AKH1" s="0"/>
+      <c r="AKI1" s="0"/>
+      <c r="AKJ1" s="0"/>
+      <c r="AKK1" s="0"/>
+      <c r="AKL1" s="0"/>
+      <c r="AKM1" s="0"/>
+      <c r="AKN1" s="0"/>
+      <c r="AKO1" s="0"/>
+      <c r="AKP1" s="0"/>
+      <c r="AKQ1" s="0"/>
+      <c r="AKR1" s="0"/>
+      <c r="AKS1" s="0"/>
+      <c r="AKT1" s="0"/>
+      <c r="AKU1" s="0"/>
+      <c r="AKV1" s="0"/>
+      <c r="AKW1" s="0"/>
+      <c r="AKX1" s="0"/>
+      <c r="AKY1" s="0"/>
+      <c r="AKZ1" s="0"/>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -10429,6 +14459,1014 @@
         <f aca="false">P5/P6</f>
         <v>0.00299970538607815</v>
       </c>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -10624,10 +15662,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10939,10 +15977,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11254,8 +16292,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11575,8 +16613,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11885,9 +16923,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12037,10 +17072,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12234,7 +17270,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12411,11 +17447,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="16" min="10" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="16" min="10" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12737,9 +17773,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13036,7 +18072,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13220,9 +18256,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13536,7 +18572,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
@@ -13544,10 +18580,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13664,6 +18700,1014 @@
         <f aca="false">P5/P6</f>
         <v>0.00198387303212594</v>
       </c>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -13853,9 +19897,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="United States" sheetId="1" state="visible" r:id="rId2"/>
@@ -306,14 +306,14 @@
   </sheetPr>
   <dimension ref="1:12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,9 +4678,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5002,10 +5002,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1019" min="12" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1019" min="12" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,9 +5257,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5575,16 +5575,16 @@
   </sheetPr>
   <dimension ref="1:8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.5"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1019" min="12" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1019" min="12" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5844,9 +5844,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6168,11 +6168,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6484,9 +6483,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="15" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="15" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6804,10 +6803,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7123,10 +7121,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8440,10 +8437,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10765,8 +10761,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11102,10 +11098,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11412,8 +11407,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11765,10 +11760,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12076,9 +12070,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12392,10 +12386,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12707,9 +12700,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13007,9 +13000,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13331,10 +13324,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15662,10 +15654,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15977,10 +15968,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16292,8 +16283,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16613,8 +16604,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16923,6 +16914,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -17072,11 +17066,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17270,7 +17263,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17447,11 +17440,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="16" min="10" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="10" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17773,9 +17766,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18072,7 +18065,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18256,9 +18249,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18580,10 +18573,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="7" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19897,9 +19889,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Documents\Carbapenem\Carbapenem-Resistance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Documents\Galvani Lab\Carbapenem\Carbapenem-Resistance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="United States" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <sheet name="Iceland" sheetId="32" r:id="rId32"/>
     <sheet name="Malta" sheetId="33" r:id="rId33"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
@@ -118,9 +118,6 @@
     <t xml:space="preserve">Total Consumption </t>
   </si>
   <si>
-    <t>*Note that the ecdc report higher consumption</t>
-  </si>
-  <si>
     <t>*ecdc consumption data is &gt;0</t>
   </si>
   <si>
@@ -129,12 +126,42 @@
   <si>
     <t>*no consumption data from cddep</t>
   </si>
+  <si>
+    <t>Consumption ecdc (DDD/1000)</t>
+  </si>
+  <si>
+    <t>Consumption cddep (standard units/1000)</t>
+  </si>
+  <si>
+    <t>includes total care cases only</t>
+  </si>
+  <si>
+    <t>Isolates_EC</t>
+  </si>
+  <si>
+    <t>Resistance EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KP= K. pneumoniae </t>
+  </si>
+  <si>
+    <t>PA= P. aeruginosa</t>
+  </si>
+  <si>
+    <t>EC=E. coli</t>
+  </si>
+  <si>
+    <t>*resistance data from ecdc (same as cddep but give breakdowns)</t>
+  </si>
+  <si>
+    <t>Resistance_EC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -161,8 +188,39 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +263,12 @@
         <bgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -218,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -232,6 +296,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,6 +472,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -428,6 +524,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,17 +698,17 @@
   </sheetPr>
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" style="1"/>
-    <col min="2" max="1025" width="8.42578125" style="1"/>
+    <col min="2" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +752,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -683,7 +796,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -727,7 +840,7 @@
         <v>117.3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -771,7 +884,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -815,7 +928,7 @@
         <v>153.75</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -859,7 +972,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -903,7 +1016,7 @@
         <v>70.09</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -947,7 +1060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -961,7 +1074,7 @@
         <v>0.17544000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -983,14 +1096,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2"/>
-    <col min="2" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="2"/>
+    <col min="2" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1153,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1218,7 @@
         <v>4.1843971631205677E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1145,7 +1258,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1185,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1296,18 +1409,18 @@
   <dimension ref="A1:AME6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="2"/>
-    <col min="2" max="11" width="8.5703125" style="1"/>
-    <col min="12" max="1019" width="8.42578125" style="1"/>
-    <col min="1020" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="16.1796875" style="2"/>
+    <col min="2" max="11" width="8.54296875" style="1"/>
+    <col min="12" max="1019" width="8.453125" style="1"/>
+    <col min="1020" max="1025" width="8.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1455,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1387,7 +1500,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1422,7 +1535,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1457,7 +1570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1538,17 +1651,17 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2"/>
-    <col min="2" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="2"/>
+    <col min="2" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1711,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1663,7 +1776,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1703,7 +1816,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1743,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1793,7 +1906,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1851,21 +1964,26 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AME8"/>
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:AMH27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2"/>
-    <col min="2" max="11" width="8.5703125" style="1"/>
-    <col min="12" max="1019" width="8.42578125" style="1"/>
-    <col min="1020" max="1025" width="8.42578125"/>
+    <col min="1" max="1" width="36.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="1"/>
+    <col min="3" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="14" width="8.54296875" style="1"/>
+    <col min="15" max="1022" width="8.453125" style="1"/>
+    <col min="1023" max="1028" width="8.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1022" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1900,197 +2018,1510 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="e">
-        <f>#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" t="e">
-        <f>#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" t="e">
-        <f>#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" t="e">
-        <f>#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" t="e">
-        <f>#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" t="e">
-        <f>#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" t="e">
-        <f>#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I2" t="e">
-        <f>#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" t="e">
-        <f>#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K2" t="e">
-        <f>#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
+    <row r="2" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
         <v>773</v>
       </c>
-      <c r="C3">
+      <c r="C2" s="4">
         <v>837</v>
       </c>
-      <c r="D3">
+      <c r="D2" s="4">
         <v>966</v>
       </c>
-      <c r="E3">
+      <c r="E2" s="4">
         <v>1074</v>
       </c>
-      <c r="F3">
+      <c r="F2" s="5">
         <v>1627</v>
       </c>
-      <c r="G3">
+      <c r="G2" s="5">
         <v>1687</v>
       </c>
-      <c r="H3">
+      <c r="H2" s="5">
         <v>1636</v>
       </c>
-      <c r="I3">
+      <c r="I2" s="5">
         <v>1460</v>
       </c>
-      <c r="J3">
+      <c r="J2" s="5">
         <v>1209</v>
       </c>
-      <c r="K3">
+      <c r="K2" s="5">
         <v>1088</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
+      <c r="AMC2"/>
+      <c r="AMD2"/>
+      <c r="AME2"/>
+      <c r="AMF2"/>
+      <c r="AMG2"/>
+      <c r="AMH2"/>
+    </row>
+    <row r="3" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>241</v>
       </c>
-      <c r="C4">
+      <c r="C3" s="4">
         <v>312</v>
       </c>
-      <c r="D4">
+      <c r="D3" s="4">
         <v>444</v>
       </c>
-      <c r="E4">
+      <c r="E3" s="4">
         <v>482</v>
       </c>
-      <c r="F4">
+      <c r="F3" s="5">
         <v>839</v>
       </c>
-      <c r="G4">
+      <c r="G3" s="5">
         <v>1004</v>
       </c>
-      <c r="H4">
+      <c r="H3" s="5">
         <v>1158</v>
       </c>
-      <c r="I4">
+      <c r="I3" s="5">
         <v>911</v>
       </c>
-      <c r="J4">
+      <c r="J3" s="5">
         <v>730</v>
       </c>
-      <c r="K4">
+      <c r="K3" s="5">
         <v>682</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="AMC3"/>
+      <c r="AMD3"/>
+      <c r="AME3"/>
+      <c r="AMF3"/>
+      <c r="AMG3"/>
+      <c r="AMH3"/>
+    </row>
+    <row r="4" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>698</v>
+      </c>
+      <c r="C4" s="7">
+        <v>815</v>
+      </c>
+      <c r="D4" s="7">
+        <v>798</v>
+      </c>
+      <c r="E4" s="8">
+        <v>916</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1095</v>
+      </c>
+      <c r="G4" s="8">
+        <v>999</v>
+      </c>
+      <c r="H4" s="8">
+        <v>900</v>
+      </c>
+      <c r="I4" s="8">
+        <v>907</v>
+      </c>
+      <c r="J4" s="8">
+        <v>877</v>
+      </c>
+      <c r="K4" s="8">
+        <v>699</v>
+      </c>
+      <c r="AMC4"/>
+      <c r="AMD4"/>
+      <c r="AME4"/>
+      <c r="AMF4"/>
+      <c r="AMG4"/>
+      <c r="AMH4"/>
+    </row>
+    <row r="5" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>309</v>
+      </c>
+      <c r="C5" s="7">
+        <v>437</v>
+      </c>
+      <c r="D5" s="7">
+        <v>403</v>
+      </c>
+      <c r="E5" s="7">
+        <v>474</v>
+      </c>
+      <c r="F5" s="7">
+        <v>516</v>
+      </c>
+      <c r="G5" s="7">
+        <v>464</v>
+      </c>
+      <c r="H5" s="7">
+        <v>633</v>
+      </c>
+      <c r="I5" s="7">
+        <v>465</v>
+      </c>
+      <c r="J5" s="7">
+        <v>472</v>
+      </c>
+      <c r="K5" s="7">
+        <v>320</v>
+      </c>
+      <c r="AMC5"/>
+      <c r="AMD5"/>
+      <c r="AME5"/>
+      <c r="AMF5"/>
+      <c r="AMG5"/>
+      <c r="AMH5"/>
+    </row>
+    <row r="6" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1132</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1227</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1215</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1442</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1810</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1519</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1127</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1396</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1256</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1122</v>
+      </c>
+      <c r="AMC6"/>
+      <c r="AMD6"/>
+      <c r="AME6"/>
+      <c r="AMF6"/>
+      <c r="AMG6"/>
+      <c r="AMH6"/>
+    </row>
+    <row r="7" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="D7" s="11">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="F7" s="11">
+        <v>14</v>
+      </c>
+      <c r="G7" s="11">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="H7" s="11">
+        <v>16</v>
+      </c>
+      <c r="I7" s="11">
+        <v>23</v>
+      </c>
+      <c r="J7" s="11">
+        <v>25</v>
+      </c>
+      <c r="K7" s="11">
+        <v>15</v>
+      </c>
+      <c r="AMC7"/>
+      <c r="AMD7"/>
+      <c r="AME7"/>
+      <c r="AMF7"/>
+      <c r="AMG7"/>
+      <c r="AMH7"/>
+    </row>
+    <row r="8" spans="1:1022" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="F5">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="G5">
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="K8">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>22247</v>
-      </c>
-      <c r="C6" s="1">
-        <v>21705</v>
-      </c>
-      <c r="D6" s="1">
-        <v>22369</v>
-      </c>
-      <c r="E6" s="1">
-        <v>21628</v>
-      </c>
-      <c r="F6" s="1">
-        <v>21779</v>
-      </c>
-      <c r="G6" s="1">
-        <v>19510</v>
-      </c>
-      <c r="H6" s="1">
-        <v>20217</v>
-      </c>
-      <c r="I6" s="1">
-        <v>17232</v>
-      </c>
-      <c r="J6" s="1">
-        <v>17827</v>
-      </c>
-      <c r="K6" s="1">
-        <v>18315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="23"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="23"/>
+      <c r="BF8" s="23"/>
+      <c r="BG8" s="23"/>
+      <c r="BH8" s="23"/>
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="23"/>
+      <c r="BK8" s="23"/>
+      <c r="BL8" s="23"/>
+      <c r="BM8" s="23"/>
+      <c r="BN8" s="23"/>
+      <c r="BO8" s="23"/>
+      <c r="BP8" s="23"/>
+      <c r="BQ8" s="23"/>
+      <c r="BR8" s="23"/>
+      <c r="BS8" s="23"/>
+      <c r="BT8" s="23"/>
+      <c r="BU8" s="23"/>
+      <c r="BV8" s="23"/>
+      <c r="BW8" s="23"/>
+      <c r="BX8" s="23"/>
+      <c r="BY8" s="23"/>
+      <c r="BZ8" s="23"/>
+      <c r="CA8" s="23"/>
+      <c r="CB8" s="23"/>
+      <c r="CC8" s="23"/>
+      <c r="CD8" s="23"/>
+      <c r="CE8" s="23"/>
+      <c r="CF8" s="23"/>
+      <c r="CG8" s="23"/>
+      <c r="CH8" s="23"/>
+      <c r="CI8" s="23"/>
+      <c r="CJ8" s="23"/>
+      <c r="CK8" s="23"/>
+      <c r="CL8" s="23"/>
+      <c r="CM8" s="23"/>
+      <c r="CN8" s="23"/>
+      <c r="CO8" s="23"/>
+      <c r="CP8" s="23"/>
+      <c r="CQ8" s="23"/>
+      <c r="CR8" s="23"/>
+      <c r="CS8" s="23"/>
+      <c r="CT8" s="23"/>
+      <c r="CU8" s="23"/>
+      <c r="CV8" s="23"/>
+      <c r="CW8" s="23"/>
+      <c r="CX8" s="23"/>
+      <c r="CY8" s="23"/>
+      <c r="CZ8" s="23"/>
+      <c r="DA8" s="23"/>
+      <c r="DB8" s="23"/>
+      <c r="DC8" s="23"/>
+      <c r="DD8" s="23"/>
+      <c r="DE8" s="23"/>
+      <c r="DF8" s="23"/>
+      <c r="DG8" s="23"/>
+      <c r="DH8" s="23"/>
+      <c r="DI8" s="23"/>
+      <c r="DJ8" s="23"/>
+      <c r="DK8" s="23"/>
+      <c r="DL8" s="23"/>
+      <c r="DM8" s="23"/>
+      <c r="DN8" s="23"/>
+      <c r="DO8" s="23"/>
+      <c r="DP8" s="23"/>
+      <c r="DQ8" s="23"/>
+      <c r="DR8" s="23"/>
+      <c r="DS8" s="23"/>
+      <c r="DT8" s="23"/>
+      <c r="DU8" s="23"/>
+      <c r="DV8" s="23"/>
+      <c r="DW8" s="23"/>
+      <c r="DX8" s="23"/>
+      <c r="DY8" s="23"/>
+      <c r="DZ8" s="23"/>
+      <c r="EA8" s="23"/>
+      <c r="EB8" s="23"/>
+      <c r="EC8" s="23"/>
+      <c r="ED8" s="23"/>
+      <c r="EE8" s="23"/>
+      <c r="EF8" s="23"/>
+      <c r="EG8" s="23"/>
+      <c r="EH8" s="23"/>
+      <c r="EI8" s="23"/>
+      <c r="EJ8" s="23"/>
+      <c r="EK8" s="23"/>
+      <c r="EL8" s="23"/>
+      <c r="EM8" s="23"/>
+      <c r="EN8" s="23"/>
+      <c r="EO8" s="23"/>
+      <c r="EP8" s="23"/>
+      <c r="EQ8" s="23"/>
+      <c r="ER8" s="23"/>
+      <c r="ES8" s="23"/>
+      <c r="ET8" s="23"/>
+      <c r="EU8" s="23"/>
+      <c r="EV8" s="23"/>
+      <c r="EW8" s="23"/>
+      <c r="EX8" s="23"/>
+      <c r="EY8" s="23"/>
+      <c r="EZ8" s="23"/>
+      <c r="FA8" s="23"/>
+      <c r="FB8" s="23"/>
+      <c r="FC8" s="23"/>
+      <c r="FD8" s="23"/>
+      <c r="FE8" s="23"/>
+      <c r="FF8" s="23"/>
+      <c r="FG8" s="23"/>
+      <c r="FH8" s="23"/>
+      <c r="FI8" s="23"/>
+      <c r="FJ8" s="23"/>
+      <c r="FK8" s="23"/>
+      <c r="FL8" s="23"/>
+      <c r="FM8" s="23"/>
+      <c r="FN8" s="23"/>
+      <c r="FO8" s="23"/>
+      <c r="FP8" s="23"/>
+      <c r="FQ8" s="23"/>
+      <c r="FR8" s="23"/>
+      <c r="FS8" s="23"/>
+      <c r="FT8" s="23"/>
+      <c r="FU8" s="23"/>
+      <c r="FV8" s="23"/>
+      <c r="FW8" s="23"/>
+      <c r="FX8" s="23"/>
+      <c r="FY8" s="23"/>
+      <c r="FZ8" s="23"/>
+      <c r="GA8" s="23"/>
+      <c r="GB8" s="23"/>
+      <c r="GC8" s="23"/>
+      <c r="GD8" s="23"/>
+      <c r="GE8" s="23"/>
+      <c r="GF8" s="23"/>
+      <c r="GG8" s="23"/>
+      <c r="GH8" s="23"/>
+      <c r="GI8" s="23"/>
+      <c r="GJ8" s="23"/>
+      <c r="GK8" s="23"/>
+      <c r="GL8" s="23"/>
+      <c r="GM8" s="23"/>
+      <c r="GN8" s="23"/>
+      <c r="GO8" s="23"/>
+      <c r="GP8" s="23"/>
+      <c r="GQ8" s="23"/>
+      <c r="GR8" s="23"/>
+      <c r="GS8" s="23"/>
+      <c r="GT8" s="23"/>
+      <c r="GU8" s="23"/>
+      <c r="GV8" s="23"/>
+      <c r="GW8" s="23"/>
+      <c r="GX8" s="23"/>
+      <c r="GY8" s="23"/>
+      <c r="GZ8" s="23"/>
+      <c r="HA8" s="23"/>
+      <c r="HB8" s="23"/>
+      <c r="HC8" s="23"/>
+      <c r="HD8" s="23"/>
+      <c r="HE8" s="23"/>
+      <c r="HF8" s="23"/>
+      <c r="HG8" s="23"/>
+      <c r="HH8" s="23"/>
+      <c r="HI8" s="23"/>
+      <c r="HJ8" s="23"/>
+      <c r="HK8" s="23"/>
+      <c r="HL8" s="23"/>
+      <c r="HM8" s="23"/>
+      <c r="HN8" s="23"/>
+      <c r="HO8" s="23"/>
+      <c r="HP8" s="23"/>
+      <c r="HQ8" s="23"/>
+      <c r="HR8" s="23"/>
+      <c r="HS8" s="23"/>
+      <c r="HT8" s="23"/>
+      <c r="HU8" s="23"/>
+      <c r="HV8" s="23"/>
+      <c r="HW8" s="23"/>
+      <c r="HX8" s="23"/>
+      <c r="HY8" s="23"/>
+      <c r="HZ8" s="23"/>
+      <c r="IA8" s="23"/>
+      <c r="IB8" s="23"/>
+      <c r="IC8" s="23"/>
+      <c r="ID8" s="23"/>
+      <c r="IE8" s="23"/>
+      <c r="IF8" s="23"/>
+      <c r="IG8" s="23"/>
+      <c r="IH8" s="23"/>
+      <c r="II8" s="23"/>
+      <c r="IJ8" s="23"/>
+      <c r="IK8" s="23"/>
+      <c r="IL8" s="23"/>
+      <c r="IM8" s="23"/>
+      <c r="IN8" s="23"/>
+      <c r="IO8" s="23"/>
+      <c r="IP8" s="23"/>
+      <c r="IQ8" s="23"/>
+      <c r="IR8" s="23"/>
+      <c r="IS8" s="23"/>
+      <c r="IT8" s="23"/>
+      <c r="IU8" s="23"/>
+      <c r="IV8" s="23"/>
+      <c r="IW8" s="23"/>
+      <c r="IX8" s="23"/>
+      <c r="IY8" s="23"/>
+      <c r="IZ8" s="23"/>
+      <c r="JA8" s="23"/>
+      <c r="JB8" s="23"/>
+      <c r="JC8" s="23"/>
+      <c r="JD8" s="23"/>
+      <c r="JE8" s="23"/>
+      <c r="JF8" s="23"/>
+      <c r="JG8" s="23"/>
+      <c r="JH8" s="23"/>
+      <c r="JI8" s="23"/>
+      <c r="JJ8" s="23"/>
+      <c r="JK8" s="23"/>
+      <c r="JL8" s="23"/>
+      <c r="JM8" s="23"/>
+      <c r="JN8" s="23"/>
+      <c r="JO8" s="23"/>
+      <c r="JP8" s="23"/>
+      <c r="JQ8" s="23"/>
+      <c r="JR8" s="23"/>
+      <c r="JS8" s="23"/>
+      <c r="JT8" s="23"/>
+      <c r="JU8" s="23"/>
+      <c r="JV8" s="23"/>
+      <c r="JW8" s="23"/>
+      <c r="JX8" s="23"/>
+      <c r="JY8" s="23"/>
+      <c r="JZ8" s="23"/>
+      <c r="KA8" s="23"/>
+      <c r="KB8" s="23"/>
+      <c r="KC8" s="23"/>
+      <c r="KD8" s="23"/>
+      <c r="KE8" s="23"/>
+      <c r="KF8" s="23"/>
+      <c r="KG8" s="23"/>
+      <c r="KH8" s="23"/>
+      <c r="KI8" s="23"/>
+      <c r="KJ8" s="23"/>
+      <c r="KK8" s="23"/>
+      <c r="KL8" s="23"/>
+      <c r="KM8" s="23"/>
+      <c r="KN8" s="23"/>
+      <c r="KO8" s="23"/>
+      <c r="KP8" s="23"/>
+      <c r="KQ8" s="23"/>
+      <c r="KR8" s="23"/>
+      <c r="KS8" s="23"/>
+      <c r="KT8" s="23"/>
+      <c r="KU8" s="23"/>
+      <c r="KV8" s="23"/>
+      <c r="KW8" s="23"/>
+      <c r="KX8" s="23"/>
+      <c r="KY8" s="23"/>
+      <c r="KZ8" s="23"/>
+      <c r="LA8" s="23"/>
+      <c r="LB8" s="23"/>
+      <c r="LC8" s="23"/>
+      <c r="LD8" s="23"/>
+      <c r="LE8" s="23"/>
+      <c r="LF8" s="23"/>
+      <c r="LG8" s="23"/>
+      <c r="LH8" s="23"/>
+      <c r="LI8" s="23"/>
+      <c r="LJ8" s="23"/>
+      <c r="LK8" s="23"/>
+      <c r="LL8" s="23"/>
+      <c r="LM8" s="23"/>
+      <c r="LN8" s="23"/>
+      <c r="LO8" s="23"/>
+      <c r="LP8" s="23"/>
+      <c r="LQ8" s="23"/>
+      <c r="LR8" s="23"/>
+      <c r="LS8" s="23"/>
+      <c r="LT8" s="23"/>
+      <c r="LU8" s="23"/>
+      <c r="LV8" s="23"/>
+      <c r="LW8" s="23"/>
+      <c r="LX8" s="23"/>
+      <c r="LY8" s="23"/>
+      <c r="LZ8" s="23"/>
+      <c r="MA8" s="23"/>
+      <c r="MB8" s="23"/>
+      <c r="MC8" s="23"/>
+      <c r="MD8" s="23"/>
+      <c r="ME8" s="23"/>
+      <c r="MF8" s="23"/>
+      <c r="MG8" s="23"/>
+      <c r="MH8" s="23"/>
+      <c r="MI8" s="23"/>
+      <c r="MJ8" s="23"/>
+      <c r="MK8" s="23"/>
+      <c r="ML8" s="23"/>
+      <c r="MM8" s="23"/>
+      <c r="MN8" s="23"/>
+      <c r="MO8" s="23"/>
+      <c r="MP8" s="23"/>
+      <c r="MQ8" s="23"/>
+      <c r="MR8" s="23"/>
+      <c r="MS8" s="23"/>
+      <c r="MT8" s="23"/>
+      <c r="MU8" s="23"/>
+      <c r="MV8" s="23"/>
+      <c r="MW8" s="23"/>
+      <c r="MX8" s="23"/>
+      <c r="MY8" s="23"/>
+      <c r="MZ8" s="23"/>
+      <c r="NA8" s="23"/>
+      <c r="NB8" s="23"/>
+      <c r="NC8" s="23"/>
+      <c r="ND8" s="23"/>
+      <c r="NE8" s="23"/>
+      <c r="NF8" s="23"/>
+      <c r="NG8" s="23"/>
+      <c r="NH8" s="23"/>
+      <c r="NI8" s="23"/>
+      <c r="NJ8" s="23"/>
+      <c r="NK8" s="23"/>
+      <c r="NL8" s="23"/>
+      <c r="NM8" s="23"/>
+      <c r="NN8" s="23"/>
+      <c r="NO8" s="23"/>
+      <c r="NP8" s="23"/>
+      <c r="NQ8" s="23"/>
+      <c r="NR8" s="23"/>
+      <c r="NS8" s="23"/>
+      <c r="NT8" s="23"/>
+      <c r="NU8" s="23"/>
+      <c r="NV8" s="23"/>
+      <c r="NW8" s="23"/>
+      <c r="NX8" s="23"/>
+      <c r="NY8" s="23"/>
+      <c r="NZ8" s="23"/>
+      <c r="OA8" s="23"/>
+      <c r="OB8" s="23"/>
+      <c r="OC8" s="23"/>
+      <c r="OD8" s="23"/>
+      <c r="OE8" s="23"/>
+      <c r="OF8" s="23"/>
+      <c r="OG8" s="23"/>
+      <c r="OH8" s="23"/>
+      <c r="OI8" s="23"/>
+      <c r="OJ8" s="23"/>
+      <c r="OK8" s="23"/>
+      <c r="OL8" s="23"/>
+      <c r="OM8" s="23"/>
+      <c r="ON8" s="23"/>
+      <c r="OO8" s="23"/>
+      <c r="OP8" s="23"/>
+      <c r="OQ8" s="23"/>
+      <c r="OR8" s="23"/>
+      <c r="OS8" s="23"/>
+      <c r="OT8" s="23"/>
+      <c r="OU8" s="23"/>
+      <c r="OV8" s="23"/>
+      <c r="OW8" s="23"/>
+      <c r="OX8" s="23"/>
+      <c r="OY8" s="23"/>
+      <c r="OZ8" s="23"/>
+      <c r="PA8" s="23"/>
+      <c r="PB8" s="23"/>
+      <c r="PC8" s="23"/>
+      <c r="PD8" s="23"/>
+      <c r="PE8" s="23"/>
+      <c r="PF8" s="23"/>
+      <c r="PG8" s="23"/>
+      <c r="PH8" s="23"/>
+      <c r="PI8" s="23"/>
+      <c r="PJ8" s="23"/>
+      <c r="PK8" s="23"/>
+      <c r="PL8" s="23"/>
+      <c r="PM8" s="23"/>
+      <c r="PN8" s="23"/>
+      <c r="PO8" s="23"/>
+      <c r="PP8" s="23"/>
+      <c r="PQ8" s="23"/>
+      <c r="PR8" s="23"/>
+      <c r="PS8" s="23"/>
+      <c r="PT8" s="23"/>
+      <c r="PU8" s="23"/>
+      <c r="PV8" s="23"/>
+      <c r="PW8" s="23"/>
+      <c r="PX8" s="23"/>
+      <c r="PY8" s="23"/>
+      <c r="PZ8" s="23"/>
+      <c r="QA8" s="23"/>
+      <c r="QB8" s="23"/>
+      <c r="QC8" s="23"/>
+      <c r="QD8" s="23"/>
+      <c r="QE8" s="23"/>
+      <c r="QF8" s="23"/>
+      <c r="QG8" s="23"/>
+      <c r="QH8" s="23"/>
+      <c r="QI8" s="23"/>
+      <c r="QJ8" s="23"/>
+      <c r="QK8" s="23"/>
+      <c r="QL8" s="23"/>
+      <c r="QM8" s="23"/>
+      <c r="QN8" s="23"/>
+      <c r="QO8" s="23"/>
+      <c r="QP8" s="23"/>
+      <c r="QQ8" s="23"/>
+      <c r="QR8" s="23"/>
+      <c r="QS8" s="23"/>
+      <c r="QT8" s="23"/>
+      <c r="QU8" s="23"/>
+      <c r="QV8" s="23"/>
+      <c r="QW8" s="23"/>
+      <c r="QX8" s="23"/>
+      <c r="QY8" s="23"/>
+      <c r="QZ8" s="23"/>
+      <c r="RA8" s="23"/>
+      <c r="RB8" s="23"/>
+      <c r="RC8" s="23"/>
+      <c r="RD8" s="23"/>
+      <c r="RE8" s="23"/>
+      <c r="RF8" s="23"/>
+      <c r="RG8" s="23"/>
+      <c r="RH8" s="23"/>
+      <c r="RI8" s="23"/>
+      <c r="RJ8" s="23"/>
+      <c r="RK8" s="23"/>
+      <c r="RL8" s="23"/>
+      <c r="RM8" s="23"/>
+      <c r="RN8" s="23"/>
+      <c r="RO8" s="23"/>
+      <c r="RP8" s="23"/>
+      <c r="RQ8" s="23"/>
+      <c r="RR8" s="23"/>
+      <c r="RS8" s="23"/>
+      <c r="RT8" s="23"/>
+      <c r="RU8" s="23"/>
+      <c r="RV8" s="23"/>
+      <c r="RW8" s="23"/>
+      <c r="RX8" s="23"/>
+      <c r="RY8" s="23"/>
+      <c r="RZ8" s="23"/>
+      <c r="SA8" s="23"/>
+      <c r="SB8" s="23"/>
+      <c r="SC8" s="23"/>
+      <c r="SD8" s="23"/>
+      <c r="SE8" s="23"/>
+      <c r="SF8" s="23"/>
+      <c r="SG8" s="23"/>
+      <c r="SH8" s="23"/>
+      <c r="SI8" s="23"/>
+      <c r="SJ8" s="23"/>
+      <c r="SK8" s="23"/>
+      <c r="SL8" s="23"/>
+      <c r="SM8" s="23"/>
+      <c r="SN8" s="23"/>
+      <c r="SO8" s="23"/>
+      <c r="SP8" s="23"/>
+      <c r="SQ8" s="23"/>
+      <c r="SR8" s="23"/>
+      <c r="SS8" s="23"/>
+      <c r="ST8" s="23"/>
+      <c r="SU8" s="23"/>
+      <c r="SV8" s="23"/>
+      <c r="SW8" s="23"/>
+      <c r="SX8" s="23"/>
+      <c r="SY8" s="23"/>
+      <c r="SZ8" s="23"/>
+      <c r="TA8" s="23"/>
+      <c r="TB8" s="23"/>
+      <c r="TC8" s="23"/>
+      <c r="TD8" s="23"/>
+      <c r="TE8" s="23"/>
+      <c r="TF8" s="23"/>
+      <c r="TG8" s="23"/>
+      <c r="TH8" s="23"/>
+      <c r="TI8" s="23"/>
+      <c r="TJ8" s="23"/>
+      <c r="TK8" s="23"/>
+      <c r="TL8" s="23"/>
+      <c r="TM8" s="23"/>
+      <c r="TN8" s="23"/>
+      <c r="TO8" s="23"/>
+      <c r="TP8" s="23"/>
+      <c r="TQ8" s="23"/>
+      <c r="TR8" s="23"/>
+      <c r="TS8" s="23"/>
+      <c r="TT8" s="23"/>
+      <c r="TU8" s="23"/>
+      <c r="TV8" s="23"/>
+      <c r="TW8" s="23"/>
+      <c r="TX8" s="23"/>
+      <c r="TY8" s="23"/>
+      <c r="TZ8" s="23"/>
+      <c r="UA8" s="23"/>
+      <c r="UB8" s="23"/>
+      <c r="UC8" s="23"/>
+      <c r="UD8" s="23"/>
+      <c r="UE8" s="23"/>
+      <c r="UF8" s="23"/>
+      <c r="UG8" s="23"/>
+      <c r="UH8" s="23"/>
+      <c r="UI8" s="23"/>
+      <c r="UJ8" s="23"/>
+      <c r="UK8" s="23"/>
+      <c r="UL8" s="23"/>
+      <c r="UM8" s="23"/>
+      <c r="UN8" s="23"/>
+      <c r="UO8" s="23"/>
+      <c r="UP8" s="23"/>
+      <c r="UQ8" s="23"/>
+      <c r="UR8" s="23"/>
+      <c r="US8" s="23"/>
+      <c r="UT8" s="23"/>
+      <c r="UU8" s="23"/>
+      <c r="UV8" s="23"/>
+      <c r="UW8" s="23"/>
+      <c r="UX8" s="23"/>
+      <c r="UY8" s="23"/>
+      <c r="UZ8" s="23"/>
+      <c r="VA8" s="23"/>
+      <c r="VB8" s="23"/>
+      <c r="VC8" s="23"/>
+      <c r="VD8" s="23"/>
+      <c r="VE8" s="23"/>
+      <c r="VF8" s="23"/>
+      <c r="VG8" s="23"/>
+      <c r="VH8" s="23"/>
+      <c r="VI8" s="23"/>
+      <c r="VJ8" s="23"/>
+      <c r="VK8" s="23"/>
+      <c r="VL8" s="23"/>
+      <c r="VM8" s="23"/>
+      <c r="VN8" s="23"/>
+      <c r="VO8" s="23"/>
+      <c r="VP8" s="23"/>
+      <c r="VQ8" s="23"/>
+      <c r="VR8" s="23"/>
+      <c r="VS8" s="23"/>
+      <c r="VT8" s="23"/>
+      <c r="VU8" s="23"/>
+      <c r="VV8" s="23"/>
+      <c r="VW8" s="23"/>
+      <c r="VX8" s="23"/>
+      <c r="VY8" s="23"/>
+      <c r="VZ8" s="23"/>
+      <c r="WA8" s="23"/>
+      <c r="WB8" s="23"/>
+      <c r="WC8" s="23"/>
+      <c r="WD8" s="23"/>
+      <c r="WE8" s="23"/>
+      <c r="WF8" s="23"/>
+      <c r="WG8" s="23"/>
+      <c r="WH8" s="23"/>
+      <c r="WI8" s="23"/>
+      <c r="WJ8" s="23"/>
+      <c r="WK8" s="23"/>
+      <c r="WL8" s="23"/>
+      <c r="WM8" s="23"/>
+      <c r="WN8" s="23"/>
+      <c r="WO8" s="23"/>
+      <c r="WP8" s="23"/>
+      <c r="WQ8" s="23"/>
+      <c r="WR8" s="23"/>
+      <c r="WS8" s="23"/>
+      <c r="WT8" s="23"/>
+      <c r="WU8" s="23"/>
+      <c r="WV8" s="23"/>
+      <c r="WW8" s="23"/>
+      <c r="WX8" s="23"/>
+      <c r="WY8" s="23"/>
+      <c r="WZ8" s="23"/>
+      <c r="XA8" s="23"/>
+      <c r="XB8" s="23"/>
+      <c r="XC8" s="23"/>
+      <c r="XD8" s="23"/>
+      <c r="XE8" s="23"/>
+      <c r="XF8" s="23"/>
+      <c r="XG8" s="23"/>
+      <c r="XH8" s="23"/>
+      <c r="XI8" s="23"/>
+      <c r="XJ8" s="23"/>
+      <c r="XK8" s="23"/>
+      <c r="XL8" s="23"/>
+      <c r="XM8" s="23"/>
+      <c r="XN8" s="23"/>
+      <c r="XO8" s="23"/>
+      <c r="XP8" s="23"/>
+      <c r="XQ8" s="23"/>
+      <c r="XR8" s="23"/>
+      <c r="XS8" s="23"/>
+      <c r="XT8" s="23"/>
+      <c r="XU8" s="23"/>
+      <c r="XV8" s="23"/>
+      <c r="XW8" s="23"/>
+      <c r="XX8" s="23"/>
+      <c r="XY8" s="23"/>
+      <c r="XZ8" s="23"/>
+      <c r="YA8" s="23"/>
+      <c r="YB8" s="23"/>
+      <c r="YC8" s="23"/>
+      <c r="YD8" s="23"/>
+      <c r="YE8" s="23"/>
+      <c r="YF8" s="23"/>
+      <c r="YG8" s="23"/>
+      <c r="YH8" s="23"/>
+      <c r="YI8" s="23"/>
+      <c r="YJ8" s="23"/>
+      <c r="YK8" s="23"/>
+      <c r="YL8" s="23"/>
+      <c r="YM8" s="23"/>
+      <c r="YN8" s="23"/>
+      <c r="YO8" s="23"/>
+      <c r="YP8" s="23"/>
+      <c r="YQ8" s="23"/>
+      <c r="YR8" s="23"/>
+      <c r="YS8" s="23"/>
+      <c r="YT8" s="23"/>
+      <c r="YU8" s="23"/>
+      <c r="YV8" s="23"/>
+      <c r="YW8" s="23"/>
+      <c r="YX8" s="23"/>
+      <c r="YY8" s="23"/>
+      <c r="YZ8" s="23"/>
+      <c r="ZA8" s="23"/>
+      <c r="ZB8" s="23"/>
+      <c r="ZC8" s="23"/>
+      <c r="ZD8" s="23"/>
+      <c r="ZE8" s="23"/>
+      <c r="ZF8" s="23"/>
+      <c r="ZG8" s="23"/>
+      <c r="ZH8" s="23"/>
+      <c r="ZI8" s="23"/>
+      <c r="ZJ8" s="23"/>
+      <c r="ZK8" s="23"/>
+      <c r="ZL8" s="23"/>
+      <c r="ZM8" s="23"/>
+      <c r="ZN8" s="23"/>
+      <c r="ZO8" s="23"/>
+      <c r="ZP8" s="23"/>
+      <c r="ZQ8" s="23"/>
+      <c r="ZR8" s="23"/>
+      <c r="ZS8" s="23"/>
+      <c r="ZT8" s="23"/>
+      <c r="ZU8" s="23"/>
+      <c r="ZV8" s="23"/>
+      <c r="ZW8" s="23"/>
+      <c r="ZX8" s="23"/>
+      <c r="ZY8" s="23"/>
+      <c r="ZZ8" s="23"/>
+      <c r="AAA8" s="23"/>
+      <c r="AAB8" s="23"/>
+      <c r="AAC8" s="23"/>
+      <c r="AAD8" s="23"/>
+      <c r="AAE8" s="23"/>
+      <c r="AAF8" s="23"/>
+      <c r="AAG8" s="23"/>
+      <c r="AAH8" s="23"/>
+      <c r="AAI8" s="23"/>
+      <c r="AAJ8" s="23"/>
+      <c r="AAK8" s="23"/>
+      <c r="AAL8" s="23"/>
+      <c r="AAM8" s="23"/>
+      <c r="AAN8" s="23"/>
+      <c r="AAO8" s="23"/>
+      <c r="AAP8" s="23"/>
+      <c r="AAQ8" s="23"/>
+      <c r="AAR8" s="23"/>
+      <c r="AAS8" s="23"/>
+      <c r="AAT8" s="23"/>
+      <c r="AAU8" s="23"/>
+      <c r="AAV8" s="23"/>
+      <c r="AAW8" s="23"/>
+      <c r="AAX8" s="23"/>
+      <c r="AAY8" s="23"/>
+      <c r="AAZ8" s="23"/>
+      <c r="ABA8" s="23"/>
+      <c r="ABB8" s="23"/>
+      <c r="ABC8" s="23"/>
+      <c r="ABD8" s="23"/>
+      <c r="ABE8" s="23"/>
+      <c r="ABF8" s="23"/>
+      <c r="ABG8" s="23"/>
+      <c r="ABH8" s="23"/>
+      <c r="ABI8" s="23"/>
+      <c r="ABJ8" s="23"/>
+      <c r="ABK8" s="23"/>
+      <c r="ABL8" s="23"/>
+      <c r="ABM8" s="23"/>
+      <c r="ABN8" s="23"/>
+      <c r="ABO8" s="23"/>
+      <c r="ABP8" s="23"/>
+      <c r="ABQ8" s="23"/>
+      <c r="ABR8" s="23"/>
+      <c r="ABS8" s="23"/>
+      <c r="ABT8" s="23"/>
+      <c r="ABU8" s="23"/>
+      <c r="ABV8" s="23"/>
+      <c r="ABW8" s="23"/>
+      <c r="ABX8" s="23"/>
+      <c r="ABY8" s="23"/>
+      <c r="ABZ8" s="23"/>
+      <c r="ACA8" s="23"/>
+      <c r="ACB8" s="23"/>
+      <c r="ACC8" s="23"/>
+      <c r="ACD8" s="23"/>
+      <c r="ACE8" s="23"/>
+      <c r="ACF8" s="23"/>
+      <c r="ACG8" s="23"/>
+      <c r="ACH8" s="23"/>
+      <c r="ACI8" s="23"/>
+      <c r="ACJ8" s="23"/>
+      <c r="ACK8" s="23"/>
+      <c r="ACL8" s="23"/>
+      <c r="ACM8" s="23"/>
+      <c r="ACN8" s="23"/>
+      <c r="ACO8" s="23"/>
+      <c r="ACP8" s="23"/>
+      <c r="ACQ8" s="23"/>
+      <c r="ACR8" s="23"/>
+      <c r="ACS8" s="23"/>
+      <c r="ACT8" s="23"/>
+      <c r="ACU8" s="23"/>
+      <c r="ACV8" s="23"/>
+      <c r="ACW8" s="23"/>
+      <c r="ACX8" s="23"/>
+      <c r="ACY8" s="23"/>
+      <c r="ACZ8" s="23"/>
+      <c r="ADA8" s="23"/>
+      <c r="ADB8" s="23"/>
+      <c r="ADC8" s="23"/>
+      <c r="ADD8" s="23"/>
+      <c r="ADE8" s="23"/>
+      <c r="ADF8" s="23"/>
+      <c r="ADG8" s="23"/>
+      <c r="ADH8" s="23"/>
+      <c r="ADI8" s="23"/>
+      <c r="ADJ8" s="23"/>
+      <c r="ADK8" s="23"/>
+      <c r="ADL8" s="23"/>
+      <c r="ADM8" s="23"/>
+      <c r="ADN8" s="23"/>
+      <c r="ADO8" s="23"/>
+      <c r="ADP8" s="23"/>
+      <c r="ADQ8" s="23"/>
+      <c r="ADR8" s="23"/>
+      <c r="ADS8" s="23"/>
+      <c r="ADT8" s="23"/>
+      <c r="ADU8" s="23"/>
+      <c r="ADV8" s="23"/>
+      <c r="ADW8" s="23"/>
+      <c r="ADX8" s="23"/>
+      <c r="ADY8" s="23"/>
+      <c r="ADZ8" s="23"/>
+      <c r="AEA8" s="23"/>
+      <c r="AEB8" s="23"/>
+      <c r="AEC8" s="23"/>
+      <c r="AED8" s="23"/>
+      <c r="AEE8" s="23"/>
+      <c r="AEF8" s="23"/>
+      <c r="AEG8" s="23"/>
+      <c r="AEH8" s="23"/>
+      <c r="AEI8" s="23"/>
+      <c r="AEJ8" s="23"/>
+      <c r="AEK8" s="23"/>
+      <c r="AEL8" s="23"/>
+      <c r="AEM8" s="23"/>
+      <c r="AEN8" s="23"/>
+      <c r="AEO8" s="23"/>
+      <c r="AEP8" s="23"/>
+      <c r="AEQ8" s="23"/>
+      <c r="AER8" s="23"/>
+      <c r="AES8" s="23"/>
+      <c r="AET8" s="23"/>
+      <c r="AEU8" s="23"/>
+      <c r="AEV8" s="23"/>
+      <c r="AEW8" s="23"/>
+      <c r="AEX8" s="23"/>
+      <c r="AEY8" s="23"/>
+      <c r="AEZ8" s="23"/>
+      <c r="AFA8" s="23"/>
+      <c r="AFB8" s="23"/>
+      <c r="AFC8" s="23"/>
+      <c r="AFD8" s="23"/>
+      <c r="AFE8" s="23"/>
+      <c r="AFF8" s="23"/>
+      <c r="AFG8" s="23"/>
+      <c r="AFH8" s="23"/>
+      <c r="AFI8" s="23"/>
+      <c r="AFJ8" s="23"/>
+      <c r="AFK8" s="23"/>
+      <c r="AFL8" s="23"/>
+      <c r="AFM8" s="23"/>
+      <c r="AFN8" s="23"/>
+      <c r="AFO8" s="23"/>
+      <c r="AFP8" s="23"/>
+      <c r="AFQ8" s="23"/>
+      <c r="AFR8" s="23"/>
+      <c r="AFS8" s="23"/>
+      <c r="AFT8" s="23"/>
+      <c r="AFU8" s="23"/>
+      <c r="AFV8" s="23"/>
+      <c r="AFW8" s="23"/>
+      <c r="AFX8" s="23"/>
+      <c r="AFY8" s="23"/>
+      <c r="AFZ8" s="23"/>
+      <c r="AGA8" s="23"/>
+      <c r="AGB8" s="23"/>
+      <c r="AGC8" s="23"/>
+      <c r="AGD8" s="23"/>
+      <c r="AGE8" s="23"/>
+      <c r="AGF8" s="23"/>
+      <c r="AGG8" s="23"/>
+      <c r="AGH8" s="23"/>
+      <c r="AGI8" s="23"/>
+      <c r="AGJ8" s="23"/>
+      <c r="AGK8" s="23"/>
+      <c r="AGL8" s="23"/>
+      <c r="AGM8" s="23"/>
+      <c r="AGN8" s="23"/>
+      <c r="AGO8" s="23"/>
+      <c r="AGP8" s="23"/>
+      <c r="AGQ8" s="23"/>
+      <c r="AGR8" s="23"/>
+      <c r="AGS8" s="23"/>
+      <c r="AGT8" s="23"/>
+      <c r="AGU8" s="23"/>
+      <c r="AGV8" s="23"/>
+      <c r="AGW8" s="23"/>
+      <c r="AGX8" s="23"/>
+      <c r="AGY8" s="23"/>
+      <c r="AGZ8" s="23"/>
+      <c r="AHA8" s="23"/>
+      <c r="AHB8" s="23"/>
+      <c r="AHC8" s="23"/>
+      <c r="AHD8" s="23"/>
+      <c r="AHE8" s="23"/>
+      <c r="AHF8" s="23"/>
+      <c r="AHG8" s="23"/>
+      <c r="AHH8" s="23"/>
+      <c r="AHI8" s="23"/>
+      <c r="AHJ8" s="23"/>
+      <c r="AHK8" s="23"/>
+      <c r="AHL8" s="23"/>
+      <c r="AHM8" s="23"/>
+      <c r="AHN8" s="23"/>
+      <c r="AHO8" s="23"/>
+      <c r="AHP8" s="23"/>
+      <c r="AHQ8" s="23"/>
+      <c r="AHR8" s="23"/>
+      <c r="AHS8" s="23"/>
+      <c r="AHT8" s="23"/>
+      <c r="AHU8" s="23"/>
+      <c r="AHV8" s="23"/>
+      <c r="AHW8" s="23"/>
+      <c r="AHX8" s="23"/>
+      <c r="AHY8" s="23"/>
+      <c r="AHZ8" s="23"/>
+      <c r="AIA8" s="23"/>
+      <c r="AIB8" s="23"/>
+      <c r="AIC8" s="23"/>
+      <c r="AID8" s="23"/>
+      <c r="AIE8" s="23"/>
+      <c r="AIF8" s="23"/>
+      <c r="AIG8" s="23"/>
+      <c r="AIH8" s="23"/>
+      <c r="AII8" s="23"/>
+      <c r="AIJ8" s="23"/>
+      <c r="AIK8" s="23"/>
+      <c r="AIL8" s="23"/>
+      <c r="AIM8" s="23"/>
+      <c r="AIN8" s="23"/>
+      <c r="AIO8" s="23"/>
+      <c r="AIP8" s="23"/>
+      <c r="AIQ8" s="23"/>
+      <c r="AIR8" s="23"/>
+      <c r="AIS8" s="23"/>
+      <c r="AIT8" s="23"/>
+      <c r="AIU8" s="23"/>
+      <c r="AIV8" s="23"/>
+      <c r="AIW8" s="23"/>
+      <c r="AIX8" s="23"/>
+      <c r="AIY8" s="23"/>
+      <c r="AIZ8" s="23"/>
+      <c r="AJA8" s="23"/>
+      <c r="AJB8" s="23"/>
+      <c r="AJC8" s="23"/>
+      <c r="AJD8" s="23"/>
+      <c r="AJE8" s="23"/>
+      <c r="AJF8" s="23"/>
+      <c r="AJG8" s="23"/>
+      <c r="AJH8" s="23"/>
+      <c r="AJI8" s="23"/>
+      <c r="AJJ8" s="23"/>
+      <c r="AJK8" s="23"/>
+      <c r="AJL8" s="23"/>
+      <c r="AJM8" s="23"/>
+      <c r="AJN8" s="23"/>
+      <c r="AJO8" s="23"/>
+      <c r="AJP8" s="23"/>
+      <c r="AJQ8" s="23"/>
+      <c r="AJR8" s="23"/>
+      <c r="AJS8" s="23"/>
+      <c r="AJT8" s="23"/>
+      <c r="AJU8" s="23"/>
+      <c r="AJV8" s="23"/>
+      <c r="AJW8" s="23"/>
+      <c r="AJX8" s="23"/>
+      <c r="AJY8" s="23"/>
+      <c r="AJZ8" s="23"/>
+      <c r="AKA8" s="23"/>
+      <c r="AKB8" s="23"/>
+      <c r="AKC8" s="23"/>
+      <c r="AKD8" s="23"/>
+      <c r="AKE8" s="23"/>
+      <c r="AKF8" s="23"/>
+      <c r="AKG8" s="23"/>
+      <c r="AKH8" s="23"/>
+      <c r="AKI8" s="23"/>
+      <c r="AKJ8" s="23"/>
+      <c r="AKK8" s="23"/>
+      <c r="AKL8" s="23"/>
+      <c r="AKM8" s="23"/>
+      <c r="AKN8" s="23"/>
+      <c r="AKO8" s="23"/>
+      <c r="AKP8" s="23"/>
+      <c r="AKQ8" s="23"/>
+      <c r="AKR8" s="23"/>
+      <c r="AKS8" s="23"/>
+      <c r="AKT8" s="23"/>
+      <c r="AKU8" s="23"/>
+      <c r="AKV8" s="23"/>
+      <c r="AKW8" s="23"/>
+      <c r="AKX8" s="23"/>
+      <c r="AKY8" s="23"/>
+      <c r="AKZ8" s="23"/>
+      <c r="ALA8" s="23"/>
+      <c r="ALB8" s="23"/>
+      <c r="ALC8" s="23"/>
+      <c r="ALD8" s="23"/>
+      <c r="ALE8" s="23"/>
+      <c r="ALF8" s="23"/>
+      <c r="ALG8" s="23"/>
+      <c r="ALH8" s="23"/>
+      <c r="ALI8" s="23"/>
+      <c r="ALJ8" s="23"/>
+      <c r="ALK8" s="23"/>
+      <c r="ALL8" s="23"/>
+      <c r="ALM8" s="23"/>
+      <c r="ALN8" s="23"/>
+      <c r="ALO8" s="23"/>
+      <c r="ALP8" s="23"/>
+      <c r="ALQ8" s="23"/>
+      <c r="ALR8" s="23"/>
+      <c r="ALS8" s="23"/>
+      <c r="ALT8" s="23"/>
+      <c r="ALU8" s="23"/>
+      <c r="ALV8" s="23"/>
+      <c r="ALW8" s="23"/>
+      <c r="ALX8" s="23"/>
+      <c r="ALY8" s="23"/>
+      <c r="ALZ8" s="23"/>
+      <c r="AMA8" s="23"/>
+      <c r="AMB8" s="23"/>
+    </row>
+    <row r="9" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.122</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AMA9"/>
+      <c r="AMB9"/>
+      <c r="AMC9"/>
+      <c r="AMD9"/>
+      <c r="AME9"/>
+      <c r="AMF9"/>
+      <c r="AMG9"/>
+      <c r="AMH9"/>
+    </row>
+    <row r="10" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1997</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2001</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2002</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2003</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="25">
+        <v>282</v>
+      </c>
+      <c r="F17" s="25">
+        <v>394</v>
+      </c>
+      <c r="G17" s="25">
+        <v>556</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1050</v>
+      </c>
+      <c r="I17" s="25">
+        <v>1117</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="25">
+        <v>7</v>
+      </c>
+      <c r="F18" s="25">
+        <v>5</v>
+      </c>
+      <c r="G18" s="25">
+        <v>3</v>
+      </c>
+      <c r="H18" s="25">
+        <v>6</v>
+      </c>
+      <c r="I18" s="25">
+        <v>7</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="25">
+        <v>1</v>
+      </c>
+      <c r="F19" s="25">
+        <v>1</v>
+      </c>
+      <c r="G19" s="25">
+        <v>3</v>
+      </c>
+      <c r="H19" s="25">
+        <v>4</v>
+      </c>
+      <c r="I19" s="25">
+        <v>4</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I20" s="21">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AMF20"/>
+      <c r="AMG20"/>
+      <c r="AMH20"/>
+    </row>
+    <row r="21" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A21"/>
+      <c r="AMF21"/>
+      <c r="AMG21"/>
+      <c r="AMH21"/>
+    </row>
+    <row r="24" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A25" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1022" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2107,14 +3538,14 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2"/>
-    <col min="2" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="2"/>
+    <col min="2" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +3595,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2229,7 +3660,7 @@
         <v>4.422781839516202E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2269,7 +3700,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2309,7 +3740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2359,7 +3790,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2423,16 +3854,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2"/>
-    <col min="2" max="2" width="11.85546875"/>
-    <col min="3" max="6" width="8.28515625"/>
-    <col min="7" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="2"/>
+    <col min="2" max="2" width="11.81640625"/>
+    <col min="3" max="6" width="8.26953125"/>
+    <col min="7" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2482,7 +3913,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2547,7 +3978,7 @@
         <v>2.0918025022694082E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2582,7 +4013,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2617,7 +4048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2667,7 +4098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2725,313 +4156,515 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK6"/>
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2"/>
-    <col min="2" max="15" width="8.5703125" style="1"/>
-    <col min="16" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="36.90625" style="2" customWidth="1"/>
+    <col min="2" max="15" width="8.54296875" style="1"/>
+    <col min="16" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" spans="1:1025" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13">
+        <v>2006</v>
+      </c>
+      <c r="C1" s="13">
+        <v>2007</v>
+      </c>
+      <c r="D1" s="13">
+        <v>2008</v>
+      </c>
+      <c r="E1" s="13">
+        <v>2009</v>
+      </c>
+      <c r="F1" s="13">
+        <v>2010</v>
+      </c>
+      <c r="G1" s="13">
+        <v>2011</v>
+      </c>
+      <c r="H1" s="13">
+        <v>2012</v>
+      </c>
+      <c r="I1" s="13">
+        <v>2013</v>
+      </c>
+      <c r="J1" s="13">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>305</v>
+      </c>
+      <c r="C2" s="15">
+        <v>360</v>
+      </c>
+      <c r="D2" s="15">
+        <v>309</v>
+      </c>
+      <c r="E2" s="15">
+        <v>304</v>
+      </c>
+      <c r="F2" s="15">
+        <v>731</v>
+      </c>
+      <c r="G2" s="15">
+        <v>615</v>
+      </c>
+      <c r="H2" s="15">
+        <v>845</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1453</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1315</v>
+      </c>
+      <c r="AMB2"/>
+      <c r="AMC2"/>
+      <c r="AMD2"/>
+      <c r="AME2"/>
+      <c r="AMF2"/>
+      <c r="AMG2"/>
+      <c r="AMH2"/>
+      <c r="AMI2"/>
+      <c r="AMJ2"/>
+      <c r="AMK2"/>
+    </row>
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15">
+        <v>6</v>
+      </c>
+      <c r="D3" s="15">
+        <v>9</v>
+      </c>
+      <c r="E3" s="15">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15">
+        <v>116</v>
+      </c>
+      <c r="G3" s="15">
+        <v>182</v>
+      </c>
+      <c r="H3" s="15">
+        <v>265</v>
+      </c>
+      <c r="I3" s="15">
+        <v>523</v>
+      </c>
+      <c r="J3" s="15">
+        <v>477</v>
+      </c>
+      <c r="AMB3"/>
+      <c r="AMC3"/>
+      <c r="AMD3"/>
+      <c r="AME3"/>
+      <c r="AMF3"/>
+      <c r="AMG3"/>
+      <c r="AMH3"/>
+      <c r="AMI3"/>
+      <c r="AMJ3"/>
+      <c r="AMK3"/>
+    </row>
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>183</v>
+      </c>
+      <c r="C4" s="17">
+        <v>184</v>
+      </c>
+      <c r="D4" s="17">
+        <v>161</v>
+      </c>
+      <c r="E4" s="17">
+        <v>188</v>
+      </c>
+      <c r="F4" s="17">
+        <v>509</v>
+      </c>
+      <c r="G4" s="17">
+        <v>316</v>
+      </c>
+      <c r="H4" s="17">
+        <v>682</v>
+      </c>
+      <c r="I4" s="17">
+        <v>788</v>
+      </c>
+      <c r="J4" s="17">
+        <v>753</v>
+      </c>
+      <c r="AMB4"/>
+      <c r="AMC4"/>
+      <c r="AMD4"/>
+      <c r="AME4"/>
+      <c r="AMF4"/>
+      <c r="AMG4"/>
+      <c r="AMH4"/>
+      <c r="AMI4"/>
+      <c r="AMJ4"/>
+      <c r="AMK4"/>
+    </row>
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>47</v>
+      </c>
+      <c r="C5" s="17">
+        <v>59</v>
+      </c>
+      <c r="D5" s="17">
+        <v>59</v>
+      </c>
+      <c r="E5" s="17">
+        <v>65</v>
+      </c>
+      <c r="F5" s="17">
+        <v>134</v>
+      </c>
+      <c r="G5" s="17">
+        <v>82</v>
+      </c>
+      <c r="H5" s="17">
+        <v>200</v>
+      </c>
+      <c r="I5" s="17">
+        <v>243</v>
+      </c>
+      <c r="J5" s="17">
+        <v>223</v>
+      </c>
+      <c r="AMB5"/>
+      <c r="AMC5"/>
+      <c r="AMD5"/>
+      <c r="AME5"/>
+      <c r="AMF5"/>
+      <c r="AMG5"/>
+      <c r="AMH5"/>
+      <c r="AMI5"/>
+      <c r="AMJ5"/>
+      <c r="AMK5"/>
+    </row>
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="19">
+        <v>978</v>
+      </c>
+      <c r="D6" s="19">
+        <v>45</v>
+      </c>
+      <c r="E6" s="19">
+        <v>849</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2593</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1854</v>
+      </c>
+      <c r="H6" s="19">
+        <v>3021</v>
+      </c>
+      <c r="I6" s="19">
+        <v>3989</v>
+      </c>
+      <c r="J6" s="19">
+        <v>3696</v>
+      </c>
+      <c r="AMB6"/>
+      <c r="AMC6"/>
+      <c r="AMD6"/>
+      <c r="AME6"/>
+      <c r="AMF6"/>
+      <c r="AMG6"/>
+      <c r="AMH6"/>
+      <c r="AMI6"/>
+      <c r="AMJ6"/>
+      <c r="AMK6"/>
+    </row>
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>4</v>
+      </c>
+      <c r="G7" s="19">
+        <v>3</v>
+      </c>
+      <c r="H7" s="19">
+        <v>11</v>
+      </c>
+      <c r="I7" s="19">
+        <v>33</v>
+      </c>
+      <c r="J7" s="19">
+        <v>13</v>
+      </c>
+      <c r="AMB7"/>
+      <c r="AMC7"/>
+      <c r="AMD7"/>
+      <c r="AME7"/>
+      <c r="AMF7"/>
+      <c r="AMG7"/>
+      <c r="AMH7"/>
+      <c r="AMI7"/>
+      <c r="AMJ7"/>
+      <c r="AMK7"/>
+    </row>
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="20">
+        <v>75</v>
+      </c>
+      <c r="C8" s="20">
+        <v>80</v>
+      </c>
+      <c r="D8" s="20">
+        <v>85</v>
+      </c>
+      <c r="E8" s="20">
+        <v>89</v>
+      </c>
+      <c r="F8" s="20">
+        <v>86</v>
+      </c>
+      <c r="G8" s="20">
+        <v>87</v>
+      </c>
+      <c r="H8" s="20">
+        <v>92</v>
+      </c>
+      <c r="I8" s="20">
+        <v>98</v>
+      </c>
+      <c r="J8" s="20">
+        <v>103</v>
+      </c>
+      <c r="ALZ8"/>
+      <c r="AMA8"/>
+      <c r="AMB8"/>
+      <c r="AMC8"/>
+      <c r="AMD8"/>
+      <c r="AME8"/>
+      <c r="AMF8"/>
+      <c r="AMG8"/>
+      <c r="AMH8"/>
+      <c r="AMI8"/>
+      <c r="AMJ8"/>
+      <c r="AMK8"/>
+    </row>
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D9" s="20">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G9" s="20">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H9" s="20">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I9" s="20">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="ALZ9"/>
+      <c r="AMA9"/>
+      <c r="AMB9"/>
+      <c r="AMC9"/>
+      <c r="AMD9"/>
+      <c r="AME9"/>
+      <c r="AMF9"/>
+      <c r="AMG9"/>
+      <c r="AMH9"/>
+      <c r="AMI9"/>
+      <c r="AMJ9"/>
+      <c r="AMK9"/>
+    </row>
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="ALZ10"/>
+      <c r="AMA10"/>
+      <c r="AMB10"/>
+      <c r="AMC10"/>
+      <c r="AMD10"/>
+      <c r="AME10"/>
+      <c r="AMF10"/>
+      <c r="AMG10"/>
+      <c r="AMH10"/>
+      <c r="AMI10"/>
+      <c r="AMJ10"/>
+      <c r="AMK10"/>
+    </row>
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="AMF11"/>
+      <c r="AMG11"/>
+      <c r="AMH11"/>
+      <c r="AMI11"/>
+      <c r="AMJ11"/>
+      <c r="AMK11"/>
+    </row>
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="13">
         <v>2000</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C14" s="13">
         <v>2001</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D14" s="13">
         <v>2002</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E14" s="13">
         <v>2003</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F14" s="13">
         <v>2004</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G14" s="13">
         <v>2005</v>
       </c>
-      <c r="H1" s="2">
-        <v>2006</v>
-      </c>
-      <c r="I1" s="2">
-        <v>2007</v>
-      </c>
-      <c r="J1" s="2">
-        <v>2008</v>
-      </c>
-      <c r="K1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="L1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="M1" s="2">
-        <v>2011</v>
-      </c>
-      <c r="N1" s="2">
-        <v>2012</v>
-      </c>
-      <c r="O1" s="2">
-        <v>2013</v>
-      </c>
-      <c r="P1" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <f t="shared" ref="B2:P2" si="0">B5/B6</f>
-        <v>4.2449189606380243E-3</v>
-      </c>
-      <c r="C2" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0083867784903799E-3</v>
-      </c>
-      <c r="D2" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0483269023973683E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1642642065475048E-3</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2675201707008071E-3</v>
-      </c>
-      <c r="G2" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5257645309368334E-3</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" si="0"/>
-        <v>4.8515427906074132E-3</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" si="0"/>
-        <v>5.0075112669003509E-3</v>
-      </c>
-      <c r="J2" s="1">
-        <f t="shared" si="0"/>
-        <v>5.1693729854649399E-3</v>
-      </c>
-      <c r="K2" s="1">
-        <f t="shared" si="0"/>
-        <v>5.4001577574176321E-3</v>
-      </c>
-      <c r="L2" s="1">
-        <f t="shared" si="0"/>
-        <v>5.5075248158821645E-3</v>
-      </c>
-      <c r="M2" s="1">
-        <f t="shared" si="0"/>
-        <v>5.5361119949093223E-3</v>
-      </c>
-      <c r="N2" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1513773736293128E-3</v>
-      </c>
-      <c r="O2" s="1">
-        <f t="shared" si="0"/>
-        <v>6.443129520052597E-3</v>
-      </c>
-      <c r="P2" s="1">
-        <f t="shared" si="0"/>
-        <v>7.0795243659358027E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="1">
-        <v>305</v>
-      </c>
-      <c r="I3" s="1">
-        <v>360</v>
-      </c>
-      <c r="J3" s="1">
-        <v>309</v>
-      </c>
-      <c r="K3" s="1">
-        <v>304</v>
-      </c>
-      <c r="L3" s="1">
-        <v>731</v>
-      </c>
-      <c r="M3" s="1">
-        <v>615</v>
-      </c>
-      <c r="N3" s="1">
-        <v>845</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1453</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4" s="1">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1">
-        <v>116</v>
-      </c>
-      <c r="M4" s="1">
-        <v>182</v>
-      </c>
-      <c r="N4" s="1">
-        <v>265</v>
-      </c>
-      <c r="O4" s="1">
-        <v>523</v>
-      </c>
-      <c r="P4" s="1">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
+    </row>
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="20">
         <v>66</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C15" s="20">
         <v>65</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D15" s="20">
         <v>64</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E15" s="20">
         <v>65</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F15" s="20">
         <v>64</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G15" s="20">
         <v>70</v>
       </c>
-      <c r="H5" s="1">
-        <v>75</v>
-      </c>
-      <c r="I5" s="1">
-        <v>80</v>
-      </c>
-      <c r="J5" s="1">
-        <v>85</v>
-      </c>
-      <c r="K5" s="1">
-        <v>89</v>
-      </c>
-      <c r="L5" s="1">
-        <v>86</v>
-      </c>
-      <c r="M5" s="1">
-        <v>87</v>
-      </c>
-      <c r="N5" s="1">
-        <v>92</v>
-      </c>
-      <c r="O5" s="1">
-        <v>98</v>
-      </c>
-      <c r="P5" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15548</v>
-      </c>
-      <c r="C6" s="1">
-        <v>16216</v>
-      </c>
-      <c r="D6" s="1">
-        <v>15809</v>
-      </c>
-      <c r="E6" s="1">
-        <v>15609</v>
-      </c>
-      <c r="F6" s="1">
-        <v>14997</v>
-      </c>
-      <c r="G6" s="1">
-        <v>15467</v>
-      </c>
-      <c r="H6" s="1">
-        <v>15459</v>
-      </c>
-      <c r="I6" s="1">
-        <v>15976</v>
-      </c>
-      <c r="J6" s="1">
-        <v>16443</v>
-      </c>
-      <c r="K6" s="1">
-        <v>16481</v>
-      </c>
-      <c r="L6" s="1">
-        <v>15615</v>
-      </c>
-      <c r="M6" s="1">
-        <v>15715</v>
-      </c>
-      <c r="N6" s="1">
-        <v>14956</v>
-      </c>
-      <c r="O6" s="1">
-        <v>15210</v>
-      </c>
-      <c r="P6" s="1">
-        <v>14549</v>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3043,15 +4676,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1"/>
-    <col min="2" max="6" width="8.28515625"/>
-    <col min="7" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="6" width="8.26953125"/>
+    <col min="7" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3101,7 +4734,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3166,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3199,7 +4832,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3232,7 +4865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -3282,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3332,12 +4965,12 @@
         <v>8319</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3354,15 +4987,15 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2"/>
-    <col min="2" max="6" width="8.28515625"/>
-    <col min="7" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="2"/>
+    <col min="2" max="6" width="8.26953125"/>
+    <col min="7" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3412,7 +5045,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4485,7 +6118,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4517,7 +6150,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4549,7 +6182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -4599,7 +6232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4663,15 +6296,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1"/>
-    <col min="2" max="6" width="8.28515625"/>
-    <col min="7" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="6" width="8.26953125"/>
+    <col min="7" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5729,7 +7362,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6802,7 +8435,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -6834,7 +8467,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6866,7 +8499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -6916,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -6976,17 +8609,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="2"/>
-    <col min="2" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="16.453125" style="2"/>
+    <col min="2" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7036,7 +8669,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -7101,7 +8734,7 @@
         <v>1.0201135598113753E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -7141,7 +8774,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7181,7 +8814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -7231,7 +8864,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -7281,16 +8914,16 @@
         <v>10391</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -7309,19 +8942,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2"/>
-    <col min="2" max="6" width="8.28515625"/>
-    <col min="7" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="2"/>
+    <col min="2" max="6" width="8.26953125"/>
+    <col min="7" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7371,7 +9004,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -7431,7 +9064,7 @@
         <v>2.2514839325919354E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -7466,7 +9099,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7501,7 +9134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -7551,7 +9184,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -7609,341 +9242,650 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK6"/>
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:AML20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="2"/>
-    <col min="2" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="36.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="1024" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" spans="1:1026" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13">
         <v>1999</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="13">
         <v>2000</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="13">
         <v>2001</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="13">
         <v>2002</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="13">
         <v>2003</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="13">
         <v>2004</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="13">
         <v>2005</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="13">
         <v>2006</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="13">
         <v>2007</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="13">
         <v>2008</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="13">
         <v>2009</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="13">
         <v>2010</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="13">
         <v>2011</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="13">
         <v>2012</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="13">
         <v>2013</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="13">
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <f t="shared" ref="C2:Q2" si="0">C5/C6</f>
-        <v>1.3284855264997903E-3</v>
-      </c>
-      <c r="D2" s="1">
-        <f t="shared" si="0"/>
-        <v>1.287001287001287E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4781966001478197E-3</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" si="0"/>
-        <v>1.639680262348842E-3</v>
-      </c>
-      <c r="G2" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7268771154244664E-3</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7880794701986755E-3</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" si="0"/>
-        <v>1.9800715380684721E-3</v>
-      </c>
-      <c r="J2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1297920320721623E-3</v>
-      </c>
-      <c r="K2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4097913628004313E-3</v>
-      </c>
-      <c r="L2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.3428348301444747E-3</v>
-      </c>
-      <c r="M2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.306805074971165E-3</v>
-      </c>
-      <c r="N2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2896039603960395E-3</v>
-      </c>
-      <c r="O2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.3453894580915935E-3</v>
-      </c>
-      <c r="P2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6560424966799467E-3</v>
-      </c>
-      <c r="Q2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.672514219146166E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
+      <c r="D2" s="15">
+        <v>9</v>
+      </c>
+      <c r="E2" s="15">
+        <v>15</v>
+      </c>
+      <c r="F2" s="15">
+        <v>21</v>
+      </c>
+      <c r="G2" s="15">
+        <v>30</v>
+      </c>
+      <c r="H2" s="15">
+        <v>161</v>
+      </c>
+      <c r="I2" s="15">
+        <v>221</v>
+      </c>
+      <c r="J2" s="15">
+        <v>274</v>
+      </c>
+      <c r="K2" s="15">
+        <v>297</v>
+      </c>
+      <c r="L2" s="15">
+        <v>352</v>
+      </c>
+      <c r="M2" s="15">
+        <v>448</v>
+      </c>
+      <c r="N2" s="15">
+        <v>443</v>
+      </c>
+      <c r="O2" s="15">
+        <v>623</v>
+      </c>
+      <c r="P2" s="15">
+        <v>645</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>746</v>
+      </c>
+      <c r="AMI2"/>
+      <c r="AMJ2"/>
+    </row>
+    <row r="3" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>2</v>
+      </c>
+      <c r="L3" s="15">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15">
+        <v>3</v>
+      </c>
+      <c r="P3" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AMI3"/>
+      <c r="AMJ3"/>
+    </row>
+    <row r="4" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17">
+        <v>9</v>
+      </c>
+      <c r="D4" s="17">
+        <v>15</v>
+      </c>
+      <c r="E4" s="17">
+        <v>20</v>
+      </c>
+      <c r="F4" s="17">
+        <v>21</v>
+      </c>
+      <c r="G4" s="17">
+        <v>26</v>
+      </c>
+      <c r="H4" s="17">
+        <v>87</v>
+      </c>
+      <c r="I4" s="17">
+        <v>85</v>
+      </c>
+      <c r="J4" s="17">
+        <v>97</v>
+      </c>
+      <c r="K4" s="17">
+        <v>146</v>
+      </c>
+      <c r="L4" s="17">
+        <v>166</v>
+      </c>
+      <c r="M4" s="17">
+        <v>168</v>
+      </c>
+      <c r="N4" s="17">
+        <v>148</v>
+      </c>
+      <c r="O4" s="17">
+        <v>208</v>
+      </c>
+      <c r="P4" s="17">
+        <v>206</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>256</v>
+      </c>
+      <c r="AMI4"/>
+      <c r="AMJ4"/>
+    </row>
+    <row r="5" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <v>12</v>
+      </c>
+      <c r="I5" s="17">
+        <v>12</v>
+      </c>
+      <c r="J5" s="17">
+        <v>14</v>
+      </c>
+      <c r="K5" s="17">
+        <v>17</v>
+      </c>
+      <c r="L5" s="17">
+        <v>15</v>
+      </c>
+      <c r="M5" s="17">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="N5" s="17">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="O5" s="17">
+        <v>20</v>
+      </c>
+      <c r="P5" s="17">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>35</v>
+      </c>
+      <c r="AMI5"/>
+      <c r="AMJ5"/>
+    </row>
+    <row r="6" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="19">
+        <v>476</v>
+      </c>
+      <c r="C6" s="19">
+        <v>618</v>
+      </c>
+      <c r="D6" s="19">
+        <v>622</v>
+      </c>
+      <c r="E6" s="19">
+        <v>753</v>
+      </c>
+      <c r="F6" s="19">
+        <v>782</v>
+      </c>
+      <c r="G6" s="19">
+        <v>936</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1110</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1383</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1456</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1544</v>
+      </c>
+      <c r="L6" s="19">
+        <v>1577</v>
+      </c>
+      <c r="M6" s="19">
+        <v>2089</v>
+      </c>
+      <c r="N6" s="19">
+        <v>2588</v>
+      </c>
+      <c r="O6" s="19">
+        <v>3023</v>
+      </c>
+      <c r="P6" s="19">
+        <v>3079</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>3420</v>
+      </c>
+      <c r="AMI6"/>
+      <c r="AMJ6"/>
+    </row>
+    <row r="7" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="19">
+        <v>3</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>2</v>
+      </c>
+      <c r="G7" s="19">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>21</v>
-      </c>
-      <c r="G3">
+      <c r="H7" s="19">
+        <v>3</v>
+      </c>
+      <c r="I7" s="19">
+        <v>3</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>3</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>2</v>
+      </c>
+      <c r="O7" s="19">
+        <v>1</v>
+      </c>
+      <c r="P7" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AMI7"/>
+      <c r="AMJ7"/>
+    </row>
+    <row r="8" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="1">
+        <v>14302</v>
+      </c>
+      <c r="D8" s="1">
+        <v>14763</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14883</v>
+      </c>
+      <c r="F8" s="1">
+        <v>14637</v>
+      </c>
+      <c r="G8" s="1">
+        <v>14477</v>
+      </c>
+      <c r="H8" s="1">
+        <v>15100</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15656</v>
+      </c>
+      <c r="J8" s="1">
+        <v>15964</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15769</v>
+      </c>
+      <c r="L8" s="1">
+        <v>15366</v>
+      </c>
+      <c r="M8" s="1">
+        <v>15606</v>
+      </c>
+      <c r="N8" s="1">
+        <v>16160</v>
+      </c>
+      <c r="O8" s="1">
+        <v>16202</v>
+      </c>
+      <c r="P8" s="1">
+        <v>15060</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>14593</v>
+      </c>
+      <c r="AMG8"/>
+      <c r="AMH8"/>
+      <c r="AMI8"/>
+      <c r="AMJ8"/>
+    </row>
+    <row r="9" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G9" s="20">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H9" s="20">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I9" s="20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J9" s="20">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K9" s="20">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L9" s="20">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M9" s="20">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N9" s="20">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O9" s="20">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="P9" s="20">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AMG9"/>
+      <c r="AMH9"/>
+      <c r="AMI9"/>
+      <c r="AMJ9"/>
+    </row>
+    <row r="10" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="AMG10"/>
+      <c r="AMH10"/>
+      <c r="AMI10"/>
+      <c r="AMJ10"/>
+    </row>
+    <row r="11" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="AMG11"/>
+      <c r="AMH11"/>
+      <c r="AMI11"/>
+      <c r="AMJ11"/>
+    </row>
+    <row r="12" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="AMK12" s="1"/>
+      <c r="AML12" s="1"/>
+    </row>
+    <row r="15" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H3">
-        <v>161</v>
-      </c>
-      <c r="I3">
-        <v>221</v>
-      </c>
-      <c r="J3">
-        <v>274</v>
-      </c>
-      <c r="K3">
-        <v>297</v>
-      </c>
-      <c r="L3">
-        <v>352</v>
-      </c>
-      <c r="M3">
-        <v>448</v>
-      </c>
-      <c r="N3">
-        <v>443</v>
-      </c>
-      <c r="O3">
-        <v>623</v>
-      </c>
-      <c r="P3">
-        <v>645</v>
-      </c>
-      <c r="Q3">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>27</v>
-      </c>
-      <c r="I5">
-        <v>31</v>
-      </c>
-      <c r="J5">
-        <v>34</v>
-      </c>
-      <c r="K5">
-        <v>38</v>
-      </c>
-      <c r="L5">
-        <v>36</v>
-      </c>
-      <c r="M5">
-        <v>36</v>
-      </c>
-      <c r="N5">
-        <v>37</v>
-      </c>
-      <c r="O5">
-        <v>38</v>
-      </c>
-      <c r="P5">
-        <v>40</v>
-      </c>
-      <c r="Q5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
-        <v>14302</v>
-      </c>
-      <c r="D6" s="1">
-        <v>14763</v>
-      </c>
-      <c r="E6" s="1">
-        <v>14883</v>
-      </c>
-      <c r="F6" s="1">
-        <v>14637</v>
-      </c>
-      <c r="G6" s="1">
-        <v>14477</v>
-      </c>
-      <c r="H6" s="1">
-        <v>15100</v>
-      </c>
-      <c r="I6" s="1">
-        <v>15656</v>
-      </c>
-      <c r="J6" s="1">
-        <v>15964</v>
-      </c>
-      <c r="K6" s="1">
-        <v>15769</v>
-      </c>
-      <c r="L6" s="1">
-        <v>15366</v>
-      </c>
-      <c r="M6" s="1">
-        <v>15606</v>
-      </c>
-      <c r="N6" s="1">
-        <v>16160</v>
-      </c>
-      <c r="O6" s="1">
-        <v>16202</v>
-      </c>
-      <c r="P6" s="1">
-        <v>15060</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>14593</v>
-      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="25"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7959,15 +9901,15 @@
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2"/>
-    <col min="2" max="6" width="8.28515625"/>
-    <col min="7" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="2"/>
+    <col min="2" max="6" width="8.26953125"/>
+    <col min="7" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8017,7 +9959,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -8082,7 +10024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -8115,7 +10057,7 @@
       </c>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -8148,7 +10090,7 @@
       </c>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -8198,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -8262,14 +10204,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2"/>
-    <col min="2" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="2"/>
+    <col min="2" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8319,7 +10261,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -8384,7 +10326,7 @@
         <v>8.1076418837329658E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -8420,7 +10362,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -8456,7 +10398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -8506,7 +10448,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -8567,18 +10509,18 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2"/>
-    <col min="2" max="6" width="8.28515625"/>
-    <col min="7" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="2"/>
+    <col min="2" max="6" width="8.26953125"/>
+    <col min="7" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8628,7 +10570,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -8693,7 +10635,7 @@
         <v>7.3943987429522135E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -8728,7 +10670,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -8763,7 +10705,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -8813,7 +10755,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -8877,14 +10819,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1"/>
-    <col min="2" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8934,7 +10876,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -8999,7 +10941,7 @@
         <v>1.5139499675582151E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -9027,7 +10969,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -9055,7 +10997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -9105,7 +11047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -9169,14 +11111,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1"/>
-    <col min="2" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9226,7 +11168,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -9291,7 +11233,7 @@
         <v>3.7306472673008769E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -9331,7 +11273,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -9371,7 +11313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -9421,7 +11363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -9485,15 +11427,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1"/>
-    <col min="2" max="6" width="8.28515625"/>
-    <col min="7" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="8.453125" style="1"/>
+    <col min="2" max="6" width="8.26953125"/>
+    <col min="7" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10551,7 +12493,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -11624,7 +13566,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -11659,7 +13601,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -11694,7 +13636,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -11744,7 +13686,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -11808,15 +13750,15 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2"/>
-    <col min="2" max="6" width="8.28515625"/>
-    <col min="7" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="2"/>
+    <col min="2" max="6" width="8.26953125"/>
+    <col min="7" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11866,7 +13808,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -11931,7 +13873,7 @@
         <v>5.6581874455943516E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -11966,7 +13908,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -12001,7 +13943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -12051,7 +13993,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -12109,304 +14051,506 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK6"/>
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="6" width="8.28515625"/>
-    <col min="7" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="36.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.26953125"/>
+    <col min="7" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="10.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12">
+    <row r="1" spans="1:1025" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13">
+        <v>2005</v>
+      </c>
+      <c r="C1" s="13">
+        <v>2006</v>
+      </c>
+      <c r="D1" s="13">
+        <v>2007</v>
+      </c>
+      <c r="E1" s="13">
+        <v>2008</v>
+      </c>
+      <c r="F1" s="13">
+        <v>2009</v>
+      </c>
+      <c r="G1" s="13">
+        <v>2010</v>
+      </c>
+      <c r="H1" s="13">
+        <v>2011</v>
+      </c>
+      <c r="I1" s="13">
+        <v>2012</v>
+      </c>
+      <c r="J1" s="13">
+        <v>2013</v>
+      </c>
+      <c r="K1" s="13">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>275</v>
+      </c>
+      <c r="C2" s="15">
+        <v>286</v>
+      </c>
+      <c r="D2" s="15">
+        <v>302</v>
+      </c>
+      <c r="E2" s="15">
+        <v>242</v>
+      </c>
+      <c r="F2" s="15">
+        <v>591</v>
+      </c>
+      <c r="G2" s="15">
+        <v>677</v>
+      </c>
+      <c r="H2" s="15">
+        <v>825</v>
+      </c>
+      <c r="I2" s="15">
+        <v>888</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1051</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1069</v>
+      </c>
+      <c r="AMC2"/>
+      <c r="AMD2"/>
+      <c r="AME2"/>
+      <c r="AMF2"/>
+      <c r="AMG2"/>
+      <c r="AMH2"/>
+      <c r="AMI2"/>
+      <c r="AMJ2"/>
+      <c r="AMK2"/>
+    </row>
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15">
+        <v>3</v>
+      </c>
+      <c r="G3" s="15">
+        <v>3</v>
+      </c>
+      <c r="H3" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3" s="15">
+        <v>8</v>
+      </c>
+      <c r="J3" s="15">
+        <v>7</v>
+      </c>
+      <c r="K3" s="15">
+        <v>12</v>
+      </c>
+      <c r="AMC3"/>
+      <c r="AMD3"/>
+      <c r="AME3"/>
+      <c r="AMF3"/>
+      <c r="AMG3"/>
+      <c r="AMH3"/>
+      <c r="AMI3"/>
+      <c r="AMJ3"/>
+      <c r="AMK3"/>
+    </row>
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>358</v>
+      </c>
+      <c r="C4" s="17">
+        <v>258</v>
+      </c>
+      <c r="D4" s="17">
+        <v>261</v>
+      </c>
+      <c r="E4" s="17">
+        <v>251</v>
+      </c>
+      <c r="F4" s="17">
+        <v>508</v>
+      </c>
+      <c r="G4" s="17">
+        <v>493</v>
+      </c>
+      <c r="H4" s="17">
+        <v>540</v>
+      </c>
+      <c r="I4" s="17">
+        <v>603</v>
+      </c>
+      <c r="J4" s="17">
+        <v>671</v>
+      </c>
+      <c r="K4" s="17">
+        <v>590</v>
+      </c>
+      <c r="AMC4"/>
+      <c r="AMD4"/>
+      <c r="AME4"/>
+      <c r="AMF4"/>
+      <c r="AMG4"/>
+      <c r="AMH4"/>
+      <c r="AMI4"/>
+      <c r="AMJ4"/>
+      <c r="AMK4"/>
+    </row>
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>33</v>
+      </c>
+      <c r="C5" s="17">
+        <v>16</v>
+      </c>
+      <c r="D5" s="17">
+        <v>45</v>
+      </c>
+      <c r="E5" s="17">
+        <v>28</v>
+      </c>
+      <c r="F5" s="17">
+        <v>76</v>
+      </c>
+      <c r="G5" s="17">
+        <v>59</v>
+      </c>
+      <c r="H5" s="17">
+        <v>37</v>
+      </c>
+      <c r="I5" s="17">
+        <v>44</v>
+      </c>
+      <c r="J5" s="17">
+        <v>50</v>
+      </c>
+      <c r="K5" s="17">
+        <v>48</v>
+      </c>
+      <c r="AMC5"/>
+      <c r="AMD5"/>
+      <c r="AME5"/>
+      <c r="AMF5"/>
+      <c r="AMG5"/>
+      <c r="AMH5"/>
+      <c r="AMI5"/>
+      <c r="AMJ5"/>
+      <c r="AMK5"/>
+    </row>
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="19">
+        <v>1469</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1543</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1436</v>
+      </c>
+      <c r="F6" s="19">
+        <v>3459</v>
+      </c>
+      <c r="G6" s="19">
+        <v>4025</v>
+      </c>
+      <c r="H6" s="19">
+        <v>4640</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5182</v>
+      </c>
+      <c r="J6" s="19">
+        <v>6251</v>
+      </c>
+      <c r="K6" s="19">
+        <v>6367</v>
+      </c>
+      <c r="AMC6"/>
+      <c r="AMD6"/>
+      <c r="AME6"/>
+      <c r="AMF6"/>
+      <c r="AMG6"/>
+      <c r="AMH6"/>
+      <c r="AMI6"/>
+      <c r="AMJ6"/>
+      <c r="AMK6"/>
+    </row>
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19">
+        <v>3</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19">
+        <v>2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>7</v>
+      </c>
+      <c r="I7" s="19">
+        <v>11</v>
+      </c>
+      <c r="J7" s="19">
+        <v>3</v>
+      </c>
+      <c r="K7" s="19">
+        <v>9</v>
+      </c>
+      <c r="AMC7"/>
+      <c r="AMD7"/>
+      <c r="AME7"/>
+      <c r="AMF7"/>
+      <c r="AMG7"/>
+      <c r="AMH7"/>
+      <c r="AMI7"/>
+      <c r="AMJ7"/>
+      <c r="AMK7"/>
+    </row>
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1">
+        <v>58</v>
+      </c>
+      <c r="J8" s="1">
+        <v>61</v>
+      </c>
+      <c r="K8" s="1">
+        <v>64</v>
+      </c>
+      <c r="AMA8"/>
+      <c r="AMB8"/>
+      <c r="AMC8"/>
+      <c r="AMD8"/>
+      <c r="AME8"/>
+      <c r="AMF8"/>
+      <c r="AMG8"/>
+      <c r="AMH8"/>
+      <c r="AMI8"/>
+      <c r="AMJ8"/>
+      <c r="AMK8"/>
+    </row>
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="AMA9"/>
+      <c r="AMB9"/>
+      <c r="AMC9"/>
+      <c r="AMD9"/>
+      <c r="AME9"/>
+      <c r="AMF9"/>
+      <c r="AMG9"/>
+      <c r="AMH9"/>
+      <c r="AMI9"/>
+      <c r="AMJ9"/>
+      <c r="AMK9"/>
+    </row>
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="AMA10"/>
+      <c r="AMB10"/>
+      <c r="AMC10"/>
+      <c r="AMD10"/>
+      <c r="AME10"/>
+      <c r="AMF10"/>
+      <c r="AMG10"/>
+      <c r="AMH10"/>
+      <c r="AMI10"/>
+      <c r="AMJ10"/>
+      <c r="AMK10"/>
+    </row>
+    <row r="14" spans="1:1025" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="13">
         <v>2000</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C14" s="13">
         <v>2001</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D14" s="13">
         <v>2002</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E14" s="13">
         <v>2003</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F14" s="13">
         <v>2004</v>
       </c>
-      <c r="G1" s="2">
-        <v>2005</v>
-      </c>
-      <c r="H1" s="2">
-        <v>2006</v>
-      </c>
-      <c r="I1" s="2">
-        <v>2007</v>
-      </c>
-      <c r="J1" s="2">
-        <v>2008</v>
-      </c>
-      <c r="K1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="L1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="M1" s="2">
-        <v>2011</v>
-      </c>
-      <c r="N1" s="2">
-        <v>2012</v>
-      </c>
-      <c r="O1" s="2">
-        <v>2013</v>
-      </c>
-      <c r="P1" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <f t="shared" ref="B2:P2" si="0">B5/B6</f>
-        <v>5.0491141099788853E-4</v>
-      </c>
-      <c r="C2">
-        <f t="shared" si="0"/>
-        <v>6.057721431353035E-4</v>
-      </c>
-      <c r="D2">
-        <f t="shared" si="0"/>
-        <v>8.3807507388293414E-4</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>8.5877452874747731E-4</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>1.0517090271691498E-3</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>1.1232557134833888E-3</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>1.302818430538064E-3</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>1.4144860007488456E-3</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>1.7024898914662695E-3</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>1.9477989871445266E-3</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>2.1720243266724589E-3</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
-        <v>2.4025860562641973E-3</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="0"/>
-        <v>2.4772562251740484E-3</v>
-      </c>
-      <c r="O2">
-        <f t="shared" si="0"/>
-        <v>2.7147307521139296E-3</v>
-      </c>
-      <c r="P2">
-        <f t="shared" si="0"/>
-        <v>2.8463420057816321E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="G3" s="1">
-        <v>275</v>
-      </c>
-      <c r="H3" s="1">
-        <v>286</v>
-      </c>
-      <c r="I3" s="1">
-        <v>302</v>
-      </c>
-      <c r="J3" s="1">
-        <v>242</v>
-      </c>
-      <c r="K3" s="1">
-        <v>591</v>
-      </c>
-      <c r="L3" s="1">
-        <v>677</v>
-      </c>
-      <c r="M3" s="1">
-        <v>825</v>
-      </c>
-      <c r="N3" s="1">
-        <v>888</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1051</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1">
-        <v>4</v>
-      </c>
-      <c r="N4" s="1">
-        <v>8</v>
-      </c>
-      <c r="O4" s="1">
-        <v>7</v>
-      </c>
-      <c r="P4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="D15">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="E15">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="F15">
         <v>24</v>
       </c>
-      <c r="G5" s="1">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="AMF15"/>
+      <c r="AMG15"/>
+      <c r="AMH15"/>
+      <c r="AMI15"/>
+      <c r="AMJ15"/>
+      <c r="AMK15"/>
+    </row>
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="1">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1">
-        <v>40</v>
-      </c>
-      <c r="K5" s="1">
-        <v>45</v>
-      </c>
-      <c r="L5" s="1">
-        <v>50</v>
-      </c>
-      <c r="M5" s="1">
-        <v>55</v>
-      </c>
-      <c r="N5" s="1">
-        <v>58</v>
-      </c>
-      <c r="O5" s="1">
-        <v>61</v>
-      </c>
-      <c r="P5" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>21786</v>
-      </c>
-      <c r="C6">
-        <v>23111</v>
-      </c>
-      <c r="D6">
-        <v>22671</v>
-      </c>
-      <c r="E6">
-        <v>23289</v>
-      </c>
-      <c r="F6">
-        <v>22820</v>
-      </c>
-      <c r="G6" s="1">
-        <v>23147</v>
-      </c>
-      <c r="H6" s="1">
-        <v>23027</v>
-      </c>
-      <c r="I6" s="1">
-        <v>24037</v>
-      </c>
-      <c r="J6" s="1">
-        <v>23495</v>
-      </c>
-      <c r="K6" s="1">
-        <v>23103</v>
-      </c>
-      <c r="L6" s="1">
-        <v>23020</v>
-      </c>
-      <c r="M6" s="1">
-        <v>22892</v>
-      </c>
-      <c r="N6" s="1">
-        <v>23413</v>
-      </c>
-      <c r="O6" s="1">
-        <v>22470</v>
-      </c>
-      <c r="P6" s="1">
-        <v>22485</v>
-      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -12426,13 +14570,13 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="2"/>
-    <col min="2" max="1025" width="8.42578125" style="1"/>
+    <col min="2" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12482,7 +14626,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -12547,7 +14691,7 @@
         <v>3.7487073422957599E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -12579,7 +14723,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -12611,7 +14755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -12661,7 +14805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -12711,16 +14855,16 @@
         <v>15472</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -12739,13 +14883,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="2"/>
-    <col min="2" max="1025" width="8.5703125" style="1"/>
+    <col min="1" max="1" width="8.54296875" style="2"/>
+    <col min="2" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12795,7 +14939,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -12860,7 +15004,7 @@
         <v>1.2611518520248494E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -12894,7 +15038,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -12928,7 +15072,7 @@
         <v>157.88999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -12978,7 +15122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -13042,12 +15186,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13076,7 +15220,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -13105,7 +15249,7 @@
         <v>3.3306820441439699E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -13134,7 +15278,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -13189,16 +15333,16 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="2"/>
-    <col min="2" max="5" width="8.28515625"/>
-    <col min="6" max="6" width="8.42578125"/>
-    <col min="7" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="8.453125" style="2"/>
+    <col min="2" max="5" width="8.26953125"/>
+    <col min="6" max="6" width="8.453125"/>
+    <col min="7" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13248,7 +15392,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -13263,7 +15407,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -13290,7 +15434,7 @@
       <c r="O3"/>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -13317,7 +15461,7 @@
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -13352,17 +15496,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -13379,12 +15523,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13419,7 +15563,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -13448,7 +15592,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -13483,7 +15627,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -13518,18 +15662,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -13546,16 +15690,16 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="2"/>
-    <col min="2" max="8" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="19.81640625" style="2"/>
+    <col min="2" max="8" width="8.7265625" style="1"/>
     <col min="9" max="9" width="11" style="1"/>
-    <col min="10" max="16" width="8.7109375" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="10" max="16" width="8.7265625" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13605,7 +15749,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -13670,7 +15814,7 @@
         <v>1.2172854534388314E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -13710,7 +15854,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -13750,7 +15894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -13800,7 +15944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -13864,14 +16008,14 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1"/>
-    <col min="2" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="18.26953125" style="1"/>
+    <col min="2" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13921,7 +16065,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -13981,7 +16125,7 @@
         <v>3.8319327731092439E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -14011,7 +16155,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -14041,7 +16185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -14091,7 +16235,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -14155,12 +16299,12 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14195,7 +16339,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -14228,7 +16372,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -14263,7 +16407,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -14298,21 +16442,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -14331,14 +16475,14 @@
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="2"/>
-    <col min="2" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="8.453125" style="2"/>
+    <col min="2" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14388,7 +16532,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -14453,7 +16597,7 @@
         <v>2.7825150345570414E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -14493,7 +16637,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -14533,7 +16677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -14583,7 +16727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -14647,15 +16791,15 @@
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="2"/>
-    <col min="2" max="6" width="8.28515625"/>
-    <col min="7" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="8.453125" style="2"/>
+    <col min="2" max="6" width="8.26953125"/>
+    <col min="7" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14705,7 +16849,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -15778,7 +17922,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -15810,7 +17954,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -15842,7 +17986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -15892,7 +18036,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -15956,14 +18100,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2"/>
-    <col min="2" max="16" width="8.5703125" style="1"/>
-    <col min="17" max="1025" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.453125" style="2"/>
+    <col min="2" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16013,7 +18157,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -16078,7 +18222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -16118,7 +18262,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -16158,7 +18302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -16208,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>

--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="United States" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
@@ -698,8 +698,8 @@
   </sheetPr>
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:N10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1969,7 +1969,7 @@
   </sheetPr>
   <dimension ref="A1:AMH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -4161,8 +4161,8 @@
   </sheetPr>
   <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9245,127 +9245,115 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:AML20"/>
+  <dimension ref="A1:AMJ11"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="1024" width="8.453125" style="1"/>
+    <col min="2" max="1022" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="C1" s="13">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D1" s="13">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E1" s="13">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="F1" s="13">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G1" s="13">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="H1" s="13">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="I1" s="13">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="J1" s="13">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="K1" s="13">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="L1" s="13">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="M1" s="13">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="N1" s="13">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="O1" s="13">
-        <v>2012</v>
-      </c>
-      <c r="P1" s="13">
-        <v>2013</v>
-      </c>
-      <c r="Q1" s="13">
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:1026" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="15">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E2" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F2" s="15">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="G2" s="15">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="H2" s="15">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="I2" s="15">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="J2" s="15">
-        <v>274</v>
+        <v>352</v>
       </c>
       <c r="K2" s="15">
-        <v>297</v>
+        <v>448</v>
       </c>
       <c r="L2" s="15">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="M2" s="15">
-        <v>448</v>
+        <v>623</v>
       </c>
       <c r="N2" s="15">
-        <v>443</v>
+        <v>645</v>
       </c>
       <c r="O2" s="15">
-        <v>623</v>
-      </c>
-      <c r="P2" s="15">
-        <v>645</v>
-      </c>
-      <c r="Q2" s="15">
         <v>746</v>
       </c>
-      <c r="AMI2"/>
-      <c r="AMJ2"/>
-    </row>
-    <row r="3" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="AMG2"/>
+      <c r="AMH2"/>
+    </row>
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -9379,236 +9367,212 @@
         <v>0</v>
       </c>
       <c r="E3" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="15">
         <v>2</v>
       </c>
       <c r="J3" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="15">
         <v>1</v>
       </c>
       <c r="O3" s="15">
-        <v>3</v>
-      </c>
-      <c r="P3" s="15">
         <v>1</v>
       </c>
-      <c r="Q3" s="15">
-        <v>1</v>
-      </c>
-      <c r="AMI3"/>
-      <c r="AMJ3"/>
-    </row>
-    <row r="4" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="AMG3"/>
+      <c r="AMH3"/>
+    </row>
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="17">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="17">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4" s="17">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4" s="17">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F4" s="17">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="G4" s="17">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H4" s="17">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I4" s="17">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="J4" s="17">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="K4" s="17">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="L4" s="17">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="M4" s="17">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="N4" s="17">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="O4" s="17">
-        <v>208</v>
-      </c>
-      <c r="P4" s="17">
-        <v>206</v>
-      </c>
-      <c r="Q4" s="17">
         <v>256</v>
       </c>
-      <c r="AMI4"/>
-      <c r="AMJ4"/>
-    </row>
-    <row r="5" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="AMG4"/>
+      <c r="AMH4"/>
+    </row>
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="17">
         <v>0</v>
       </c>
       <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
       <c r="F5" s="17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G5" s="17">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H5" s="17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" s="17">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J5" s="17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" s="17">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L5" s="17">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M5" s="17">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N5" s="17">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="O5" s="17">
-        <v>20</v>
-      </c>
-      <c r="P5" s="17">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="17">
         <v>35</v>
       </c>
-      <c r="AMI5"/>
-      <c r="AMJ5"/>
-    </row>
-    <row r="6" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="AMG5"/>
+      <c r="AMH5"/>
+    </row>
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="19">
-        <v>476</v>
+        <v>622</v>
       </c>
       <c r="C6" s="19">
-        <v>618</v>
+        <v>753</v>
       </c>
       <c r="D6" s="19">
-        <v>622</v>
+        <v>782</v>
       </c>
       <c r="E6" s="19">
-        <v>753</v>
+        <v>936</v>
       </c>
       <c r="F6" s="19">
-        <v>782</v>
+        <v>1110</v>
       </c>
       <c r="G6" s="19">
-        <v>936</v>
+        <v>1383</v>
       </c>
       <c r="H6" s="19">
-        <v>1110</v>
+        <v>1456</v>
       </c>
       <c r="I6" s="19">
-        <v>1383</v>
+        <v>1544</v>
       </c>
       <c r="J6" s="19">
-        <v>1456</v>
+        <v>1577</v>
       </c>
       <c r="K6" s="19">
-        <v>1544</v>
+        <v>2089</v>
       </c>
       <c r="L6" s="19">
-        <v>1577</v>
+        <v>2588</v>
       </c>
       <c r="M6" s="19">
-        <v>2089</v>
+        <v>3023</v>
       </c>
       <c r="N6" s="19">
-        <v>2588</v>
+        <v>3079</v>
       </c>
       <c r="O6" s="19">
-        <v>3023</v>
-      </c>
-      <c r="P6" s="19">
-        <v>3079</v>
-      </c>
-      <c r="Q6" s="19">
         <v>3420</v>
       </c>
-      <c r="AMI6"/>
-      <c r="AMJ6"/>
-    </row>
-    <row r="7" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="AMG6"/>
+      <c r="AMH6"/>
+    </row>
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="19">
         <v>1</v>
       </c>
       <c r="D7" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F7" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="19">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H7" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="19">
         <v>3</v>
@@ -9617,146 +9581,108 @@
         <v>0</v>
       </c>
       <c r="K7" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7" s="19">
         <v>1</v>
       </c>
-      <c r="P7" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>1</v>
-      </c>
-      <c r="AMI7"/>
-      <c r="AMJ7"/>
-    </row>
-    <row r="8" spans="1:1026" x14ac:dyDescent="0.35">
+      <c r="AMG7"/>
+      <c r="AMH7"/>
+    </row>
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="1">
-        <v>14302</v>
-      </c>
-      <c r="D8" s="1">
-        <v>14763</v>
-      </c>
-      <c r="E8" s="1">
-        <v>14883</v>
-      </c>
-      <c r="F8" s="1">
-        <v>14637</v>
-      </c>
-      <c r="G8" s="1">
-        <v>14477</v>
-      </c>
-      <c r="H8" s="1">
-        <v>15100</v>
-      </c>
-      <c r="I8" s="1">
-        <v>15656</v>
-      </c>
-      <c r="J8" s="1">
-        <v>15964</v>
-      </c>
-      <c r="K8" s="1">
-        <v>15769</v>
-      </c>
-      <c r="L8" s="1">
-        <v>15366</v>
-      </c>
-      <c r="M8" s="1">
-        <v>15606</v>
-      </c>
-      <c r="N8" s="1">
-        <v>16160</v>
-      </c>
-      <c r="O8" s="1">
-        <v>16202</v>
-      </c>
-      <c r="P8" s="1">
-        <v>15060</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>14593</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B8" s="20">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F8" s="20">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G8" s="20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H8" s="20">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I8" s="20">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J8" s="20">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K8" s="20">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L8" s="20">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M8" s="20">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="N8" s="20">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O8" s="20">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AME8"/>
+      <c r="AMF8"/>
       <c r="AMG8"/>
       <c r="AMH8"/>
-      <c r="AMI8"/>
-      <c r="AMJ8"/>
-    </row>
-    <row r="9" spans="1:1026" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E9" s="20">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F9" s="20">
-        <v>2.4E-2</v>
-      </c>
-      <c r="G9" s="20">
-        <v>2.4E-2</v>
-      </c>
-      <c r="H9" s="20">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I9" s="20">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J9" s="20">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="K9" s="20">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="L9" s="20">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="M9" s="20">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="N9" s="20">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="O9" s="20">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="P9" s="20">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>4.9000000000000002E-2</v>
-      </c>
+    </row>
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.29825000000000002</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.45613999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.17544000000000001</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="AME9"/>
+      <c r="AMF9"/>
       <c r="AMG9"/>
       <c r="AMH9"/>
-      <c r="AMI9"/>
-      <c r="AMJ9"/>
-    </row>
-    <row r="10" spans="1:1026" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.21</v>
+      </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -9766,126 +9692,14 @@
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
+      <c r="AME10"/>
+      <c r="AMF10"/>
       <c r="AMG10"/>
       <c r="AMH10"/>
-      <c r="AMI10"/>
-      <c r="AMJ10"/>
-    </row>
-    <row r="11" spans="1:1026" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="AMG11"/>
-      <c r="AMH11"/>
-      <c r="AMI11"/>
-      <c r="AMJ11"/>
-    </row>
-    <row r="12" spans="1:1026" x14ac:dyDescent="0.35">
-      <c r="AMK12" s="1"/>
-      <c r="AML12" s="1"/>
-    </row>
-    <row r="15" spans="1:1026" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1026" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
+    </row>
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.35">
+      <c r="AMI11" s="1"/>
+      <c r="AMJ11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -16005,7 +15819,7 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -1,52 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Documents\Galvani Lab\Carbapenem\Carbapenem-Resistance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Documents\Yale\Galvani Lab\Carbapenem\Carbapenem-Resistance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="3730" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="United States" sheetId="1" r:id="rId1"/>
-    <sheet name="Austria" sheetId="2" r:id="rId2"/>
-    <sheet name="Belgium" sheetId="3" r:id="rId3"/>
-    <sheet name="Bulgaria" sheetId="4" r:id="rId4"/>
-    <sheet name="Croatia" sheetId="5" r:id="rId5"/>
-    <sheet name="Cyprus" sheetId="6" r:id="rId6"/>
-    <sheet name="Czech Republic" sheetId="7" r:id="rId7"/>
-    <sheet name="Denmark" sheetId="8" r:id="rId8"/>
-    <sheet name="Estonia" sheetId="9" r:id="rId9"/>
-    <sheet name="Finland" sheetId="10" r:id="rId10"/>
-    <sheet name="France" sheetId="11" r:id="rId11"/>
-    <sheet name="Germany" sheetId="12" r:id="rId12"/>
-    <sheet name="Greece" sheetId="13" r:id="rId13"/>
-    <sheet name="Hungary" sheetId="14" r:id="rId14"/>
-    <sheet name="Ireland" sheetId="15" r:id="rId15"/>
-    <sheet name="Italy" sheetId="16" r:id="rId16"/>
-    <sheet name="Latvia" sheetId="17" r:id="rId17"/>
-    <sheet name="Lithuania" sheetId="18" r:id="rId18"/>
-    <sheet name="Luxembourg" sheetId="19" r:id="rId19"/>
-    <sheet name="Netherlands" sheetId="20" r:id="rId20"/>
-    <sheet name="Norway" sheetId="21" r:id="rId21"/>
-    <sheet name="Poland" sheetId="22" r:id="rId22"/>
-    <sheet name="Portugal" sheetId="23" r:id="rId23"/>
-    <sheet name="Romania" sheetId="24" r:id="rId24"/>
-    <sheet name="Slovakia" sheetId="25" r:id="rId25"/>
-    <sheet name="Slovenia" sheetId="26" r:id="rId26"/>
-    <sheet name="Spain" sheetId="27" r:id="rId27"/>
-    <sheet name="Sweden" sheetId="28" r:id="rId28"/>
-    <sheet name="UK" sheetId="29" r:id="rId29"/>
-    <sheet name="India" sheetId="30" r:id="rId30"/>
-    <sheet name="Temp" sheetId="31" r:id="rId31"/>
-    <sheet name="Iceland" sheetId="32" r:id="rId32"/>
-    <sheet name="Malta" sheetId="33" r:id="rId33"/>
+    <sheet name="US_test" sheetId="34" r:id="rId2"/>
+    <sheet name="Austria" sheetId="2" r:id="rId3"/>
+    <sheet name="Belgium" sheetId="3" r:id="rId4"/>
+    <sheet name="Bulgaria" sheetId="4" r:id="rId5"/>
+    <sheet name="Croatia" sheetId="5" r:id="rId6"/>
+    <sheet name="Cyprus" sheetId="6" r:id="rId7"/>
+    <sheet name="Czech Republic" sheetId="7" r:id="rId8"/>
+    <sheet name="Denmark" sheetId="8" r:id="rId9"/>
+    <sheet name="Estonia" sheetId="9" r:id="rId10"/>
+    <sheet name="Finland" sheetId="10" r:id="rId11"/>
+    <sheet name="France" sheetId="11" r:id="rId12"/>
+    <sheet name="Germany" sheetId="12" r:id="rId13"/>
+    <sheet name="Greece" sheetId="13" r:id="rId14"/>
+    <sheet name="Hungary" sheetId="14" r:id="rId15"/>
+    <sheet name="Ireland" sheetId="15" r:id="rId16"/>
+    <sheet name="Italy" sheetId="16" r:id="rId17"/>
+    <sheet name="Latvia" sheetId="17" r:id="rId18"/>
+    <sheet name="Lithuania" sheetId="18" r:id="rId19"/>
+    <sheet name="Luxembourg" sheetId="19" r:id="rId20"/>
+    <sheet name="Netherlands" sheetId="20" r:id="rId21"/>
+    <sheet name="Norway" sheetId="21" r:id="rId22"/>
+    <sheet name="Poland" sheetId="22" r:id="rId23"/>
+    <sheet name="Portugal" sheetId="23" r:id="rId24"/>
+    <sheet name="Romania" sheetId="24" r:id="rId25"/>
+    <sheet name="Slovakia" sheetId="25" r:id="rId26"/>
+    <sheet name="Slovenia" sheetId="26" r:id="rId27"/>
+    <sheet name="Spain" sheetId="27" r:id="rId28"/>
+    <sheet name="Sweden" sheetId="28" r:id="rId29"/>
+    <sheet name="UK" sheetId="29" r:id="rId30"/>
+    <sheet name="India" sheetId="30" r:id="rId31"/>
+    <sheet name="Temp" sheetId="31" r:id="rId32"/>
+    <sheet name="Iceland" sheetId="32" r:id="rId33"/>
+    <sheet name="Malta" sheetId="33" r:id="rId34"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="34">
   <si>
     <t>Year</t>
   </si>
@@ -156,12 +157,15 @@
   <si>
     <t>Resistance_EC</t>
   </si>
+  <si>
+    <t>DDDs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -216,6 +220,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -282,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -311,6 +321,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,23 +483,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -524,23 +518,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -698,8 +675,8 @@
   </sheetPr>
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1089,6 +1066,322 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.453125" style="2"/>
+    <col min="2" max="16" width="8.54296875" style="1"/>
+    <col min="17" max="1025" width="8.453125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <f t="shared" ref="B2:P2" si="0">B5/B6</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9183270862102984E-4</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1153924153315758E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6477857878475798E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0448229025180231E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1">
+        <v>62</v>
+      </c>
+      <c r="K3" s="1">
+        <v>50</v>
+      </c>
+      <c r="L3" s="1">
+        <v>66</v>
+      </c>
+      <c r="M3" s="1">
+        <v>73</v>
+      </c>
+      <c r="N3" s="1">
+        <v>79</v>
+      </c>
+      <c r="O3" s="1">
+        <v>74</v>
+      </c>
+      <c r="P3" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10152</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10876</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10138</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9862</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9710</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9571</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7563</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8796</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7873</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6617</v>
+      </c>
+      <c r="L6" s="1">
+        <v>6366</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6740</v>
+      </c>
+      <c r="N6" s="1">
+        <v>6451</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6507</v>
+      </c>
+      <c r="P6" s="1">
+        <v>6405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -1404,7 +1697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AME6"/>
   <sheetViews>
@@ -1646,7 +1939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -1962,7 +2255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
@@ -1975,7 +2268,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.54296875" style="1"/>
     <col min="3" max="5" width="8.7265625" style="1"/>
     <col min="6" max="14" width="8.54296875" style="1"/>
@@ -3530,7 +3823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -3846,7 +4139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -4154,7 +4447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
@@ -4167,7 +4460,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.90625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36.81640625" style="2" customWidth="1"/>
     <col min="2" max="15" width="8.54296875" style="1"/>
     <col min="16" max="1025" width="8.453125" style="1"/>
   </cols>
@@ -4668,7 +4961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
@@ -4979,7 +5272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -6288,7 +6581,445 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3230</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3459</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3697</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3733</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4616</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4696</v>
+      </c>
+      <c r="H2" s="4">
+        <v>4158</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3732</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3745</v>
+      </c>
+      <c r="K2" s="5">
+        <v>3286</v>
+      </c>
+      <c r="L2" s="5">
+        <v>3039</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2503</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>46.96</v>
+      </c>
+      <c r="H3" s="4">
+        <v>41.58</v>
+      </c>
+      <c r="I3" s="4">
+        <v>74.64</v>
+      </c>
+      <c r="J3" s="4">
+        <v>187.25</v>
+      </c>
+      <c r="K3" s="5">
+        <v>164.3</v>
+      </c>
+      <c r="L3" s="5">
+        <v>151.94999999999999</v>
+      </c>
+      <c r="M3" s="5">
+        <v>175.21</v>
+      </c>
+      <c r="N3" s="5">
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2486</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2727</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2822</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3101</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3537</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3076</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2714</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2267</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2107</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1829</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1631</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1488</v>
+      </c>
+      <c r="N4" s="8">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>323.18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>436.32</v>
+      </c>
+      <c r="D5" s="7">
+        <v>507.96</v>
+      </c>
+      <c r="E5" s="7">
+        <v>589.19000000000005</v>
+      </c>
+      <c r="F5" s="7">
+        <v>707.4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>522.91999999999996</v>
+      </c>
+      <c r="H5" s="7">
+        <v>488.52</v>
+      </c>
+      <c r="I5" s="7">
+        <v>385.39</v>
+      </c>
+      <c r="J5" s="7">
+        <v>379.26</v>
+      </c>
+      <c r="K5" s="7">
+        <v>310.93</v>
+      </c>
+      <c r="L5" s="7">
+        <v>326.2</v>
+      </c>
+      <c r="M5" s="7">
+        <v>282.72000000000003</v>
+      </c>
+      <c r="N5" s="7">
+        <v>153.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>681</v>
+      </c>
+      <c r="C6" s="10">
+        <v>887</v>
+      </c>
+      <c r="D6" s="10">
+        <v>955</v>
+      </c>
+      <c r="E6" s="10">
+        <v>998</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1187</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1143</v>
+      </c>
+      <c r="H6" s="10">
+        <v>890</v>
+      </c>
+      <c r="I6" s="11">
+        <v>860</v>
+      </c>
+      <c r="J6" s="11">
+        <v>757</v>
+      </c>
+      <c r="K6" s="11">
+        <v>603</v>
+      </c>
+      <c r="L6" s="11">
+        <v>419</v>
+      </c>
+      <c r="M6" s="11">
+        <v>365</v>
+      </c>
+      <c r="N6" s="11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>61.29</v>
+      </c>
+      <c r="C7" s="11">
+        <v>124.18</v>
+      </c>
+      <c r="D7" s="11">
+        <v>191</v>
+      </c>
+      <c r="E7" s="11">
+        <v>179.64</v>
+      </c>
+      <c r="F7" s="11">
+        <v>213.66</v>
+      </c>
+      <c r="G7" s="11">
+        <v>262.89</v>
+      </c>
+      <c r="H7" s="11">
+        <v>186.9</v>
+      </c>
+      <c r="I7" s="11">
+        <v>301</v>
+      </c>
+      <c r="J7" s="11">
+        <v>295.23</v>
+      </c>
+      <c r="K7" s="11">
+        <v>301.5</v>
+      </c>
+      <c r="L7" s="11">
+        <v>184.36</v>
+      </c>
+      <c r="M7" s="11">
+        <v>135.05000000000001</v>
+      </c>
+      <c r="N7" s="11">
+        <v>70.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1">
+        <v>53</v>
+      </c>
+      <c r="I8" s="1">
+        <v>55</v>
+      </c>
+      <c r="J8" s="1">
+        <v>59</v>
+      </c>
+      <c r="K8" s="1">
+        <v>62</v>
+      </c>
+      <c r="L8" s="1">
+        <v>63</v>
+      </c>
+      <c r="M8" s="1">
+        <v>66</v>
+      </c>
+      <c r="N8" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0.15789473679999999</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.24880382779999999</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.1052631579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.18589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6.5447093419999996E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7.790129271E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.5305966359999997E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9.853184983E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.0672466049999999E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.175049852E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.3100221110000001E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.372447771E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.486253838E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.5755780260000001E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.6144308230000001E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.70427701E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.7433297470000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -8605,340 +9336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK10"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.453125" style="2"/>
-    <col min="2" max="1025" width="8.453125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2001</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E1" s="2">
-        <v>2003</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2004</v>
-      </c>
-      <c r="G1" s="2">
-        <v>2005</v>
-      </c>
-      <c r="H1" s="2">
-        <v>2006</v>
-      </c>
-      <c r="I1" s="2">
-        <v>2007</v>
-      </c>
-      <c r="J1" s="2">
-        <v>2008</v>
-      </c>
-      <c r="K1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="L1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="M1" s="2">
-        <v>2011</v>
-      </c>
-      <c r="N1" s="2">
-        <v>2012</v>
-      </c>
-      <c r="O1" s="2">
-        <v>2013</v>
-      </c>
-      <c r="P1" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <f t="shared" ref="B2:P2" si="0">B5/B6</f>
-        <v>1.9256691700365878E-3</v>
-      </c>
-      <c r="C2" s="1">
-        <f t="shared" si="0"/>
-        <v>4.236035858536105E-3</v>
-      </c>
-      <c r="D2" s="1">
-        <f t="shared" si="0"/>
-        <v>5.0425153252916747E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6059973429493262E-3</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9870894247199546E-3</v>
-      </c>
-      <c r="G2" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6794837797224431E-3</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9045254380211751E-3</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4800551391401744E-3</v>
-      </c>
-      <c r="J2" s="1">
-        <f t="shared" si="0"/>
-        <v>6.0225634065654426E-3</v>
-      </c>
-      <c r="K2" s="1">
-        <f t="shared" si="0"/>
-        <v>6.232859636000997E-3</v>
-      </c>
-      <c r="L2" s="1">
-        <f t="shared" si="0"/>
-        <v>8.0936042931292335E-3</v>
-      </c>
-      <c r="M2" s="1">
-        <f t="shared" si="0"/>
-        <v>7.8913562121490175E-3</v>
-      </c>
-      <c r="N2" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1491195204196325E-3</v>
-      </c>
-      <c r="O2" s="1">
-        <f t="shared" si="0"/>
-        <v>9.9601593625498006E-3</v>
-      </c>
-      <c r="P2" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0201135598113753E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" s="1">
-        <v>80</v>
-      </c>
-      <c r="H3" s="1">
-        <v>269</v>
-      </c>
-      <c r="I3" s="1">
-        <v>306</v>
-      </c>
-      <c r="J3" s="1">
-        <v>397</v>
-      </c>
-      <c r="K3" s="1">
-        <v>463</v>
-      </c>
-      <c r="L3" s="1">
-        <v>509</v>
-      </c>
-      <c r="M3" s="1">
-        <v>610</v>
-      </c>
-      <c r="N3" s="1">
-        <v>738</v>
-      </c>
-      <c r="O3" s="1">
-        <v>910</v>
-      </c>
-      <c r="P3" s="1">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>11</v>
-      </c>
-      <c r="O4" s="1">
-        <v>13</v>
-      </c>
-      <c r="P4" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1">
-        <v>51</v>
-      </c>
-      <c r="E5" s="1">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1">
-        <v>42</v>
-      </c>
-      <c r="G5" s="1">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1">
-        <v>52</v>
-      </c>
-      <c r="J5" s="1">
-        <v>71</v>
-      </c>
-      <c r="K5" s="1">
-        <v>75</v>
-      </c>
-      <c r="L5" s="1">
-        <v>92</v>
-      </c>
-      <c r="M5" s="1">
-        <v>86</v>
-      </c>
-      <c r="N5" s="1">
-        <v>87</v>
-      </c>
-      <c r="O5" s="1">
-        <v>110</v>
-      </c>
-      <c r="P5" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10386</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10151</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10114</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10538</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10534</v>
-      </c>
-      <c r="G6" s="1">
-        <v>11313</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10673</v>
-      </c>
-      <c r="I6" s="1">
-        <v>11607</v>
-      </c>
-      <c r="J6" s="1">
-        <v>11789</v>
-      </c>
-      <c r="K6" s="1">
-        <v>12033</v>
-      </c>
-      <c r="L6" s="1">
-        <v>11367</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10898</v>
-      </c>
-      <c r="N6" s="1">
-        <v>10676</v>
-      </c>
-      <c r="O6" s="1">
-        <v>11044</v>
-      </c>
-      <c r="P6" s="1">
-        <v>10391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -9240,7 +9638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
@@ -9253,7 +9651,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="1022" width="8.453125" style="1"/>
   </cols>
   <sheetData>
@@ -9707,7 +10105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -10010,7 +10408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -10318,7 +10716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -10625,7 +11023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -10917,7 +11315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -11233,7 +11631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -13556,7 +13954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -13863,7 +14261,340 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK10"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.453125" style="2"/>
+    <col min="2" max="1025" width="8.453125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <f t="shared" ref="B2:P2" si="0">B5/B6</f>
+        <v>1.9256691700365878E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" si="0"/>
+        <v>4.236035858536105E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0425153252916747E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6059973429493262E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9870894247199546E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6794837797224431E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9045254380211751E-3</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4800551391401744E-3</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0225634065654426E-3</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" si="0"/>
+        <v>6.232859636000997E-3</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0936042931292335E-3</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8913562121490175E-3</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1491195204196325E-3</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9601593625498006E-3</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0201135598113753E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="1">
+        <v>80</v>
+      </c>
+      <c r="H3" s="1">
+        <v>269</v>
+      </c>
+      <c r="I3" s="1">
+        <v>306</v>
+      </c>
+      <c r="J3" s="1">
+        <v>397</v>
+      </c>
+      <c r="K3" s="1">
+        <v>463</v>
+      </c>
+      <c r="L3" s="1">
+        <v>509</v>
+      </c>
+      <c r="M3" s="1">
+        <v>610</v>
+      </c>
+      <c r="N3" s="1">
+        <v>738</v>
+      </c>
+      <c r="O3" s="1">
+        <v>910</v>
+      </c>
+      <c r="P3" s="1">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>11</v>
+      </c>
+      <c r="O4" s="1">
+        <v>13</v>
+      </c>
+      <c r="P4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1">
+        <v>71</v>
+      </c>
+      <c r="K5" s="1">
+        <v>75</v>
+      </c>
+      <c r="L5" s="1">
+        <v>92</v>
+      </c>
+      <c r="M5" s="1">
+        <v>86</v>
+      </c>
+      <c r="N5" s="1">
+        <v>87</v>
+      </c>
+      <c r="O5" s="1">
+        <v>110</v>
+      </c>
+      <c r="P5" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10386</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10151</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10114</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10538</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10534</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11313</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10673</v>
+      </c>
+      <c r="I6" s="1">
+        <v>11607</v>
+      </c>
+      <c r="J6" s="1">
+        <v>11789</v>
+      </c>
+      <c r="K6" s="1">
+        <v>12033</v>
+      </c>
+      <c r="L6" s="1">
+        <v>11367</v>
+      </c>
+      <c r="M6" s="1">
+        <v>10898</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10676</v>
+      </c>
+      <c r="O6" s="1">
+        <v>11044</v>
+      </c>
+      <c r="P6" s="1">
+        <v>10391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
@@ -13876,7 +14607,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="8.26953125"/>
     <col min="7" max="16" width="8.54296875" style="1"/>
     <col min="17" max="1025" width="10.7265625" style="1"/>
@@ -14376,320 +15107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13" style="2"/>
-    <col min="2" max="1025" width="8.453125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2001</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E1" s="2">
-        <v>2003</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2004</v>
-      </c>
-      <c r="G1" s="2">
-        <v>2005</v>
-      </c>
-      <c r="H1" s="2">
-        <v>2006</v>
-      </c>
-      <c r="I1" s="2">
-        <v>2007</v>
-      </c>
-      <c r="J1" s="2">
-        <v>2008</v>
-      </c>
-      <c r="K1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="L1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="M1" s="2">
-        <v>2011</v>
-      </c>
-      <c r="N1" s="2">
-        <v>2012</v>
-      </c>
-      <c r="O1" s="2">
-        <v>2013</v>
-      </c>
-      <c r="P1" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <f t="shared" ref="B2:P2" si="0">B5/B6</f>
-        <v>2.204261572373255E-3</v>
-      </c>
-      <c r="C2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7298083199810102E-3</v>
-      </c>
-      <c r="D2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8493482873598059E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6546003016591252E-3</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0264308292420471E-3</v>
-      </c>
-      <c r="G2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9358485851708415E-3</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8774218300402837E-3</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0429821224800305E-3</v>
-      </c>
-      <c r="J2" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1553704404897135E-3</v>
-      </c>
-      <c r="K2" s="1">
-        <f t="shared" si="0"/>
-        <v>3.259131718115853E-3</v>
-      </c>
-      <c r="L2" s="1">
-        <f t="shared" si="0"/>
-        <v>3.453038674033149E-3</v>
-      </c>
-      <c r="M2" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2545287073994472E-3</v>
-      </c>
-      <c r="N2" s="1">
-        <f t="shared" si="0"/>
-        <v>3.311879022683247E-3</v>
-      </c>
-      <c r="O2" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3596714987867852E-3</v>
-      </c>
-      <c r="P2" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7487073422957599E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3" s="1">
-        <v>83</v>
-      </c>
-      <c r="L3" s="1">
-        <v>116</v>
-      </c>
-      <c r="M3" s="1">
-        <v>646</v>
-      </c>
-      <c r="N3" s="1">
-        <v>545</v>
-      </c>
-      <c r="O3" s="1">
-        <v>618</v>
-      </c>
-      <c r="P3" s="1">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>5</v>
-      </c>
-      <c r="O4" s="1">
-        <v>6</v>
-      </c>
-      <c r="P4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44</v>
-      </c>
-      <c r="F5" s="1">
-        <v>45</v>
-      </c>
-      <c r="G5" s="1">
-        <v>47</v>
-      </c>
-      <c r="H5" s="1">
-        <v>45</v>
-      </c>
-      <c r="I5" s="1">
-        <v>48</v>
-      </c>
-      <c r="J5" s="1">
-        <v>50</v>
-      </c>
-      <c r="K5" s="1">
-        <v>53</v>
-      </c>
-      <c r="L5" s="1">
-        <v>55</v>
-      </c>
-      <c r="M5" s="1">
-        <v>53</v>
-      </c>
-      <c r="N5" s="1">
-        <v>53</v>
-      </c>
-      <c r="O5" s="1">
-        <v>54</v>
-      </c>
-      <c r="P5" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>19054</v>
-      </c>
-      <c r="C6" s="1">
-        <v>16851</v>
-      </c>
-      <c r="D6" s="1">
-        <v>16495</v>
-      </c>
-      <c r="E6" s="1">
-        <v>16575</v>
-      </c>
-      <c r="F6" s="1">
-        <v>14869</v>
-      </c>
-      <c r="G6" s="1">
-        <v>16009</v>
-      </c>
-      <c r="H6" s="1">
-        <v>15639</v>
-      </c>
-      <c r="I6" s="1">
-        <v>15774</v>
-      </c>
-      <c r="J6" s="1">
-        <v>15846</v>
-      </c>
-      <c r="K6" s="1">
-        <v>16262</v>
-      </c>
-      <c r="L6" s="1">
-        <v>15928</v>
-      </c>
-      <c r="M6" s="1">
-        <v>16285</v>
-      </c>
-      <c r="N6" s="1">
-        <v>16003</v>
-      </c>
-      <c r="O6" s="1">
-        <v>16073</v>
-      </c>
-      <c r="P6" s="1">
-        <v>15472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -14992,7 +15410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -15139,7 +15557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
@@ -15329,7 +15747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
@@ -15497,6 +15915,319 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" style="2"/>
+    <col min="2" max="1025" width="8.453125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <f t="shared" ref="B2:P2" si="0">B5/B6</f>
+        <v>2.204261572373255E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7298083199810102E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8493482873598059E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6546003016591252E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0264308292420471E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9358485851708415E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8774218300402837E-3</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0429821224800305E-3</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1553704404897135E-3</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" si="0"/>
+        <v>3.259131718115853E-3</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" si="0"/>
+        <v>3.453038674033149E-3</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2545287073994472E-3</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" si="0"/>
+        <v>3.311879022683247E-3</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3596714987867852E-3</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7487073422957599E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" s="1">
+        <v>83</v>
+      </c>
+      <c r="L3" s="1">
+        <v>116</v>
+      </c>
+      <c r="M3" s="1">
+        <v>646</v>
+      </c>
+      <c r="N3" s="1">
+        <v>545</v>
+      </c>
+      <c r="O3" s="1">
+        <v>618</v>
+      </c>
+      <c r="P3" s="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1">
+        <v>53</v>
+      </c>
+      <c r="L5" s="1">
+        <v>55</v>
+      </c>
+      <c r="M5" s="1">
+        <v>53</v>
+      </c>
+      <c r="N5" s="1">
+        <v>53</v>
+      </c>
+      <c r="O5" s="1">
+        <v>54</v>
+      </c>
+      <c r="P5" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>19054</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16851</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16495</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16575</v>
+      </c>
+      <c r="F6" s="1">
+        <v>14869</v>
+      </c>
+      <c r="G6" s="1">
+        <v>16009</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15639</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15774</v>
+      </c>
+      <c r="J6" s="1">
+        <v>15846</v>
+      </c>
+      <c r="K6" s="1">
+        <v>16262</v>
+      </c>
+      <c r="L6" s="1">
+        <v>15928</v>
+      </c>
+      <c r="M6" s="1">
+        <v>16285</v>
+      </c>
+      <c r="N6" s="1">
+        <v>16003</v>
+      </c>
+      <c r="O6" s="1">
+        <v>16073</v>
+      </c>
+      <c r="P6" s="1">
+        <v>15472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -15814,7 +16545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -16105,7 +16836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
@@ -16281,7 +17012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -16597,7 +17328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -17904,320 +18635,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.453125" style="2"/>
-    <col min="2" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2001</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E1" s="2">
-        <v>2003</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2004</v>
-      </c>
-      <c r="G1" s="2">
-        <v>2005</v>
-      </c>
-      <c r="H1" s="2">
-        <v>2006</v>
-      </c>
-      <c r="I1" s="2">
-        <v>2007</v>
-      </c>
-      <c r="J1" s="2">
-        <v>2008</v>
-      </c>
-      <c r="K1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="L1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="M1" s="2">
-        <v>2011</v>
-      </c>
-      <c r="N1" s="2">
-        <v>2012</v>
-      </c>
-      <c r="O1" s="2">
-        <v>2013</v>
-      </c>
-      <c r="P1" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <f t="shared" ref="B2:P2" si="0">B5/B6</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <f t="shared" si="0"/>
-        <v>5.9183270862102984E-4</v>
-      </c>
-      <c r="E2" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1153924153315758E-3</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6477857878475798E-3</v>
-      </c>
-      <c r="G2" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0448229025180231E-3</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" s="1">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1">
-        <v>48</v>
-      </c>
-      <c r="J3" s="1">
-        <v>62</v>
-      </c>
-      <c r="K3" s="1">
-        <v>50</v>
-      </c>
-      <c r="L3" s="1">
-        <v>66</v>
-      </c>
-      <c r="M3" s="1">
-        <v>73</v>
-      </c>
-      <c r="N3" s="1">
-        <v>79</v>
-      </c>
-      <c r="O3" s="1">
-        <v>74</v>
-      </c>
-      <c r="P3" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10152</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10876</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10138</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9862</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9710</v>
-      </c>
-      <c r="G6" s="1">
-        <v>9571</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7563</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8796</v>
-      </c>
-      <c r="J6" s="1">
-        <v>7873</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6617</v>
-      </c>
-      <c r="L6" s="1">
-        <v>6366</v>
-      </c>
-      <c r="M6" s="1">
-        <v>6740</v>
-      </c>
-      <c r="N6" s="1">
-        <v>6451</v>
-      </c>
-      <c r="O6" s="1">
-        <v>6507</v>
-      </c>
-      <c r="P6" s="1">
-        <v>6405</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>
--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -6586,7 +6586,7 @@
   <dimension ref="A1:AMK11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="United States" sheetId="1" r:id="rId1"/>
-    <sheet name="US_test" sheetId="34" r:id="rId2"/>
+    <sheet name="US_DDD" sheetId="34" r:id="rId2"/>
     <sheet name="Austria" sheetId="2" r:id="rId3"/>
     <sheet name="Belgium" sheetId="3" r:id="rId4"/>
     <sheet name="Bulgaria" sheetId="4" r:id="rId5"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="36">
   <si>
     <t>Year</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>DDDs</t>
+  </si>
+  <si>
+    <t>Isolates_EA/C</t>
+  </si>
+  <si>
+    <t>Resistance_EA/C</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -288,11 +294,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -322,6 +346,17 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,7 +711,7 @@
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="A1:XFD1048576"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6583,439 +6618,2628 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK11"/>
+  <dimension ref="A1:AMK13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="1025" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="31.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="9.1796875" style="23"/>
+    <col min="1026" max="16384" width="8.7265625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" spans="1:1025" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29">
         <v>2000</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="29">
         <v>2001</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="29">
         <v>2002</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="29">
         <v>2003</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="29">
         <v>2004</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="29">
         <v>2005</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="29">
         <v>2006</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="29">
         <v>2007</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="29">
         <v>2008</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="29">
         <v>2009</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="29">
         <v>2010</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="29">
         <v>2011</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="29">
         <v>2012</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="O1" s="29">
+        <v>2013</v>
+      </c>
+      <c r="P1" s="29">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="32">
         <v>3230</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="32">
         <v>3459</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="32">
         <v>3697</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="32">
         <v>3733</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="32">
         <v>4616</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="32">
         <v>4696</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="32">
         <v>4158</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="32">
         <v>3732</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="32">
         <v>3745</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="33">
         <v>3286</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="33">
         <v>3039</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="33">
         <v>2503</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="33">
         <v>1173</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="O2" s="33">
+        <v>6162</v>
+      </c>
+      <c r="P2" s="33">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35">
+        <v>0</v>
+      </c>
+      <c r="D3" s="35">
+        <v>0</v>
+      </c>
+      <c r="E3" s="35">
+        <v>0</v>
+      </c>
+      <c r="F3" s="35">
+        <v>0</v>
+      </c>
+      <c r="G3" s="35">
         <v>46.96</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="35">
         <v>41.58</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="35">
         <v>74.64</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="35">
         <v>187.25</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="36">
         <v>164.3</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="36">
         <v>151.94999999999999</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="36">
         <v>175.21</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="36">
         <v>117.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="O3" s="36">
+        <f>0.1*O2</f>
+        <v>616.20000000000005</v>
+      </c>
+      <c r="P3" s="36">
+        <f>0.08*P2</f>
+        <v>511.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="38">
         <v>2486</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="38">
         <v>2727</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="38">
         <v>2822</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="38">
         <v>3101</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="38">
         <v>3537</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="38">
         <v>3076</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="38">
         <v>2714</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="38">
         <v>2267</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="39">
         <v>2107</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="39">
         <v>1829</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="39">
         <v>1631</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="39">
         <v>1488</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="39">
         <v>615</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="O4" s="39">
+        <v>6849</v>
+      </c>
+      <c r="P4" s="39">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="35">
         <v>323.18</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="35">
         <v>436.32</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="35">
         <v>507.96</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="35">
         <v>589.19000000000005</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="35">
         <v>707.4</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="35">
         <v>522.91999999999996</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="35">
         <v>488.52</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="35">
         <v>385.39</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="35">
         <v>379.26</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="35">
         <v>310.93</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="35">
         <v>326.2</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="35">
         <v>282.72000000000003</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="35">
         <v>153.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="O5" s="36">
+        <f>0.2*O4</f>
+        <v>1369.8000000000002</v>
+      </c>
+      <c r="P5" s="36">
+        <f>0.19*P4</f>
+        <v>1249.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="38">
         <v>681</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="38">
         <v>887</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="38">
         <v>955</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="38">
         <v>998</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="38">
         <v>1187</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="38">
         <v>1143</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="38">
         <v>890</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="39">
         <v>860</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="39">
         <v>757</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="39">
         <v>603</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="39">
         <v>419</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="39">
         <v>365</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="39">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="O6" s="39">
+        <v>831</v>
+      </c>
+      <c r="P6" s="39">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="36">
         <v>61.29</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="36">
         <v>124.18</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="36">
         <v>191</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="36">
         <v>179.64</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="36">
         <v>213.66</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="36">
         <v>262.89</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="36">
         <v>186.9</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="36">
         <v>301</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="36">
         <v>295.23</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="36">
         <v>301.5</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="36">
         <v>184.36</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="36">
         <v>135.05000000000001</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="36">
         <v>70.09</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="O7" s="36">
+        <f>0.54*O6</f>
+        <v>448.74</v>
+      </c>
+      <c r="P7" s="36">
+        <f>0.49*P6</f>
+        <v>361.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1025" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="33">
+        <v>2184</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2167</v>
+      </c>
+      <c r="D8" s="33">
+        <v>2182</v>
+      </c>
+      <c r="E8" s="33">
+        <v>2272</v>
+      </c>
+      <c r="F8" s="33">
+        <v>2563</v>
+      </c>
+      <c r="G8" s="33">
+        <v>2617</v>
+      </c>
+      <c r="H8" s="33">
+        <v>2144</v>
+      </c>
+      <c r="I8" s="33">
+        <v>1967</v>
+      </c>
+      <c r="J8" s="33">
+        <v>1837</v>
+      </c>
+      <c r="K8" s="33">
+        <v>1553</v>
+      </c>
+      <c r="L8" s="33">
+        <v>1322</v>
+      </c>
+      <c r="M8" s="33">
+        <v>980</v>
+      </c>
+      <c r="N8" s="33">
+        <v>331</v>
+      </c>
+      <c r="O8" s="33">
+        <v>3276</v>
+      </c>
+      <c r="P8" s="33">
+        <v>3300</v>
+      </c>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="33"/>
+      <c r="AS8" s="33"/>
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="33"/>
+      <c r="AV8" s="33"/>
+      <c r="AW8" s="33"/>
+      <c r="AX8" s="33"/>
+      <c r="AY8" s="33"/>
+      <c r="AZ8" s="33"/>
+      <c r="BA8" s="33"/>
+      <c r="BB8" s="33"/>
+      <c r="BC8" s="33"/>
+      <c r="BD8" s="33"/>
+      <c r="BE8" s="33"/>
+      <c r="BF8" s="33"/>
+      <c r="BG8" s="33"/>
+      <c r="BH8" s="33"/>
+      <c r="BI8" s="33"/>
+      <c r="BJ8" s="33"/>
+      <c r="BK8" s="33"/>
+      <c r="BL8" s="33"/>
+      <c r="BM8" s="33"/>
+      <c r="BN8" s="33"/>
+      <c r="BO8" s="33"/>
+      <c r="BP8" s="33"/>
+      <c r="BQ8" s="33"/>
+      <c r="BR8" s="33"/>
+      <c r="BS8" s="33"/>
+      <c r="BT8" s="33"/>
+      <c r="BU8" s="33"/>
+      <c r="BV8" s="33"/>
+      <c r="BW8" s="33"/>
+      <c r="BX8" s="33"/>
+      <c r="BY8" s="33"/>
+      <c r="BZ8" s="33"/>
+      <c r="CA8" s="33"/>
+      <c r="CB8" s="33"/>
+      <c r="CC8" s="33"/>
+      <c r="CD8" s="33"/>
+      <c r="CE8" s="33"/>
+      <c r="CF8" s="33"/>
+      <c r="CG8" s="33"/>
+      <c r="CH8" s="33"/>
+      <c r="CI8" s="33"/>
+      <c r="CJ8" s="33"/>
+      <c r="CK8" s="33"/>
+      <c r="CL8" s="33"/>
+      <c r="CM8" s="33"/>
+      <c r="CN8" s="33"/>
+      <c r="CO8" s="33"/>
+      <c r="CP8" s="33"/>
+      <c r="CQ8" s="33"/>
+      <c r="CR8" s="33"/>
+      <c r="CS8" s="33"/>
+      <c r="CT8" s="33"/>
+      <c r="CU8" s="33"/>
+      <c r="CV8" s="33"/>
+      <c r="CW8" s="33"/>
+      <c r="CX8" s="33"/>
+      <c r="CY8" s="33"/>
+      <c r="CZ8" s="33"/>
+      <c r="DA8" s="33"/>
+      <c r="DB8" s="33"/>
+      <c r="DC8" s="33"/>
+      <c r="DD8" s="33"/>
+      <c r="DE8" s="33"/>
+      <c r="DF8" s="33"/>
+      <c r="DG8" s="33"/>
+      <c r="DH8" s="33"/>
+      <c r="DI8" s="33"/>
+      <c r="DJ8" s="33"/>
+      <c r="DK8" s="33"/>
+      <c r="DL8" s="33"/>
+      <c r="DM8" s="33"/>
+      <c r="DN8" s="33"/>
+      <c r="DO8" s="33"/>
+      <c r="DP8" s="33"/>
+      <c r="DQ8" s="33"/>
+      <c r="DR8" s="33"/>
+      <c r="DS8" s="33"/>
+      <c r="DT8" s="33"/>
+      <c r="DU8" s="33"/>
+      <c r="DV8" s="33"/>
+      <c r="DW8" s="33"/>
+      <c r="DX8" s="33"/>
+      <c r="DY8" s="33"/>
+      <c r="DZ8" s="33"/>
+      <c r="EA8" s="33"/>
+      <c r="EB8" s="33"/>
+      <c r="EC8" s="33"/>
+      <c r="ED8" s="33"/>
+      <c r="EE8" s="33"/>
+      <c r="EF8" s="33"/>
+      <c r="EG8" s="33"/>
+      <c r="EH8" s="33"/>
+      <c r="EI8" s="33"/>
+      <c r="EJ8" s="33"/>
+      <c r="EK8" s="33"/>
+      <c r="EL8" s="33"/>
+      <c r="EM8" s="33"/>
+      <c r="EN8" s="33"/>
+      <c r="EO8" s="33"/>
+      <c r="EP8" s="33"/>
+      <c r="EQ8" s="33"/>
+      <c r="ER8" s="33"/>
+      <c r="ES8" s="33"/>
+      <c r="ET8" s="33"/>
+      <c r="EU8" s="33"/>
+      <c r="EV8" s="33"/>
+      <c r="EW8" s="33"/>
+      <c r="EX8" s="33"/>
+      <c r="EY8" s="33"/>
+      <c r="EZ8" s="33"/>
+      <c r="FA8" s="33"/>
+      <c r="FB8" s="33"/>
+      <c r="FC8" s="33"/>
+      <c r="FD8" s="33"/>
+      <c r="FE8" s="33"/>
+      <c r="FF8" s="33"/>
+      <c r="FG8" s="33"/>
+      <c r="FH8" s="33"/>
+      <c r="FI8" s="33"/>
+      <c r="FJ8" s="33"/>
+      <c r="FK8" s="33"/>
+      <c r="FL8" s="33"/>
+      <c r="FM8" s="33"/>
+      <c r="FN8" s="33"/>
+      <c r="FO8" s="33"/>
+      <c r="FP8" s="33"/>
+      <c r="FQ8" s="33"/>
+      <c r="FR8" s="33"/>
+      <c r="FS8" s="33"/>
+      <c r="FT8" s="33"/>
+      <c r="FU8" s="33"/>
+      <c r="FV8" s="33"/>
+      <c r="FW8" s="33"/>
+      <c r="FX8" s="33"/>
+      <c r="FY8" s="33"/>
+      <c r="FZ8" s="33"/>
+      <c r="GA8" s="33"/>
+      <c r="GB8" s="33"/>
+      <c r="GC8" s="33"/>
+      <c r="GD8" s="33"/>
+      <c r="GE8" s="33"/>
+      <c r="GF8" s="33"/>
+      <c r="GG8" s="33"/>
+      <c r="GH8" s="33"/>
+      <c r="GI8" s="33"/>
+      <c r="GJ8" s="33"/>
+      <c r="GK8" s="33"/>
+      <c r="GL8" s="33"/>
+      <c r="GM8" s="33"/>
+      <c r="GN8" s="33"/>
+      <c r="GO8" s="33"/>
+      <c r="GP8" s="33"/>
+      <c r="GQ8" s="33"/>
+      <c r="GR8" s="33"/>
+      <c r="GS8" s="33"/>
+      <c r="GT8" s="33"/>
+      <c r="GU8" s="33"/>
+      <c r="GV8" s="33"/>
+      <c r="GW8" s="33"/>
+      <c r="GX8" s="33"/>
+      <c r="GY8" s="33"/>
+      <c r="GZ8" s="33"/>
+      <c r="HA8" s="33"/>
+      <c r="HB8" s="33"/>
+      <c r="HC8" s="33"/>
+      <c r="HD8" s="33"/>
+      <c r="HE8" s="33"/>
+      <c r="HF8" s="33"/>
+      <c r="HG8" s="33"/>
+      <c r="HH8" s="33"/>
+      <c r="HI8" s="33"/>
+      <c r="HJ8" s="33"/>
+      <c r="HK8" s="33"/>
+      <c r="HL8" s="33"/>
+      <c r="HM8" s="33"/>
+      <c r="HN8" s="33"/>
+      <c r="HO8" s="33"/>
+      <c r="HP8" s="33"/>
+      <c r="HQ8" s="33"/>
+      <c r="HR8" s="33"/>
+      <c r="HS8" s="33"/>
+      <c r="HT8" s="33"/>
+      <c r="HU8" s="33"/>
+      <c r="HV8" s="33"/>
+      <c r="HW8" s="33"/>
+      <c r="HX8" s="33"/>
+      <c r="HY8" s="33"/>
+      <c r="HZ8" s="33"/>
+      <c r="IA8" s="33"/>
+      <c r="IB8" s="33"/>
+      <c r="IC8" s="33"/>
+      <c r="ID8" s="33"/>
+      <c r="IE8" s="33"/>
+      <c r="IF8" s="33"/>
+      <c r="IG8" s="33"/>
+      <c r="IH8" s="33"/>
+      <c r="II8" s="33"/>
+      <c r="IJ8" s="33"/>
+      <c r="IK8" s="33"/>
+      <c r="IL8" s="33"/>
+      <c r="IM8" s="33"/>
+      <c r="IN8" s="33"/>
+      <c r="IO8" s="33"/>
+      <c r="IP8" s="33"/>
+      <c r="IQ8" s="33"/>
+      <c r="IR8" s="33"/>
+      <c r="IS8" s="33"/>
+      <c r="IT8" s="33"/>
+      <c r="IU8" s="33"/>
+      <c r="IV8" s="33"/>
+      <c r="IW8" s="33"/>
+      <c r="IX8" s="33"/>
+      <c r="IY8" s="33"/>
+      <c r="IZ8" s="33"/>
+      <c r="JA8" s="33"/>
+      <c r="JB8" s="33"/>
+      <c r="JC8" s="33"/>
+      <c r="JD8" s="33"/>
+      <c r="JE8" s="33"/>
+      <c r="JF8" s="33"/>
+      <c r="JG8" s="33"/>
+      <c r="JH8" s="33"/>
+      <c r="JI8" s="33"/>
+      <c r="JJ8" s="33"/>
+      <c r="JK8" s="33"/>
+      <c r="JL8" s="33"/>
+      <c r="JM8" s="33"/>
+      <c r="JN8" s="33"/>
+      <c r="JO8" s="33"/>
+      <c r="JP8" s="33"/>
+      <c r="JQ8" s="33"/>
+      <c r="JR8" s="33"/>
+      <c r="JS8" s="33"/>
+      <c r="JT8" s="33"/>
+      <c r="JU8" s="33"/>
+      <c r="JV8" s="33"/>
+      <c r="JW8" s="33"/>
+      <c r="JX8" s="33"/>
+      <c r="JY8" s="33"/>
+      <c r="JZ8" s="33"/>
+      <c r="KA8" s="33"/>
+      <c r="KB8" s="33"/>
+      <c r="KC8" s="33"/>
+      <c r="KD8" s="33"/>
+      <c r="KE8" s="33"/>
+      <c r="KF8" s="33"/>
+      <c r="KG8" s="33"/>
+      <c r="KH8" s="33"/>
+      <c r="KI8" s="33"/>
+      <c r="KJ8" s="33"/>
+      <c r="KK8" s="33"/>
+      <c r="KL8" s="33"/>
+      <c r="KM8" s="33"/>
+      <c r="KN8" s="33"/>
+      <c r="KO8" s="33"/>
+      <c r="KP8" s="33"/>
+      <c r="KQ8" s="33"/>
+      <c r="KR8" s="33"/>
+      <c r="KS8" s="33"/>
+      <c r="KT8" s="33"/>
+      <c r="KU8" s="33"/>
+      <c r="KV8" s="33"/>
+      <c r="KW8" s="33"/>
+      <c r="KX8" s="33"/>
+      <c r="KY8" s="33"/>
+      <c r="KZ8" s="33"/>
+      <c r="LA8" s="33"/>
+      <c r="LB8" s="33"/>
+      <c r="LC8" s="33"/>
+      <c r="LD8" s="33"/>
+      <c r="LE8" s="33"/>
+      <c r="LF8" s="33"/>
+      <c r="LG8" s="33"/>
+      <c r="LH8" s="33"/>
+      <c r="LI8" s="33"/>
+      <c r="LJ8" s="33"/>
+      <c r="LK8" s="33"/>
+      <c r="LL8" s="33"/>
+      <c r="LM8" s="33"/>
+      <c r="LN8" s="33"/>
+      <c r="LO8" s="33"/>
+      <c r="LP8" s="33"/>
+      <c r="LQ8" s="33"/>
+      <c r="LR8" s="33"/>
+      <c r="LS8" s="33"/>
+      <c r="LT8" s="33"/>
+      <c r="LU8" s="33"/>
+      <c r="LV8" s="33"/>
+      <c r="LW8" s="33"/>
+      <c r="LX8" s="33"/>
+      <c r="LY8" s="33"/>
+      <c r="LZ8" s="33"/>
+      <c r="MA8" s="33"/>
+      <c r="MB8" s="33"/>
+      <c r="MC8" s="33"/>
+      <c r="MD8" s="33"/>
+      <c r="ME8" s="33"/>
+      <c r="MF8" s="33"/>
+      <c r="MG8" s="33"/>
+      <c r="MH8" s="33"/>
+      <c r="MI8" s="33"/>
+      <c r="MJ8" s="33"/>
+      <c r="MK8" s="33"/>
+      <c r="ML8" s="33"/>
+      <c r="MM8" s="33"/>
+      <c r="MN8" s="33"/>
+      <c r="MO8" s="33"/>
+      <c r="MP8" s="33"/>
+      <c r="MQ8" s="33"/>
+      <c r="MR8" s="33"/>
+      <c r="MS8" s="33"/>
+      <c r="MT8" s="33"/>
+      <c r="MU8" s="33"/>
+      <c r="MV8" s="33"/>
+      <c r="MW8" s="33"/>
+      <c r="MX8" s="33"/>
+      <c r="MY8" s="33"/>
+      <c r="MZ8" s="33"/>
+      <c r="NA8" s="33"/>
+      <c r="NB8" s="33"/>
+      <c r="NC8" s="33"/>
+      <c r="ND8" s="33"/>
+      <c r="NE8" s="33"/>
+      <c r="NF8" s="33"/>
+      <c r="NG8" s="33"/>
+      <c r="NH8" s="33"/>
+      <c r="NI8" s="33"/>
+      <c r="NJ8" s="33"/>
+      <c r="NK8" s="33"/>
+      <c r="NL8" s="33"/>
+      <c r="NM8" s="33"/>
+      <c r="NN8" s="33"/>
+      <c r="NO8" s="33"/>
+      <c r="NP8" s="33"/>
+      <c r="NQ8" s="33"/>
+      <c r="NR8" s="33"/>
+      <c r="NS8" s="33"/>
+      <c r="NT8" s="33"/>
+      <c r="NU8" s="33"/>
+      <c r="NV8" s="33"/>
+      <c r="NW8" s="33"/>
+      <c r="NX8" s="33"/>
+      <c r="NY8" s="33"/>
+      <c r="NZ8" s="33"/>
+      <c r="OA8" s="33"/>
+      <c r="OB8" s="33"/>
+      <c r="OC8" s="33"/>
+      <c r="OD8" s="33"/>
+      <c r="OE8" s="33"/>
+      <c r="OF8" s="33"/>
+      <c r="OG8" s="33"/>
+      <c r="OH8" s="33"/>
+      <c r="OI8" s="33"/>
+      <c r="OJ8" s="33"/>
+      <c r="OK8" s="33"/>
+      <c r="OL8" s="33"/>
+      <c r="OM8" s="33"/>
+      <c r="ON8" s="33"/>
+      <c r="OO8" s="33"/>
+      <c r="OP8" s="33"/>
+      <c r="OQ8" s="33"/>
+      <c r="OR8" s="33"/>
+      <c r="OS8" s="33"/>
+      <c r="OT8" s="33"/>
+      <c r="OU8" s="33"/>
+      <c r="OV8" s="33"/>
+      <c r="OW8" s="33"/>
+      <c r="OX8" s="33"/>
+      <c r="OY8" s="33"/>
+      <c r="OZ8" s="33"/>
+      <c r="PA8" s="33"/>
+      <c r="PB8" s="33"/>
+      <c r="PC8" s="33"/>
+      <c r="PD8" s="33"/>
+      <c r="PE8" s="33"/>
+      <c r="PF8" s="33"/>
+      <c r="PG8" s="33"/>
+      <c r="PH8" s="33"/>
+      <c r="PI8" s="33"/>
+      <c r="PJ8" s="33"/>
+      <c r="PK8" s="33"/>
+      <c r="PL8" s="33"/>
+      <c r="PM8" s="33"/>
+      <c r="PN8" s="33"/>
+      <c r="PO8" s="33"/>
+      <c r="PP8" s="33"/>
+      <c r="PQ8" s="33"/>
+      <c r="PR8" s="33"/>
+      <c r="PS8" s="33"/>
+      <c r="PT8" s="33"/>
+      <c r="PU8" s="33"/>
+      <c r="PV8" s="33"/>
+      <c r="PW8" s="33"/>
+      <c r="PX8" s="33"/>
+      <c r="PY8" s="33"/>
+      <c r="PZ8" s="33"/>
+      <c r="QA8" s="33"/>
+      <c r="QB8" s="33"/>
+      <c r="QC8" s="33"/>
+      <c r="QD8" s="33"/>
+      <c r="QE8" s="33"/>
+      <c r="QF8" s="33"/>
+      <c r="QG8" s="33"/>
+      <c r="QH8" s="33"/>
+      <c r="QI8" s="33"/>
+      <c r="QJ8" s="33"/>
+      <c r="QK8" s="33"/>
+      <c r="QL8" s="33"/>
+      <c r="QM8" s="33"/>
+      <c r="QN8" s="33"/>
+      <c r="QO8" s="33"/>
+      <c r="QP8" s="33"/>
+      <c r="QQ8" s="33"/>
+      <c r="QR8" s="33"/>
+      <c r="QS8" s="33"/>
+      <c r="QT8" s="33"/>
+      <c r="QU8" s="33"/>
+      <c r="QV8" s="33"/>
+      <c r="QW8" s="33"/>
+      <c r="QX8" s="33"/>
+      <c r="QY8" s="33"/>
+      <c r="QZ8" s="33"/>
+      <c r="RA8" s="33"/>
+      <c r="RB8" s="33"/>
+      <c r="RC8" s="33"/>
+      <c r="RD8" s="33"/>
+      <c r="RE8" s="33"/>
+      <c r="RF8" s="33"/>
+      <c r="RG8" s="33"/>
+      <c r="RH8" s="33"/>
+      <c r="RI8" s="33"/>
+      <c r="RJ8" s="33"/>
+      <c r="RK8" s="33"/>
+      <c r="RL8" s="33"/>
+      <c r="RM8" s="33"/>
+      <c r="RN8" s="33"/>
+      <c r="RO8" s="33"/>
+      <c r="RP8" s="33"/>
+      <c r="RQ8" s="33"/>
+      <c r="RR8" s="33"/>
+      <c r="RS8" s="33"/>
+      <c r="RT8" s="33"/>
+      <c r="RU8" s="33"/>
+      <c r="RV8" s="33"/>
+      <c r="RW8" s="33"/>
+      <c r="RX8" s="33"/>
+      <c r="RY8" s="33"/>
+      <c r="RZ8" s="33"/>
+      <c r="SA8" s="33"/>
+      <c r="SB8" s="33"/>
+      <c r="SC8" s="33"/>
+      <c r="SD8" s="33"/>
+      <c r="SE8" s="33"/>
+      <c r="SF8" s="33"/>
+      <c r="SG8" s="33"/>
+      <c r="SH8" s="33"/>
+      <c r="SI8" s="33"/>
+      <c r="SJ8" s="33"/>
+      <c r="SK8" s="33"/>
+      <c r="SL8" s="33"/>
+      <c r="SM8" s="33"/>
+      <c r="SN8" s="33"/>
+      <c r="SO8" s="33"/>
+      <c r="SP8" s="33"/>
+      <c r="SQ8" s="33"/>
+      <c r="SR8" s="33"/>
+      <c r="SS8" s="33"/>
+      <c r="ST8" s="33"/>
+      <c r="SU8" s="33"/>
+      <c r="SV8" s="33"/>
+      <c r="SW8" s="33"/>
+      <c r="SX8" s="33"/>
+      <c r="SY8" s="33"/>
+      <c r="SZ8" s="33"/>
+      <c r="TA8" s="33"/>
+      <c r="TB8" s="33"/>
+      <c r="TC8" s="33"/>
+      <c r="TD8" s="33"/>
+      <c r="TE8" s="33"/>
+      <c r="TF8" s="33"/>
+      <c r="TG8" s="33"/>
+      <c r="TH8" s="33"/>
+      <c r="TI8" s="33"/>
+      <c r="TJ8" s="33"/>
+      <c r="TK8" s="33"/>
+      <c r="TL8" s="33"/>
+      <c r="TM8" s="33"/>
+      <c r="TN8" s="33"/>
+      <c r="TO8" s="33"/>
+      <c r="TP8" s="33"/>
+      <c r="TQ8" s="33"/>
+      <c r="TR8" s="33"/>
+      <c r="TS8" s="33"/>
+      <c r="TT8" s="33"/>
+      <c r="TU8" s="33"/>
+      <c r="TV8" s="33"/>
+      <c r="TW8" s="33"/>
+      <c r="TX8" s="33"/>
+      <c r="TY8" s="33"/>
+      <c r="TZ8" s="33"/>
+      <c r="UA8" s="33"/>
+      <c r="UB8" s="33"/>
+      <c r="UC8" s="33"/>
+      <c r="UD8" s="33"/>
+      <c r="UE8" s="33"/>
+      <c r="UF8" s="33"/>
+      <c r="UG8" s="33"/>
+      <c r="UH8" s="33"/>
+      <c r="UI8" s="33"/>
+      <c r="UJ8" s="33"/>
+      <c r="UK8" s="33"/>
+      <c r="UL8" s="33"/>
+      <c r="UM8" s="33"/>
+      <c r="UN8" s="33"/>
+      <c r="UO8" s="33"/>
+      <c r="UP8" s="33"/>
+      <c r="UQ8" s="33"/>
+      <c r="UR8" s="33"/>
+      <c r="US8" s="33"/>
+      <c r="UT8" s="33"/>
+      <c r="UU8" s="33"/>
+      <c r="UV8" s="33"/>
+      <c r="UW8" s="33"/>
+      <c r="UX8" s="33"/>
+      <c r="UY8" s="33"/>
+      <c r="UZ8" s="33"/>
+      <c r="VA8" s="33"/>
+      <c r="VB8" s="33"/>
+      <c r="VC8" s="33"/>
+      <c r="VD8" s="33"/>
+      <c r="VE8" s="33"/>
+      <c r="VF8" s="33"/>
+      <c r="VG8" s="33"/>
+      <c r="VH8" s="33"/>
+      <c r="VI8" s="33"/>
+      <c r="VJ8" s="33"/>
+      <c r="VK8" s="33"/>
+      <c r="VL8" s="33"/>
+      <c r="VM8" s="33"/>
+      <c r="VN8" s="33"/>
+      <c r="VO8" s="33"/>
+      <c r="VP8" s="33"/>
+      <c r="VQ8" s="33"/>
+      <c r="VR8" s="33"/>
+      <c r="VS8" s="33"/>
+      <c r="VT8" s="33"/>
+      <c r="VU8" s="33"/>
+      <c r="VV8" s="33"/>
+      <c r="VW8" s="33"/>
+      <c r="VX8" s="33"/>
+      <c r="VY8" s="33"/>
+      <c r="VZ8" s="33"/>
+      <c r="WA8" s="33"/>
+      <c r="WB8" s="33"/>
+      <c r="WC8" s="33"/>
+      <c r="WD8" s="33"/>
+      <c r="WE8" s="33"/>
+      <c r="WF8" s="33"/>
+      <c r="WG8" s="33"/>
+      <c r="WH8" s="33"/>
+      <c r="WI8" s="33"/>
+      <c r="WJ8" s="33"/>
+      <c r="WK8" s="33"/>
+      <c r="WL8" s="33"/>
+      <c r="WM8" s="33"/>
+      <c r="WN8" s="33"/>
+      <c r="WO8" s="33"/>
+      <c r="WP8" s="33"/>
+      <c r="WQ8" s="33"/>
+      <c r="WR8" s="33"/>
+      <c r="WS8" s="33"/>
+      <c r="WT8" s="33"/>
+      <c r="WU8" s="33"/>
+      <c r="WV8" s="33"/>
+      <c r="WW8" s="33"/>
+      <c r="WX8" s="33"/>
+      <c r="WY8" s="33"/>
+      <c r="WZ8" s="33"/>
+      <c r="XA8" s="33"/>
+      <c r="XB8" s="33"/>
+      <c r="XC8" s="33"/>
+      <c r="XD8" s="33"/>
+      <c r="XE8" s="33"/>
+      <c r="XF8" s="33"/>
+      <c r="XG8" s="33"/>
+      <c r="XH8" s="33"/>
+      <c r="XI8" s="33"/>
+      <c r="XJ8" s="33"/>
+      <c r="XK8" s="33"/>
+      <c r="XL8" s="33"/>
+      <c r="XM8" s="33"/>
+      <c r="XN8" s="33"/>
+      <c r="XO8" s="33"/>
+      <c r="XP8" s="33"/>
+      <c r="XQ8" s="33"/>
+      <c r="XR8" s="33"/>
+      <c r="XS8" s="33"/>
+      <c r="XT8" s="33"/>
+      <c r="XU8" s="33"/>
+      <c r="XV8" s="33"/>
+      <c r="XW8" s="33"/>
+      <c r="XX8" s="33"/>
+      <c r="XY8" s="33"/>
+      <c r="XZ8" s="33"/>
+      <c r="YA8" s="33"/>
+      <c r="YB8" s="33"/>
+      <c r="YC8" s="33"/>
+      <c r="YD8" s="33"/>
+      <c r="YE8" s="33"/>
+      <c r="YF8" s="33"/>
+      <c r="YG8" s="33"/>
+      <c r="YH8" s="33"/>
+      <c r="YI8" s="33"/>
+      <c r="YJ8" s="33"/>
+      <c r="YK8" s="33"/>
+      <c r="YL8" s="33"/>
+      <c r="YM8" s="33"/>
+      <c r="YN8" s="33"/>
+      <c r="YO8" s="33"/>
+      <c r="YP8" s="33"/>
+      <c r="YQ8" s="33"/>
+      <c r="YR8" s="33"/>
+      <c r="YS8" s="33"/>
+      <c r="YT8" s="33"/>
+      <c r="YU8" s="33"/>
+      <c r="YV8" s="33"/>
+      <c r="YW8" s="33"/>
+      <c r="YX8" s="33"/>
+      <c r="YY8" s="33"/>
+      <c r="YZ8" s="33"/>
+      <c r="ZA8" s="33"/>
+      <c r="ZB8" s="33"/>
+      <c r="ZC8" s="33"/>
+      <c r="ZD8" s="33"/>
+      <c r="ZE8" s="33"/>
+      <c r="ZF8" s="33"/>
+      <c r="ZG8" s="33"/>
+      <c r="ZH8" s="33"/>
+      <c r="ZI8" s="33"/>
+      <c r="ZJ8" s="33"/>
+      <c r="ZK8" s="33"/>
+      <c r="ZL8" s="33"/>
+      <c r="ZM8" s="33"/>
+      <c r="ZN8" s="33"/>
+      <c r="ZO8" s="33"/>
+      <c r="ZP8" s="33"/>
+      <c r="ZQ8" s="33"/>
+      <c r="ZR8" s="33"/>
+      <c r="ZS8" s="33"/>
+      <c r="ZT8" s="33"/>
+      <c r="ZU8" s="33"/>
+      <c r="ZV8" s="33"/>
+      <c r="ZW8" s="33"/>
+      <c r="ZX8" s="33"/>
+      <c r="ZY8" s="33"/>
+      <c r="ZZ8" s="33"/>
+      <c r="AAA8" s="33"/>
+      <c r="AAB8" s="33"/>
+      <c r="AAC8" s="33"/>
+      <c r="AAD8" s="33"/>
+      <c r="AAE8" s="33"/>
+      <c r="AAF8" s="33"/>
+      <c r="AAG8" s="33"/>
+      <c r="AAH8" s="33"/>
+      <c r="AAI8" s="33"/>
+      <c r="AAJ8" s="33"/>
+      <c r="AAK8" s="33"/>
+      <c r="AAL8" s="33"/>
+      <c r="AAM8" s="33"/>
+      <c r="AAN8" s="33"/>
+      <c r="AAO8" s="33"/>
+      <c r="AAP8" s="33"/>
+      <c r="AAQ8" s="33"/>
+      <c r="AAR8" s="33"/>
+      <c r="AAS8" s="33"/>
+      <c r="AAT8" s="33"/>
+      <c r="AAU8" s="33"/>
+      <c r="AAV8" s="33"/>
+      <c r="AAW8" s="33"/>
+      <c r="AAX8" s="33"/>
+      <c r="AAY8" s="33"/>
+      <c r="AAZ8" s="33"/>
+      <c r="ABA8" s="33"/>
+      <c r="ABB8" s="33"/>
+      <c r="ABC8" s="33"/>
+      <c r="ABD8" s="33"/>
+      <c r="ABE8" s="33"/>
+      <c r="ABF8" s="33"/>
+      <c r="ABG8" s="33"/>
+      <c r="ABH8" s="33"/>
+      <c r="ABI8" s="33"/>
+      <c r="ABJ8" s="33"/>
+      <c r="ABK8" s="33"/>
+      <c r="ABL8" s="33"/>
+      <c r="ABM8" s="33"/>
+      <c r="ABN8" s="33"/>
+      <c r="ABO8" s="33"/>
+      <c r="ABP8" s="33"/>
+      <c r="ABQ8" s="33"/>
+      <c r="ABR8" s="33"/>
+      <c r="ABS8" s="33"/>
+      <c r="ABT8" s="33"/>
+      <c r="ABU8" s="33"/>
+      <c r="ABV8" s="33"/>
+      <c r="ABW8" s="33"/>
+      <c r="ABX8" s="33"/>
+      <c r="ABY8" s="33"/>
+      <c r="ABZ8" s="33"/>
+      <c r="ACA8" s="33"/>
+      <c r="ACB8" s="33"/>
+      <c r="ACC8" s="33"/>
+      <c r="ACD8" s="33"/>
+      <c r="ACE8" s="33"/>
+      <c r="ACF8" s="33"/>
+      <c r="ACG8" s="33"/>
+      <c r="ACH8" s="33"/>
+      <c r="ACI8" s="33"/>
+      <c r="ACJ8" s="33"/>
+      <c r="ACK8" s="33"/>
+      <c r="ACL8" s="33"/>
+      <c r="ACM8" s="33"/>
+      <c r="ACN8" s="33"/>
+      <c r="ACO8" s="33"/>
+      <c r="ACP8" s="33"/>
+      <c r="ACQ8" s="33"/>
+      <c r="ACR8" s="33"/>
+      <c r="ACS8" s="33"/>
+      <c r="ACT8" s="33"/>
+      <c r="ACU8" s="33"/>
+      <c r="ACV8" s="33"/>
+      <c r="ACW8" s="33"/>
+      <c r="ACX8" s="33"/>
+      <c r="ACY8" s="33"/>
+      <c r="ACZ8" s="33"/>
+      <c r="ADA8" s="33"/>
+      <c r="ADB8" s="33"/>
+      <c r="ADC8" s="33"/>
+      <c r="ADD8" s="33"/>
+      <c r="ADE8" s="33"/>
+      <c r="ADF8" s="33"/>
+      <c r="ADG8" s="33"/>
+      <c r="ADH8" s="33"/>
+      <c r="ADI8" s="33"/>
+      <c r="ADJ8" s="33"/>
+      <c r="ADK8" s="33"/>
+      <c r="ADL8" s="33"/>
+      <c r="ADM8" s="33"/>
+      <c r="ADN8" s="33"/>
+      <c r="ADO8" s="33"/>
+      <c r="ADP8" s="33"/>
+      <c r="ADQ8" s="33"/>
+      <c r="ADR8" s="33"/>
+      <c r="ADS8" s="33"/>
+      <c r="ADT8" s="33"/>
+      <c r="ADU8" s="33"/>
+      <c r="ADV8" s="33"/>
+      <c r="ADW8" s="33"/>
+      <c r="ADX8" s="33"/>
+      <c r="ADY8" s="33"/>
+      <c r="ADZ8" s="33"/>
+      <c r="AEA8" s="33"/>
+      <c r="AEB8" s="33"/>
+      <c r="AEC8" s="33"/>
+      <c r="AED8" s="33"/>
+      <c r="AEE8" s="33"/>
+      <c r="AEF8" s="33"/>
+      <c r="AEG8" s="33"/>
+      <c r="AEH8" s="33"/>
+      <c r="AEI8" s="33"/>
+      <c r="AEJ8" s="33"/>
+      <c r="AEK8" s="33"/>
+      <c r="AEL8" s="33"/>
+      <c r="AEM8" s="33"/>
+      <c r="AEN8" s="33"/>
+      <c r="AEO8" s="33"/>
+      <c r="AEP8" s="33"/>
+      <c r="AEQ8" s="33"/>
+      <c r="AER8" s="33"/>
+      <c r="AES8" s="33"/>
+      <c r="AET8" s="33"/>
+      <c r="AEU8" s="33"/>
+      <c r="AEV8" s="33"/>
+      <c r="AEW8" s="33"/>
+      <c r="AEX8" s="33"/>
+      <c r="AEY8" s="33"/>
+      <c r="AEZ8" s="33"/>
+      <c r="AFA8" s="33"/>
+      <c r="AFB8" s="33"/>
+      <c r="AFC8" s="33"/>
+      <c r="AFD8" s="33"/>
+      <c r="AFE8" s="33"/>
+      <c r="AFF8" s="33"/>
+      <c r="AFG8" s="33"/>
+      <c r="AFH8" s="33"/>
+      <c r="AFI8" s="33"/>
+      <c r="AFJ8" s="33"/>
+      <c r="AFK8" s="33"/>
+      <c r="AFL8" s="33"/>
+      <c r="AFM8" s="33"/>
+      <c r="AFN8" s="33"/>
+      <c r="AFO8" s="33"/>
+      <c r="AFP8" s="33"/>
+      <c r="AFQ8" s="33"/>
+      <c r="AFR8" s="33"/>
+      <c r="AFS8" s="33"/>
+      <c r="AFT8" s="33"/>
+      <c r="AFU8" s="33"/>
+      <c r="AFV8" s="33"/>
+      <c r="AFW8" s="33"/>
+      <c r="AFX8" s="33"/>
+      <c r="AFY8" s="33"/>
+      <c r="AFZ8" s="33"/>
+      <c r="AGA8" s="33"/>
+      <c r="AGB8" s="33"/>
+      <c r="AGC8" s="33"/>
+      <c r="AGD8" s="33"/>
+      <c r="AGE8" s="33"/>
+      <c r="AGF8" s="33"/>
+      <c r="AGG8" s="33"/>
+      <c r="AGH8" s="33"/>
+      <c r="AGI8" s="33"/>
+      <c r="AGJ8" s="33"/>
+      <c r="AGK8" s="33"/>
+      <c r="AGL8" s="33"/>
+      <c r="AGM8" s="33"/>
+      <c r="AGN8" s="33"/>
+      <c r="AGO8" s="33"/>
+      <c r="AGP8" s="33"/>
+      <c r="AGQ8" s="33"/>
+      <c r="AGR8" s="33"/>
+      <c r="AGS8" s="33"/>
+      <c r="AGT8" s="33"/>
+      <c r="AGU8" s="33"/>
+      <c r="AGV8" s="33"/>
+      <c r="AGW8" s="33"/>
+      <c r="AGX8" s="33"/>
+      <c r="AGY8" s="33"/>
+      <c r="AGZ8" s="33"/>
+      <c r="AHA8" s="33"/>
+      <c r="AHB8" s="33"/>
+      <c r="AHC8" s="33"/>
+      <c r="AHD8" s="33"/>
+      <c r="AHE8" s="33"/>
+      <c r="AHF8" s="33"/>
+      <c r="AHG8" s="33"/>
+      <c r="AHH8" s="33"/>
+      <c r="AHI8" s="33"/>
+      <c r="AHJ8" s="33"/>
+      <c r="AHK8" s="33"/>
+      <c r="AHL8" s="33"/>
+      <c r="AHM8" s="33"/>
+      <c r="AHN8" s="33"/>
+      <c r="AHO8" s="33"/>
+      <c r="AHP8" s="33"/>
+      <c r="AHQ8" s="33"/>
+      <c r="AHR8" s="33"/>
+      <c r="AHS8" s="33"/>
+      <c r="AHT8" s="33"/>
+      <c r="AHU8" s="33"/>
+      <c r="AHV8" s="33"/>
+      <c r="AHW8" s="33"/>
+      <c r="AHX8" s="33"/>
+      <c r="AHY8" s="33"/>
+      <c r="AHZ8" s="33"/>
+      <c r="AIA8" s="33"/>
+      <c r="AIB8" s="33"/>
+      <c r="AIC8" s="33"/>
+      <c r="AID8" s="33"/>
+      <c r="AIE8" s="33"/>
+      <c r="AIF8" s="33"/>
+      <c r="AIG8" s="33"/>
+      <c r="AIH8" s="33"/>
+      <c r="AII8" s="33"/>
+      <c r="AIJ8" s="33"/>
+      <c r="AIK8" s="33"/>
+      <c r="AIL8" s="33"/>
+      <c r="AIM8" s="33"/>
+      <c r="AIN8" s="33"/>
+      <c r="AIO8" s="33"/>
+      <c r="AIP8" s="33"/>
+      <c r="AIQ8" s="33"/>
+      <c r="AIR8" s="33"/>
+      <c r="AIS8" s="33"/>
+      <c r="AIT8" s="33"/>
+      <c r="AIU8" s="33"/>
+      <c r="AIV8" s="33"/>
+      <c r="AIW8" s="33"/>
+      <c r="AIX8" s="33"/>
+      <c r="AIY8" s="33"/>
+      <c r="AIZ8" s="33"/>
+      <c r="AJA8" s="33"/>
+      <c r="AJB8" s="33"/>
+      <c r="AJC8" s="33"/>
+      <c r="AJD8" s="33"/>
+      <c r="AJE8" s="33"/>
+      <c r="AJF8" s="33"/>
+      <c r="AJG8" s="33"/>
+      <c r="AJH8" s="33"/>
+      <c r="AJI8" s="33"/>
+      <c r="AJJ8" s="33"/>
+      <c r="AJK8" s="33"/>
+      <c r="AJL8" s="33"/>
+      <c r="AJM8" s="33"/>
+      <c r="AJN8" s="33"/>
+      <c r="AJO8" s="33"/>
+      <c r="AJP8" s="33"/>
+      <c r="AJQ8" s="33"/>
+      <c r="AJR8" s="33"/>
+      <c r="AJS8" s="33"/>
+      <c r="AJT8" s="33"/>
+      <c r="AJU8" s="33"/>
+      <c r="AJV8" s="33"/>
+      <c r="AJW8" s="33"/>
+      <c r="AJX8" s="33"/>
+      <c r="AJY8" s="33"/>
+      <c r="AJZ8" s="33"/>
+      <c r="AKA8" s="33"/>
+      <c r="AKB8" s="33"/>
+      <c r="AKC8" s="33"/>
+      <c r="AKD8" s="33"/>
+      <c r="AKE8" s="33"/>
+      <c r="AKF8" s="33"/>
+      <c r="AKG8" s="33"/>
+      <c r="AKH8" s="33"/>
+      <c r="AKI8" s="33"/>
+      <c r="AKJ8" s="33"/>
+      <c r="AKK8" s="33"/>
+      <c r="AKL8" s="33"/>
+      <c r="AKM8" s="33"/>
+      <c r="AKN8" s="33"/>
+      <c r="AKO8" s="33"/>
+      <c r="AKP8" s="33"/>
+      <c r="AKQ8" s="33"/>
+      <c r="AKR8" s="33"/>
+      <c r="AKS8" s="33"/>
+      <c r="AKT8" s="33"/>
+      <c r="AKU8" s="33"/>
+      <c r="AKV8" s="33"/>
+      <c r="AKW8" s="33"/>
+      <c r="AKX8" s="33"/>
+      <c r="AKY8" s="33"/>
+      <c r="AKZ8" s="33"/>
+      <c r="ALA8" s="33"/>
+      <c r="ALB8" s="33"/>
+      <c r="ALC8" s="33"/>
+      <c r="ALD8" s="33"/>
+      <c r="ALE8" s="33"/>
+      <c r="ALF8" s="33"/>
+      <c r="ALG8" s="33"/>
+      <c r="ALH8" s="33"/>
+      <c r="ALI8" s="33"/>
+      <c r="ALJ8" s="33"/>
+      <c r="ALK8" s="33"/>
+      <c r="ALL8" s="33"/>
+      <c r="ALM8" s="33"/>
+      <c r="ALN8" s="33"/>
+      <c r="ALO8" s="33"/>
+      <c r="ALP8" s="33"/>
+      <c r="ALQ8" s="33"/>
+      <c r="ALR8" s="33"/>
+      <c r="ALS8" s="33"/>
+      <c r="ALT8" s="33"/>
+      <c r="ALU8" s="33"/>
+      <c r="ALV8" s="33"/>
+      <c r="ALW8" s="33"/>
+      <c r="ALX8" s="33"/>
+      <c r="ALY8" s="33"/>
+      <c r="ALZ8" s="33"/>
+      <c r="AMA8" s="33"/>
+      <c r="AMB8" s="33"/>
+      <c r="AMC8" s="33"/>
+      <c r="AMD8" s="33"/>
+      <c r="AME8" s="33"/>
+      <c r="AMF8" s="33"/>
+      <c r="AMG8" s="33"/>
+      <c r="AMH8" s="33"/>
+      <c r="AMI8" s="33"/>
+      <c r="AMJ8" s="33"/>
+      <c r="AMK8" s="33"/>
+    </row>
+    <row r="9" spans="1:1025" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="36">
+        <v>0</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36">
+        <f>0.01*I8</f>
+        <v>19.670000000000002</v>
+      </c>
+      <c r="J9" s="36">
+        <v>0</v>
+      </c>
+      <c r="K9" s="36">
+        <v>15.53</v>
+      </c>
+      <c r="L9" s="36">
+        <v>13.22</v>
+      </c>
+      <c r="M9" s="36">
+        <f>0.06*M8</f>
+        <v>58.8</v>
+      </c>
+      <c r="N9" s="36">
+        <f>0.07*N8</f>
+        <v>23.17</v>
+      </c>
+      <c r="O9" s="36">
+        <f>0.06*O8</f>
+        <v>196.56</v>
+      </c>
+      <c r="P9" s="36">
+        <f>0.05*P8</f>
+        <v>165</v>
+      </c>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="36"/>
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="36"/>
+      <c r="BF9" s="36"/>
+      <c r="BG9" s="36"/>
+      <c r="BH9" s="36"/>
+      <c r="BI9" s="36"/>
+      <c r="BJ9" s="36"/>
+      <c r="BK9" s="36"/>
+      <c r="BL9" s="36"/>
+      <c r="BM9" s="36"/>
+      <c r="BN9" s="36"/>
+      <c r="BO9" s="36"/>
+      <c r="BP9" s="36"/>
+      <c r="BQ9" s="36"/>
+      <c r="BR9" s="36"/>
+      <c r="BS9" s="36"/>
+      <c r="BT9" s="36"/>
+      <c r="BU9" s="36"/>
+      <c r="BV9" s="36"/>
+      <c r="BW9" s="36"/>
+      <c r="BX9" s="36"/>
+      <c r="BY9" s="36"/>
+      <c r="BZ9" s="36"/>
+      <c r="CA9" s="36"/>
+      <c r="CB9" s="36"/>
+      <c r="CC9" s="36"/>
+      <c r="CD9" s="36"/>
+      <c r="CE9" s="36"/>
+      <c r="CF9" s="36"/>
+      <c r="CG9" s="36"/>
+      <c r="CH9" s="36"/>
+      <c r="CI9" s="36"/>
+      <c r="CJ9" s="36"/>
+      <c r="CK9" s="36"/>
+      <c r="CL9" s="36"/>
+      <c r="CM9" s="36"/>
+      <c r="CN9" s="36"/>
+      <c r="CO9" s="36"/>
+      <c r="CP9" s="36"/>
+      <c r="CQ9" s="36"/>
+      <c r="CR9" s="36"/>
+      <c r="CS9" s="36"/>
+      <c r="CT9" s="36"/>
+      <c r="CU9" s="36"/>
+      <c r="CV9" s="36"/>
+      <c r="CW9" s="36"/>
+      <c r="CX9" s="36"/>
+      <c r="CY9" s="36"/>
+      <c r="CZ9" s="36"/>
+      <c r="DA9" s="36"/>
+      <c r="DB9" s="36"/>
+      <c r="DC9" s="36"/>
+      <c r="DD9" s="36"/>
+      <c r="DE9" s="36"/>
+      <c r="DF9" s="36"/>
+      <c r="DG9" s="36"/>
+      <c r="DH9" s="36"/>
+      <c r="DI9" s="36"/>
+      <c r="DJ9" s="36"/>
+      <c r="DK9" s="36"/>
+      <c r="DL9" s="36"/>
+      <c r="DM9" s="36"/>
+      <c r="DN9" s="36"/>
+      <c r="DO9" s="36"/>
+      <c r="DP9" s="36"/>
+      <c r="DQ9" s="36"/>
+      <c r="DR9" s="36"/>
+      <c r="DS9" s="36"/>
+      <c r="DT9" s="36"/>
+      <c r="DU9" s="36"/>
+      <c r="DV9" s="36"/>
+      <c r="DW9" s="36"/>
+      <c r="DX9" s="36"/>
+      <c r="DY9" s="36"/>
+      <c r="DZ9" s="36"/>
+      <c r="EA9" s="36"/>
+      <c r="EB9" s="36"/>
+      <c r="EC9" s="36"/>
+      <c r="ED9" s="36"/>
+      <c r="EE9" s="36"/>
+      <c r="EF9" s="36"/>
+      <c r="EG9" s="36"/>
+      <c r="EH9" s="36"/>
+      <c r="EI9" s="36"/>
+      <c r="EJ9" s="36"/>
+      <c r="EK9" s="36"/>
+      <c r="EL9" s="36"/>
+      <c r="EM9" s="36"/>
+      <c r="EN9" s="36"/>
+      <c r="EO9" s="36"/>
+      <c r="EP9" s="36"/>
+      <c r="EQ9" s="36"/>
+      <c r="ER9" s="36"/>
+      <c r="ES9" s="36"/>
+      <c r="ET9" s="36"/>
+      <c r="EU9" s="36"/>
+      <c r="EV9" s="36"/>
+      <c r="EW9" s="36"/>
+      <c r="EX9" s="36"/>
+      <c r="EY9" s="36"/>
+      <c r="EZ9" s="36"/>
+      <c r="FA9" s="36"/>
+      <c r="FB9" s="36"/>
+      <c r="FC9" s="36"/>
+      <c r="FD9" s="36"/>
+      <c r="FE9" s="36"/>
+      <c r="FF9" s="36"/>
+      <c r="FG9" s="36"/>
+      <c r="FH9" s="36"/>
+      <c r="FI9" s="36"/>
+      <c r="FJ9" s="36"/>
+      <c r="FK9" s="36"/>
+      <c r="FL9" s="36"/>
+      <c r="FM9" s="36"/>
+      <c r="FN9" s="36"/>
+      <c r="FO9" s="36"/>
+      <c r="FP9" s="36"/>
+      <c r="FQ9" s="36"/>
+      <c r="FR9" s="36"/>
+      <c r="FS9" s="36"/>
+      <c r="FT9" s="36"/>
+      <c r="FU9" s="36"/>
+      <c r="FV9" s="36"/>
+      <c r="FW9" s="36"/>
+      <c r="FX9" s="36"/>
+      <c r="FY9" s="36"/>
+      <c r="FZ9" s="36"/>
+      <c r="GA9" s="36"/>
+      <c r="GB9" s="36"/>
+      <c r="GC9" s="36"/>
+      <c r="GD9" s="36"/>
+      <c r="GE9" s="36"/>
+      <c r="GF9" s="36"/>
+      <c r="GG9" s="36"/>
+      <c r="GH9" s="36"/>
+      <c r="GI9" s="36"/>
+      <c r="GJ9" s="36"/>
+      <c r="GK9" s="36"/>
+      <c r="GL9" s="36"/>
+      <c r="GM9" s="36"/>
+      <c r="GN9" s="36"/>
+      <c r="GO9" s="36"/>
+      <c r="GP9" s="36"/>
+      <c r="GQ9" s="36"/>
+      <c r="GR9" s="36"/>
+      <c r="GS9" s="36"/>
+      <c r="GT9" s="36"/>
+      <c r="GU9" s="36"/>
+      <c r="GV9" s="36"/>
+      <c r="GW9" s="36"/>
+      <c r="GX9" s="36"/>
+      <c r="GY9" s="36"/>
+      <c r="GZ9" s="36"/>
+      <c r="HA9" s="36"/>
+      <c r="HB9" s="36"/>
+      <c r="HC9" s="36"/>
+      <c r="HD9" s="36"/>
+      <c r="HE9" s="36"/>
+      <c r="HF9" s="36"/>
+      <c r="HG9" s="36"/>
+      <c r="HH9" s="36"/>
+      <c r="HI9" s="36"/>
+      <c r="HJ9" s="36"/>
+      <c r="HK9" s="36"/>
+      <c r="HL9" s="36"/>
+      <c r="HM9" s="36"/>
+      <c r="HN9" s="36"/>
+      <c r="HO9" s="36"/>
+      <c r="HP9" s="36"/>
+      <c r="HQ9" s="36"/>
+      <c r="HR9" s="36"/>
+      <c r="HS9" s="36"/>
+      <c r="HT9" s="36"/>
+      <c r="HU9" s="36"/>
+      <c r="HV9" s="36"/>
+      <c r="HW9" s="36"/>
+      <c r="HX9" s="36"/>
+      <c r="HY9" s="36"/>
+      <c r="HZ9" s="36"/>
+      <c r="IA9" s="36"/>
+      <c r="IB9" s="36"/>
+      <c r="IC9" s="36"/>
+      <c r="ID9" s="36"/>
+      <c r="IE9" s="36"/>
+      <c r="IF9" s="36"/>
+      <c r="IG9" s="36"/>
+      <c r="IH9" s="36"/>
+      <c r="II9" s="36"/>
+      <c r="IJ9" s="36"/>
+      <c r="IK9" s="36"/>
+      <c r="IL9" s="36"/>
+      <c r="IM9" s="36"/>
+      <c r="IN9" s="36"/>
+      <c r="IO9" s="36"/>
+      <c r="IP9" s="36"/>
+      <c r="IQ9" s="36"/>
+      <c r="IR9" s="36"/>
+      <c r="IS9" s="36"/>
+      <c r="IT9" s="36"/>
+      <c r="IU9" s="36"/>
+      <c r="IV9" s="36"/>
+      <c r="IW9" s="36"/>
+      <c r="IX9" s="36"/>
+      <c r="IY9" s="36"/>
+      <c r="IZ9" s="36"/>
+      <c r="JA9" s="36"/>
+      <c r="JB9" s="36"/>
+      <c r="JC9" s="36"/>
+      <c r="JD9" s="36"/>
+      <c r="JE9" s="36"/>
+      <c r="JF9" s="36"/>
+      <c r="JG9" s="36"/>
+      <c r="JH9" s="36"/>
+      <c r="JI9" s="36"/>
+      <c r="JJ9" s="36"/>
+      <c r="JK9" s="36"/>
+      <c r="JL9" s="36"/>
+      <c r="JM9" s="36"/>
+      <c r="JN9" s="36"/>
+      <c r="JO9" s="36"/>
+      <c r="JP9" s="36"/>
+      <c r="JQ9" s="36"/>
+      <c r="JR9" s="36"/>
+      <c r="JS9" s="36"/>
+      <c r="JT9" s="36"/>
+      <c r="JU9" s="36"/>
+      <c r="JV9" s="36"/>
+      <c r="JW9" s="36"/>
+      <c r="JX9" s="36"/>
+      <c r="JY9" s="36"/>
+      <c r="JZ9" s="36"/>
+      <c r="KA9" s="36"/>
+      <c r="KB9" s="36"/>
+      <c r="KC9" s="36"/>
+      <c r="KD9" s="36"/>
+      <c r="KE9" s="36"/>
+      <c r="KF9" s="36"/>
+      <c r="KG9" s="36"/>
+      <c r="KH9" s="36"/>
+      <c r="KI9" s="36"/>
+      <c r="KJ9" s="36"/>
+      <c r="KK9" s="36"/>
+      <c r="KL9" s="36"/>
+      <c r="KM9" s="36"/>
+      <c r="KN9" s="36"/>
+      <c r="KO9" s="36"/>
+      <c r="KP9" s="36"/>
+      <c r="KQ9" s="36"/>
+      <c r="KR9" s="36"/>
+      <c r="KS9" s="36"/>
+      <c r="KT9" s="36"/>
+      <c r="KU9" s="36"/>
+      <c r="KV9" s="36"/>
+      <c r="KW9" s="36"/>
+      <c r="KX9" s="36"/>
+      <c r="KY9" s="36"/>
+      <c r="KZ9" s="36"/>
+      <c r="LA9" s="36"/>
+      <c r="LB9" s="36"/>
+      <c r="LC9" s="36"/>
+      <c r="LD9" s="36"/>
+      <c r="LE9" s="36"/>
+      <c r="LF9" s="36"/>
+      <c r="LG9" s="36"/>
+      <c r="LH9" s="36"/>
+      <c r="LI9" s="36"/>
+      <c r="LJ9" s="36"/>
+      <c r="LK9" s="36"/>
+      <c r="LL9" s="36"/>
+      <c r="LM9" s="36"/>
+      <c r="LN9" s="36"/>
+      <c r="LO9" s="36"/>
+      <c r="LP9" s="36"/>
+      <c r="LQ9" s="36"/>
+      <c r="LR9" s="36"/>
+      <c r="LS9" s="36"/>
+      <c r="LT9" s="36"/>
+      <c r="LU9" s="36"/>
+      <c r="LV9" s="36"/>
+      <c r="LW9" s="36"/>
+      <c r="LX9" s="36"/>
+      <c r="LY9" s="36"/>
+      <c r="LZ9" s="36"/>
+      <c r="MA9" s="36"/>
+      <c r="MB9" s="36"/>
+      <c r="MC9" s="36"/>
+      <c r="MD9" s="36"/>
+      <c r="ME9" s="36"/>
+      <c r="MF9" s="36"/>
+      <c r="MG9" s="36"/>
+      <c r="MH9" s="36"/>
+      <c r="MI9" s="36"/>
+      <c r="MJ9" s="36"/>
+      <c r="MK9" s="36"/>
+      <c r="ML9" s="36"/>
+      <c r="MM9" s="36"/>
+      <c r="MN9" s="36"/>
+      <c r="MO9" s="36"/>
+      <c r="MP9" s="36"/>
+      <c r="MQ9" s="36"/>
+      <c r="MR9" s="36"/>
+      <c r="MS9" s="36"/>
+      <c r="MT9" s="36"/>
+      <c r="MU9" s="36"/>
+      <c r="MV9" s="36"/>
+      <c r="MW9" s="36"/>
+      <c r="MX9" s="36"/>
+      <c r="MY9" s="36"/>
+      <c r="MZ9" s="36"/>
+      <c r="NA9" s="36"/>
+      <c r="NB9" s="36"/>
+      <c r="NC9" s="36"/>
+      <c r="ND9" s="36"/>
+      <c r="NE9" s="36"/>
+      <c r="NF9" s="36"/>
+      <c r="NG9" s="36"/>
+      <c r="NH9" s="36"/>
+      <c r="NI9" s="36"/>
+      <c r="NJ9" s="36"/>
+      <c r="NK9" s="36"/>
+      <c r="NL9" s="36"/>
+      <c r="NM9" s="36"/>
+      <c r="NN9" s="36"/>
+      <c r="NO9" s="36"/>
+      <c r="NP9" s="36"/>
+      <c r="NQ9" s="36"/>
+      <c r="NR9" s="36"/>
+      <c r="NS9" s="36"/>
+      <c r="NT9" s="36"/>
+      <c r="NU9" s="36"/>
+      <c r="NV9" s="36"/>
+      <c r="NW9" s="36"/>
+      <c r="NX9" s="36"/>
+      <c r="NY9" s="36"/>
+      <c r="NZ9" s="36"/>
+      <c r="OA9" s="36"/>
+      <c r="OB9" s="36"/>
+      <c r="OC9" s="36"/>
+      <c r="OD9" s="36"/>
+      <c r="OE9" s="36"/>
+      <c r="OF9" s="36"/>
+      <c r="OG9" s="36"/>
+      <c r="OH9" s="36"/>
+      <c r="OI9" s="36"/>
+      <c r="OJ9" s="36"/>
+      <c r="OK9" s="36"/>
+      <c r="OL9" s="36"/>
+      <c r="OM9" s="36"/>
+      <c r="ON9" s="36"/>
+      <c r="OO9" s="36"/>
+      <c r="OP9" s="36"/>
+      <c r="OQ9" s="36"/>
+      <c r="OR9" s="36"/>
+      <c r="OS9" s="36"/>
+      <c r="OT9" s="36"/>
+      <c r="OU9" s="36"/>
+      <c r="OV9" s="36"/>
+      <c r="OW9" s="36"/>
+      <c r="OX9" s="36"/>
+      <c r="OY9" s="36"/>
+      <c r="OZ9" s="36"/>
+      <c r="PA9" s="36"/>
+      <c r="PB9" s="36"/>
+      <c r="PC9" s="36"/>
+      <c r="PD9" s="36"/>
+      <c r="PE9" s="36"/>
+      <c r="PF9" s="36"/>
+      <c r="PG9" s="36"/>
+      <c r="PH9" s="36"/>
+      <c r="PI9" s="36"/>
+      <c r="PJ9" s="36"/>
+      <c r="PK9" s="36"/>
+      <c r="PL9" s="36"/>
+      <c r="PM9" s="36"/>
+      <c r="PN9" s="36"/>
+      <c r="PO9" s="36"/>
+      <c r="PP9" s="36"/>
+      <c r="PQ9" s="36"/>
+      <c r="PR9" s="36"/>
+      <c r="PS9" s="36"/>
+      <c r="PT9" s="36"/>
+      <c r="PU9" s="36"/>
+      <c r="PV9" s="36"/>
+      <c r="PW9" s="36"/>
+      <c r="PX9" s="36"/>
+      <c r="PY9" s="36"/>
+      <c r="PZ9" s="36"/>
+      <c r="QA9" s="36"/>
+      <c r="QB9" s="36"/>
+      <c r="QC9" s="36"/>
+      <c r="QD9" s="36"/>
+      <c r="QE9" s="36"/>
+      <c r="QF9" s="36"/>
+      <c r="QG9" s="36"/>
+      <c r="QH9" s="36"/>
+      <c r="QI9" s="36"/>
+      <c r="QJ9" s="36"/>
+      <c r="QK9" s="36"/>
+      <c r="QL9" s="36"/>
+      <c r="QM9" s="36"/>
+      <c r="QN9" s="36"/>
+      <c r="QO9" s="36"/>
+      <c r="QP9" s="36"/>
+      <c r="QQ9" s="36"/>
+      <c r="QR9" s="36"/>
+      <c r="QS9" s="36"/>
+      <c r="QT9" s="36"/>
+      <c r="QU9" s="36"/>
+      <c r="QV9" s="36"/>
+      <c r="QW9" s="36"/>
+      <c r="QX9" s="36"/>
+      <c r="QY9" s="36"/>
+      <c r="QZ9" s="36"/>
+      <c r="RA9" s="36"/>
+      <c r="RB9" s="36"/>
+      <c r="RC9" s="36"/>
+      <c r="RD9" s="36"/>
+      <c r="RE9" s="36"/>
+      <c r="RF9" s="36"/>
+      <c r="RG9" s="36"/>
+      <c r="RH9" s="36"/>
+      <c r="RI9" s="36"/>
+      <c r="RJ9" s="36"/>
+      <c r="RK9" s="36"/>
+      <c r="RL9" s="36"/>
+      <c r="RM9" s="36"/>
+      <c r="RN9" s="36"/>
+      <c r="RO9" s="36"/>
+      <c r="RP9" s="36"/>
+      <c r="RQ9" s="36"/>
+      <c r="RR9" s="36"/>
+      <c r="RS9" s="36"/>
+      <c r="RT9" s="36"/>
+      <c r="RU9" s="36"/>
+      <c r="RV9" s="36"/>
+      <c r="RW9" s="36"/>
+      <c r="RX9" s="36"/>
+      <c r="RY9" s="36"/>
+      <c r="RZ9" s="36"/>
+      <c r="SA9" s="36"/>
+      <c r="SB9" s="36"/>
+      <c r="SC9" s="36"/>
+      <c r="SD9" s="36"/>
+      <c r="SE9" s="36"/>
+      <c r="SF9" s="36"/>
+      <c r="SG9" s="36"/>
+      <c r="SH9" s="36"/>
+      <c r="SI9" s="36"/>
+      <c r="SJ9" s="36"/>
+      <c r="SK9" s="36"/>
+      <c r="SL9" s="36"/>
+      <c r="SM9" s="36"/>
+      <c r="SN9" s="36"/>
+      <c r="SO9" s="36"/>
+      <c r="SP9" s="36"/>
+      <c r="SQ9" s="36"/>
+      <c r="SR9" s="36"/>
+      <c r="SS9" s="36"/>
+      <c r="ST9" s="36"/>
+      <c r="SU9" s="36"/>
+      <c r="SV9" s="36"/>
+      <c r="SW9" s="36"/>
+      <c r="SX9" s="36"/>
+      <c r="SY9" s="36"/>
+      <c r="SZ9" s="36"/>
+      <c r="TA9" s="36"/>
+      <c r="TB9" s="36"/>
+      <c r="TC9" s="36"/>
+      <c r="TD9" s="36"/>
+      <c r="TE9" s="36"/>
+      <c r="TF9" s="36"/>
+      <c r="TG9" s="36"/>
+      <c r="TH9" s="36"/>
+      <c r="TI9" s="36"/>
+      <c r="TJ9" s="36"/>
+      <c r="TK9" s="36"/>
+      <c r="TL9" s="36"/>
+      <c r="TM9" s="36"/>
+      <c r="TN9" s="36"/>
+      <c r="TO9" s="36"/>
+      <c r="TP9" s="36"/>
+      <c r="TQ9" s="36"/>
+      <c r="TR9" s="36"/>
+      <c r="TS9" s="36"/>
+      <c r="TT9" s="36"/>
+      <c r="TU9" s="36"/>
+      <c r="TV9" s="36"/>
+      <c r="TW9" s="36"/>
+      <c r="TX9" s="36"/>
+      <c r="TY9" s="36"/>
+      <c r="TZ9" s="36"/>
+      <c r="UA9" s="36"/>
+      <c r="UB9" s="36"/>
+      <c r="UC9" s="36"/>
+      <c r="UD9" s="36"/>
+      <c r="UE9" s="36"/>
+      <c r="UF9" s="36"/>
+      <c r="UG9" s="36"/>
+      <c r="UH9" s="36"/>
+      <c r="UI9" s="36"/>
+      <c r="UJ9" s="36"/>
+      <c r="UK9" s="36"/>
+      <c r="UL9" s="36"/>
+      <c r="UM9" s="36"/>
+      <c r="UN9" s="36"/>
+      <c r="UO9" s="36"/>
+      <c r="UP9" s="36"/>
+      <c r="UQ9" s="36"/>
+      <c r="UR9" s="36"/>
+      <c r="US9" s="36"/>
+      <c r="UT9" s="36"/>
+      <c r="UU9" s="36"/>
+      <c r="UV9" s="36"/>
+      <c r="UW9" s="36"/>
+      <c r="UX9" s="36"/>
+      <c r="UY9" s="36"/>
+      <c r="UZ9" s="36"/>
+      <c r="VA9" s="36"/>
+      <c r="VB9" s="36"/>
+      <c r="VC9" s="36"/>
+      <c r="VD9" s="36"/>
+      <c r="VE9" s="36"/>
+      <c r="VF9" s="36"/>
+      <c r="VG9" s="36"/>
+      <c r="VH9" s="36"/>
+      <c r="VI9" s="36"/>
+      <c r="VJ9" s="36"/>
+      <c r="VK9" s="36"/>
+      <c r="VL9" s="36"/>
+      <c r="VM9" s="36"/>
+      <c r="VN9" s="36"/>
+      <c r="VO9" s="36"/>
+      <c r="VP9" s="36"/>
+      <c r="VQ9" s="36"/>
+      <c r="VR9" s="36"/>
+      <c r="VS9" s="36"/>
+      <c r="VT9" s="36"/>
+      <c r="VU9" s="36"/>
+      <c r="VV9" s="36"/>
+      <c r="VW9" s="36"/>
+      <c r="VX9" s="36"/>
+      <c r="VY9" s="36"/>
+      <c r="VZ9" s="36"/>
+      <c r="WA9" s="36"/>
+      <c r="WB9" s="36"/>
+      <c r="WC9" s="36"/>
+      <c r="WD9" s="36"/>
+      <c r="WE9" s="36"/>
+      <c r="WF9" s="36"/>
+      <c r="WG9" s="36"/>
+      <c r="WH9" s="36"/>
+      <c r="WI9" s="36"/>
+      <c r="WJ9" s="36"/>
+      <c r="WK9" s="36"/>
+      <c r="WL9" s="36"/>
+      <c r="WM9" s="36"/>
+      <c r="WN9" s="36"/>
+      <c r="WO9" s="36"/>
+      <c r="WP9" s="36"/>
+      <c r="WQ9" s="36"/>
+      <c r="WR9" s="36"/>
+      <c r="WS9" s="36"/>
+      <c r="WT9" s="36"/>
+      <c r="WU9" s="36"/>
+      <c r="WV9" s="36"/>
+      <c r="WW9" s="36"/>
+      <c r="WX9" s="36"/>
+      <c r="WY9" s="36"/>
+      <c r="WZ9" s="36"/>
+      <c r="XA9" s="36"/>
+      <c r="XB9" s="36"/>
+      <c r="XC9" s="36"/>
+      <c r="XD9" s="36"/>
+      <c r="XE9" s="36"/>
+      <c r="XF9" s="36"/>
+      <c r="XG9" s="36"/>
+      <c r="XH9" s="36"/>
+      <c r="XI9" s="36"/>
+      <c r="XJ9" s="36"/>
+      <c r="XK9" s="36"/>
+      <c r="XL9" s="36"/>
+      <c r="XM9" s="36"/>
+      <c r="XN9" s="36"/>
+      <c r="XO9" s="36"/>
+      <c r="XP9" s="36"/>
+      <c r="XQ9" s="36"/>
+      <c r="XR9" s="36"/>
+      <c r="XS9" s="36"/>
+      <c r="XT9" s="36"/>
+      <c r="XU9" s="36"/>
+      <c r="XV9" s="36"/>
+      <c r="XW9" s="36"/>
+      <c r="XX9" s="36"/>
+      <c r="XY9" s="36"/>
+      <c r="XZ9" s="36"/>
+      <c r="YA9" s="36"/>
+      <c r="YB9" s="36"/>
+      <c r="YC9" s="36"/>
+      <c r="YD9" s="36"/>
+      <c r="YE9" s="36"/>
+      <c r="YF9" s="36"/>
+      <c r="YG9" s="36"/>
+      <c r="YH9" s="36"/>
+      <c r="YI9" s="36"/>
+      <c r="YJ9" s="36"/>
+      <c r="YK9" s="36"/>
+      <c r="YL9" s="36"/>
+      <c r="YM9" s="36"/>
+      <c r="YN9" s="36"/>
+      <c r="YO9" s="36"/>
+      <c r="YP9" s="36"/>
+      <c r="YQ9" s="36"/>
+      <c r="YR9" s="36"/>
+      <c r="YS9" s="36"/>
+      <c r="YT9" s="36"/>
+      <c r="YU9" s="36"/>
+      <c r="YV9" s="36"/>
+      <c r="YW9" s="36"/>
+      <c r="YX9" s="36"/>
+      <c r="YY9" s="36"/>
+      <c r="YZ9" s="36"/>
+      <c r="ZA9" s="36"/>
+      <c r="ZB9" s="36"/>
+      <c r="ZC9" s="36"/>
+      <c r="ZD9" s="36"/>
+      <c r="ZE9" s="36"/>
+      <c r="ZF9" s="36"/>
+      <c r="ZG9" s="36"/>
+      <c r="ZH9" s="36"/>
+      <c r="ZI9" s="36"/>
+      <c r="ZJ9" s="36"/>
+      <c r="ZK9" s="36"/>
+      <c r="ZL9" s="36"/>
+      <c r="ZM9" s="36"/>
+      <c r="ZN9" s="36"/>
+      <c r="ZO9" s="36"/>
+      <c r="ZP9" s="36"/>
+      <c r="ZQ9" s="36"/>
+      <c r="ZR9" s="36"/>
+      <c r="ZS9" s="36"/>
+      <c r="ZT9" s="36"/>
+      <c r="ZU9" s="36"/>
+      <c r="ZV9" s="36"/>
+      <c r="ZW9" s="36"/>
+      <c r="ZX9" s="36"/>
+      <c r="ZY9" s="36"/>
+      <c r="ZZ9" s="36"/>
+      <c r="AAA9" s="36"/>
+      <c r="AAB9" s="36"/>
+      <c r="AAC9" s="36"/>
+      <c r="AAD9" s="36"/>
+      <c r="AAE9" s="36"/>
+      <c r="AAF9" s="36"/>
+      <c r="AAG9" s="36"/>
+      <c r="AAH9" s="36"/>
+      <c r="AAI9" s="36"/>
+      <c r="AAJ9" s="36"/>
+      <c r="AAK9" s="36"/>
+      <c r="AAL9" s="36"/>
+      <c r="AAM9" s="36"/>
+      <c r="AAN9" s="36"/>
+      <c r="AAO9" s="36"/>
+      <c r="AAP9" s="36"/>
+      <c r="AAQ9" s="36"/>
+      <c r="AAR9" s="36"/>
+      <c r="AAS9" s="36"/>
+      <c r="AAT9" s="36"/>
+      <c r="AAU9" s="36"/>
+      <c r="AAV9" s="36"/>
+      <c r="AAW9" s="36"/>
+      <c r="AAX9" s="36"/>
+      <c r="AAY9" s="36"/>
+      <c r="AAZ9" s="36"/>
+      <c r="ABA9" s="36"/>
+      <c r="ABB9" s="36"/>
+      <c r="ABC9" s="36"/>
+      <c r="ABD9" s="36"/>
+      <c r="ABE9" s="36"/>
+      <c r="ABF9" s="36"/>
+      <c r="ABG9" s="36"/>
+      <c r="ABH9" s="36"/>
+      <c r="ABI9" s="36"/>
+      <c r="ABJ9" s="36"/>
+      <c r="ABK9" s="36"/>
+      <c r="ABL9" s="36"/>
+      <c r="ABM9" s="36"/>
+      <c r="ABN9" s="36"/>
+      <c r="ABO9" s="36"/>
+      <c r="ABP9" s="36"/>
+      <c r="ABQ9" s="36"/>
+      <c r="ABR9" s="36"/>
+      <c r="ABS9" s="36"/>
+      <c r="ABT9" s="36"/>
+      <c r="ABU9" s="36"/>
+      <c r="ABV9" s="36"/>
+      <c r="ABW9" s="36"/>
+      <c r="ABX9" s="36"/>
+      <c r="ABY9" s="36"/>
+      <c r="ABZ9" s="36"/>
+      <c r="ACA9" s="36"/>
+      <c r="ACB9" s="36"/>
+      <c r="ACC9" s="36"/>
+      <c r="ACD9" s="36"/>
+      <c r="ACE9" s="36"/>
+      <c r="ACF9" s="36"/>
+      <c r="ACG9" s="36"/>
+      <c r="ACH9" s="36"/>
+      <c r="ACI9" s="36"/>
+      <c r="ACJ9" s="36"/>
+      <c r="ACK9" s="36"/>
+      <c r="ACL9" s="36"/>
+      <c r="ACM9" s="36"/>
+      <c r="ACN9" s="36"/>
+      <c r="ACO9" s="36"/>
+      <c r="ACP9" s="36"/>
+      <c r="ACQ9" s="36"/>
+      <c r="ACR9" s="36"/>
+      <c r="ACS9" s="36"/>
+      <c r="ACT9" s="36"/>
+      <c r="ACU9" s="36"/>
+      <c r="ACV9" s="36"/>
+      <c r="ACW9" s="36"/>
+      <c r="ACX9" s="36"/>
+      <c r="ACY9" s="36"/>
+      <c r="ACZ9" s="36"/>
+      <c r="ADA9" s="36"/>
+      <c r="ADB9" s="36"/>
+      <c r="ADC9" s="36"/>
+      <c r="ADD9" s="36"/>
+      <c r="ADE9" s="36"/>
+      <c r="ADF9" s="36"/>
+      <c r="ADG9" s="36"/>
+      <c r="ADH9" s="36"/>
+      <c r="ADI9" s="36"/>
+      <c r="ADJ9" s="36"/>
+      <c r="ADK9" s="36"/>
+      <c r="ADL9" s="36"/>
+      <c r="ADM9" s="36"/>
+      <c r="ADN9" s="36"/>
+      <c r="ADO9" s="36"/>
+      <c r="ADP9" s="36"/>
+      <c r="ADQ9" s="36"/>
+      <c r="ADR9" s="36"/>
+      <c r="ADS9" s="36"/>
+      <c r="ADT9" s="36"/>
+      <c r="ADU9" s="36"/>
+      <c r="ADV9" s="36"/>
+      <c r="ADW9" s="36"/>
+      <c r="ADX9" s="36"/>
+      <c r="ADY9" s="36"/>
+      <c r="ADZ9" s="36"/>
+      <c r="AEA9" s="36"/>
+      <c r="AEB9" s="36"/>
+      <c r="AEC9" s="36"/>
+      <c r="AED9" s="36"/>
+      <c r="AEE9" s="36"/>
+      <c r="AEF9" s="36"/>
+      <c r="AEG9" s="36"/>
+      <c r="AEH9" s="36"/>
+      <c r="AEI9" s="36"/>
+      <c r="AEJ9" s="36"/>
+      <c r="AEK9" s="36"/>
+      <c r="AEL9" s="36"/>
+      <c r="AEM9" s="36"/>
+      <c r="AEN9" s="36"/>
+      <c r="AEO9" s="36"/>
+      <c r="AEP9" s="36"/>
+      <c r="AEQ9" s="36"/>
+      <c r="AER9" s="36"/>
+      <c r="AES9" s="36"/>
+      <c r="AET9" s="36"/>
+      <c r="AEU9" s="36"/>
+      <c r="AEV9" s="36"/>
+      <c r="AEW9" s="36"/>
+      <c r="AEX9" s="36"/>
+      <c r="AEY9" s="36"/>
+      <c r="AEZ9" s="36"/>
+      <c r="AFA9" s="36"/>
+      <c r="AFB9" s="36"/>
+      <c r="AFC9" s="36"/>
+      <c r="AFD9" s="36"/>
+      <c r="AFE9" s="36"/>
+      <c r="AFF9" s="36"/>
+      <c r="AFG9" s="36"/>
+      <c r="AFH9" s="36"/>
+      <c r="AFI9" s="36"/>
+      <c r="AFJ9" s="36"/>
+      <c r="AFK9" s="36"/>
+      <c r="AFL9" s="36"/>
+      <c r="AFM9" s="36"/>
+      <c r="AFN9" s="36"/>
+      <c r="AFO9" s="36"/>
+      <c r="AFP9" s="36"/>
+      <c r="AFQ9" s="36"/>
+      <c r="AFR9" s="36"/>
+      <c r="AFS9" s="36"/>
+      <c r="AFT9" s="36"/>
+      <c r="AFU9" s="36"/>
+      <c r="AFV9" s="36"/>
+      <c r="AFW9" s="36"/>
+      <c r="AFX9" s="36"/>
+      <c r="AFY9" s="36"/>
+      <c r="AFZ9" s="36"/>
+      <c r="AGA9" s="36"/>
+      <c r="AGB9" s="36"/>
+      <c r="AGC9" s="36"/>
+      <c r="AGD9" s="36"/>
+      <c r="AGE9" s="36"/>
+      <c r="AGF9" s="36"/>
+      <c r="AGG9" s="36"/>
+      <c r="AGH9" s="36"/>
+      <c r="AGI9" s="36"/>
+      <c r="AGJ9" s="36"/>
+      <c r="AGK9" s="36"/>
+      <c r="AGL9" s="36"/>
+      <c r="AGM9" s="36"/>
+      <c r="AGN9" s="36"/>
+      <c r="AGO9" s="36"/>
+      <c r="AGP9" s="36"/>
+      <c r="AGQ9" s="36"/>
+      <c r="AGR9" s="36"/>
+      <c r="AGS9" s="36"/>
+      <c r="AGT9" s="36"/>
+      <c r="AGU9" s="36"/>
+      <c r="AGV9" s="36"/>
+      <c r="AGW9" s="36"/>
+      <c r="AGX9" s="36"/>
+      <c r="AGY9" s="36"/>
+      <c r="AGZ9" s="36"/>
+      <c r="AHA9" s="36"/>
+      <c r="AHB9" s="36"/>
+      <c r="AHC9" s="36"/>
+      <c r="AHD9" s="36"/>
+      <c r="AHE9" s="36"/>
+      <c r="AHF9" s="36"/>
+      <c r="AHG9" s="36"/>
+      <c r="AHH9" s="36"/>
+      <c r="AHI9" s="36"/>
+      <c r="AHJ9" s="36"/>
+      <c r="AHK9" s="36"/>
+      <c r="AHL9" s="36"/>
+      <c r="AHM9" s="36"/>
+      <c r="AHN9" s="36"/>
+      <c r="AHO9" s="36"/>
+      <c r="AHP9" s="36"/>
+      <c r="AHQ9" s="36"/>
+      <c r="AHR9" s="36"/>
+      <c r="AHS9" s="36"/>
+      <c r="AHT9" s="36"/>
+      <c r="AHU9" s="36"/>
+      <c r="AHV9" s="36"/>
+      <c r="AHW9" s="36"/>
+      <c r="AHX9" s="36"/>
+      <c r="AHY9" s="36"/>
+      <c r="AHZ9" s="36"/>
+      <c r="AIA9" s="36"/>
+      <c r="AIB9" s="36"/>
+      <c r="AIC9" s="36"/>
+      <c r="AID9" s="36"/>
+      <c r="AIE9" s="36"/>
+      <c r="AIF9" s="36"/>
+      <c r="AIG9" s="36"/>
+      <c r="AIH9" s="36"/>
+      <c r="AII9" s="36"/>
+      <c r="AIJ9" s="36"/>
+      <c r="AIK9" s="36"/>
+      <c r="AIL9" s="36"/>
+      <c r="AIM9" s="36"/>
+      <c r="AIN9" s="36"/>
+      <c r="AIO9" s="36"/>
+      <c r="AIP9" s="36"/>
+      <c r="AIQ9" s="36"/>
+      <c r="AIR9" s="36"/>
+      <c r="AIS9" s="36"/>
+      <c r="AIT9" s="36"/>
+      <c r="AIU9" s="36"/>
+      <c r="AIV9" s="36"/>
+      <c r="AIW9" s="36"/>
+      <c r="AIX9" s="36"/>
+      <c r="AIY9" s="36"/>
+      <c r="AIZ9" s="36"/>
+      <c r="AJA9" s="36"/>
+      <c r="AJB9" s="36"/>
+      <c r="AJC9" s="36"/>
+      <c r="AJD9" s="36"/>
+      <c r="AJE9" s="36"/>
+      <c r="AJF9" s="36"/>
+      <c r="AJG9" s="36"/>
+      <c r="AJH9" s="36"/>
+      <c r="AJI9" s="36"/>
+      <c r="AJJ9" s="36"/>
+      <c r="AJK9" s="36"/>
+      <c r="AJL9" s="36"/>
+      <c r="AJM9" s="36"/>
+      <c r="AJN9" s="36"/>
+      <c r="AJO9" s="36"/>
+      <c r="AJP9" s="36"/>
+      <c r="AJQ9" s="36"/>
+      <c r="AJR9" s="36"/>
+      <c r="AJS9" s="36"/>
+      <c r="AJT9" s="36"/>
+      <c r="AJU9" s="36"/>
+      <c r="AJV9" s="36"/>
+      <c r="AJW9" s="36"/>
+      <c r="AJX9" s="36"/>
+      <c r="AJY9" s="36"/>
+      <c r="AJZ9" s="36"/>
+      <c r="AKA9" s="36"/>
+      <c r="AKB9" s="36"/>
+      <c r="AKC9" s="36"/>
+      <c r="AKD9" s="36"/>
+      <c r="AKE9" s="36"/>
+      <c r="AKF9" s="36"/>
+      <c r="AKG9" s="36"/>
+      <c r="AKH9" s="36"/>
+      <c r="AKI9" s="36"/>
+      <c r="AKJ9" s="36"/>
+      <c r="AKK9" s="36"/>
+      <c r="AKL9" s="36"/>
+      <c r="AKM9" s="36"/>
+      <c r="AKN9" s="36"/>
+      <c r="AKO9" s="36"/>
+      <c r="AKP9" s="36"/>
+      <c r="AKQ9" s="36"/>
+      <c r="AKR9" s="36"/>
+      <c r="AKS9" s="36"/>
+      <c r="AKT9" s="36"/>
+      <c r="AKU9" s="36"/>
+      <c r="AKV9" s="36"/>
+      <c r="AKW9" s="36"/>
+      <c r="AKX9" s="36"/>
+      <c r="AKY9" s="36"/>
+      <c r="AKZ9" s="36"/>
+      <c r="ALA9" s="36"/>
+      <c r="ALB9" s="36"/>
+      <c r="ALC9" s="36"/>
+      <c r="ALD9" s="36"/>
+      <c r="ALE9" s="36"/>
+      <c r="ALF9" s="36"/>
+      <c r="ALG9" s="36"/>
+      <c r="ALH9" s="36"/>
+      <c r="ALI9" s="36"/>
+      <c r="ALJ9" s="36"/>
+      <c r="ALK9" s="36"/>
+      <c r="ALL9" s="36"/>
+      <c r="ALM9" s="36"/>
+      <c r="ALN9" s="36"/>
+      <c r="ALO9" s="36"/>
+      <c r="ALP9" s="36"/>
+      <c r="ALQ9" s="36"/>
+      <c r="ALR9" s="36"/>
+      <c r="ALS9" s="36"/>
+      <c r="ALT9" s="36"/>
+      <c r="ALU9" s="36"/>
+      <c r="ALV9" s="36"/>
+      <c r="ALW9" s="36"/>
+      <c r="ALX9" s="36"/>
+      <c r="ALY9" s="36"/>
+      <c r="ALZ9" s="36"/>
+      <c r="AMA9" s="36"/>
+      <c r="AMB9" s="36"/>
+      <c r="AMC9" s="36"/>
+      <c r="AMD9" s="36"/>
+      <c r="AME9" s="36"/>
+      <c r="AMF9" s="36"/>
+      <c r="AMG9" s="36"/>
+      <c r="AMH9" s="36"/>
+      <c r="AMI9" s="36"/>
+      <c r="AMJ9" s="36"/>
+      <c r="AMK9" s="36"/>
+    </row>
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B10" s="23">
         <v>28</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C10" s="23">
         <v>33</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D10" s="23">
         <v>40</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E10" s="23">
         <v>41</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F10" s="23">
         <v>44</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G10" s="23">
         <v>48</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H10" s="23">
         <v>53</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I10" s="23">
         <v>55</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J10" s="23">
         <v>59</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K10" s="23">
         <v>62</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L10" s="23">
         <v>63</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M10" s="23">
         <v>66</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N10" s="23">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="O10" s="23">
+        <v>61</v>
+      </c>
+      <c r="P10" s="23">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B11" s="30">
         <v>0.15789473679999999</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C11" s="30">
         <v>0.24880382779999999</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D11" s="30">
         <v>0.1052631579</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="E11" s="28">
+        <v>0.1071428571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B12" s="23">
         <v>0.18589</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B13" s="23">
         <v>6.5447093419999996E-3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C13" s="23">
         <v>7.790129271E-3</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="23">
         <v>9.5305966359999997E-3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E13" s="23">
         <v>9.853184983E-3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F13" s="23">
         <v>1.0672466049999999E-2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G13" s="23">
         <v>1.175049852E-2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H13" s="23">
         <v>1.3100221110000001E-2</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I13" s="23">
         <v>1.372447771E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J13" s="23">
         <v>1.486253838E-2</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K13" s="23">
         <v>1.5755780260000001E-2</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L13" s="23">
         <v>1.6144308230000001E-2</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M13" s="23">
         <v>1.70427701E-2</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N13" s="23">
         <v>1.7433297470000001E-2</v>
+      </c>
+      <c r="O13" s="25">
+        <v>1.598958109E-2</v>
+      </c>
+      <c r="P13" s="25">
+        <v>1.6907435799999999E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="N9" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Documents\Yale\Galvani Lab\Carbapenem\Carbapenem-Resistance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Documents\Yale\Galvani Lab\AMR\Carbapenem-Resistance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6620,8 +6620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9189,49 +9189,49 @@
         <v>33</v>
       </c>
       <c r="B13" s="23">
-        <v>6.5447093419999996E-3</v>
+        <v>4.8889240219999998E-2</v>
       </c>
       <c r="C13" s="23">
-        <v>7.790129271E-3</v>
+        <v>5.8192576849999997E-2</v>
       </c>
       <c r="D13" s="23">
-        <v>9.5305966359999997E-3</v>
+        <v>7.1193937590000006E-2</v>
       </c>
       <c r="E13" s="23">
-        <v>9.853184983E-3</v>
+        <v>7.3603685429999996E-2</v>
       </c>
       <c r="F13" s="23">
-        <v>1.0672466049999999E-2</v>
+        <v>7.9723747710000001E-2</v>
       </c>
       <c r="G13" s="23">
-        <v>1.175049852E-2</v>
+        <v>8.7776693350000004E-2</v>
       </c>
       <c r="H13" s="23">
-        <v>1.3100221110000001E-2</v>
+        <v>9.7859175019999994E-2</v>
       </c>
       <c r="I13" s="23">
-        <v>1.372447771E-2</v>
+        <v>0.1025223968</v>
       </c>
       <c r="J13" s="23">
-        <v>1.486253838E-2</v>
+        <v>0.11102375539999999</v>
       </c>
       <c r="K13" s="23">
-        <v>1.5755780260000001E-2</v>
+        <v>0.11769630790000001</v>
       </c>
       <c r="L13" s="23">
-        <v>1.6144308230000001E-2</v>
+        <v>0.12059862740000001</v>
       </c>
       <c r="M13" s="23">
-        <v>1.70427701E-2</v>
+        <v>0.1273101734</v>
       </c>
       <c r="N13" s="23">
-        <v>1.7433297470000001E-2</v>
+        <v>0.13022742849999999</v>
       </c>
       <c r="O13" s="25">
-        <v>1.598958109E-2</v>
+        <v>0.1194428094</v>
       </c>
       <c r="P13" s="25">
-        <v>1.6907435799999999E-2</v>
+        <v>0.1262992208</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Documents\Yale\Galvani Lab\AMR\Carbapenem-Resistance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Documents\Carbapenem\Carbapenem-Resistance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="3730" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="3735" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="United States" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,10 @@
     <sheet name="Iceland" sheetId="32" r:id="rId33"/>
     <sheet name="Malta" sheetId="33" r:id="rId34"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <externalReferences>
+    <externalReference r:id="rId35"/>
+  </externalReferences>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -170,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -440,6 +443,71 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Pneumonia"/>
+      <sheetName val="Data &amp; Parameters"/>
+      <sheetName val="Sources &amp; Notes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="13">
+          <cell r="B13">
+            <v>5.116795146E-2</v>
+          </cell>
+          <cell r="C13">
+            <v>5.545251382E-2</v>
+          </cell>
+          <cell r="D13">
+            <v>6.4058763709999994E-2</v>
+          </cell>
+          <cell r="E13">
+            <v>6.3038341819999996E-2</v>
+          </cell>
+          <cell r="F13">
+            <v>6.9081833790000005E-2</v>
+          </cell>
+          <cell r="G13">
+            <v>7.2866838119999999E-2</v>
+          </cell>
+          <cell r="H13">
+            <v>8.1495325930000001E-2</v>
+          </cell>
+          <cell r="I13">
+            <v>8.2100477039999994E-2</v>
+          </cell>
+          <cell r="J13">
+            <v>8.4872943630000003E-2</v>
+          </cell>
+          <cell r="K13">
+            <v>8.1556849720000005E-2</v>
+          </cell>
+          <cell r="L13">
+            <v>9.3080891629999996E-2</v>
+          </cell>
+          <cell r="M13">
+            <v>9.1138155499999998E-2</v>
+          </cell>
+          <cell r="N13">
+            <v>9.7227641840000004E-2</v>
+          </cell>
+          <cell r="O13">
+            <v>9.4034273060000007E-2</v>
+          </cell>
+          <cell r="P13">
+            <v>9.8938662489999996E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,13 +782,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1"/>
-    <col min="2" max="1025" width="8.453125" style="1"/>
+    <col min="2" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -764,7 +832,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -808,7 +876,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -852,7 +920,7 @@
         <v>117.3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -896,7 +964,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -940,7 +1008,7 @@
         <v>153.75</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -984,7 +1052,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1096,7 @@
         <v>70.09</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1072,7 +1140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1086,7 +1154,7 @@
         <v>0.17544000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,14 +1176,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2"/>
-    <col min="2" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="2"/>
+    <col min="2" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1233,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1270,7 +1338,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1424,14 +1492,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2"/>
-    <col min="2" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="2"/>
+    <col min="2" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1549,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1614,7 @@
         <v>4.1843971631205677E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1586,7 +1654,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1626,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1744,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1740,15 +1808,15 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="2"/>
-    <col min="2" max="11" width="8.54296875" style="1"/>
-    <col min="12" max="1019" width="8.453125" style="1"/>
-    <col min="1020" max="1025" width="8.453125"/>
+    <col min="1" max="1" width="16.140625" style="2"/>
+    <col min="2" max="11" width="8.5703125" style="1"/>
+    <col min="12" max="1019" width="8.42578125" style="1"/>
+    <col min="1020" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1851,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1828,7 +1896,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1863,7 +1931,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1898,7 +1966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1933,7 +2001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1982,14 +2050,14 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2"/>
-    <col min="2" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="2"/>
+    <col min="2" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2107,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2172,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2144,7 +2212,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2184,7 +2252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2234,7 +2302,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2301,17 +2369,17 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="1"/>
-    <col min="3" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="14" width="8.54296875" style="1"/>
-    <col min="15" max="1022" width="8.453125" style="1"/>
-    <col min="1023" max="1028" width="8.453125"/>
+    <col min="1" max="1" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1"/>
+    <col min="3" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="14" width="8.5703125" style="1"/>
+    <col min="15" max="1022" width="8.42578125" style="1"/>
+    <col min="1023" max="1028" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1022" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1022" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +2414,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2387,7 +2455,7 @@
       <c r="AMG2"/>
       <c r="AMH2"/>
     </row>
-    <row r="3" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2428,7 +2496,7 @@
       <c r="AMG3"/>
       <c r="AMH3"/>
     </row>
-    <row r="4" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -2469,7 +2537,7 @@
       <c r="AMG4"/>
       <c r="AMH4"/>
     </row>
-    <row r="5" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2510,7 +2578,7 @@
       <c r="AMG5"/>
       <c r="AMH5"/>
     </row>
-    <row r="6" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -2551,7 +2619,7 @@
       <c r="AMG6"/>
       <c r="AMH6"/>
     </row>
-    <row r="7" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
@@ -2592,7 +2660,7 @@
       <c r="AMG7"/>
       <c r="AMH7"/>
     </row>
-    <row r="8" spans="1:1022" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1022" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
@@ -3632,7 +3700,7 @@
       <c r="AMA8" s="23"/>
       <c r="AMB8" s="23"/>
     </row>
-    <row r="9" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -3675,22 +3743,22 @@
       <c r="AMG9"/>
       <c r="AMH9"/>
     </row>
-    <row r="10" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -3719,7 +3787,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="17" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -3744,7 +3812,7 @@
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
     </row>
-    <row r="18" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -3769,7 +3837,7 @@
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
     </row>
-    <row r="19" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>24</v>
       </c>
@@ -3794,7 +3862,7 @@
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
     </row>
-    <row r="20" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
@@ -3826,28 +3894,28 @@
       <c r="AMG20"/>
       <c r="AMH20"/>
     </row>
-    <row r="21" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="AMF21"/>
       <c r="AMG21"/>
       <c r="AMH21"/>
     </row>
-    <row r="24" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:1022" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
@@ -3866,14 +3934,14 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2"/>
-    <col min="2" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="2"/>
+    <col min="2" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3923,7 +3991,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3988,7 +4056,7 @@
         <v>4.422781839516202E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4028,7 +4096,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4068,7 +4136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -4118,7 +4186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4182,16 +4250,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2"/>
-    <col min="2" max="2" width="11.81640625"/>
-    <col min="3" max="6" width="8.26953125"/>
-    <col min="7" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="2"/>
+    <col min="2" max="2" width="11.85546875"/>
+    <col min="3" max="6" width="8.28515625"/>
+    <col min="7" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4241,7 +4309,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4306,7 +4374,7 @@
         <v>2.0918025022694082E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4341,7 +4409,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4376,7 +4444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -4426,7 +4494,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4493,14 +4561,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" style="2" customWidth="1"/>
-    <col min="2" max="15" width="8.54296875" style="1"/>
-    <col min="16" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="36.85546875" style="2" customWidth="1"/>
+    <col min="2" max="15" width="8.5703125" style="1"/>
+    <col min="16" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1025" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4532,7 +4600,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -4574,7 +4642,7 @@
       <c r="AMJ2"/>
       <c r="AMK2"/>
     </row>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -4616,7 +4684,7 @@
       <c r="AMJ3"/>
       <c r="AMK3"/>
     </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
@@ -4658,7 +4726,7 @@
       <c r="AMJ4"/>
       <c r="AMK4"/>
     </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -4700,7 +4768,7 @@
       <c r="AMJ5"/>
       <c r="AMK5"/>
     </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>26</v>
       </c>
@@ -4740,7 +4808,7 @@
       <c r="AMJ6"/>
       <c r="AMK6"/>
     </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>27</v>
       </c>
@@ -4780,7 +4848,7 @@
       <c r="AMJ7"/>
       <c r="AMK7"/>
     </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
@@ -4824,7 +4892,7 @@
       <c r="AMJ8"/>
       <c r="AMK8"/>
     </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -4864,7 +4932,7 @@
       <c r="AMJ9"/>
       <c r="AMK9"/>
     </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>8</v>
       </c>
@@ -4890,7 +4958,7 @@
       <c r="AMJ10"/>
       <c r="AMK10"/>
     </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
@@ -4916,7 +4984,7 @@
       <c r="AMJ11"/>
       <c r="AMK11"/>
     </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -4924,7 +4992,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -4947,7 +5015,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>24</v>
       </c>
@@ -4970,22 +5038,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>30</v>
       </c>
@@ -5004,15 +5072,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="6" width="8.26953125"/>
-    <col min="7" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1"/>
+    <col min="2" max="6" width="8.28515625"/>
+    <col min="7" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5062,7 +5130,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -5127,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -5160,7 +5228,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5193,7 +5261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -5243,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -5293,10 +5361,10 @@
         <v>8319</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -5315,15 +5383,15 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2"/>
-    <col min="2" max="6" width="8.26953125"/>
-    <col min="7" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="2"/>
+    <col min="2" max="6" width="8.28515625"/>
+    <col min="7" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5373,7 +5441,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6446,7 +6514,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -6478,7 +6546,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6510,7 +6578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -6560,7 +6628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -6620,18 +6688,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="1025" width="9.1796875" style="23"/>
-    <col min="1026" max="16384" width="8.7265625" style="24"/>
+    <col min="1" max="1" width="31.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="9.140625" style="23" customWidth="1"/>
+    <col min="1026" max="16384" width="8.7109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1025" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -6681,7 +6749,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -6731,7 +6799,7 @@
         <v>6395</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
@@ -6783,7 +6851,7 @@
         <v>511.6</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
@@ -6833,7 +6901,7 @@
         <v>6578</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
@@ -6885,7 +6953,7 @@
         <v>1249.82</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
@@ -6935,7 +7003,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
@@ -6987,7 +7055,7 @@
         <v>361.62</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1025" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>34</v>
       </c>
@@ -8045,7 +8113,7 @@
       <c r="AMJ8" s="33"/>
       <c r="AMK8" s="33"/>
     </row>
-    <row r="9" spans="1:1025" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1025" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>35</v>
       </c>
@@ -9109,7 +9177,7 @@
       <c r="AMJ9" s="36"/>
       <c r="AMK9" s="36"/>
     </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>7</v>
       </c>
@@ -9159,7 +9227,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>8</v>
       </c>
@@ -9176,7 +9244,7 @@
         <v>0.1071428571</v>
       </c>
     </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>9</v>
       </c>
@@ -9184,54 +9252,69 @@
         <v>0.18589</v>
       </c>
     </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="23">
-        <v>4.8889240219999998E-2</v>
+        <f>'[1]Data &amp; Parameters'!$B$13</f>
+        <v>5.116795146E-2</v>
       </c>
       <c r="C13" s="23">
-        <v>5.8192576849999997E-2</v>
+        <f>'[1]Data &amp; Parameters'!$C$13</f>
+        <v>5.545251382E-2</v>
       </c>
       <c r="D13" s="23">
-        <v>7.1193937590000006E-2</v>
+        <f>'[1]Data &amp; Parameters'!$D$13</f>
+        <v>6.4058763709999994E-2</v>
       </c>
       <c r="E13" s="23">
-        <v>7.3603685429999996E-2</v>
+        <f>'[1]Data &amp; Parameters'!$E$13</f>
+        <v>6.3038341819999996E-2</v>
       </c>
       <c r="F13" s="23">
-        <v>7.9723747710000001E-2</v>
+        <f>'[1]Data &amp; Parameters'!$F$13</f>
+        <v>6.9081833790000005E-2</v>
       </c>
       <c r="G13" s="23">
-        <v>8.7776693350000004E-2</v>
+        <f>'[1]Data &amp; Parameters'!$G$13</f>
+        <v>7.2866838119999999E-2</v>
       </c>
       <c r="H13" s="23">
-        <v>9.7859175019999994E-2</v>
+        <f>'[1]Data &amp; Parameters'!$H$13</f>
+        <v>8.1495325930000001E-2</v>
       </c>
       <c r="I13" s="23">
-        <v>0.1025223968</v>
+        <f>'[1]Data &amp; Parameters'!$I$13</f>
+        <v>8.2100477039999994E-2</v>
       </c>
       <c r="J13" s="23">
-        <v>0.11102375539999999</v>
+        <f>'[1]Data &amp; Parameters'!$J$13</f>
+        <v>8.4872943630000003E-2</v>
       </c>
       <c r="K13" s="23">
-        <v>0.11769630790000001</v>
+        <f>'[1]Data &amp; Parameters'!$K$13</f>
+        <v>8.1556849720000005E-2</v>
       </c>
       <c r="L13" s="23">
-        <v>0.12059862740000001</v>
+        <f>'[1]Data &amp; Parameters'!$L$13</f>
+        <v>9.3080891629999996E-2</v>
       </c>
       <c r="M13" s="23">
-        <v>0.1273101734</v>
+        <f>'[1]Data &amp; Parameters'!$M$13</f>
+        <v>9.1138155499999998E-2</v>
       </c>
       <c r="N13" s="23">
-        <v>0.13022742849999999</v>
+        <f>'[1]Data &amp; Parameters'!$N$13</f>
+        <v>9.7227641840000004E-2</v>
       </c>
       <c r="O13" s="25">
-        <v>0.1194428094</v>
+        <f>'[1]Data &amp; Parameters'!$O$13</f>
+        <v>9.4034273060000007E-2</v>
       </c>
       <c r="P13" s="25">
-        <v>0.1262992208</v>
+        <f>'[1]Data &amp; Parameters'!$P$13</f>
+        <v>9.8938662489999996E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9251,15 +9334,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="6" width="8.26953125"/>
-    <col min="7" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1"/>
+    <col min="2" max="6" width="8.28515625"/>
+    <col min="7" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10317,7 +10400,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -11390,7 +11473,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -11422,7 +11505,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -11454,7 +11537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -11504,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -11568,15 +11651,15 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2"/>
-    <col min="2" max="6" width="8.26953125"/>
-    <col min="7" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="2"/>
+    <col min="2" max="6" width="8.28515625"/>
+    <col min="7" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11626,7 +11709,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -11686,7 +11769,7 @@
         <v>2.2514839325919354E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -11721,7 +11804,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -11756,7 +11839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -11806,7 +11889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -11873,13 +11956,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="1022" width="8.453125" style="1"/>
+    <col min="1" max="1" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="1022" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -11926,7 +12009,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -11975,7 +12058,7 @@
       <c r="AMG2"/>
       <c r="AMH2"/>
     </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -12024,7 +12107,7 @@
       <c r="AMG3"/>
       <c r="AMH3"/>
     </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
@@ -12073,7 +12156,7 @@
       <c r="AMG4"/>
       <c r="AMH4"/>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -12122,7 +12205,7 @@
       <c r="AMG5"/>
       <c r="AMH5"/>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>26</v>
       </c>
@@ -12171,7 +12254,7 @@
       <c r="AMG6"/>
       <c r="AMH6"/>
     </row>
-    <row r="7" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>27</v>
       </c>
@@ -12220,7 +12303,7 @@
       <c r="AMG7"/>
       <c r="AMH7"/>
     </row>
-    <row r="8" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
@@ -12271,7 +12354,7 @@
       <c r="AMG8"/>
       <c r="AMH8"/>
     </row>
-    <row r="9" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
@@ -12298,7 +12381,7 @@
       <c r="AMG9"/>
       <c r="AMH9"/>
     </row>
-    <row r="10" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
@@ -12319,7 +12402,7 @@
       <c r="AMG10"/>
       <c r="AMH10"/>
     </row>
-    <row r="11" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="AMI11" s="1"/>
       <c r="AMJ11" s="1"/>
     </row>
@@ -12337,15 +12420,15 @@
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2"/>
-    <col min="2" max="6" width="8.26953125"/>
-    <col min="7" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="2"/>
+    <col min="2" max="6" width="8.28515625"/>
+    <col min="7" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12395,7 +12478,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -12460,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -12493,7 +12576,7 @@
       </c>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -12526,7 +12609,7 @@
       </c>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -12576,7 +12659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -12640,14 +12723,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2"/>
-    <col min="2" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="2"/>
+    <col min="2" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12697,7 +12780,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -12762,7 +12845,7 @@
         <v>8.1076418837329658E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -12798,7 +12881,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -12834,7 +12917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -12884,7 +12967,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -12948,15 +13031,15 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2"/>
-    <col min="2" max="6" width="8.26953125"/>
-    <col min="7" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="2"/>
+    <col min="2" max="6" width="8.28515625"/>
+    <col min="7" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13006,7 +13089,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -13071,7 +13154,7 @@
         <v>7.3943987429522135E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -13106,7 +13189,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -13141,7 +13224,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -13191,7 +13274,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -13255,14 +13338,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1"/>
+    <col min="2" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13312,7 +13395,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -13377,7 +13460,7 @@
         <v>1.5139499675582151E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -13405,7 +13488,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -13433,7 +13516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -13483,7 +13566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -13547,14 +13630,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1"/>
+    <col min="2" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13604,7 +13687,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -13669,7 +13752,7 @@
         <v>3.7306472673008769E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -13709,7 +13792,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -13749,7 +13832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -13799,7 +13882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -13863,15 +13946,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="1"/>
-    <col min="2" max="6" width="8.26953125"/>
-    <col min="7" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="8.42578125" style="1"/>
+    <col min="2" max="6" width="8.28515625"/>
+    <col min="7" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14929,7 +15012,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -16002,7 +16085,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -16037,7 +16120,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -16072,7 +16155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -16122,7 +16205,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -16186,15 +16269,15 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2"/>
-    <col min="2" max="6" width="8.26953125"/>
-    <col min="7" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="2"/>
+    <col min="2" max="6" width="8.28515625"/>
+    <col min="7" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16244,7 +16327,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -16309,7 +16392,7 @@
         <v>5.6581874455943516E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -16344,7 +16427,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -16379,7 +16462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -16429,7 +16512,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -16493,13 +16576,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="2"/>
-    <col min="2" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="16.42578125" style="2"/>
+    <col min="2" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16549,7 +16632,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -16614,7 +16697,7 @@
         <v>1.0201135598113753E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -16654,7 +16737,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -16694,7 +16777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -16744,7 +16827,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -16794,16 +16877,16 @@
         <v>10391</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -16829,15 +16912,15 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.26953125"/>
-    <col min="7" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="10.7265625" style="1"/>
+    <col min="1" max="1" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.28515625"/>
+    <col min="7" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1025" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -16872,7 +16955,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -16916,7 +16999,7 @@
       <c r="AMJ2"/>
       <c r="AMK2"/>
     </row>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -16960,7 +17043,7 @@
       <c r="AMJ3"/>
       <c r="AMK3"/>
     </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
@@ -17004,7 +17087,7 @@
       <c r="AMJ4"/>
       <c r="AMK4"/>
     </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -17048,7 +17131,7 @@
       <c r="AMJ5"/>
       <c r="AMK5"/>
     </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>26</v>
       </c>
@@ -17090,7 +17173,7 @@
       <c r="AMJ6"/>
       <c r="AMK6"/>
     </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>27</v>
       </c>
@@ -17132,7 +17215,7 @@
       <c r="AMJ7"/>
       <c r="AMK7"/>
     </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
@@ -17178,7 +17261,7 @@
       <c r="AMJ8"/>
       <c r="AMK8"/>
     </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
@@ -17204,7 +17287,7 @@
       <c r="AMJ9"/>
       <c r="AMK9"/>
     </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
@@ -17230,7 +17313,7 @@
       <c r="AMJ10"/>
       <c r="AMK10"/>
     </row>
-    <row r="14" spans="1:1025" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1025" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -17260,7 +17343,7 @@
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
     </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>24</v>
       </c>
@@ -17286,7 +17369,7 @@
       <c r="AMJ15"/>
       <c r="AMK15"/>
     </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -17298,27 +17381,27 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
     </row>
   </sheetData>
@@ -17339,13 +17422,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="2"/>
-    <col min="2" max="1025" width="8.54296875" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="2"/>
+    <col min="2" max="1025" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17395,7 +17478,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -17460,7 +17543,7 @@
         <v>1.2611518520248494E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -17494,7 +17577,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -17528,7 +17611,7 @@
         <v>157.88999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -17578,7 +17661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -17642,12 +17725,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17676,7 +17759,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -17705,7 +17788,7 @@
         <v>3.3306820441439699E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -17734,7 +17817,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -17789,16 +17872,16 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="2"/>
-    <col min="2" max="5" width="8.26953125"/>
-    <col min="6" max="6" width="8.453125"/>
-    <col min="7" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="8.42578125" style="2"/>
+    <col min="2" max="5" width="8.28515625"/>
+    <col min="6" max="6" width="8.42578125"/>
+    <col min="7" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17848,7 +17931,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -17863,7 +17946,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -17890,7 +17973,7 @@
       <c r="O3"/>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -17917,7 +18000,7 @@
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -17952,15 +18035,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -17979,12 +18062,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18019,7 +18102,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -18048,7 +18131,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -18083,7 +18166,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -18118,16 +18201,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -18146,13 +18229,13 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="2"/>
-    <col min="2" max="1025" width="8.453125" style="1"/>
+    <col min="2" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -18202,7 +18285,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -18267,7 +18350,7 @@
         <v>3.7487073422957599E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -18299,7 +18382,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -18331,7 +18414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -18381,7 +18464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -18431,16 +18514,16 @@
         <v>15472</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -18459,16 +18542,16 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" style="2"/>
-    <col min="2" max="8" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="19.85546875" style="2"/>
+    <col min="2" max="8" width="8.7109375" style="1"/>
     <col min="9" max="9" width="11" style="1"/>
-    <col min="10" max="16" width="8.7265625" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="10" max="16" width="8.7109375" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -18518,7 +18601,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -18583,7 +18666,7 @@
         <v>1.2172854534388314E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -18623,7 +18706,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -18663,7 +18746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -18713,7 +18796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -18777,14 +18860,14 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" style="1"/>
-    <col min="2" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="18.28515625" style="1"/>
+    <col min="2" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -18834,7 +18917,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -18894,7 +18977,7 @@
         <v>3.8319327731092439E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -18924,7 +19007,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -18954,7 +19037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -19004,7 +19087,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -19068,12 +19151,12 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19108,7 +19191,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -19141,7 +19224,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -19176,7 +19259,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -19211,21 +19294,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -19244,14 +19327,14 @@
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="2"/>
-    <col min="2" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="8.42578125" style="2"/>
+    <col min="2" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19301,7 +19384,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -19366,7 +19449,7 @@
         <v>2.7825150345570414E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -19406,7 +19489,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -19446,7 +19529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -19496,7 +19579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -19560,15 +19643,15 @@
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="2"/>
-    <col min="2" max="6" width="8.26953125"/>
-    <col min="7" max="16" width="8.54296875" style="1"/>
-    <col min="17" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="8.42578125" style="2"/>
+    <col min="2" max="6" width="8.28515625"/>
+    <col min="7" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19618,7 +19701,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -20691,7 +20774,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -20723,7 +20806,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -20755,7 +20838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -20805,7 +20888,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>

--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -47,9 +47,6 @@
     <sheet name="Iceland" sheetId="32" r:id="rId33"/>
     <sheet name="Malta" sheetId="33" r:id="rId34"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId35"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -443,71 +440,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Pneumonia"/>
-      <sheetName val="Data &amp; Parameters"/>
-      <sheetName val="Sources &amp; Notes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="13">
-          <cell r="B13">
-            <v>5.116795146E-2</v>
-          </cell>
-          <cell r="C13">
-            <v>5.545251382E-2</v>
-          </cell>
-          <cell r="D13">
-            <v>6.4058763709999994E-2</v>
-          </cell>
-          <cell r="E13">
-            <v>6.3038341819999996E-2</v>
-          </cell>
-          <cell r="F13">
-            <v>6.9081833790000005E-2</v>
-          </cell>
-          <cell r="G13">
-            <v>7.2866838119999999E-2</v>
-          </cell>
-          <cell r="H13">
-            <v>8.1495325930000001E-2</v>
-          </cell>
-          <cell r="I13">
-            <v>8.2100477039999994E-2</v>
-          </cell>
-          <cell r="J13">
-            <v>8.4872943630000003E-2</v>
-          </cell>
-          <cell r="K13">
-            <v>8.1556849720000005E-2</v>
-          </cell>
-          <cell r="L13">
-            <v>9.3080891629999996E-2</v>
-          </cell>
-          <cell r="M13">
-            <v>9.1138155499999998E-2</v>
-          </cell>
-          <cell r="N13">
-            <v>9.7227641840000004E-2</v>
-          </cell>
-          <cell r="O13">
-            <v>9.4034273060000007E-2</v>
-          </cell>
-          <cell r="P13">
-            <v>9.8938662489999996E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6689,7 +6621,7 @@
   <dimension ref="A1:AMK13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9257,63 +9189,48 @@
         <v>33</v>
       </c>
       <c r="B13" s="23">
-        <f>'[1]Data &amp; Parameters'!$B$13</f>
         <v>5.116795146E-2</v>
       </c>
       <c r="C13" s="23">
-        <f>'[1]Data &amp; Parameters'!$C$13</f>
         <v>5.545251382E-2</v>
       </c>
       <c r="D13" s="23">
-        <f>'[1]Data &amp; Parameters'!$D$13</f>
         <v>6.4058763709999994E-2</v>
       </c>
       <c r="E13" s="23">
-        <f>'[1]Data &amp; Parameters'!$E$13</f>
         <v>6.3038341819999996E-2</v>
       </c>
       <c r="F13" s="23">
-        <f>'[1]Data &amp; Parameters'!$F$13</f>
         <v>6.9081833790000005E-2</v>
       </c>
       <c r="G13" s="23">
-        <f>'[1]Data &amp; Parameters'!$G$13</f>
         <v>7.2866838119999999E-2</v>
       </c>
       <c r="H13" s="23">
-        <f>'[1]Data &amp; Parameters'!$H$13</f>
         <v>8.1495325930000001E-2</v>
       </c>
       <c r="I13" s="23">
-        <f>'[1]Data &amp; Parameters'!$I$13</f>
         <v>8.2100477039999994E-2</v>
       </c>
       <c r="J13" s="23">
-        <f>'[1]Data &amp; Parameters'!$J$13</f>
         <v>8.4872943630000003E-2</v>
       </c>
       <c r="K13" s="23">
-        <f>'[1]Data &amp; Parameters'!$K$13</f>
         <v>8.1556849720000005E-2</v>
       </c>
       <c r="L13" s="23">
-        <f>'[1]Data &amp; Parameters'!$L$13</f>
         <v>9.3080891629999996E-2</v>
       </c>
       <c r="M13" s="23">
-        <f>'[1]Data &amp; Parameters'!$M$13</f>
         <v>9.1138155499999998E-2</v>
       </c>
       <c r="N13" s="23">
-        <f>'[1]Data &amp; Parameters'!$N$13</f>
         <v>9.7227641840000004E-2</v>
       </c>
       <c r="O13" s="25">
-        <f>'[1]Data &amp; Parameters'!$O$13</f>
         <v>9.4034273060000007E-2</v>
       </c>
       <c r="P13" s="25">
-        <f>'[1]Data &amp; Parameters'!$P$13</f>
         <v>9.8938662489999996E-2</v>
       </c>
     </row>

--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="37">
   <si>
     <t>Year</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Resistance_EA/C</t>
+  </si>
+  <si>
+    <t>Pneumonia prevalence</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -357,6 +360,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6618,10 +6625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK13"/>
+  <dimension ref="A1:AMK14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6682,309 +6689,309 @@
       </c>
     </row>
     <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32">
-        <v>3230</v>
-      </c>
-      <c r="C2" s="32">
-        <v>3459</v>
-      </c>
-      <c r="D2" s="32">
-        <v>3697</v>
-      </c>
-      <c r="E2" s="32">
-        <v>3733</v>
-      </c>
-      <c r="F2" s="32">
-        <v>4616</v>
-      </c>
-      <c r="G2" s="32">
-        <v>4696</v>
-      </c>
-      <c r="H2" s="32">
-        <v>4158</v>
-      </c>
-      <c r="I2" s="32">
-        <v>3732</v>
-      </c>
-      <c r="J2" s="32">
-        <v>3745</v>
-      </c>
-      <c r="K2" s="33">
-        <v>3286</v>
-      </c>
-      <c r="L2" s="33">
-        <v>3039</v>
-      </c>
-      <c r="M2" s="33">
-        <v>2503</v>
-      </c>
-      <c r="N2" s="33">
-        <v>1173</v>
-      </c>
-      <c r="O2" s="33">
-        <v>6162</v>
-      </c>
-      <c r="P2" s="33">
-        <v>6395</v>
+      <c r="A2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="38">
+        <v>2486</v>
+      </c>
+      <c r="C2" s="38">
+        <v>2727</v>
+      </c>
+      <c r="D2" s="38">
+        <v>2822</v>
+      </c>
+      <c r="E2" s="38">
+        <v>3101</v>
+      </c>
+      <c r="F2" s="38">
+        <v>3537</v>
+      </c>
+      <c r="G2" s="38">
+        <v>3076</v>
+      </c>
+      <c r="H2" s="38">
+        <v>2714</v>
+      </c>
+      <c r="I2" s="38">
+        <v>2267</v>
+      </c>
+      <c r="J2" s="39">
+        <v>2107</v>
+      </c>
+      <c r="K2" s="39">
+        <v>1829</v>
+      </c>
+      <c r="L2" s="39">
+        <v>1631</v>
+      </c>
+      <c r="M2" s="39">
+        <v>1488</v>
+      </c>
+      <c r="N2" s="39">
+        <v>615</v>
+      </c>
+      <c r="O2" s="39">
+        <v>6849</v>
+      </c>
+      <c r="P2" s="39">
+        <v>6578</v>
       </c>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="35">
-        <v>0</v>
+        <v>323.18</v>
       </c>
       <c r="C3" s="35">
-        <v>0</v>
+        <v>436.32</v>
       </c>
       <c r="D3" s="35">
-        <v>0</v>
+        <v>507.96</v>
       </c>
       <c r="E3" s="35">
-        <v>0</v>
+        <v>589.19000000000005</v>
       </c>
       <c r="F3" s="35">
-        <v>0</v>
+        <v>707.4</v>
       </c>
       <c r="G3" s="35">
-        <v>46.96</v>
+        <v>522.91999999999996</v>
       </c>
       <c r="H3" s="35">
-        <v>41.58</v>
+        <v>488.52</v>
       </c>
       <c r="I3" s="35">
-        <v>74.64</v>
+        <v>385.39</v>
       </c>
       <c r="J3" s="35">
-        <v>187.25</v>
-      </c>
-      <c r="K3" s="36">
-        <v>164.3</v>
-      </c>
-      <c r="L3" s="36">
-        <v>151.94999999999999</v>
-      </c>
-      <c r="M3" s="36">
-        <v>175.21</v>
-      </c>
-      <c r="N3" s="36">
-        <v>117.3</v>
+        <v>379.26</v>
+      </c>
+      <c r="K3" s="35">
+        <v>310.93</v>
+      </c>
+      <c r="L3" s="35">
+        <v>326.2</v>
+      </c>
+      <c r="M3" s="35">
+        <v>282.72000000000003</v>
+      </c>
+      <c r="N3" s="35">
+        <v>153.75</v>
       </c>
       <c r="O3" s="36">
-        <f>0.1*O2</f>
-        <v>616.20000000000005</v>
+        <f>0.2*O2</f>
+        <v>1369.8000000000002</v>
       </c>
       <c r="P3" s="36">
-        <f>0.08*P2</f>
-        <v>511.6</v>
+        <f>0.19*P2</f>
+        <v>1249.82</v>
       </c>
     </row>
     <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="38">
-        <v>2486</v>
+        <v>681</v>
       </c>
       <c r="C4" s="38">
-        <v>2727</v>
+        <v>887</v>
       </c>
       <c r="D4" s="38">
-        <v>2822</v>
+        <v>955</v>
       </c>
       <c r="E4" s="38">
-        <v>3101</v>
+        <v>998</v>
       </c>
       <c r="F4" s="38">
-        <v>3537</v>
+        <v>1187</v>
       </c>
       <c r="G4" s="38">
-        <v>3076</v>
+        <v>1143</v>
       </c>
       <c r="H4" s="38">
-        <v>2714</v>
-      </c>
-      <c r="I4" s="38">
-        <v>2267</v>
+        <v>890</v>
+      </c>
+      <c r="I4" s="39">
+        <v>860</v>
       </c>
       <c r="J4" s="39">
-        <v>2107</v>
+        <v>757</v>
       </c>
       <c r="K4" s="39">
-        <v>1829</v>
+        <v>603</v>
       </c>
       <c r="L4" s="39">
-        <v>1631</v>
+        <v>419</v>
       </c>
       <c r="M4" s="39">
-        <v>1488</v>
+        <v>365</v>
       </c>
       <c r="N4" s="39">
-        <v>615</v>
+        <v>163</v>
       </c>
       <c r="O4" s="39">
-        <v>6849</v>
+        <v>831</v>
       </c>
       <c r="P4" s="39">
-        <v>6578</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="35">
-        <v>323.18</v>
-      </c>
-      <c r="C5" s="35">
-        <v>436.32</v>
-      </c>
-      <c r="D5" s="35">
-        <v>507.96</v>
-      </c>
-      <c r="E5" s="35">
-        <v>589.19000000000005</v>
-      </c>
-      <c r="F5" s="35">
-        <v>707.4</v>
-      </c>
-      <c r="G5" s="35">
-        <v>522.91999999999996</v>
-      </c>
-      <c r="H5" s="35">
-        <v>488.52</v>
-      </c>
-      <c r="I5" s="35">
-        <v>385.39</v>
-      </c>
-      <c r="J5" s="35">
-        <v>379.26</v>
-      </c>
-      <c r="K5" s="35">
-        <v>310.93</v>
-      </c>
-      <c r="L5" s="35">
-        <v>326.2</v>
-      </c>
-      <c r="M5" s="35">
-        <v>282.72000000000003</v>
-      </c>
-      <c r="N5" s="35">
-        <v>153.75</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="36">
+        <v>61.29</v>
+      </c>
+      <c r="C5" s="36">
+        <v>124.18</v>
+      </c>
+      <c r="D5" s="36">
+        <v>191</v>
+      </c>
+      <c r="E5" s="36">
+        <v>179.64</v>
+      </c>
+      <c r="F5" s="36">
+        <v>213.66</v>
+      </c>
+      <c r="G5" s="36">
+        <v>262.89</v>
+      </c>
+      <c r="H5" s="36">
+        <v>186.9</v>
+      </c>
+      <c r="I5" s="36">
+        <v>301</v>
+      </c>
+      <c r="J5" s="36">
+        <v>295.23</v>
+      </c>
+      <c r="K5" s="36">
+        <v>301.5</v>
+      </c>
+      <c r="L5" s="36">
+        <v>184.36</v>
+      </c>
+      <c r="M5" s="36">
+        <v>135.05000000000001</v>
+      </c>
+      <c r="N5" s="36">
+        <v>70.09</v>
       </c>
       <c r="O5" s="36">
-        <f>0.2*O4</f>
-        <v>1369.8000000000002</v>
+        <f>0.54*O4</f>
+        <v>448.74</v>
       </c>
       <c r="P5" s="36">
-        <f>0.19*P4</f>
-        <v>1249.82</v>
+        <f>0.49*P4</f>
+        <v>361.62</v>
       </c>
     </row>
     <row r="6" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="38">
-        <v>681</v>
-      </c>
-      <c r="C6" s="38">
-        <v>887</v>
-      </c>
-      <c r="D6" s="38">
-        <v>955</v>
-      </c>
-      <c r="E6" s="38">
-        <v>998</v>
-      </c>
-      <c r="F6" s="38">
-        <v>1187</v>
-      </c>
-      <c r="G6" s="38">
-        <v>1143</v>
-      </c>
-      <c r="H6" s="38">
-        <v>890</v>
-      </c>
-      <c r="I6" s="39">
-        <v>860</v>
-      </c>
-      <c r="J6" s="39">
-        <v>757</v>
-      </c>
-      <c r="K6" s="39">
-        <v>603</v>
-      </c>
-      <c r="L6" s="39">
-        <v>419</v>
-      </c>
-      <c r="M6" s="39">
-        <v>365</v>
-      </c>
-      <c r="N6" s="39">
-        <v>163</v>
-      </c>
-      <c r="O6" s="39">
-        <v>831</v>
-      </c>
-      <c r="P6" s="39">
-        <v>738</v>
+      <c r="A6" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="32">
+        <v>3230</v>
+      </c>
+      <c r="C6" s="32">
+        <v>3459</v>
+      </c>
+      <c r="D6" s="32">
+        <v>3697</v>
+      </c>
+      <c r="E6" s="32">
+        <v>3733</v>
+      </c>
+      <c r="F6" s="32">
+        <v>4616</v>
+      </c>
+      <c r="G6" s="32">
+        <v>4696</v>
+      </c>
+      <c r="H6" s="32">
+        <v>4158</v>
+      </c>
+      <c r="I6" s="32">
+        <v>3732</v>
+      </c>
+      <c r="J6" s="32">
+        <v>3745</v>
+      </c>
+      <c r="K6" s="33">
+        <v>3286</v>
+      </c>
+      <c r="L6" s="33">
+        <v>3039</v>
+      </c>
+      <c r="M6" s="33">
+        <v>2503</v>
+      </c>
+      <c r="N6" s="33">
+        <v>1173</v>
+      </c>
+      <c r="O6" s="33">
+        <v>6162</v>
+      </c>
+      <c r="P6" s="33">
+        <v>6395</v>
       </c>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="36">
-        <v>61.29</v>
-      </c>
-      <c r="C7" s="36">
-        <v>124.18</v>
-      </c>
-      <c r="D7" s="36">
-        <v>191</v>
-      </c>
-      <c r="E7" s="36">
-        <v>179.64</v>
-      </c>
-      <c r="F7" s="36">
-        <v>213.66</v>
-      </c>
-      <c r="G7" s="36">
-        <v>262.89</v>
-      </c>
-      <c r="H7" s="36">
-        <v>186.9</v>
-      </c>
-      <c r="I7" s="36">
-        <v>301</v>
-      </c>
-      <c r="J7" s="36">
-        <v>295.23</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="35">
+        <v>0</v>
+      </c>
+      <c r="C7" s="35">
+        <v>0</v>
+      </c>
+      <c r="D7" s="35">
+        <v>0</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0</v>
+      </c>
+      <c r="G7" s="35">
+        <v>46.96</v>
+      </c>
+      <c r="H7" s="35">
+        <v>41.58</v>
+      </c>
+      <c r="I7" s="35">
+        <v>74.64</v>
+      </c>
+      <c r="J7" s="35">
+        <v>187.25</v>
       </c>
       <c r="K7" s="36">
-        <v>301.5</v>
+        <v>164.3</v>
       </c>
       <c r="L7" s="36">
-        <v>184.36</v>
+        <v>151.94999999999999</v>
       </c>
       <c r="M7" s="36">
-        <v>135.05000000000001</v>
+        <v>175.21</v>
       </c>
       <c r="N7" s="36">
-        <v>70.09</v>
+        <v>117.3</v>
       </c>
       <c r="O7" s="36">
-        <f>0.54*O6</f>
-        <v>448.74</v>
+        <f>0.1*O6</f>
+        <v>616.20000000000005</v>
       </c>
       <c r="P7" s="36">
-        <f>0.49*P6</f>
-        <v>361.62</v>
+        <f>0.08*P6</f>
+        <v>511.6</v>
       </c>
     </row>
     <row r="8" spans="1:1025" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -9164,13 +9171,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="30">
+        <v>0.24880382779999999</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0.1052631579</v>
+      </c>
+      <c r="D11" s="30">
         <v>0.15789473679999999</v>
-      </c>
-      <c r="C11" s="30">
-        <v>0.24880382779999999</v>
-      </c>
-      <c r="D11" s="30">
-        <v>0.1052631579</v>
       </c>
       <c r="E11" s="28">
         <v>0.1071428571</v>
@@ -9232,6 +9239,56 @@
       </c>
       <c r="P13" s="25">
         <v>9.8938662489999996E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="41">
+        <v>717555</v>
+      </c>
+      <c r="C14" s="41">
+        <v>788109</v>
+      </c>
+      <c r="D14" s="41">
+        <v>834650</v>
+      </c>
+      <c r="E14" s="41">
+        <v>876869</v>
+      </c>
+      <c r="F14" s="41">
+        <v>866690</v>
+      </c>
+      <c r="G14" s="41">
+        <v>904668</v>
+      </c>
+      <c r="H14" s="41">
+        <v>901797</v>
+      </c>
+      <c r="I14" s="41">
+        <v>937806</v>
+      </c>
+      <c r="J14" s="41">
+        <v>982396</v>
+      </c>
+      <c r="K14" s="41">
+        <v>1083783</v>
+      </c>
+      <c r="L14" s="41">
+        <v>973020</v>
+      </c>
+      <c r="M14" s="41">
+        <v>1049066</v>
+      </c>
+      <c r="N14" s="41">
+        <v>1005895</v>
+      </c>
+      <c r="O14" s="41">
+        <v>953924</v>
+      </c>
+      <c r="P14" s="41">
+        <v>958682</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Pneumonia prevalence</t>
+  </si>
+  <si>
+    <t>Pneumonia breakdown (PA,AB,KP,EA/C)</t>
+  </si>
+  <si>
+    <t>CBP prescribed to pneumonia</t>
   </si>
 </sst>
 </file>
@@ -6628,7 +6634,7 @@
   <dimension ref="A1:AMK14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9168,24 +9174,24 @@
     </row>
     <row r="11" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B11" s="30">
-        <v>0.24880382779999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C11" s="30">
-        <v>0.1052631579</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D11" s="30">
-        <v>0.15789473679999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E11" s="28">
-        <v>0.1071428571</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="12" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B12" s="23">
         <v>0.18589</v>
@@ -9196,49 +9202,49 @@
         <v>33</v>
       </c>
       <c r="B13" s="23">
-        <v>5.116795146E-2</v>
+        <v>6.8223934999999999E-2</v>
       </c>
       <c r="C13" s="23">
-        <v>5.545251382E-2</v>
+        <v>7.3936685000000002E-2</v>
       </c>
       <c r="D13" s="23">
-        <v>6.4058763709999994E-2</v>
+        <v>8.5411685000000001E-2</v>
       </c>
       <c r="E13" s="23">
-        <v>6.3038341819999996E-2</v>
+        <v>8.4051122000000006E-2</v>
       </c>
       <c r="F13" s="23">
-        <v>6.9081833790000005E-2</v>
+        <v>9.2109112000000007E-2</v>
       </c>
       <c r="G13" s="23">
-        <v>7.2866838119999999E-2</v>
+        <v>9.7155783999999995E-2</v>
       </c>
       <c r="H13" s="23">
-        <v>8.1495325930000001E-2</v>
+        <v>0.108660435</v>
       </c>
       <c r="I13" s="23">
-        <v>8.2100477039999994E-2</v>
+        <v>0.109467303</v>
       </c>
       <c r="J13" s="23">
-        <v>8.4872943630000003E-2</v>
+        <v>0.113163925</v>
       </c>
       <c r="K13" s="23">
-        <v>8.1556849720000005E-2</v>
+        <v>0.108742466</v>
       </c>
       <c r="L13" s="23">
-        <v>9.3080891629999996E-2</v>
+        <v>0.124107856</v>
       </c>
       <c r="M13" s="23">
-        <v>9.1138155499999998E-2</v>
+        <v>0.12151754100000001</v>
       </c>
       <c r="N13" s="23">
-        <v>9.7227641840000004E-2</v>
+        <v>0.12963685599999999</v>
       </c>
       <c r="O13" s="25">
-        <v>9.4034273060000007E-2</v>
+        <v>0.125379031</v>
       </c>
       <c r="P13" s="25">
-        <v>9.8938662489999996E-2</v>
+        <v>0.131918217</v>
       </c>
     </row>
     <row r="14" spans="1:1025" x14ac:dyDescent="0.25">

--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="42">
   <si>
     <t>Year</t>
   </si>
@@ -170,10 +170,19 @@
     <t>Pneumonia prevalence</t>
   </si>
   <si>
-    <t>Pneumonia breakdown (PA,AB,KP,EA/C)</t>
+    <t xml:space="preserve">CBP prescribed to pneumonia </t>
   </si>
   <si>
-    <t>CBP prescribed to pneumonia</t>
+    <t>Pneumonia attributed to PA</t>
+  </si>
+  <si>
+    <t>Pneumonia attributed to KP</t>
+  </si>
+  <si>
+    <t>Pneumonia attributed to AB</t>
+  </si>
+  <si>
+    <t>Pneumonia attributed to EA/C</t>
   </si>
 </sst>
 </file>
@@ -239,8 +248,8 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -325,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -354,22 +363,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6631,10 +6640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK14"/>
+  <dimension ref="A1:AMK17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6644,82 +6653,82 @@
     <col min="1026" max="16384" width="8.7109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29">
+    <row r="1" spans="1:1025" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37">
         <v>2000</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="37">
         <v>2001</v>
       </c>
-      <c r="D1" s="29">
+      <c r="D1" s="37">
         <v>2002</v>
       </c>
-      <c r="E1" s="29">
+      <c r="E1" s="37">
         <v>2003</v>
       </c>
-      <c r="F1" s="29">
+      <c r="F1" s="37">
         <v>2004</v>
       </c>
-      <c r="G1" s="29">
+      <c r="G1" s="37">
         <v>2005</v>
       </c>
-      <c r="H1" s="29">
+      <c r="H1" s="37">
         <v>2006</v>
       </c>
-      <c r="I1" s="29">
+      <c r="I1" s="37">
         <v>2007</v>
       </c>
-      <c r="J1" s="29">
+      <c r="J1" s="37">
         <v>2008</v>
       </c>
-      <c r="K1" s="29">
+      <c r="K1" s="37">
         <v>2009</v>
       </c>
-      <c r="L1" s="29">
+      <c r="L1" s="37">
         <v>2010</v>
       </c>
-      <c r="M1" s="29">
+      <c r="M1" s="37">
         <v>2011</v>
       </c>
-      <c r="N1" s="29">
+      <c r="N1" s="37">
         <v>2012</v>
       </c>
-      <c r="O1" s="29">
+      <c r="O1" s="37">
         <v>2013</v>
       </c>
-      <c r="P1" s="29">
+      <c r="P1" s="37">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="39">
         <v>2486</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="39">
         <v>2727</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="39">
         <v>2822</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="39">
         <v>3101</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="39">
         <v>3537</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="39">
         <v>3076</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="39">
         <v>2714</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="39">
         <v>2267</v>
       </c>
       <c r="J2" s="39">
@@ -6745,80 +6754,80 @@
       </c>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="41">
         <v>323.18</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="41">
         <v>436.32</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="41">
         <v>507.96</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="41">
         <v>589.19000000000005</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="41">
         <v>707.4</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="41">
         <v>522.91999999999996</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="41">
         <v>488.52</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="41">
         <v>385.39</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="41">
         <v>379.26</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="41">
         <v>310.93</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="41">
         <v>326.2</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="41">
         <v>282.72000000000003</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="41">
         <v>153.75</v>
       </c>
-      <c r="O3" s="36">
+      <c r="O3" s="41">
         <f>0.2*O2</f>
         <v>1369.8000000000002</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="41">
         <f>0.19*P2</f>
         <v>1249.82</v>
       </c>
     </row>
     <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="39">
         <v>681</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="39">
         <v>887</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="39">
         <v>955</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="39">
         <v>998</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="39">
         <v>1187</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="39">
         <v>1143</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="39">
         <v>890</v>
       </c>
       <c r="I4" s="39">
@@ -6847,86 +6856,86 @@
       </c>
     </row>
     <row r="5" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="41">
         <v>61.29</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="41">
         <v>124.18</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="41">
         <v>191</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="41">
         <v>179.64</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="41">
         <v>213.66</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="41">
         <v>262.89</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="41">
         <v>186.9</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="41">
         <v>301</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="41">
         <v>295.23</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="41">
         <v>301.5</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="41">
         <v>184.36</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="41">
         <v>135.05000000000001</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="41">
         <v>70.09</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="41">
         <f>0.54*O4</f>
         <v>448.74</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="41">
         <f>0.49*P4</f>
         <v>361.62</v>
       </c>
     </row>
     <row r="6" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="33">
         <v>3230</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="33">
         <v>3459</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="33">
         <v>3697</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="33">
         <v>3733</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="33">
         <v>4616</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="33">
         <v>4696</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="33">
         <v>4158</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="33">
         <v>3732</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="33">
         <v>3745</v>
       </c>
       <c r="K6" s="33">
@@ -6949,59 +6958,59 @@
       </c>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="35">
-        <v>0</v>
-      </c>
-      <c r="C7" s="35">
-        <v>0</v>
-      </c>
-      <c r="D7" s="35">
-        <v>0</v>
-      </c>
-      <c r="E7" s="35">
-        <v>0</v>
-      </c>
-      <c r="F7" s="35">
-        <v>0</v>
-      </c>
-      <c r="G7" s="35">
+      <c r="B7" s="41">
+        <v>0</v>
+      </c>
+      <c r="C7" s="41">
+        <v>0</v>
+      </c>
+      <c r="D7" s="41">
+        <v>0</v>
+      </c>
+      <c r="E7" s="41">
+        <v>0</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0</v>
+      </c>
+      <c r="G7" s="41">
         <v>46.96</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="41">
         <v>41.58</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="41">
         <v>74.64</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="41">
         <v>187.25</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="41">
         <v>164.3</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="41">
         <v>151.94999999999999</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="41">
         <v>175.21</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="41">
         <v>117.3</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="41">
         <f>0.1*O6</f>
         <v>616.20000000000005</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="41">
         <f>0.08*P6</f>
         <v>511.6</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:1025" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="33">
@@ -7049,2251 +7058,2492 @@
       <c r="P8" s="33">
         <v>3300</v>
       </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="33"/>
-      <c r="AR8" s="33"/>
-      <c r="AS8" s="33"/>
-      <c r="AT8" s="33"/>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="33"/>
-      <c r="AW8" s="33"/>
-      <c r="AX8" s="33"/>
-      <c r="AY8" s="33"/>
-      <c r="AZ8" s="33"/>
-      <c r="BA8" s="33"/>
-      <c r="BB8" s="33"/>
-      <c r="BC8" s="33"/>
-      <c r="BD8" s="33"/>
-      <c r="BE8" s="33"/>
-      <c r="BF8" s="33"/>
-      <c r="BG8" s="33"/>
-      <c r="BH8" s="33"/>
-      <c r="BI8" s="33"/>
-      <c r="BJ8" s="33"/>
-      <c r="BK8" s="33"/>
-      <c r="BL8" s="33"/>
-      <c r="BM8" s="33"/>
-      <c r="BN8" s="33"/>
-      <c r="BO8" s="33"/>
-      <c r="BP8" s="33"/>
-      <c r="BQ8" s="33"/>
-      <c r="BR8" s="33"/>
-      <c r="BS8" s="33"/>
-      <c r="BT8" s="33"/>
-      <c r="BU8" s="33"/>
-      <c r="BV8" s="33"/>
-      <c r="BW8" s="33"/>
-      <c r="BX8" s="33"/>
-      <c r="BY8" s="33"/>
-      <c r="BZ8" s="33"/>
-      <c r="CA8" s="33"/>
-      <c r="CB8" s="33"/>
-      <c r="CC8" s="33"/>
-      <c r="CD8" s="33"/>
-      <c r="CE8" s="33"/>
-      <c r="CF8" s="33"/>
-      <c r="CG8" s="33"/>
-      <c r="CH8" s="33"/>
-      <c r="CI8" s="33"/>
-      <c r="CJ8" s="33"/>
-      <c r="CK8" s="33"/>
-      <c r="CL8" s="33"/>
-      <c r="CM8" s="33"/>
-      <c r="CN8" s="33"/>
-      <c r="CO8" s="33"/>
-      <c r="CP8" s="33"/>
-      <c r="CQ8" s="33"/>
-      <c r="CR8" s="33"/>
-      <c r="CS8" s="33"/>
-      <c r="CT8" s="33"/>
-      <c r="CU8" s="33"/>
-      <c r="CV8" s="33"/>
-      <c r="CW8" s="33"/>
-      <c r="CX8" s="33"/>
-      <c r="CY8" s="33"/>
-      <c r="CZ8" s="33"/>
-      <c r="DA8" s="33"/>
-      <c r="DB8" s="33"/>
-      <c r="DC8" s="33"/>
-      <c r="DD8" s="33"/>
-      <c r="DE8" s="33"/>
-      <c r="DF8" s="33"/>
-      <c r="DG8" s="33"/>
-      <c r="DH8" s="33"/>
-      <c r="DI8" s="33"/>
-      <c r="DJ8" s="33"/>
-      <c r="DK8" s="33"/>
-      <c r="DL8" s="33"/>
-      <c r="DM8" s="33"/>
-      <c r="DN8" s="33"/>
-      <c r="DO8" s="33"/>
-      <c r="DP8" s="33"/>
-      <c r="DQ8" s="33"/>
-      <c r="DR8" s="33"/>
-      <c r="DS8" s="33"/>
-      <c r="DT8" s="33"/>
-      <c r="DU8" s="33"/>
-      <c r="DV8" s="33"/>
-      <c r="DW8" s="33"/>
-      <c r="DX8" s="33"/>
-      <c r="DY8" s="33"/>
-      <c r="DZ8" s="33"/>
-      <c r="EA8" s="33"/>
-      <c r="EB8" s="33"/>
-      <c r="EC8" s="33"/>
-      <c r="ED8" s="33"/>
-      <c r="EE8" s="33"/>
-      <c r="EF8" s="33"/>
-      <c r="EG8" s="33"/>
-      <c r="EH8" s="33"/>
-      <c r="EI8" s="33"/>
-      <c r="EJ8" s="33"/>
-      <c r="EK8" s="33"/>
-      <c r="EL8" s="33"/>
-      <c r="EM8" s="33"/>
-      <c r="EN8" s="33"/>
-      <c r="EO8" s="33"/>
-      <c r="EP8" s="33"/>
-      <c r="EQ8" s="33"/>
-      <c r="ER8" s="33"/>
-      <c r="ES8" s="33"/>
-      <c r="ET8" s="33"/>
-      <c r="EU8" s="33"/>
-      <c r="EV8" s="33"/>
-      <c r="EW8" s="33"/>
-      <c r="EX8" s="33"/>
-      <c r="EY8" s="33"/>
-      <c r="EZ8" s="33"/>
-      <c r="FA8" s="33"/>
-      <c r="FB8" s="33"/>
-      <c r="FC8" s="33"/>
-      <c r="FD8" s="33"/>
-      <c r="FE8" s="33"/>
-      <c r="FF8" s="33"/>
-      <c r="FG8" s="33"/>
-      <c r="FH8" s="33"/>
-      <c r="FI8" s="33"/>
-      <c r="FJ8" s="33"/>
-      <c r="FK8" s="33"/>
-      <c r="FL8" s="33"/>
-      <c r="FM8" s="33"/>
-      <c r="FN8" s="33"/>
-      <c r="FO8" s="33"/>
-      <c r="FP8" s="33"/>
-      <c r="FQ8" s="33"/>
-      <c r="FR8" s="33"/>
-      <c r="FS8" s="33"/>
-      <c r="FT8" s="33"/>
-      <c r="FU8" s="33"/>
-      <c r="FV8" s="33"/>
-      <c r="FW8" s="33"/>
-      <c r="FX8" s="33"/>
-      <c r="FY8" s="33"/>
-      <c r="FZ8" s="33"/>
-      <c r="GA8" s="33"/>
-      <c r="GB8" s="33"/>
-      <c r="GC8" s="33"/>
-      <c r="GD8" s="33"/>
-      <c r="GE8" s="33"/>
-      <c r="GF8" s="33"/>
-      <c r="GG8" s="33"/>
-      <c r="GH8" s="33"/>
-      <c r="GI8" s="33"/>
-      <c r="GJ8" s="33"/>
-      <c r="GK8" s="33"/>
-      <c r="GL8" s="33"/>
-      <c r="GM8" s="33"/>
-      <c r="GN8" s="33"/>
-      <c r="GO8" s="33"/>
-      <c r="GP8" s="33"/>
-      <c r="GQ8" s="33"/>
-      <c r="GR8" s="33"/>
-      <c r="GS8" s="33"/>
-      <c r="GT8" s="33"/>
-      <c r="GU8" s="33"/>
-      <c r="GV8" s="33"/>
-      <c r="GW8" s="33"/>
-      <c r="GX8" s="33"/>
-      <c r="GY8" s="33"/>
-      <c r="GZ8" s="33"/>
-      <c r="HA8" s="33"/>
-      <c r="HB8" s="33"/>
-      <c r="HC8" s="33"/>
-      <c r="HD8" s="33"/>
-      <c r="HE8" s="33"/>
-      <c r="HF8" s="33"/>
-      <c r="HG8" s="33"/>
-      <c r="HH8" s="33"/>
-      <c r="HI8" s="33"/>
-      <c r="HJ8" s="33"/>
-      <c r="HK8" s="33"/>
-      <c r="HL8" s="33"/>
-      <c r="HM8" s="33"/>
-      <c r="HN8" s="33"/>
-      <c r="HO8" s="33"/>
-      <c r="HP8" s="33"/>
-      <c r="HQ8" s="33"/>
-      <c r="HR8" s="33"/>
-      <c r="HS8" s="33"/>
-      <c r="HT8" s="33"/>
-      <c r="HU8" s="33"/>
-      <c r="HV8" s="33"/>
-      <c r="HW8" s="33"/>
-      <c r="HX8" s="33"/>
-      <c r="HY8" s="33"/>
-      <c r="HZ8" s="33"/>
-      <c r="IA8" s="33"/>
-      <c r="IB8" s="33"/>
-      <c r="IC8" s="33"/>
-      <c r="ID8" s="33"/>
-      <c r="IE8" s="33"/>
-      <c r="IF8" s="33"/>
-      <c r="IG8" s="33"/>
-      <c r="IH8" s="33"/>
-      <c r="II8" s="33"/>
-      <c r="IJ8" s="33"/>
-      <c r="IK8" s="33"/>
-      <c r="IL8" s="33"/>
-      <c r="IM8" s="33"/>
-      <c r="IN8" s="33"/>
-      <c r="IO8" s="33"/>
-      <c r="IP8" s="33"/>
-      <c r="IQ8" s="33"/>
-      <c r="IR8" s="33"/>
-      <c r="IS8" s="33"/>
-      <c r="IT8" s="33"/>
-      <c r="IU8" s="33"/>
-      <c r="IV8" s="33"/>
-      <c r="IW8" s="33"/>
-      <c r="IX8" s="33"/>
-      <c r="IY8" s="33"/>
-      <c r="IZ8" s="33"/>
-      <c r="JA8" s="33"/>
-      <c r="JB8" s="33"/>
-      <c r="JC8" s="33"/>
-      <c r="JD8" s="33"/>
-      <c r="JE8" s="33"/>
-      <c r="JF8" s="33"/>
-      <c r="JG8" s="33"/>
-      <c r="JH8" s="33"/>
-      <c r="JI8" s="33"/>
-      <c r="JJ8" s="33"/>
-      <c r="JK8" s="33"/>
-      <c r="JL8" s="33"/>
-      <c r="JM8" s="33"/>
-      <c r="JN8" s="33"/>
-      <c r="JO8" s="33"/>
-      <c r="JP8" s="33"/>
-      <c r="JQ8" s="33"/>
-      <c r="JR8" s="33"/>
-      <c r="JS8" s="33"/>
-      <c r="JT8" s="33"/>
-      <c r="JU8" s="33"/>
-      <c r="JV8" s="33"/>
-      <c r="JW8" s="33"/>
-      <c r="JX8" s="33"/>
-      <c r="JY8" s="33"/>
-      <c r="JZ8" s="33"/>
-      <c r="KA8" s="33"/>
-      <c r="KB8" s="33"/>
-      <c r="KC8" s="33"/>
-      <c r="KD8" s="33"/>
-      <c r="KE8" s="33"/>
-      <c r="KF8" s="33"/>
-      <c r="KG8" s="33"/>
-      <c r="KH8" s="33"/>
-      <c r="KI8" s="33"/>
-      <c r="KJ8" s="33"/>
-      <c r="KK8" s="33"/>
-      <c r="KL8" s="33"/>
-      <c r="KM8" s="33"/>
-      <c r="KN8" s="33"/>
-      <c r="KO8" s="33"/>
-      <c r="KP8" s="33"/>
-      <c r="KQ8" s="33"/>
-      <c r="KR8" s="33"/>
-      <c r="KS8" s="33"/>
-      <c r="KT8" s="33"/>
-      <c r="KU8" s="33"/>
-      <c r="KV8" s="33"/>
-      <c r="KW8" s="33"/>
-      <c r="KX8" s="33"/>
-      <c r="KY8" s="33"/>
-      <c r="KZ8" s="33"/>
-      <c r="LA8" s="33"/>
-      <c r="LB8" s="33"/>
-      <c r="LC8" s="33"/>
-      <c r="LD8" s="33"/>
-      <c r="LE8" s="33"/>
-      <c r="LF8" s="33"/>
-      <c r="LG8" s="33"/>
-      <c r="LH8" s="33"/>
-      <c r="LI8" s="33"/>
-      <c r="LJ8" s="33"/>
-      <c r="LK8" s="33"/>
-      <c r="LL8" s="33"/>
-      <c r="LM8" s="33"/>
-      <c r="LN8" s="33"/>
-      <c r="LO8" s="33"/>
-      <c r="LP8" s="33"/>
-      <c r="LQ8" s="33"/>
-      <c r="LR8" s="33"/>
-      <c r="LS8" s="33"/>
-      <c r="LT8" s="33"/>
-      <c r="LU8" s="33"/>
-      <c r="LV8" s="33"/>
-      <c r="LW8" s="33"/>
-      <c r="LX8" s="33"/>
-      <c r="LY8" s="33"/>
-      <c r="LZ8" s="33"/>
-      <c r="MA8" s="33"/>
-      <c r="MB8" s="33"/>
-      <c r="MC8" s="33"/>
-      <c r="MD8" s="33"/>
-      <c r="ME8" s="33"/>
-      <c r="MF8" s="33"/>
-      <c r="MG8" s="33"/>
-      <c r="MH8" s="33"/>
-      <c r="MI8" s="33"/>
-      <c r="MJ8" s="33"/>
-      <c r="MK8" s="33"/>
-      <c r="ML8" s="33"/>
-      <c r="MM8" s="33"/>
-      <c r="MN8" s="33"/>
-      <c r="MO8" s="33"/>
-      <c r="MP8" s="33"/>
-      <c r="MQ8" s="33"/>
-      <c r="MR8" s="33"/>
-      <c r="MS8" s="33"/>
-      <c r="MT8" s="33"/>
-      <c r="MU8" s="33"/>
-      <c r="MV8" s="33"/>
-      <c r="MW8" s="33"/>
-      <c r="MX8" s="33"/>
-      <c r="MY8" s="33"/>
-      <c r="MZ8" s="33"/>
-      <c r="NA8" s="33"/>
-      <c r="NB8" s="33"/>
-      <c r="NC8" s="33"/>
-      <c r="ND8" s="33"/>
-      <c r="NE8" s="33"/>
-      <c r="NF8" s="33"/>
-      <c r="NG8" s="33"/>
-      <c r="NH8" s="33"/>
-      <c r="NI8" s="33"/>
-      <c r="NJ8" s="33"/>
-      <c r="NK8" s="33"/>
-      <c r="NL8" s="33"/>
-      <c r="NM8" s="33"/>
-      <c r="NN8" s="33"/>
-      <c r="NO8" s="33"/>
-      <c r="NP8" s="33"/>
-      <c r="NQ8" s="33"/>
-      <c r="NR8" s="33"/>
-      <c r="NS8" s="33"/>
-      <c r="NT8" s="33"/>
-      <c r="NU8" s="33"/>
-      <c r="NV8" s="33"/>
-      <c r="NW8" s="33"/>
-      <c r="NX8" s="33"/>
-      <c r="NY8" s="33"/>
-      <c r="NZ8" s="33"/>
-      <c r="OA8" s="33"/>
-      <c r="OB8" s="33"/>
-      <c r="OC8" s="33"/>
-      <c r="OD8" s="33"/>
-      <c r="OE8" s="33"/>
-      <c r="OF8" s="33"/>
-      <c r="OG8" s="33"/>
-      <c r="OH8" s="33"/>
-      <c r="OI8" s="33"/>
-      <c r="OJ8" s="33"/>
-      <c r="OK8" s="33"/>
-      <c r="OL8" s="33"/>
-      <c r="OM8" s="33"/>
-      <c r="ON8" s="33"/>
-      <c r="OO8" s="33"/>
-      <c r="OP8" s="33"/>
-      <c r="OQ8" s="33"/>
-      <c r="OR8" s="33"/>
-      <c r="OS8" s="33"/>
-      <c r="OT8" s="33"/>
-      <c r="OU8" s="33"/>
-      <c r="OV8" s="33"/>
-      <c r="OW8" s="33"/>
-      <c r="OX8" s="33"/>
-      <c r="OY8" s="33"/>
-      <c r="OZ8" s="33"/>
-      <c r="PA8" s="33"/>
-      <c r="PB8" s="33"/>
-      <c r="PC8" s="33"/>
-      <c r="PD8" s="33"/>
-      <c r="PE8" s="33"/>
-      <c r="PF8" s="33"/>
-      <c r="PG8" s="33"/>
-      <c r="PH8" s="33"/>
-      <c r="PI8" s="33"/>
-      <c r="PJ8" s="33"/>
-      <c r="PK8" s="33"/>
-      <c r="PL8" s="33"/>
-      <c r="PM8" s="33"/>
-      <c r="PN8" s="33"/>
-      <c r="PO8" s="33"/>
-      <c r="PP8" s="33"/>
-      <c r="PQ8" s="33"/>
-      <c r="PR8" s="33"/>
-      <c r="PS8" s="33"/>
-      <c r="PT8" s="33"/>
-      <c r="PU8" s="33"/>
-      <c r="PV8" s="33"/>
-      <c r="PW8" s="33"/>
-      <c r="PX8" s="33"/>
-      <c r="PY8" s="33"/>
-      <c r="PZ8" s="33"/>
-      <c r="QA8" s="33"/>
-      <c r="QB8" s="33"/>
-      <c r="QC8" s="33"/>
-      <c r="QD8" s="33"/>
-      <c r="QE8" s="33"/>
-      <c r="QF8" s="33"/>
-      <c r="QG8" s="33"/>
-      <c r="QH8" s="33"/>
-      <c r="QI8" s="33"/>
-      <c r="QJ8" s="33"/>
-      <c r="QK8" s="33"/>
-      <c r="QL8" s="33"/>
-      <c r="QM8" s="33"/>
-      <c r="QN8" s="33"/>
-      <c r="QO8" s="33"/>
-      <c r="QP8" s="33"/>
-      <c r="QQ8" s="33"/>
-      <c r="QR8" s="33"/>
-      <c r="QS8" s="33"/>
-      <c r="QT8" s="33"/>
-      <c r="QU8" s="33"/>
-      <c r="QV8" s="33"/>
-      <c r="QW8" s="33"/>
-      <c r="QX8" s="33"/>
-      <c r="QY8" s="33"/>
-      <c r="QZ8" s="33"/>
-      <c r="RA8" s="33"/>
-      <c r="RB8" s="33"/>
-      <c r="RC8" s="33"/>
-      <c r="RD8" s="33"/>
-      <c r="RE8" s="33"/>
-      <c r="RF8" s="33"/>
-      <c r="RG8" s="33"/>
-      <c r="RH8" s="33"/>
-      <c r="RI8" s="33"/>
-      <c r="RJ8" s="33"/>
-      <c r="RK8" s="33"/>
-      <c r="RL8" s="33"/>
-      <c r="RM8" s="33"/>
-      <c r="RN8" s="33"/>
-      <c r="RO8" s="33"/>
-      <c r="RP8" s="33"/>
-      <c r="RQ8" s="33"/>
-      <c r="RR8" s="33"/>
-      <c r="RS8" s="33"/>
-      <c r="RT8" s="33"/>
-      <c r="RU8" s="33"/>
-      <c r="RV8" s="33"/>
-      <c r="RW8" s="33"/>
-      <c r="RX8" s="33"/>
-      <c r="RY8" s="33"/>
-      <c r="RZ8" s="33"/>
-      <c r="SA8" s="33"/>
-      <c r="SB8" s="33"/>
-      <c r="SC8" s="33"/>
-      <c r="SD8" s="33"/>
-      <c r="SE8" s="33"/>
-      <c r="SF8" s="33"/>
-      <c r="SG8" s="33"/>
-      <c r="SH8" s="33"/>
-      <c r="SI8" s="33"/>
-      <c r="SJ8" s="33"/>
-      <c r="SK8" s="33"/>
-      <c r="SL8" s="33"/>
-      <c r="SM8" s="33"/>
-      <c r="SN8" s="33"/>
-      <c r="SO8" s="33"/>
-      <c r="SP8" s="33"/>
-      <c r="SQ8" s="33"/>
-      <c r="SR8" s="33"/>
-      <c r="SS8" s="33"/>
-      <c r="ST8" s="33"/>
-      <c r="SU8" s="33"/>
-      <c r="SV8" s="33"/>
-      <c r="SW8" s="33"/>
-      <c r="SX8" s="33"/>
-      <c r="SY8" s="33"/>
-      <c r="SZ8" s="33"/>
-      <c r="TA8" s="33"/>
-      <c r="TB8" s="33"/>
-      <c r="TC8" s="33"/>
-      <c r="TD8" s="33"/>
-      <c r="TE8" s="33"/>
-      <c r="TF8" s="33"/>
-      <c r="TG8" s="33"/>
-      <c r="TH8" s="33"/>
-      <c r="TI8" s="33"/>
-      <c r="TJ8" s="33"/>
-      <c r="TK8" s="33"/>
-      <c r="TL8" s="33"/>
-      <c r="TM8" s="33"/>
-      <c r="TN8" s="33"/>
-      <c r="TO8" s="33"/>
-      <c r="TP8" s="33"/>
-      <c r="TQ8" s="33"/>
-      <c r="TR8" s="33"/>
-      <c r="TS8" s="33"/>
-      <c r="TT8" s="33"/>
-      <c r="TU8" s="33"/>
-      <c r="TV8" s="33"/>
-      <c r="TW8" s="33"/>
-      <c r="TX8" s="33"/>
-      <c r="TY8" s="33"/>
-      <c r="TZ8" s="33"/>
-      <c r="UA8" s="33"/>
-      <c r="UB8" s="33"/>
-      <c r="UC8" s="33"/>
-      <c r="UD8" s="33"/>
-      <c r="UE8" s="33"/>
-      <c r="UF8" s="33"/>
-      <c r="UG8" s="33"/>
-      <c r="UH8" s="33"/>
-      <c r="UI8" s="33"/>
-      <c r="UJ8" s="33"/>
-      <c r="UK8" s="33"/>
-      <c r="UL8" s="33"/>
-      <c r="UM8" s="33"/>
-      <c r="UN8" s="33"/>
-      <c r="UO8" s="33"/>
-      <c r="UP8" s="33"/>
-      <c r="UQ8" s="33"/>
-      <c r="UR8" s="33"/>
-      <c r="US8" s="33"/>
-      <c r="UT8" s="33"/>
-      <c r="UU8" s="33"/>
-      <c r="UV8" s="33"/>
-      <c r="UW8" s="33"/>
-      <c r="UX8" s="33"/>
-      <c r="UY8" s="33"/>
-      <c r="UZ8" s="33"/>
-      <c r="VA8" s="33"/>
-      <c r="VB8" s="33"/>
-      <c r="VC8" s="33"/>
-      <c r="VD8" s="33"/>
-      <c r="VE8" s="33"/>
-      <c r="VF8" s="33"/>
-      <c r="VG8" s="33"/>
-      <c r="VH8" s="33"/>
-      <c r="VI8" s="33"/>
-      <c r="VJ8" s="33"/>
-      <c r="VK8" s="33"/>
-      <c r="VL8" s="33"/>
-      <c r="VM8" s="33"/>
-      <c r="VN8" s="33"/>
-      <c r="VO8" s="33"/>
-      <c r="VP8" s="33"/>
-      <c r="VQ8" s="33"/>
-      <c r="VR8" s="33"/>
-      <c r="VS8" s="33"/>
-      <c r="VT8" s="33"/>
-      <c r="VU8" s="33"/>
-      <c r="VV8" s="33"/>
-      <c r="VW8" s="33"/>
-      <c r="VX8" s="33"/>
-      <c r="VY8" s="33"/>
-      <c r="VZ8" s="33"/>
-      <c r="WA8" s="33"/>
-      <c r="WB8" s="33"/>
-      <c r="WC8" s="33"/>
-      <c r="WD8" s="33"/>
-      <c r="WE8" s="33"/>
-      <c r="WF8" s="33"/>
-      <c r="WG8" s="33"/>
-      <c r="WH8" s="33"/>
-      <c r="WI8" s="33"/>
-      <c r="WJ8" s="33"/>
-      <c r="WK8" s="33"/>
-      <c r="WL8" s="33"/>
-      <c r="WM8" s="33"/>
-      <c r="WN8" s="33"/>
-      <c r="WO8" s="33"/>
-      <c r="WP8" s="33"/>
-      <c r="WQ8" s="33"/>
-      <c r="WR8" s="33"/>
-      <c r="WS8" s="33"/>
-      <c r="WT8" s="33"/>
-      <c r="WU8" s="33"/>
-      <c r="WV8" s="33"/>
-      <c r="WW8" s="33"/>
-      <c r="WX8" s="33"/>
-      <c r="WY8" s="33"/>
-      <c r="WZ8" s="33"/>
-      <c r="XA8" s="33"/>
-      <c r="XB8" s="33"/>
-      <c r="XC8" s="33"/>
-      <c r="XD8" s="33"/>
-      <c r="XE8" s="33"/>
-      <c r="XF8" s="33"/>
-      <c r="XG8" s="33"/>
-      <c r="XH8" s="33"/>
-      <c r="XI8" s="33"/>
-      <c r="XJ8" s="33"/>
-      <c r="XK8" s="33"/>
-      <c r="XL8" s="33"/>
-      <c r="XM8" s="33"/>
-      <c r="XN8" s="33"/>
-      <c r="XO8" s="33"/>
-      <c r="XP8" s="33"/>
-      <c r="XQ8" s="33"/>
-      <c r="XR8" s="33"/>
-      <c r="XS8" s="33"/>
-      <c r="XT8" s="33"/>
-      <c r="XU8" s="33"/>
-      <c r="XV8" s="33"/>
-      <c r="XW8" s="33"/>
-      <c r="XX8" s="33"/>
-      <c r="XY8" s="33"/>
-      <c r="XZ8" s="33"/>
-      <c r="YA8" s="33"/>
-      <c r="YB8" s="33"/>
-      <c r="YC8" s="33"/>
-      <c r="YD8" s="33"/>
-      <c r="YE8" s="33"/>
-      <c r="YF8" s="33"/>
-      <c r="YG8" s="33"/>
-      <c r="YH8" s="33"/>
-      <c r="YI8" s="33"/>
-      <c r="YJ8" s="33"/>
-      <c r="YK8" s="33"/>
-      <c r="YL8" s="33"/>
-      <c r="YM8" s="33"/>
-      <c r="YN8" s="33"/>
-      <c r="YO8" s="33"/>
-      <c r="YP8" s="33"/>
-      <c r="YQ8" s="33"/>
-      <c r="YR8" s="33"/>
-      <c r="YS8" s="33"/>
-      <c r="YT8" s="33"/>
-      <c r="YU8" s="33"/>
-      <c r="YV8" s="33"/>
-      <c r="YW8" s="33"/>
-      <c r="YX8" s="33"/>
-      <c r="YY8" s="33"/>
-      <c r="YZ8" s="33"/>
-      <c r="ZA8" s="33"/>
-      <c r="ZB8" s="33"/>
-      <c r="ZC8" s="33"/>
-      <c r="ZD8" s="33"/>
-      <c r="ZE8" s="33"/>
-      <c r="ZF8" s="33"/>
-      <c r="ZG8" s="33"/>
-      <c r="ZH8" s="33"/>
-      <c r="ZI8" s="33"/>
-      <c r="ZJ8" s="33"/>
-      <c r="ZK8" s="33"/>
-      <c r="ZL8" s="33"/>
-      <c r="ZM8" s="33"/>
-      <c r="ZN8" s="33"/>
-      <c r="ZO8" s="33"/>
-      <c r="ZP8" s="33"/>
-      <c r="ZQ8" s="33"/>
-      <c r="ZR8" s="33"/>
-      <c r="ZS8" s="33"/>
-      <c r="ZT8" s="33"/>
-      <c r="ZU8" s="33"/>
-      <c r="ZV8" s="33"/>
-      <c r="ZW8" s="33"/>
-      <c r="ZX8" s="33"/>
-      <c r="ZY8" s="33"/>
-      <c r="ZZ8" s="33"/>
-      <c r="AAA8" s="33"/>
-      <c r="AAB8" s="33"/>
-      <c r="AAC8" s="33"/>
-      <c r="AAD8" s="33"/>
-      <c r="AAE8" s="33"/>
-      <c r="AAF8" s="33"/>
-      <c r="AAG8" s="33"/>
-      <c r="AAH8" s="33"/>
-      <c r="AAI8" s="33"/>
-      <c r="AAJ8" s="33"/>
-      <c r="AAK8" s="33"/>
-      <c r="AAL8" s="33"/>
-      <c r="AAM8" s="33"/>
-      <c r="AAN8" s="33"/>
-      <c r="AAO8" s="33"/>
-      <c r="AAP8" s="33"/>
-      <c r="AAQ8" s="33"/>
-      <c r="AAR8" s="33"/>
-      <c r="AAS8" s="33"/>
-      <c r="AAT8" s="33"/>
-      <c r="AAU8" s="33"/>
-      <c r="AAV8" s="33"/>
-      <c r="AAW8" s="33"/>
-      <c r="AAX8" s="33"/>
-      <c r="AAY8" s="33"/>
-      <c r="AAZ8" s="33"/>
-      <c r="ABA8" s="33"/>
-      <c r="ABB8" s="33"/>
-      <c r="ABC8" s="33"/>
-      <c r="ABD8" s="33"/>
-      <c r="ABE8" s="33"/>
-      <c r="ABF8" s="33"/>
-      <c r="ABG8" s="33"/>
-      <c r="ABH8" s="33"/>
-      <c r="ABI8" s="33"/>
-      <c r="ABJ8" s="33"/>
-      <c r="ABK8" s="33"/>
-      <c r="ABL8" s="33"/>
-      <c r="ABM8" s="33"/>
-      <c r="ABN8" s="33"/>
-      <c r="ABO8" s="33"/>
-      <c r="ABP8" s="33"/>
-      <c r="ABQ8" s="33"/>
-      <c r="ABR8" s="33"/>
-      <c r="ABS8" s="33"/>
-      <c r="ABT8" s="33"/>
-      <c r="ABU8" s="33"/>
-      <c r="ABV8" s="33"/>
-      <c r="ABW8" s="33"/>
-      <c r="ABX8" s="33"/>
-      <c r="ABY8" s="33"/>
-      <c r="ABZ8" s="33"/>
-      <c r="ACA8" s="33"/>
-      <c r="ACB8" s="33"/>
-      <c r="ACC8" s="33"/>
-      <c r="ACD8" s="33"/>
-      <c r="ACE8" s="33"/>
-      <c r="ACF8" s="33"/>
-      <c r="ACG8" s="33"/>
-      <c r="ACH8" s="33"/>
-      <c r="ACI8" s="33"/>
-      <c r="ACJ8" s="33"/>
-      <c r="ACK8" s="33"/>
-      <c r="ACL8" s="33"/>
-      <c r="ACM8" s="33"/>
-      <c r="ACN8" s="33"/>
-      <c r="ACO8" s="33"/>
-      <c r="ACP8" s="33"/>
-      <c r="ACQ8" s="33"/>
-      <c r="ACR8" s="33"/>
-      <c r="ACS8" s="33"/>
-      <c r="ACT8" s="33"/>
-      <c r="ACU8" s="33"/>
-      <c r="ACV8" s="33"/>
-      <c r="ACW8" s="33"/>
-      <c r="ACX8" s="33"/>
-      <c r="ACY8" s="33"/>
-      <c r="ACZ8" s="33"/>
-      <c r="ADA8" s="33"/>
-      <c r="ADB8" s="33"/>
-      <c r="ADC8" s="33"/>
-      <c r="ADD8" s="33"/>
-      <c r="ADE8" s="33"/>
-      <c r="ADF8" s="33"/>
-      <c r="ADG8" s="33"/>
-      <c r="ADH8" s="33"/>
-      <c r="ADI8" s="33"/>
-      <c r="ADJ8" s="33"/>
-      <c r="ADK8" s="33"/>
-      <c r="ADL8" s="33"/>
-      <c r="ADM8" s="33"/>
-      <c r="ADN8" s="33"/>
-      <c r="ADO8" s="33"/>
-      <c r="ADP8" s="33"/>
-      <c r="ADQ8" s="33"/>
-      <c r="ADR8" s="33"/>
-      <c r="ADS8" s="33"/>
-      <c r="ADT8" s="33"/>
-      <c r="ADU8" s="33"/>
-      <c r="ADV8" s="33"/>
-      <c r="ADW8" s="33"/>
-      <c r="ADX8" s="33"/>
-      <c r="ADY8" s="33"/>
-      <c r="ADZ8" s="33"/>
-      <c r="AEA8" s="33"/>
-      <c r="AEB8" s="33"/>
-      <c r="AEC8" s="33"/>
-      <c r="AED8" s="33"/>
-      <c r="AEE8" s="33"/>
-      <c r="AEF8" s="33"/>
-      <c r="AEG8" s="33"/>
-      <c r="AEH8" s="33"/>
-      <c r="AEI8" s="33"/>
-      <c r="AEJ8" s="33"/>
-      <c r="AEK8" s="33"/>
-      <c r="AEL8" s="33"/>
-      <c r="AEM8" s="33"/>
-      <c r="AEN8" s="33"/>
-      <c r="AEO8" s="33"/>
-      <c r="AEP8" s="33"/>
-      <c r="AEQ8" s="33"/>
-      <c r="AER8" s="33"/>
-      <c r="AES8" s="33"/>
-      <c r="AET8" s="33"/>
-      <c r="AEU8" s="33"/>
-      <c r="AEV8" s="33"/>
-      <c r="AEW8" s="33"/>
-      <c r="AEX8" s="33"/>
-      <c r="AEY8" s="33"/>
-      <c r="AEZ8" s="33"/>
-      <c r="AFA8" s="33"/>
-      <c r="AFB8" s="33"/>
-      <c r="AFC8" s="33"/>
-      <c r="AFD8" s="33"/>
-      <c r="AFE8" s="33"/>
-      <c r="AFF8" s="33"/>
-      <c r="AFG8" s="33"/>
-      <c r="AFH8" s="33"/>
-      <c r="AFI8" s="33"/>
-      <c r="AFJ8" s="33"/>
-      <c r="AFK8" s="33"/>
-      <c r="AFL8" s="33"/>
-      <c r="AFM8" s="33"/>
-      <c r="AFN8" s="33"/>
-      <c r="AFO8" s="33"/>
-      <c r="AFP8" s="33"/>
-      <c r="AFQ8" s="33"/>
-      <c r="AFR8" s="33"/>
-      <c r="AFS8" s="33"/>
-      <c r="AFT8" s="33"/>
-      <c r="AFU8" s="33"/>
-      <c r="AFV8" s="33"/>
-      <c r="AFW8" s="33"/>
-      <c r="AFX8" s="33"/>
-      <c r="AFY8" s="33"/>
-      <c r="AFZ8" s="33"/>
-      <c r="AGA8" s="33"/>
-      <c r="AGB8" s="33"/>
-      <c r="AGC8" s="33"/>
-      <c r="AGD8" s="33"/>
-      <c r="AGE8" s="33"/>
-      <c r="AGF8" s="33"/>
-      <c r="AGG8" s="33"/>
-      <c r="AGH8" s="33"/>
-      <c r="AGI8" s="33"/>
-      <c r="AGJ8" s="33"/>
-      <c r="AGK8" s="33"/>
-      <c r="AGL8" s="33"/>
-      <c r="AGM8" s="33"/>
-      <c r="AGN8" s="33"/>
-      <c r="AGO8" s="33"/>
-      <c r="AGP8" s="33"/>
-      <c r="AGQ8" s="33"/>
-      <c r="AGR8" s="33"/>
-      <c r="AGS8" s="33"/>
-      <c r="AGT8" s="33"/>
-      <c r="AGU8" s="33"/>
-      <c r="AGV8" s="33"/>
-      <c r="AGW8" s="33"/>
-      <c r="AGX8" s="33"/>
-      <c r="AGY8" s="33"/>
-      <c r="AGZ8" s="33"/>
-      <c r="AHA8" s="33"/>
-      <c r="AHB8" s="33"/>
-      <c r="AHC8" s="33"/>
-      <c r="AHD8" s="33"/>
-      <c r="AHE8" s="33"/>
-      <c r="AHF8" s="33"/>
-      <c r="AHG8" s="33"/>
-      <c r="AHH8" s="33"/>
-      <c r="AHI8" s="33"/>
-      <c r="AHJ8" s="33"/>
-      <c r="AHK8" s="33"/>
-      <c r="AHL8" s="33"/>
-      <c r="AHM8" s="33"/>
-      <c r="AHN8" s="33"/>
-      <c r="AHO8" s="33"/>
-      <c r="AHP8" s="33"/>
-      <c r="AHQ8" s="33"/>
-      <c r="AHR8" s="33"/>
-      <c r="AHS8" s="33"/>
-      <c r="AHT8" s="33"/>
-      <c r="AHU8" s="33"/>
-      <c r="AHV8" s="33"/>
-      <c r="AHW8" s="33"/>
-      <c r="AHX8" s="33"/>
-      <c r="AHY8" s="33"/>
-      <c r="AHZ8" s="33"/>
-      <c r="AIA8" s="33"/>
-      <c r="AIB8" s="33"/>
-      <c r="AIC8" s="33"/>
-      <c r="AID8" s="33"/>
-      <c r="AIE8" s="33"/>
-      <c r="AIF8" s="33"/>
-      <c r="AIG8" s="33"/>
-      <c r="AIH8" s="33"/>
-      <c r="AII8" s="33"/>
-      <c r="AIJ8" s="33"/>
-      <c r="AIK8" s="33"/>
-      <c r="AIL8" s="33"/>
-      <c r="AIM8" s="33"/>
-      <c r="AIN8" s="33"/>
-      <c r="AIO8" s="33"/>
-      <c r="AIP8" s="33"/>
-      <c r="AIQ8" s="33"/>
-      <c r="AIR8" s="33"/>
-      <c r="AIS8" s="33"/>
-      <c r="AIT8" s="33"/>
-      <c r="AIU8" s="33"/>
-      <c r="AIV8" s="33"/>
-      <c r="AIW8" s="33"/>
-      <c r="AIX8" s="33"/>
-      <c r="AIY8" s="33"/>
-      <c r="AIZ8" s="33"/>
-      <c r="AJA8" s="33"/>
-      <c r="AJB8" s="33"/>
-      <c r="AJC8" s="33"/>
-      <c r="AJD8" s="33"/>
-      <c r="AJE8" s="33"/>
-      <c r="AJF8" s="33"/>
-      <c r="AJG8" s="33"/>
-      <c r="AJH8" s="33"/>
-      <c r="AJI8" s="33"/>
-      <c r="AJJ8" s="33"/>
-      <c r="AJK8" s="33"/>
-      <c r="AJL8" s="33"/>
-      <c r="AJM8" s="33"/>
-      <c r="AJN8" s="33"/>
-      <c r="AJO8" s="33"/>
-      <c r="AJP8" s="33"/>
-      <c r="AJQ8" s="33"/>
-      <c r="AJR8" s="33"/>
-      <c r="AJS8" s="33"/>
-      <c r="AJT8" s="33"/>
-      <c r="AJU8" s="33"/>
-      <c r="AJV8" s="33"/>
-      <c r="AJW8" s="33"/>
-      <c r="AJX8" s="33"/>
-      <c r="AJY8" s="33"/>
-      <c r="AJZ8" s="33"/>
-      <c r="AKA8" s="33"/>
-      <c r="AKB8" s="33"/>
-      <c r="AKC8" s="33"/>
-      <c r="AKD8" s="33"/>
-      <c r="AKE8" s="33"/>
-      <c r="AKF8" s="33"/>
-      <c r="AKG8" s="33"/>
-      <c r="AKH8" s="33"/>
-      <c r="AKI8" s="33"/>
-      <c r="AKJ8" s="33"/>
-      <c r="AKK8" s="33"/>
-      <c r="AKL8" s="33"/>
-      <c r="AKM8" s="33"/>
-      <c r="AKN8" s="33"/>
-      <c r="AKO8" s="33"/>
-      <c r="AKP8" s="33"/>
-      <c r="AKQ8" s="33"/>
-      <c r="AKR8" s="33"/>
-      <c r="AKS8" s="33"/>
-      <c r="AKT8" s="33"/>
-      <c r="AKU8" s="33"/>
-      <c r="AKV8" s="33"/>
-      <c r="AKW8" s="33"/>
-      <c r="AKX8" s="33"/>
-      <c r="AKY8" s="33"/>
-      <c r="AKZ8" s="33"/>
-      <c r="ALA8" s="33"/>
-      <c r="ALB8" s="33"/>
-      <c r="ALC8" s="33"/>
-      <c r="ALD8" s="33"/>
-      <c r="ALE8" s="33"/>
-      <c r="ALF8" s="33"/>
-      <c r="ALG8" s="33"/>
-      <c r="ALH8" s="33"/>
-      <c r="ALI8" s="33"/>
-      <c r="ALJ8" s="33"/>
-      <c r="ALK8" s="33"/>
-      <c r="ALL8" s="33"/>
-      <c r="ALM8" s="33"/>
-      <c r="ALN8" s="33"/>
-      <c r="ALO8" s="33"/>
-      <c r="ALP8" s="33"/>
-      <c r="ALQ8" s="33"/>
-      <c r="ALR8" s="33"/>
-      <c r="ALS8" s="33"/>
-      <c r="ALT8" s="33"/>
-      <c r="ALU8" s="33"/>
-      <c r="ALV8" s="33"/>
-      <c r="ALW8" s="33"/>
-      <c r="ALX8" s="33"/>
-      <c r="ALY8" s="33"/>
-      <c r="ALZ8" s="33"/>
-      <c r="AMA8" s="33"/>
-      <c r="AMB8" s="33"/>
-      <c r="AMC8" s="33"/>
-      <c r="AMD8" s="33"/>
-      <c r="AME8" s="33"/>
-      <c r="AMF8" s="33"/>
-      <c r="AMG8" s="33"/>
-      <c r="AMH8" s="33"/>
-      <c r="AMI8" s="33"/>
-      <c r="AMJ8" s="33"/>
-      <c r="AMK8" s="33"/>
-    </row>
-    <row r="9" spans="1:1025" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="30"/>
+      <c r="AT8" s="30"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="30"/>
+      <c r="AW8" s="30"/>
+      <c r="AX8" s="30"/>
+      <c r="AY8" s="30"/>
+      <c r="AZ8" s="30"/>
+      <c r="BA8" s="30"/>
+      <c r="BB8" s="30"/>
+      <c r="BC8" s="30"/>
+      <c r="BD8" s="30"/>
+      <c r="BE8" s="30"/>
+      <c r="BF8" s="30"/>
+      <c r="BG8" s="30"/>
+      <c r="BH8" s="30"/>
+      <c r="BI8" s="30"/>
+      <c r="BJ8" s="30"/>
+      <c r="BK8" s="30"/>
+      <c r="BL8" s="30"/>
+      <c r="BM8" s="30"/>
+      <c r="BN8" s="30"/>
+      <c r="BO8" s="30"/>
+      <c r="BP8" s="30"/>
+      <c r="BQ8" s="30"/>
+      <c r="BR8" s="30"/>
+      <c r="BS8" s="30"/>
+      <c r="BT8" s="30"/>
+      <c r="BU8" s="30"/>
+      <c r="BV8" s="30"/>
+      <c r="BW8" s="30"/>
+      <c r="BX8" s="30"/>
+      <c r="BY8" s="30"/>
+      <c r="BZ8" s="30"/>
+      <c r="CA8" s="30"/>
+      <c r="CB8" s="30"/>
+      <c r="CC8" s="30"/>
+      <c r="CD8" s="30"/>
+      <c r="CE8" s="30"/>
+      <c r="CF8" s="30"/>
+      <c r="CG8" s="30"/>
+      <c r="CH8" s="30"/>
+      <c r="CI8" s="30"/>
+      <c r="CJ8" s="30"/>
+      <c r="CK8" s="30"/>
+      <c r="CL8" s="30"/>
+      <c r="CM8" s="30"/>
+      <c r="CN8" s="30"/>
+      <c r="CO8" s="30"/>
+      <c r="CP8" s="30"/>
+      <c r="CQ8" s="30"/>
+      <c r="CR8" s="30"/>
+      <c r="CS8" s="30"/>
+      <c r="CT8" s="30"/>
+      <c r="CU8" s="30"/>
+      <c r="CV8" s="30"/>
+      <c r="CW8" s="30"/>
+      <c r="CX8" s="30"/>
+      <c r="CY8" s="30"/>
+      <c r="CZ8" s="30"/>
+      <c r="DA8" s="30"/>
+      <c r="DB8" s="30"/>
+      <c r="DC8" s="30"/>
+      <c r="DD8" s="30"/>
+      <c r="DE8" s="30"/>
+      <c r="DF8" s="30"/>
+      <c r="DG8" s="30"/>
+      <c r="DH8" s="30"/>
+      <c r="DI8" s="30"/>
+      <c r="DJ8" s="30"/>
+      <c r="DK8" s="30"/>
+      <c r="DL8" s="30"/>
+      <c r="DM8" s="30"/>
+      <c r="DN8" s="30"/>
+      <c r="DO8" s="30"/>
+      <c r="DP8" s="30"/>
+      <c r="DQ8" s="30"/>
+      <c r="DR8" s="30"/>
+      <c r="DS8" s="30"/>
+      <c r="DT8" s="30"/>
+      <c r="DU8" s="30"/>
+      <c r="DV8" s="30"/>
+      <c r="DW8" s="30"/>
+      <c r="DX8" s="30"/>
+      <c r="DY8" s="30"/>
+      <c r="DZ8" s="30"/>
+      <c r="EA8" s="30"/>
+      <c r="EB8" s="30"/>
+      <c r="EC8" s="30"/>
+      <c r="ED8" s="30"/>
+      <c r="EE8" s="30"/>
+      <c r="EF8" s="30"/>
+      <c r="EG8" s="30"/>
+      <c r="EH8" s="30"/>
+      <c r="EI8" s="30"/>
+      <c r="EJ8" s="30"/>
+      <c r="EK8" s="30"/>
+      <c r="EL8" s="30"/>
+      <c r="EM8" s="30"/>
+      <c r="EN8" s="30"/>
+      <c r="EO8" s="30"/>
+      <c r="EP8" s="30"/>
+      <c r="EQ8" s="30"/>
+      <c r="ER8" s="30"/>
+      <c r="ES8" s="30"/>
+      <c r="ET8" s="30"/>
+      <c r="EU8" s="30"/>
+      <c r="EV8" s="30"/>
+      <c r="EW8" s="30"/>
+      <c r="EX8" s="30"/>
+      <c r="EY8" s="30"/>
+      <c r="EZ8" s="30"/>
+      <c r="FA8" s="30"/>
+      <c r="FB8" s="30"/>
+      <c r="FC8" s="30"/>
+      <c r="FD8" s="30"/>
+      <c r="FE8" s="30"/>
+      <c r="FF8" s="30"/>
+      <c r="FG8" s="30"/>
+      <c r="FH8" s="30"/>
+      <c r="FI8" s="30"/>
+      <c r="FJ8" s="30"/>
+      <c r="FK8" s="30"/>
+      <c r="FL8" s="30"/>
+      <c r="FM8" s="30"/>
+      <c r="FN8" s="30"/>
+      <c r="FO8" s="30"/>
+      <c r="FP8" s="30"/>
+      <c r="FQ8" s="30"/>
+      <c r="FR8" s="30"/>
+      <c r="FS8" s="30"/>
+      <c r="FT8" s="30"/>
+      <c r="FU8" s="30"/>
+      <c r="FV8" s="30"/>
+      <c r="FW8" s="30"/>
+      <c r="FX8" s="30"/>
+      <c r="FY8" s="30"/>
+      <c r="FZ8" s="30"/>
+      <c r="GA8" s="30"/>
+      <c r="GB8" s="30"/>
+      <c r="GC8" s="30"/>
+      <c r="GD8" s="30"/>
+      <c r="GE8" s="30"/>
+      <c r="GF8" s="30"/>
+      <c r="GG8" s="30"/>
+      <c r="GH8" s="30"/>
+      <c r="GI8" s="30"/>
+      <c r="GJ8" s="30"/>
+      <c r="GK8" s="30"/>
+      <c r="GL8" s="30"/>
+      <c r="GM8" s="30"/>
+      <c r="GN8" s="30"/>
+      <c r="GO8" s="30"/>
+      <c r="GP8" s="30"/>
+      <c r="GQ8" s="30"/>
+      <c r="GR8" s="30"/>
+      <c r="GS8" s="30"/>
+      <c r="GT8" s="30"/>
+      <c r="GU8" s="30"/>
+      <c r="GV8" s="30"/>
+      <c r="GW8" s="30"/>
+      <c r="GX8" s="30"/>
+      <c r="GY8" s="30"/>
+      <c r="GZ8" s="30"/>
+      <c r="HA8" s="30"/>
+      <c r="HB8" s="30"/>
+      <c r="HC8" s="30"/>
+      <c r="HD8" s="30"/>
+      <c r="HE8" s="30"/>
+      <c r="HF8" s="30"/>
+      <c r="HG8" s="30"/>
+      <c r="HH8" s="30"/>
+      <c r="HI8" s="30"/>
+      <c r="HJ8" s="30"/>
+      <c r="HK8" s="30"/>
+      <c r="HL8" s="30"/>
+      <c r="HM8" s="30"/>
+      <c r="HN8" s="30"/>
+      <c r="HO8" s="30"/>
+      <c r="HP8" s="30"/>
+      <c r="HQ8" s="30"/>
+      <c r="HR8" s="30"/>
+      <c r="HS8" s="30"/>
+      <c r="HT8" s="30"/>
+      <c r="HU8" s="30"/>
+      <c r="HV8" s="30"/>
+      <c r="HW8" s="30"/>
+      <c r="HX8" s="30"/>
+      <c r="HY8" s="30"/>
+      <c r="HZ8" s="30"/>
+      <c r="IA8" s="30"/>
+      <c r="IB8" s="30"/>
+      <c r="IC8" s="30"/>
+      <c r="ID8" s="30"/>
+      <c r="IE8" s="30"/>
+      <c r="IF8" s="30"/>
+      <c r="IG8" s="30"/>
+      <c r="IH8" s="30"/>
+      <c r="II8" s="30"/>
+      <c r="IJ8" s="30"/>
+      <c r="IK8" s="30"/>
+      <c r="IL8" s="30"/>
+      <c r="IM8" s="30"/>
+      <c r="IN8" s="30"/>
+      <c r="IO8" s="30"/>
+      <c r="IP8" s="30"/>
+      <c r="IQ8" s="30"/>
+      <c r="IR8" s="30"/>
+      <c r="IS8" s="30"/>
+      <c r="IT8" s="30"/>
+      <c r="IU8" s="30"/>
+      <c r="IV8" s="30"/>
+      <c r="IW8" s="30"/>
+      <c r="IX8" s="30"/>
+      <c r="IY8" s="30"/>
+      <c r="IZ8" s="30"/>
+      <c r="JA8" s="30"/>
+      <c r="JB8" s="30"/>
+      <c r="JC8" s="30"/>
+      <c r="JD8" s="30"/>
+      <c r="JE8" s="30"/>
+      <c r="JF8" s="30"/>
+      <c r="JG8" s="30"/>
+      <c r="JH8" s="30"/>
+      <c r="JI8" s="30"/>
+      <c r="JJ8" s="30"/>
+      <c r="JK8" s="30"/>
+      <c r="JL8" s="30"/>
+      <c r="JM8" s="30"/>
+      <c r="JN8" s="30"/>
+      <c r="JO8" s="30"/>
+      <c r="JP8" s="30"/>
+      <c r="JQ8" s="30"/>
+      <c r="JR8" s="30"/>
+      <c r="JS8" s="30"/>
+      <c r="JT8" s="30"/>
+      <c r="JU8" s="30"/>
+      <c r="JV8" s="30"/>
+      <c r="JW8" s="30"/>
+      <c r="JX8" s="30"/>
+      <c r="JY8" s="30"/>
+      <c r="JZ8" s="30"/>
+      <c r="KA8" s="30"/>
+      <c r="KB8" s="30"/>
+      <c r="KC8" s="30"/>
+      <c r="KD8" s="30"/>
+      <c r="KE8" s="30"/>
+      <c r="KF8" s="30"/>
+      <c r="KG8" s="30"/>
+      <c r="KH8" s="30"/>
+      <c r="KI8" s="30"/>
+      <c r="KJ8" s="30"/>
+      <c r="KK8" s="30"/>
+      <c r="KL8" s="30"/>
+      <c r="KM8" s="30"/>
+      <c r="KN8" s="30"/>
+      <c r="KO8" s="30"/>
+      <c r="KP8" s="30"/>
+      <c r="KQ8" s="30"/>
+      <c r="KR8" s="30"/>
+      <c r="KS8" s="30"/>
+      <c r="KT8" s="30"/>
+      <c r="KU8" s="30"/>
+      <c r="KV8" s="30"/>
+      <c r="KW8" s="30"/>
+      <c r="KX8" s="30"/>
+      <c r="KY8" s="30"/>
+      <c r="KZ8" s="30"/>
+      <c r="LA8" s="30"/>
+      <c r="LB8" s="30"/>
+      <c r="LC8" s="30"/>
+      <c r="LD8" s="30"/>
+      <c r="LE8" s="30"/>
+      <c r="LF8" s="30"/>
+      <c r="LG8" s="30"/>
+      <c r="LH8" s="30"/>
+      <c r="LI8" s="30"/>
+      <c r="LJ8" s="30"/>
+      <c r="LK8" s="30"/>
+      <c r="LL8" s="30"/>
+      <c r="LM8" s="30"/>
+      <c r="LN8" s="30"/>
+      <c r="LO8" s="30"/>
+      <c r="LP8" s="30"/>
+      <c r="LQ8" s="30"/>
+      <c r="LR8" s="30"/>
+      <c r="LS8" s="30"/>
+      <c r="LT8" s="30"/>
+      <c r="LU8" s="30"/>
+      <c r="LV8" s="30"/>
+      <c r="LW8" s="30"/>
+      <c r="LX8" s="30"/>
+      <c r="LY8" s="30"/>
+      <c r="LZ8" s="30"/>
+      <c r="MA8" s="30"/>
+      <c r="MB8" s="30"/>
+      <c r="MC8" s="30"/>
+      <c r="MD8" s="30"/>
+      <c r="ME8" s="30"/>
+      <c r="MF8" s="30"/>
+      <c r="MG8" s="30"/>
+      <c r="MH8" s="30"/>
+      <c r="MI8" s="30"/>
+      <c r="MJ8" s="30"/>
+      <c r="MK8" s="30"/>
+      <c r="ML8" s="30"/>
+      <c r="MM8" s="30"/>
+      <c r="MN8" s="30"/>
+      <c r="MO8" s="30"/>
+      <c r="MP8" s="30"/>
+      <c r="MQ8" s="30"/>
+      <c r="MR8" s="30"/>
+      <c r="MS8" s="30"/>
+      <c r="MT8" s="30"/>
+      <c r="MU8" s="30"/>
+      <c r="MV8" s="30"/>
+      <c r="MW8" s="30"/>
+      <c r="MX8" s="30"/>
+      <c r="MY8" s="30"/>
+      <c r="MZ8" s="30"/>
+      <c r="NA8" s="30"/>
+      <c r="NB8" s="30"/>
+      <c r="NC8" s="30"/>
+      <c r="ND8" s="30"/>
+      <c r="NE8" s="30"/>
+      <c r="NF8" s="30"/>
+      <c r="NG8" s="30"/>
+      <c r="NH8" s="30"/>
+      <c r="NI8" s="30"/>
+      <c r="NJ8" s="30"/>
+      <c r="NK8" s="30"/>
+      <c r="NL8" s="30"/>
+      <c r="NM8" s="30"/>
+      <c r="NN8" s="30"/>
+      <c r="NO8" s="30"/>
+      <c r="NP8" s="30"/>
+      <c r="NQ8" s="30"/>
+      <c r="NR8" s="30"/>
+      <c r="NS8" s="30"/>
+      <c r="NT8" s="30"/>
+      <c r="NU8" s="30"/>
+      <c r="NV8" s="30"/>
+      <c r="NW8" s="30"/>
+      <c r="NX8" s="30"/>
+      <c r="NY8" s="30"/>
+      <c r="NZ8" s="30"/>
+      <c r="OA8" s="30"/>
+      <c r="OB8" s="30"/>
+      <c r="OC8" s="30"/>
+      <c r="OD8" s="30"/>
+      <c r="OE8" s="30"/>
+      <c r="OF8" s="30"/>
+      <c r="OG8" s="30"/>
+      <c r="OH8" s="30"/>
+      <c r="OI8" s="30"/>
+      <c r="OJ8" s="30"/>
+      <c r="OK8" s="30"/>
+      <c r="OL8" s="30"/>
+      <c r="OM8" s="30"/>
+      <c r="ON8" s="30"/>
+      <c r="OO8" s="30"/>
+      <c r="OP8" s="30"/>
+      <c r="OQ8" s="30"/>
+      <c r="OR8" s="30"/>
+      <c r="OS8" s="30"/>
+      <c r="OT8" s="30"/>
+      <c r="OU8" s="30"/>
+      <c r="OV8" s="30"/>
+      <c r="OW8" s="30"/>
+      <c r="OX8" s="30"/>
+      <c r="OY8" s="30"/>
+      <c r="OZ8" s="30"/>
+      <c r="PA8" s="30"/>
+      <c r="PB8" s="30"/>
+      <c r="PC8" s="30"/>
+      <c r="PD8" s="30"/>
+      <c r="PE8" s="30"/>
+      <c r="PF8" s="30"/>
+      <c r="PG8" s="30"/>
+      <c r="PH8" s="30"/>
+      <c r="PI8" s="30"/>
+      <c r="PJ8" s="30"/>
+      <c r="PK8" s="30"/>
+      <c r="PL8" s="30"/>
+      <c r="PM8" s="30"/>
+      <c r="PN8" s="30"/>
+      <c r="PO8" s="30"/>
+      <c r="PP8" s="30"/>
+      <c r="PQ8" s="30"/>
+      <c r="PR8" s="30"/>
+      <c r="PS8" s="30"/>
+      <c r="PT8" s="30"/>
+      <c r="PU8" s="30"/>
+      <c r="PV8" s="30"/>
+      <c r="PW8" s="30"/>
+      <c r="PX8" s="30"/>
+      <c r="PY8" s="30"/>
+      <c r="PZ8" s="30"/>
+      <c r="QA8" s="30"/>
+      <c r="QB8" s="30"/>
+      <c r="QC8" s="30"/>
+      <c r="QD8" s="30"/>
+      <c r="QE8" s="30"/>
+      <c r="QF8" s="30"/>
+      <c r="QG8" s="30"/>
+      <c r="QH8" s="30"/>
+      <c r="QI8" s="30"/>
+      <c r="QJ8" s="30"/>
+      <c r="QK8" s="30"/>
+      <c r="QL8" s="30"/>
+      <c r="QM8" s="30"/>
+      <c r="QN8" s="30"/>
+      <c r="QO8" s="30"/>
+      <c r="QP8" s="30"/>
+      <c r="QQ8" s="30"/>
+      <c r="QR8" s="30"/>
+      <c r="QS8" s="30"/>
+      <c r="QT8" s="30"/>
+      <c r="QU8" s="30"/>
+      <c r="QV8" s="30"/>
+      <c r="QW8" s="30"/>
+      <c r="QX8" s="30"/>
+      <c r="QY8" s="30"/>
+      <c r="QZ8" s="30"/>
+      <c r="RA8" s="30"/>
+      <c r="RB8" s="30"/>
+      <c r="RC8" s="30"/>
+      <c r="RD8" s="30"/>
+      <c r="RE8" s="30"/>
+      <c r="RF8" s="30"/>
+      <c r="RG8" s="30"/>
+      <c r="RH8" s="30"/>
+      <c r="RI8" s="30"/>
+      <c r="RJ8" s="30"/>
+      <c r="RK8" s="30"/>
+      <c r="RL8" s="30"/>
+      <c r="RM8" s="30"/>
+      <c r="RN8" s="30"/>
+      <c r="RO8" s="30"/>
+      <c r="RP8" s="30"/>
+      <c r="RQ8" s="30"/>
+      <c r="RR8" s="30"/>
+      <c r="RS8" s="30"/>
+      <c r="RT8" s="30"/>
+      <c r="RU8" s="30"/>
+      <c r="RV8" s="30"/>
+      <c r="RW8" s="30"/>
+      <c r="RX8" s="30"/>
+      <c r="RY8" s="30"/>
+      <c r="RZ8" s="30"/>
+      <c r="SA8" s="30"/>
+      <c r="SB8" s="30"/>
+      <c r="SC8" s="30"/>
+      <c r="SD8" s="30"/>
+      <c r="SE8" s="30"/>
+      <c r="SF8" s="30"/>
+      <c r="SG8" s="30"/>
+      <c r="SH8" s="30"/>
+      <c r="SI8" s="30"/>
+      <c r="SJ8" s="30"/>
+      <c r="SK8" s="30"/>
+      <c r="SL8" s="30"/>
+      <c r="SM8" s="30"/>
+      <c r="SN8" s="30"/>
+      <c r="SO8" s="30"/>
+      <c r="SP8" s="30"/>
+      <c r="SQ8" s="30"/>
+      <c r="SR8" s="30"/>
+      <c r="SS8" s="30"/>
+      <c r="ST8" s="30"/>
+      <c r="SU8" s="30"/>
+      <c r="SV8" s="30"/>
+      <c r="SW8" s="30"/>
+      <c r="SX8" s="30"/>
+      <c r="SY8" s="30"/>
+      <c r="SZ8" s="30"/>
+      <c r="TA8" s="30"/>
+      <c r="TB8" s="30"/>
+      <c r="TC8" s="30"/>
+      <c r="TD8" s="30"/>
+      <c r="TE8" s="30"/>
+      <c r="TF8" s="30"/>
+      <c r="TG8" s="30"/>
+      <c r="TH8" s="30"/>
+      <c r="TI8" s="30"/>
+      <c r="TJ8" s="30"/>
+      <c r="TK8" s="30"/>
+      <c r="TL8" s="30"/>
+      <c r="TM8" s="30"/>
+      <c r="TN8" s="30"/>
+      <c r="TO8" s="30"/>
+      <c r="TP8" s="30"/>
+      <c r="TQ8" s="30"/>
+      <c r="TR8" s="30"/>
+      <c r="TS8" s="30"/>
+      <c r="TT8" s="30"/>
+      <c r="TU8" s="30"/>
+      <c r="TV8" s="30"/>
+      <c r="TW8" s="30"/>
+      <c r="TX8" s="30"/>
+      <c r="TY8" s="30"/>
+      <c r="TZ8" s="30"/>
+      <c r="UA8" s="30"/>
+      <c r="UB8" s="30"/>
+      <c r="UC8" s="30"/>
+      <c r="UD8" s="30"/>
+      <c r="UE8" s="30"/>
+      <c r="UF8" s="30"/>
+      <c r="UG8" s="30"/>
+      <c r="UH8" s="30"/>
+      <c r="UI8" s="30"/>
+      <c r="UJ8" s="30"/>
+      <c r="UK8" s="30"/>
+      <c r="UL8" s="30"/>
+      <c r="UM8" s="30"/>
+      <c r="UN8" s="30"/>
+      <c r="UO8" s="30"/>
+      <c r="UP8" s="30"/>
+      <c r="UQ8" s="30"/>
+      <c r="UR8" s="30"/>
+      <c r="US8" s="30"/>
+      <c r="UT8" s="30"/>
+      <c r="UU8" s="30"/>
+      <c r="UV8" s="30"/>
+      <c r="UW8" s="30"/>
+      <c r="UX8" s="30"/>
+      <c r="UY8" s="30"/>
+      <c r="UZ8" s="30"/>
+      <c r="VA8" s="30"/>
+      <c r="VB8" s="30"/>
+      <c r="VC8" s="30"/>
+      <c r="VD8" s="30"/>
+      <c r="VE8" s="30"/>
+      <c r="VF8" s="30"/>
+      <c r="VG8" s="30"/>
+      <c r="VH8" s="30"/>
+      <c r="VI8" s="30"/>
+      <c r="VJ8" s="30"/>
+      <c r="VK8" s="30"/>
+      <c r="VL8" s="30"/>
+      <c r="VM8" s="30"/>
+      <c r="VN8" s="30"/>
+      <c r="VO8" s="30"/>
+      <c r="VP8" s="30"/>
+      <c r="VQ8" s="30"/>
+      <c r="VR8" s="30"/>
+      <c r="VS8" s="30"/>
+      <c r="VT8" s="30"/>
+      <c r="VU8" s="30"/>
+      <c r="VV8" s="30"/>
+      <c r="VW8" s="30"/>
+      <c r="VX8" s="30"/>
+      <c r="VY8" s="30"/>
+      <c r="VZ8" s="30"/>
+      <c r="WA8" s="30"/>
+      <c r="WB8" s="30"/>
+      <c r="WC8" s="30"/>
+      <c r="WD8" s="30"/>
+      <c r="WE8" s="30"/>
+      <c r="WF8" s="30"/>
+      <c r="WG8" s="30"/>
+      <c r="WH8" s="30"/>
+      <c r="WI8" s="30"/>
+      <c r="WJ8" s="30"/>
+      <c r="WK8" s="30"/>
+      <c r="WL8" s="30"/>
+      <c r="WM8" s="30"/>
+      <c r="WN8" s="30"/>
+      <c r="WO8" s="30"/>
+      <c r="WP8" s="30"/>
+      <c r="WQ8" s="30"/>
+      <c r="WR8" s="30"/>
+      <c r="WS8" s="30"/>
+      <c r="WT8" s="30"/>
+      <c r="WU8" s="30"/>
+      <c r="WV8" s="30"/>
+      <c r="WW8" s="30"/>
+      <c r="WX8" s="30"/>
+      <c r="WY8" s="30"/>
+      <c r="WZ8" s="30"/>
+      <c r="XA8" s="30"/>
+      <c r="XB8" s="30"/>
+      <c r="XC8" s="30"/>
+      <c r="XD8" s="30"/>
+      <c r="XE8" s="30"/>
+      <c r="XF8" s="30"/>
+      <c r="XG8" s="30"/>
+      <c r="XH8" s="30"/>
+      <c r="XI8" s="30"/>
+      <c r="XJ8" s="30"/>
+      <c r="XK8" s="30"/>
+      <c r="XL8" s="30"/>
+      <c r="XM8" s="30"/>
+      <c r="XN8" s="30"/>
+      <c r="XO8" s="30"/>
+      <c r="XP8" s="30"/>
+      <c r="XQ8" s="30"/>
+      <c r="XR8" s="30"/>
+      <c r="XS8" s="30"/>
+      <c r="XT8" s="30"/>
+      <c r="XU8" s="30"/>
+      <c r="XV8" s="30"/>
+      <c r="XW8" s="30"/>
+      <c r="XX8" s="30"/>
+      <c r="XY8" s="30"/>
+      <c r="XZ8" s="30"/>
+      <c r="YA8" s="30"/>
+      <c r="YB8" s="30"/>
+      <c r="YC8" s="30"/>
+      <c r="YD8" s="30"/>
+      <c r="YE8" s="30"/>
+      <c r="YF8" s="30"/>
+      <c r="YG8" s="30"/>
+      <c r="YH8" s="30"/>
+      <c r="YI8" s="30"/>
+      <c r="YJ8" s="30"/>
+      <c r="YK8" s="30"/>
+      <c r="YL8" s="30"/>
+      <c r="YM8" s="30"/>
+      <c r="YN8" s="30"/>
+      <c r="YO8" s="30"/>
+      <c r="YP8" s="30"/>
+      <c r="YQ8" s="30"/>
+      <c r="YR8" s="30"/>
+      <c r="YS8" s="30"/>
+      <c r="YT8" s="30"/>
+      <c r="YU8" s="30"/>
+      <c r="YV8" s="30"/>
+      <c r="YW8" s="30"/>
+      <c r="YX8" s="30"/>
+      <c r="YY8" s="30"/>
+      <c r="YZ8" s="30"/>
+      <c r="ZA8" s="30"/>
+      <c r="ZB8" s="30"/>
+      <c r="ZC8" s="30"/>
+      <c r="ZD8" s="30"/>
+      <c r="ZE8" s="30"/>
+      <c r="ZF8" s="30"/>
+      <c r="ZG8" s="30"/>
+      <c r="ZH8" s="30"/>
+      <c r="ZI8" s="30"/>
+      <c r="ZJ8" s="30"/>
+      <c r="ZK8" s="30"/>
+      <c r="ZL8" s="30"/>
+      <c r="ZM8" s="30"/>
+      <c r="ZN8" s="30"/>
+      <c r="ZO8" s="30"/>
+      <c r="ZP8" s="30"/>
+      <c r="ZQ8" s="30"/>
+      <c r="ZR8" s="30"/>
+      <c r="ZS8" s="30"/>
+      <c r="ZT8" s="30"/>
+      <c r="ZU8" s="30"/>
+      <c r="ZV8" s="30"/>
+      <c r="ZW8" s="30"/>
+      <c r="ZX8" s="30"/>
+      <c r="ZY8" s="30"/>
+      <c r="ZZ8" s="30"/>
+      <c r="AAA8" s="30"/>
+      <c r="AAB8" s="30"/>
+      <c r="AAC8" s="30"/>
+      <c r="AAD8" s="30"/>
+      <c r="AAE8" s="30"/>
+      <c r="AAF8" s="30"/>
+      <c r="AAG8" s="30"/>
+      <c r="AAH8" s="30"/>
+      <c r="AAI8" s="30"/>
+      <c r="AAJ8" s="30"/>
+      <c r="AAK8" s="30"/>
+      <c r="AAL8" s="30"/>
+      <c r="AAM8" s="30"/>
+      <c r="AAN8" s="30"/>
+      <c r="AAO8" s="30"/>
+      <c r="AAP8" s="30"/>
+      <c r="AAQ8" s="30"/>
+      <c r="AAR8" s="30"/>
+      <c r="AAS8" s="30"/>
+      <c r="AAT8" s="30"/>
+      <c r="AAU8" s="30"/>
+      <c r="AAV8" s="30"/>
+      <c r="AAW8" s="30"/>
+      <c r="AAX8" s="30"/>
+      <c r="AAY8" s="30"/>
+      <c r="AAZ8" s="30"/>
+      <c r="ABA8" s="30"/>
+      <c r="ABB8" s="30"/>
+      <c r="ABC8" s="30"/>
+      <c r="ABD8" s="30"/>
+      <c r="ABE8" s="30"/>
+      <c r="ABF8" s="30"/>
+      <c r="ABG8" s="30"/>
+      <c r="ABH8" s="30"/>
+      <c r="ABI8" s="30"/>
+      <c r="ABJ8" s="30"/>
+      <c r="ABK8" s="30"/>
+      <c r="ABL8" s="30"/>
+      <c r="ABM8" s="30"/>
+      <c r="ABN8" s="30"/>
+      <c r="ABO8" s="30"/>
+      <c r="ABP8" s="30"/>
+      <c r="ABQ8" s="30"/>
+      <c r="ABR8" s="30"/>
+      <c r="ABS8" s="30"/>
+      <c r="ABT8" s="30"/>
+      <c r="ABU8" s="30"/>
+      <c r="ABV8" s="30"/>
+      <c r="ABW8" s="30"/>
+      <c r="ABX8" s="30"/>
+      <c r="ABY8" s="30"/>
+      <c r="ABZ8" s="30"/>
+      <c r="ACA8" s="30"/>
+      <c r="ACB8" s="30"/>
+      <c r="ACC8" s="30"/>
+      <c r="ACD8" s="30"/>
+      <c r="ACE8" s="30"/>
+      <c r="ACF8" s="30"/>
+      <c r="ACG8" s="30"/>
+      <c r="ACH8" s="30"/>
+      <c r="ACI8" s="30"/>
+      <c r="ACJ8" s="30"/>
+      <c r="ACK8" s="30"/>
+      <c r="ACL8" s="30"/>
+      <c r="ACM8" s="30"/>
+      <c r="ACN8" s="30"/>
+      <c r="ACO8" s="30"/>
+      <c r="ACP8" s="30"/>
+      <c r="ACQ8" s="30"/>
+      <c r="ACR8" s="30"/>
+      <c r="ACS8" s="30"/>
+      <c r="ACT8" s="30"/>
+      <c r="ACU8" s="30"/>
+      <c r="ACV8" s="30"/>
+      <c r="ACW8" s="30"/>
+      <c r="ACX8" s="30"/>
+      <c r="ACY8" s="30"/>
+      <c r="ACZ8" s="30"/>
+      <c r="ADA8" s="30"/>
+      <c r="ADB8" s="30"/>
+      <c r="ADC8" s="30"/>
+      <c r="ADD8" s="30"/>
+      <c r="ADE8" s="30"/>
+      <c r="ADF8" s="30"/>
+      <c r="ADG8" s="30"/>
+      <c r="ADH8" s="30"/>
+      <c r="ADI8" s="30"/>
+      <c r="ADJ8" s="30"/>
+      <c r="ADK8" s="30"/>
+      <c r="ADL8" s="30"/>
+      <c r="ADM8" s="30"/>
+      <c r="ADN8" s="30"/>
+      <c r="ADO8" s="30"/>
+      <c r="ADP8" s="30"/>
+      <c r="ADQ8" s="30"/>
+      <c r="ADR8" s="30"/>
+      <c r="ADS8" s="30"/>
+      <c r="ADT8" s="30"/>
+      <c r="ADU8" s="30"/>
+      <c r="ADV8" s="30"/>
+      <c r="ADW8" s="30"/>
+      <c r="ADX8" s="30"/>
+      <c r="ADY8" s="30"/>
+      <c r="ADZ8" s="30"/>
+      <c r="AEA8" s="30"/>
+      <c r="AEB8" s="30"/>
+      <c r="AEC8" s="30"/>
+      <c r="AED8" s="30"/>
+      <c r="AEE8" s="30"/>
+      <c r="AEF8" s="30"/>
+      <c r="AEG8" s="30"/>
+      <c r="AEH8" s="30"/>
+      <c r="AEI8" s="30"/>
+      <c r="AEJ8" s="30"/>
+      <c r="AEK8" s="30"/>
+      <c r="AEL8" s="30"/>
+      <c r="AEM8" s="30"/>
+      <c r="AEN8" s="30"/>
+      <c r="AEO8" s="30"/>
+      <c r="AEP8" s="30"/>
+      <c r="AEQ8" s="30"/>
+      <c r="AER8" s="30"/>
+      <c r="AES8" s="30"/>
+      <c r="AET8" s="30"/>
+      <c r="AEU8" s="30"/>
+      <c r="AEV8" s="30"/>
+      <c r="AEW8" s="30"/>
+      <c r="AEX8" s="30"/>
+      <c r="AEY8" s="30"/>
+      <c r="AEZ8" s="30"/>
+      <c r="AFA8" s="30"/>
+      <c r="AFB8" s="30"/>
+      <c r="AFC8" s="30"/>
+      <c r="AFD8" s="30"/>
+      <c r="AFE8" s="30"/>
+      <c r="AFF8" s="30"/>
+      <c r="AFG8" s="30"/>
+      <c r="AFH8" s="30"/>
+      <c r="AFI8" s="30"/>
+      <c r="AFJ8" s="30"/>
+      <c r="AFK8" s="30"/>
+      <c r="AFL8" s="30"/>
+      <c r="AFM8" s="30"/>
+      <c r="AFN8" s="30"/>
+      <c r="AFO8" s="30"/>
+      <c r="AFP8" s="30"/>
+      <c r="AFQ8" s="30"/>
+      <c r="AFR8" s="30"/>
+      <c r="AFS8" s="30"/>
+      <c r="AFT8" s="30"/>
+      <c r="AFU8" s="30"/>
+      <c r="AFV8" s="30"/>
+      <c r="AFW8" s="30"/>
+      <c r="AFX8" s="30"/>
+      <c r="AFY8" s="30"/>
+      <c r="AFZ8" s="30"/>
+      <c r="AGA8" s="30"/>
+      <c r="AGB8" s="30"/>
+      <c r="AGC8" s="30"/>
+      <c r="AGD8" s="30"/>
+      <c r="AGE8" s="30"/>
+      <c r="AGF8" s="30"/>
+      <c r="AGG8" s="30"/>
+      <c r="AGH8" s="30"/>
+      <c r="AGI8" s="30"/>
+      <c r="AGJ8" s="30"/>
+      <c r="AGK8" s="30"/>
+      <c r="AGL8" s="30"/>
+      <c r="AGM8" s="30"/>
+      <c r="AGN8" s="30"/>
+      <c r="AGO8" s="30"/>
+      <c r="AGP8" s="30"/>
+      <c r="AGQ8" s="30"/>
+      <c r="AGR8" s="30"/>
+      <c r="AGS8" s="30"/>
+      <c r="AGT8" s="30"/>
+      <c r="AGU8" s="30"/>
+      <c r="AGV8" s="30"/>
+      <c r="AGW8" s="30"/>
+      <c r="AGX8" s="30"/>
+      <c r="AGY8" s="30"/>
+      <c r="AGZ8" s="30"/>
+      <c r="AHA8" s="30"/>
+      <c r="AHB8" s="30"/>
+      <c r="AHC8" s="30"/>
+      <c r="AHD8" s="30"/>
+      <c r="AHE8" s="30"/>
+      <c r="AHF8" s="30"/>
+      <c r="AHG8" s="30"/>
+      <c r="AHH8" s="30"/>
+      <c r="AHI8" s="30"/>
+      <c r="AHJ8" s="30"/>
+      <c r="AHK8" s="30"/>
+      <c r="AHL8" s="30"/>
+      <c r="AHM8" s="30"/>
+      <c r="AHN8" s="30"/>
+      <c r="AHO8" s="30"/>
+      <c r="AHP8" s="30"/>
+      <c r="AHQ8" s="30"/>
+      <c r="AHR8" s="30"/>
+      <c r="AHS8" s="30"/>
+      <c r="AHT8" s="30"/>
+      <c r="AHU8" s="30"/>
+      <c r="AHV8" s="30"/>
+      <c r="AHW8" s="30"/>
+      <c r="AHX8" s="30"/>
+      <c r="AHY8" s="30"/>
+      <c r="AHZ8" s="30"/>
+      <c r="AIA8" s="30"/>
+      <c r="AIB8" s="30"/>
+      <c r="AIC8" s="30"/>
+      <c r="AID8" s="30"/>
+      <c r="AIE8" s="30"/>
+      <c r="AIF8" s="30"/>
+      <c r="AIG8" s="30"/>
+      <c r="AIH8" s="30"/>
+      <c r="AII8" s="30"/>
+      <c r="AIJ8" s="30"/>
+      <c r="AIK8" s="30"/>
+      <c r="AIL8" s="30"/>
+      <c r="AIM8" s="30"/>
+      <c r="AIN8" s="30"/>
+      <c r="AIO8" s="30"/>
+      <c r="AIP8" s="30"/>
+      <c r="AIQ8" s="30"/>
+      <c r="AIR8" s="30"/>
+      <c r="AIS8" s="30"/>
+      <c r="AIT8" s="30"/>
+      <c r="AIU8" s="30"/>
+      <c r="AIV8" s="30"/>
+      <c r="AIW8" s="30"/>
+      <c r="AIX8" s="30"/>
+      <c r="AIY8" s="30"/>
+      <c r="AIZ8" s="30"/>
+      <c r="AJA8" s="30"/>
+      <c r="AJB8" s="30"/>
+      <c r="AJC8" s="30"/>
+      <c r="AJD8" s="30"/>
+      <c r="AJE8" s="30"/>
+      <c r="AJF8" s="30"/>
+      <c r="AJG8" s="30"/>
+      <c r="AJH8" s="30"/>
+      <c r="AJI8" s="30"/>
+      <c r="AJJ8" s="30"/>
+      <c r="AJK8" s="30"/>
+      <c r="AJL8" s="30"/>
+      <c r="AJM8" s="30"/>
+      <c r="AJN8" s="30"/>
+      <c r="AJO8" s="30"/>
+      <c r="AJP8" s="30"/>
+      <c r="AJQ8" s="30"/>
+      <c r="AJR8" s="30"/>
+      <c r="AJS8" s="30"/>
+      <c r="AJT8" s="30"/>
+      <c r="AJU8" s="30"/>
+      <c r="AJV8" s="30"/>
+      <c r="AJW8" s="30"/>
+      <c r="AJX8" s="30"/>
+      <c r="AJY8" s="30"/>
+      <c r="AJZ8" s="30"/>
+      <c r="AKA8" s="30"/>
+      <c r="AKB8" s="30"/>
+      <c r="AKC8" s="30"/>
+      <c r="AKD8" s="30"/>
+      <c r="AKE8" s="30"/>
+      <c r="AKF8" s="30"/>
+      <c r="AKG8" s="30"/>
+      <c r="AKH8" s="30"/>
+      <c r="AKI8" s="30"/>
+      <c r="AKJ8" s="30"/>
+      <c r="AKK8" s="30"/>
+      <c r="AKL8" s="30"/>
+      <c r="AKM8" s="30"/>
+      <c r="AKN8" s="30"/>
+      <c r="AKO8" s="30"/>
+      <c r="AKP8" s="30"/>
+      <c r="AKQ8" s="30"/>
+      <c r="AKR8" s="30"/>
+      <c r="AKS8" s="30"/>
+      <c r="AKT8" s="30"/>
+      <c r="AKU8" s="30"/>
+      <c r="AKV8" s="30"/>
+      <c r="AKW8" s="30"/>
+      <c r="AKX8" s="30"/>
+      <c r="AKY8" s="30"/>
+      <c r="AKZ8" s="30"/>
+      <c r="ALA8" s="30"/>
+      <c r="ALB8" s="30"/>
+      <c r="ALC8" s="30"/>
+      <c r="ALD8" s="30"/>
+      <c r="ALE8" s="30"/>
+      <c r="ALF8" s="30"/>
+      <c r="ALG8" s="30"/>
+      <c r="ALH8" s="30"/>
+      <c r="ALI8" s="30"/>
+      <c r="ALJ8" s="30"/>
+      <c r="ALK8" s="30"/>
+      <c r="ALL8" s="30"/>
+      <c r="ALM8" s="30"/>
+      <c r="ALN8" s="30"/>
+      <c r="ALO8" s="30"/>
+      <c r="ALP8" s="30"/>
+      <c r="ALQ8" s="30"/>
+      <c r="ALR8" s="30"/>
+      <c r="ALS8" s="30"/>
+      <c r="ALT8" s="30"/>
+      <c r="ALU8" s="30"/>
+      <c r="ALV8" s="30"/>
+      <c r="ALW8" s="30"/>
+      <c r="ALX8" s="30"/>
+      <c r="ALY8" s="30"/>
+      <c r="ALZ8" s="30"/>
+      <c r="AMA8" s="30"/>
+      <c r="AMB8" s="30"/>
+      <c r="AMC8" s="30"/>
+      <c r="AMD8" s="30"/>
+      <c r="AME8" s="30"/>
+      <c r="AMF8" s="30"/>
+      <c r="AMG8" s="30"/>
+      <c r="AMH8" s="30"/>
+      <c r="AMI8" s="30"/>
+      <c r="AMJ8" s="30"/>
+      <c r="AMK8" s="30"/>
+    </row>
+    <row r="9" spans="1:1025" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="36">
-        <v>0</v>
-      </c>
-      <c r="C9" s="36">
-        <v>0</v>
-      </c>
-      <c r="D9" s="36">
-        <v>0</v>
-      </c>
-      <c r="E9" s="36">
-        <v>0</v>
-      </c>
-      <c r="F9" s="36">
-        <v>0</v>
-      </c>
-      <c r="G9" s="36">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36">
-        <v>0</v>
-      </c>
-      <c r="I9" s="36">
+      <c r="B9" s="41">
+        <v>0</v>
+      </c>
+      <c r="C9" s="41">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41">
+        <v>0</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0</v>
+      </c>
+      <c r="F9" s="41">
+        <v>0</v>
+      </c>
+      <c r="G9" s="41">
+        <v>0</v>
+      </c>
+      <c r="H9" s="41">
+        <v>0</v>
+      </c>
+      <c r="I9" s="41">
         <f>0.01*I8</f>
         <v>19.670000000000002</v>
       </c>
-      <c r="J9" s="36">
-        <v>0</v>
-      </c>
-      <c r="K9" s="36">
+      <c r="J9" s="41">
+        <v>0</v>
+      </c>
+      <c r="K9" s="41">
         <v>15.53</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="41">
         <v>13.22</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="41">
         <f>0.06*M8</f>
         <v>58.8</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="41">
         <f>0.07*N8</f>
         <v>23.17</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="41">
         <f>0.06*O8</f>
         <v>196.56</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="41">
         <f>0.05*P8</f>
         <v>165</v>
       </c>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36"/>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="36"/>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="36"/>
-      <c r="BB9" s="36"/>
-      <c r="BC9" s="36"/>
-      <c r="BD9" s="36"/>
-      <c r="BE9" s="36"/>
-      <c r="BF9" s="36"/>
-      <c r="BG9" s="36"/>
-      <c r="BH9" s="36"/>
-      <c r="BI9" s="36"/>
-      <c r="BJ9" s="36"/>
-      <c r="BK9" s="36"/>
-      <c r="BL9" s="36"/>
-      <c r="BM9" s="36"/>
-      <c r="BN9" s="36"/>
-      <c r="BO9" s="36"/>
-      <c r="BP9" s="36"/>
-      <c r="BQ9" s="36"/>
-      <c r="BR9" s="36"/>
-      <c r="BS9" s="36"/>
-      <c r="BT9" s="36"/>
-      <c r="BU9" s="36"/>
-      <c r="BV9" s="36"/>
-      <c r="BW9" s="36"/>
-      <c r="BX9" s="36"/>
-      <c r="BY9" s="36"/>
-      <c r="BZ9" s="36"/>
-      <c r="CA9" s="36"/>
-      <c r="CB9" s="36"/>
-      <c r="CC9" s="36"/>
-      <c r="CD9" s="36"/>
-      <c r="CE9" s="36"/>
-      <c r="CF9" s="36"/>
-      <c r="CG9" s="36"/>
-      <c r="CH9" s="36"/>
-      <c r="CI9" s="36"/>
-      <c r="CJ9" s="36"/>
-      <c r="CK9" s="36"/>
-      <c r="CL9" s="36"/>
-      <c r="CM9" s="36"/>
-      <c r="CN9" s="36"/>
-      <c r="CO9" s="36"/>
-      <c r="CP9" s="36"/>
-      <c r="CQ9" s="36"/>
-      <c r="CR9" s="36"/>
-      <c r="CS9" s="36"/>
-      <c r="CT9" s="36"/>
-      <c r="CU9" s="36"/>
-      <c r="CV9" s="36"/>
-      <c r="CW9" s="36"/>
-      <c r="CX9" s="36"/>
-      <c r="CY9" s="36"/>
-      <c r="CZ9" s="36"/>
-      <c r="DA9" s="36"/>
-      <c r="DB9" s="36"/>
-      <c r="DC9" s="36"/>
-      <c r="DD9" s="36"/>
-      <c r="DE9" s="36"/>
-      <c r="DF9" s="36"/>
-      <c r="DG9" s="36"/>
-      <c r="DH9" s="36"/>
-      <c r="DI9" s="36"/>
-      <c r="DJ9" s="36"/>
-      <c r="DK9" s="36"/>
-      <c r="DL9" s="36"/>
-      <c r="DM9" s="36"/>
-      <c r="DN9" s="36"/>
-      <c r="DO9" s="36"/>
-      <c r="DP9" s="36"/>
-      <c r="DQ9" s="36"/>
-      <c r="DR9" s="36"/>
-      <c r="DS9" s="36"/>
-      <c r="DT9" s="36"/>
-      <c r="DU9" s="36"/>
-      <c r="DV9" s="36"/>
-      <c r="DW9" s="36"/>
-      <c r="DX9" s="36"/>
-      <c r="DY9" s="36"/>
-      <c r="DZ9" s="36"/>
-      <c r="EA9" s="36"/>
-      <c r="EB9" s="36"/>
-      <c r="EC9" s="36"/>
-      <c r="ED9" s="36"/>
-      <c r="EE9" s="36"/>
-      <c r="EF9" s="36"/>
-      <c r="EG9" s="36"/>
-      <c r="EH9" s="36"/>
-      <c r="EI9" s="36"/>
-      <c r="EJ9" s="36"/>
-      <c r="EK9" s="36"/>
-      <c r="EL9" s="36"/>
-      <c r="EM9" s="36"/>
-      <c r="EN9" s="36"/>
-      <c r="EO9" s="36"/>
-      <c r="EP9" s="36"/>
-      <c r="EQ9" s="36"/>
-      <c r="ER9" s="36"/>
-      <c r="ES9" s="36"/>
-      <c r="ET9" s="36"/>
-      <c r="EU9" s="36"/>
-      <c r="EV9" s="36"/>
-      <c r="EW9" s="36"/>
-      <c r="EX9" s="36"/>
-      <c r="EY9" s="36"/>
-      <c r="EZ9" s="36"/>
-      <c r="FA9" s="36"/>
-      <c r="FB9" s="36"/>
-      <c r="FC9" s="36"/>
-      <c r="FD9" s="36"/>
-      <c r="FE9" s="36"/>
-      <c r="FF9" s="36"/>
-      <c r="FG9" s="36"/>
-      <c r="FH9" s="36"/>
-      <c r="FI9" s="36"/>
-      <c r="FJ9" s="36"/>
-      <c r="FK9" s="36"/>
-      <c r="FL9" s="36"/>
-      <c r="FM9" s="36"/>
-      <c r="FN9" s="36"/>
-      <c r="FO9" s="36"/>
-      <c r="FP9" s="36"/>
-      <c r="FQ9" s="36"/>
-      <c r="FR9" s="36"/>
-      <c r="FS9" s="36"/>
-      <c r="FT9" s="36"/>
-      <c r="FU9" s="36"/>
-      <c r="FV9" s="36"/>
-      <c r="FW9" s="36"/>
-      <c r="FX9" s="36"/>
-      <c r="FY9" s="36"/>
-      <c r="FZ9" s="36"/>
-      <c r="GA9" s="36"/>
-      <c r="GB9" s="36"/>
-      <c r="GC9" s="36"/>
-      <c r="GD9" s="36"/>
-      <c r="GE9" s="36"/>
-      <c r="GF9" s="36"/>
-      <c r="GG9" s="36"/>
-      <c r="GH9" s="36"/>
-      <c r="GI9" s="36"/>
-      <c r="GJ9" s="36"/>
-      <c r="GK9" s="36"/>
-      <c r="GL9" s="36"/>
-      <c r="GM9" s="36"/>
-      <c r="GN9" s="36"/>
-      <c r="GO9" s="36"/>
-      <c r="GP9" s="36"/>
-      <c r="GQ9" s="36"/>
-      <c r="GR9" s="36"/>
-      <c r="GS9" s="36"/>
-      <c r="GT9" s="36"/>
-      <c r="GU9" s="36"/>
-      <c r="GV9" s="36"/>
-      <c r="GW9" s="36"/>
-      <c r="GX9" s="36"/>
-      <c r="GY9" s="36"/>
-      <c r="GZ9" s="36"/>
-      <c r="HA9" s="36"/>
-      <c r="HB9" s="36"/>
-      <c r="HC9" s="36"/>
-      <c r="HD9" s="36"/>
-      <c r="HE9" s="36"/>
-      <c r="HF9" s="36"/>
-      <c r="HG9" s="36"/>
-      <c r="HH9" s="36"/>
-      <c r="HI9" s="36"/>
-      <c r="HJ9" s="36"/>
-      <c r="HK9" s="36"/>
-      <c r="HL9" s="36"/>
-      <c r="HM9" s="36"/>
-      <c r="HN9" s="36"/>
-      <c r="HO9" s="36"/>
-      <c r="HP9" s="36"/>
-      <c r="HQ9" s="36"/>
-      <c r="HR9" s="36"/>
-      <c r="HS9" s="36"/>
-      <c r="HT9" s="36"/>
-      <c r="HU9" s="36"/>
-      <c r="HV9" s="36"/>
-      <c r="HW9" s="36"/>
-      <c r="HX9" s="36"/>
-      <c r="HY9" s="36"/>
-      <c r="HZ9" s="36"/>
-      <c r="IA9" s="36"/>
-      <c r="IB9" s="36"/>
-      <c r="IC9" s="36"/>
-      <c r="ID9" s="36"/>
-      <c r="IE9" s="36"/>
-      <c r="IF9" s="36"/>
-      <c r="IG9" s="36"/>
-      <c r="IH9" s="36"/>
-      <c r="II9" s="36"/>
-      <c r="IJ9" s="36"/>
-      <c r="IK9" s="36"/>
-      <c r="IL9" s="36"/>
-      <c r="IM9" s="36"/>
-      <c r="IN9" s="36"/>
-      <c r="IO9" s="36"/>
-      <c r="IP9" s="36"/>
-      <c r="IQ9" s="36"/>
-      <c r="IR9" s="36"/>
-      <c r="IS9" s="36"/>
-      <c r="IT9" s="36"/>
-      <c r="IU9" s="36"/>
-      <c r="IV9" s="36"/>
-      <c r="IW9" s="36"/>
-      <c r="IX9" s="36"/>
-      <c r="IY9" s="36"/>
-      <c r="IZ9" s="36"/>
-      <c r="JA9" s="36"/>
-      <c r="JB9" s="36"/>
-      <c r="JC9" s="36"/>
-      <c r="JD9" s="36"/>
-      <c r="JE9" s="36"/>
-      <c r="JF9" s="36"/>
-      <c r="JG9" s="36"/>
-      <c r="JH9" s="36"/>
-      <c r="JI9" s="36"/>
-      <c r="JJ9" s="36"/>
-      <c r="JK9" s="36"/>
-      <c r="JL9" s="36"/>
-      <c r="JM9" s="36"/>
-      <c r="JN9" s="36"/>
-      <c r="JO9" s="36"/>
-      <c r="JP9" s="36"/>
-      <c r="JQ9" s="36"/>
-      <c r="JR9" s="36"/>
-      <c r="JS9" s="36"/>
-      <c r="JT9" s="36"/>
-      <c r="JU9" s="36"/>
-      <c r="JV9" s="36"/>
-      <c r="JW9" s="36"/>
-      <c r="JX9" s="36"/>
-      <c r="JY9" s="36"/>
-      <c r="JZ9" s="36"/>
-      <c r="KA9" s="36"/>
-      <c r="KB9" s="36"/>
-      <c r="KC9" s="36"/>
-      <c r="KD9" s="36"/>
-      <c r="KE9" s="36"/>
-      <c r="KF9" s="36"/>
-      <c r="KG9" s="36"/>
-      <c r="KH9" s="36"/>
-      <c r="KI9" s="36"/>
-      <c r="KJ9" s="36"/>
-      <c r="KK9" s="36"/>
-      <c r="KL9" s="36"/>
-      <c r="KM9" s="36"/>
-      <c r="KN9" s="36"/>
-      <c r="KO9" s="36"/>
-      <c r="KP9" s="36"/>
-      <c r="KQ9" s="36"/>
-      <c r="KR9" s="36"/>
-      <c r="KS9" s="36"/>
-      <c r="KT9" s="36"/>
-      <c r="KU9" s="36"/>
-      <c r="KV9" s="36"/>
-      <c r="KW9" s="36"/>
-      <c r="KX9" s="36"/>
-      <c r="KY9" s="36"/>
-      <c r="KZ9" s="36"/>
-      <c r="LA9" s="36"/>
-      <c r="LB9" s="36"/>
-      <c r="LC9" s="36"/>
-      <c r="LD9" s="36"/>
-      <c r="LE9" s="36"/>
-      <c r="LF9" s="36"/>
-      <c r="LG9" s="36"/>
-      <c r="LH9" s="36"/>
-      <c r="LI9" s="36"/>
-      <c r="LJ9" s="36"/>
-      <c r="LK9" s="36"/>
-      <c r="LL9" s="36"/>
-      <c r="LM9" s="36"/>
-      <c r="LN9" s="36"/>
-      <c r="LO9" s="36"/>
-      <c r="LP9" s="36"/>
-      <c r="LQ9" s="36"/>
-      <c r="LR9" s="36"/>
-      <c r="LS9" s="36"/>
-      <c r="LT9" s="36"/>
-      <c r="LU9" s="36"/>
-      <c r="LV9" s="36"/>
-      <c r="LW9" s="36"/>
-      <c r="LX9" s="36"/>
-      <c r="LY9" s="36"/>
-      <c r="LZ9" s="36"/>
-      <c r="MA9" s="36"/>
-      <c r="MB9" s="36"/>
-      <c r="MC9" s="36"/>
-      <c r="MD9" s="36"/>
-      <c r="ME9" s="36"/>
-      <c r="MF9" s="36"/>
-      <c r="MG9" s="36"/>
-      <c r="MH9" s="36"/>
-      <c r="MI9" s="36"/>
-      <c r="MJ9" s="36"/>
-      <c r="MK9" s="36"/>
-      <c r="ML9" s="36"/>
-      <c r="MM9" s="36"/>
-      <c r="MN9" s="36"/>
-      <c r="MO9" s="36"/>
-      <c r="MP9" s="36"/>
-      <c r="MQ9" s="36"/>
-      <c r="MR9" s="36"/>
-      <c r="MS9" s="36"/>
-      <c r="MT9" s="36"/>
-      <c r="MU9" s="36"/>
-      <c r="MV9" s="36"/>
-      <c r="MW9" s="36"/>
-      <c r="MX9" s="36"/>
-      <c r="MY9" s="36"/>
-      <c r="MZ9" s="36"/>
-      <c r="NA9" s="36"/>
-      <c r="NB9" s="36"/>
-      <c r="NC9" s="36"/>
-      <c r="ND9" s="36"/>
-      <c r="NE9" s="36"/>
-      <c r="NF9" s="36"/>
-      <c r="NG9" s="36"/>
-      <c r="NH9" s="36"/>
-      <c r="NI9" s="36"/>
-      <c r="NJ9" s="36"/>
-      <c r="NK9" s="36"/>
-      <c r="NL9" s="36"/>
-      <c r="NM9" s="36"/>
-      <c r="NN9" s="36"/>
-      <c r="NO9" s="36"/>
-      <c r="NP9" s="36"/>
-      <c r="NQ9" s="36"/>
-      <c r="NR9" s="36"/>
-      <c r="NS9" s="36"/>
-      <c r="NT9" s="36"/>
-      <c r="NU9" s="36"/>
-      <c r="NV9" s="36"/>
-      <c r="NW9" s="36"/>
-      <c r="NX9" s="36"/>
-      <c r="NY9" s="36"/>
-      <c r="NZ9" s="36"/>
-      <c r="OA9" s="36"/>
-      <c r="OB9" s="36"/>
-      <c r="OC9" s="36"/>
-      <c r="OD9" s="36"/>
-      <c r="OE9" s="36"/>
-      <c r="OF9" s="36"/>
-      <c r="OG9" s="36"/>
-      <c r="OH9" s="36"/>
-      <c r="OI9" s="36"/>
-      <c r="OJ9" s="36"/>
-      <c r="OK9" s="36"/>
-      <c r="OL9" s="36"/>
-      <c r="OM9" s="36"/>
-      <c r="ON9" s="36"/>
-      <c r="OO9" s="36"/>
-      <c r="OP9" s="36"/>
-      <c r="OQ9" s="36"/>
-      <c r="OR9" s="36"/>
-      <c r="OS9" s="36"/>
-      <c r="OT9" s="36"/>
-      <c r="OU9" s="36"/>
-      <c r="OV9" s="36"/>
-      <c r="OW9" s="36"/>
-      <c r="OX9" s="36"/>
-      <c r="OY9" s="36"/>
-      <c r="OZ9" s="36"/>
-      <c r="PA9" s="36"/>
-      <c r="PB9" s="36"/>
-      <c r="PC9" s="36"/>
-      <c r="PD9" s="36"/>
-      <c r="PE9" s="36"/>
-      <c r="PF9" s="36"/>
-      <c r="PG9" s="36"/>
-      <c r="PH9" s="36"/>
-      <c r="PI9" s="36"/>
-      <c r="PJ9" s="36"/>
-      <c r="PK9" s="36"/>
-      <c r="PL9" s="36"/>
-      <c r="PM9" s="36"/>
-      <c r="PN9" s="36"/>
-      <c r="PO9" s="36"/>
-      <c r="PP9" s="36"/>
-      <c r="PQ9" s="36"/>
-      <c r="PR9" s="36"/>
-      <c r="PS9" s="36"/>
-      <c r="PT9" s="36"/>
-      <c r="PU9" s="36"/>
-      <c r="PV9" s="36"/>
-      <c r="PW9" s="36"/>
-      <c r="PX9" s="36"/>
-      <c r="PY9" s="36"/>
-      <c r="PZ9" s="36"/>
-      <c r="QA9" s="36"/>
-      <c r="QB9" s="36"/>
-      <c r="QC9" s="36"/>
-      <c r="QD9" s="36"/>
-      <c r="QE9" s="36"/>
-      <c r="QF9" s="36"/>
-      <c r="QG9" s="36"/>
-      <c r="QH9" s="36"/>
-      <c r="QI9" s="36"/>
-      <c r="QJ9" s="36"/>
-      <c r="QK9" s="36"/>
-      <c r="QL9" s="36"/>
-      <c r="QM9" s="36"/>
-      <c r="QN9" s="36"/>
-      <c r="QO9" s="36"/>
-      <c r="QP9" s="36"/>
-      <c r="QQ9" s="36"/>
-      <c r="QR9" s="36"/>
-      <c r="QS9" s="36"/>
-      <c r="QT9" s="36"/>
-      <c r="QU9" s="36"/>
-      <c r="QV9" s="36"/>
-      <c r="QW9" s="36"/>
-      <c r="QX9" s="36"/>
-      <c r="QY9" s="36"/>
-      <c r="QZ9" s="36"/>
-      <c r="RA9" s="36"/>
-      <c r="RB9" s="36"/>
-      <c r="RC9" s="36"/>
-      <c r="RD9" s="36"/>
-      <c r="RE9" s="36"/>
-      <c r="RF9" s="36"/>
-      <c r="RG9" s="36"/>
-      <c r="RH9" s="36"/>
-      <c r="RI9" s="36"/>
-      <c r="RJ9" s="36"/>
-      <c r="RK9" s="36"/>
-      <c r="RL9" s="36"/>
-      <c r="RM9" s="36"/>
-      <c r="RN9" s="36"/>
-      <c r="RO9" s="36"/>
-      <c r="RP9" s="36"/>
-      <c r="RQ9" s="36"/>
-      <c r="RR9" s="36"/>
-      <c r="RS9" s="36"/>
-      <c r="RT9" s="36"/>
-      <c r="RU9" s="36"/>
-      <c r="RV9" s="36"/>
-      <c r="RW9" s="36"/>
-      <c r="RX9" s="36"/>
-      <c r="RY9" s="36"/>
-      <c r="RZ9" s="36"/>
-      <c r="SA9" s="36"/>
-      <c r="SB9" s="36"/>
-      <c r="SC9" s="36"/>
-      <c r="SD9" s="36"/>
-      <c r="SE9" s="36"/>
-      <c r="SF9" s="36"/>
-      <c r="SG9" s="36"/>
-      <c r="SH9" s="36"/>
-      <c r="SI9" s="36"/>
-      <c r="SJ9" s="36"/>
-      <c r="SK9" s="36"/>
-      <c r="SL9" s="36"/>
-      <c r="SM9" s="36"/>
-      <c r="SN9" s="36"/>
-      <c r="SO9" s="36"/>
-      <c r="SP9" s="36"/>
-      <c r="SQ9" s="36"/>
-      <c r="SR9" s="36"/>
-      <c r="SS9" s="36"/>
-      <c r="ST9" s="36"/>
-      <c r="SU9" s="36"/>
-      <c r="SV9" s="36"/>
-      <c r="SW9" s="36"/>
-      <c r="SX9" s="36"/>
-      <c r="SY9" s="36"/>
-      <c r="SZ9" s="36"/>
-      <c r="TA9" s="36"/>
-      <c r="TB9" s="36"/>
-      <c r="TC9" s="36"/>
-      <c r="TD9" s="36"/>
-      <c r="TE9" s="36"/>
-      <c r="TF9" s="36"/>
-      <c r="TG9" s="36"/>
-      <c r="TH9" s="36"/>
-      <c r="TI9" s="36"/>
-      <c r="TJ9" s="36"/>
-      <c r="TK9" s="36"/>
-      <c r="TL9" s="36"/>
-      <c r="TM9" s="36"/>
-      <c r="TN9" s="36"/>
-      <c r="TO9" s="36"/>
-      <c r="TP9" s="36"/>
-      <c r="TQ9" s="36"/>
-      <c r="TR9" s="36"/>
-      <c r="TS9" s="36"/>
-      <c r="TT9" s="36"/>
-      <c r="TU9" s="36"/>
-      <c r="TV9" s="36"/>
-      <c r="TW9" s="36"/>
-      <c r="TX9" s="36"/>
-      <c r="TY9" s="36"/>
-      <c r="TZ9" s="36"/>
-      <c r="UA9" s="36"/>
-      <c r="UB9" s="36"/>
-      <c r="UC9" s="36"/>
-      <c r="UD9" s="36"/>
-      <c r="UE9" s="36"/>
-      <c r="UF9" s="36"/>
-      <c r="UG9" s="36"/>
-      <c r="UH9" s="36"/>
-      <c r="UI9" s="36"/>
-      <c r="UJ9" s="36"/>
-      <c r="UK9" s="36"/>
-      <c r="UL9" s="36"/>
-      <c r="UM9" s="36"/>
-      <c r="UN9" s="36"/>
-      <c r="UO9" s="36"/>
-      <c r="UP9" s="36"/>
-      <c r="UQ9" s="36"/>
-      <c r="UR9" s="36"/>
-      <c r="US9" s="36"/>
-      <c r="UT9" s="36"/>
-      <c r="UU9" s="36"/>
-      <c r="UV9" s="36"/>
-      <c r="UW9" s="36"/>
-      <c r="UX9" s="36"/>
-      <c r="UY9" s="36"/>
-      <c r="UZ9" s="36"/>
-      <c r="VA9" s="36"/>
-      <c r="VB9" s="36"/>
-      <c r="VC9" s="36"/>
-      <c r="VD9" s="36"/>
-      <c r="VE9" s="36"/>
-      <c r="VF9" s="36"/>
-      <c r="VG9" s="36"/>
-      <c r="VH9" s="36"/>
-      <c r="VI9" s="36"/>
-      <c r="VJ9" s="36"/>
-      <c r="VK9" s="36"/>
-      <c r="VL9" s="36"/>
-      <c r="VM9" s="36"/>
-      <c r="VN9" s="36"/>
-      <c r="VO9" s="36"/>
-      <c r="VP9" s="36"/>
-      <c r="VQ9" s="36"/>
-      <c r="VR9" s="36"/>
-      <c r="VS9" s="36"/>
-      <c r="VT9" s="36"/>
-      <c r="VU9" s="36"/>
-      <c r="VV9" s="36"/>
-      <c r="VW9" s="36"/>
-      <c r="VX9" s="36"/>
-      <c r="VY9" s="36"/>
-      <c r="VZ9" s="36"/>
-      <c r="WA9" s="36"/>
-      <c r="WB9" s="36"/>
-      <c r="WC9" s="36"/>
-      <c r="WD9" s="36"/>
-      <c r="WE9" s="36"/>
-      <c r="WF9" s="36"/>
-      <c r="WG9" s="36"/>
-      <c r="WH9" s="36"/>
-      <c r="WI9" s="36"/>
-      <c r="WJ9" s="36"/>
-      <c r="WK9" s="36"/>
-      <c r="WL9" s="36"/>
-      <c r="WM9" s="36"/>
-      <c r="WN9" s="36"/>
-      <c r="WO9" s="36"/>
-      <c r="WP9" s="36"/>
-      <c r="WQ9" s="36"/>
-      <c r="WR9" s="36"/>
-      <c r="WS9" s="36"/>
-      <c r="WT9" s="36"/>
-      <c r="WU9" s="36"/>
-      <c r="WV9" s="36"/>
-      <c r="WW9" s="36"/>
-      <c r="WX9" s="36"/>
-      <c r="WY9" s="36"/>
-      <c r="WZ9" s="36"/>
-      <c r="XA9" s="36"/>
-      <c r="XB9" s="36"/>
-      <c r="XC9" s="36"/>
-      <c r="XD9" s="36"/>
-      <c r="XE9" s="36"/>
-      <c r="XF9" s="36"/>
-      <c r="XG9" s="36"/>
-      <c r="XH9" s="36"/>
-      <c r="XI9" s="36"/>
-      <c r="XJ9" s="36"/>
-      <c r="XK9" s="36"/>
-      <c r="XL9" s="36"/>
-      <c r="XM9" s="36"/>
-      <c r="XN9" s="36"/>
-      <c r="XO9" s="36"/>
-      <c r="XP9" s="36"/>
-      <c r="XQ9" s="36"/>
-      <c r="XR9" s="36"/>
-      <c r="XS9" s="36"/>
-      <c r="XT9" s="36"/>
-      <c r="XU9" s="36"/>
-      <c r="XV9" s="36"/>
-      <c r="XW9" s="36"/>
-      <c r="XX9" s="36"/>
-      <c r="XY9" s="36"/>
-      <c r="XZ9" s="36"/>
-      <c r="YA9" s="36"/>
-      <c r="YB9" s="36"/>
-      <c r="YC9" s="36"/>
-      <c r="YD9" s="36"/>
-      <c r="YE9" s="36"/>
-      <c r="YF9" s="36"/>
-      <c r="YG9" s="36"/>
-      <c r="YH9" s="36"/>
-      <c r="YI9" s="36"/>
-      <c r="YJ9" s="36"/>
-      <c r="YK9" s="36"/>
-      <c r="YL9" s="36"/>
-      <c r="YM9" s="36"/>
-      <c r="YN9" s="36"/>
-      <c r="YO9" s="36"/>
-      <c r="YP9" s="36"/>
-      <c r="YQ9" s="36"/>
-      <c r="YR9" s="36"/>
-      <c r="YS9" s="36"/>
-      <c r="YT9" s="36"/>
-      <c r="YU9" s="36"/>
-      <c r="YV9" s="36"/>
-      <c r="YW9" s="36"/>
-      <c r="YX9" s="36"/>
-      <c r="YY9" s="36"/>
-      <c r="YZ9" s="36"/>
-      <c r="ZA9" s="36"/>
-      <c r="ZB9" s="36"/>
-      <c r="ZC9" s="36"/>
-      <c r="ZD9" s="36"/>
-      <c r="ZE9" s="36"/>
-      <c r="ZF9" s="36"/>
-      <c r="ZG9" s="36"/>
-      <c r="ZH9" s="36"/>
-      <c r="ZI9" s="36"/>
-      <c r="ZJ9" s="36"/>
-      <c r="ZK9" s="36"/>
-      <c r="ZL9" s="36"/>
-      <c r="ZM9" s="36"/>
-      <c r="ZN9" s="36"/>
-      <c r="ZO9" s="36"/>
-      <c r="ZP9" s="36"/>
-      <c r="ZQ9" s="36"/>
-      <c r="ZR9" s="36"/>
-      <c r="ZS9" s="36"/>
-      <c r="ZT9" s="36"/>
-      <c r="ZU9" s="36"/>
-      <c r="ZV9" s="36"/>
-      <c r="ZW9" s="36"/>
-      <c r="ZX9" s="36"/>
-      <c r="ZY9" s="36"/>
-      <c r="ZZ9" s="36"/>
-      <c r="AAA9" s="36"/>
-      <c r="AAB9" s="36"/>
-      <c r="AAC9" s="36"/>
-      <c r="AAD9" s="36"/>
-      <c r="AAE9" s="36"/>
-      <c r="AAF9" s="36"/>
-      <c r="AAG9" s="36"/>
-      <c r="AAH9" s="36"/>
-      <c r="AAI9" s="36"/>
-      <c r="AAJ9" s="36"/>
-      <c r="AAK9" s="36"/>
-      <c r="AAL9" s="36"/>
-      <c r="AAM9" s="36"/>
-      <c r="AAN9" s="36"/>
-      <c r="AAO9" s="36"/>
-      <c r="AAP9" s="36"/>
-      <c r="AAQ9" s="36"/>
-      <c r="AAR9" s="36"/>
-      <c r="AAS9" s="36"/>
-      <c r="AAT9" s="36"/>
-      <c r="AAU9" s="36"/>
-      <c r="AAV9" s="36"/>
-      <c r="AAW9" s="36"/>
-      <c r="AAX9" s="36"/>
-      <c r="AAY9" s="36"/>
-      <c r="AAZ9" s="36"/>
-      <c r="ABA9" s="36"/>
-      <c r="ABB9" s="36"/>
-      <c r="ABC9" s="36"/>
-      <c r="ABD9" s="36"/>
-      <c r="ABE9" s="36"/>
-      <c r="ABF9" s="36"/>
-      <c r="ABG9" s="36"/>
-      <c r="ABH9" s="36"/>
-      <c r="ABI9" s="36"/>
-      <c r="ABJ9" s="36"/>
-      <c r="ABK9" s="36"/>
-      <c r="ABL9" s="36"/>
-      <c r="ABM9" s="36"/>
-      <c r="ABN9" s="36"/>
-      <c r="ABO9" s="36"/>
-      <c r="ABP9" s="36"/>
-      <c r="ABQ9" s="36"/>
-      <c r="ABR9" s="36"/>
-      <c r="ABS9" s="36"/>
-      <c r="ABT9" s="36"/>
-      <c r="ABU9" s="36"/>
-      <c r="ABV9" s="36"/>
-      <c r="ABW9" s="36"/>
-      <c r="ABX9" s="36"/>
-      <c r="ABY9" s="36"/>
-      <c r="ABZ9" s="36"/>
-      <c r="ACA9" s="36"/>
-      <c r="ACB9" s="36"/>
-      <c r="ACC9" s="36"/>
-      <c r="ACD9" s="36"/>
-      <c r="ACE9" s="36"/>
-      <c r="ACF9" s="36"/>
-      <c r="ACG9" s="36"/>
-      <c r="ACH9" s="36"/>
-      <c r="ACI9" s="36"/>
-      <c r="ACJ9" s="36"/>
-      <c r="ACK9" s="36"/>
-      <c r="ACL9" s="36"/>
-      <c r="ACM9" s="36"/>
-      <c r="ACN9" s="36"/>
-      <c r="ACO9" s="36"/>
-      <c r="ACP9" s="36"/>
-      <c r="ACQ9" s="36"/>
-      <c r="ACR9" s="36"/>
-      <c r="ACS9" s="36"/>
-      <c r="ACT9" s="36"/>
-      <c r="ACU9" s="36"/>
-      <c r="ACV9" s="36"/>
-      <c r="ACW9" s="36"/>
-      <c r="ACX9" s="36"/>
-      <c r="ACY9" s="36"/>
-      <c r="ACZ9" s="36"/>
-      <c r="ADA9" s="36"/>
-      <c r="ADB9" s="36"/>
-      <c r="ADC9" s="36"/>
-      <c r="ADD9" s="36"/>
-      <c r="ADE9" s="36"/>
-      <c r="ADF9" s="36"/>
-      <c r="ADG9" s="36"/>
-      <c r="ADH9" s="36"/>
-      <c r="ADI9" s="36"/>
-      <c r="ADJ9" s="36"/>
-      <c r="ADK9" s="36"/>
-      <c r="ADL9" s="36"/>
-      <c r="ADM9" s="36"/>
-      <c r="ADN9" s="36"/>
-      <c r="ADO9" s="36"/>
-      <c r="ADP9" s="36"/>
-      <c r="ADQ9" s="36"/>
-      <c r="ADR9" s="36"/>
-      <c r="ADS9" s="36"/>
-      <c r="ADT9" s="36"/>
-      <c r="ADU9" s="36"/>
-      <c r="ADV9" s="36"/>
-      <c r="ADW9" s="36"/>
-      <c r="ADX9" s="36"/>
-      <c r="ADY9" s="36"/>
-      <c r="ADZ9" s="36"/>
-      <c r="AEA9" s="36"/>
-      <c r="AEB9" s="36"/>
-      <c r="AEC9" s="36"/>
-      <c r="AED9" s="36"/>
-      <c r="AEE9" s="36"/>
-      <c r="AEF9" s="36"/>
-      <c r="AEG9" s="36"/>
-      <c r="AEH9" s="36"/>
-      <c r="AEI9" s="36"/>
-      <c r="AEJ9" s="36"/>
-      <c r="AEK9" s="36"/>
-      <c r="AEL9" s="36"/>
-      <c r="AEM9" s="36"/>
-      <c r="AEN9" s="36"/>
-      <c r="AEO9" s="36"/>
-      <c r="AEP9" s="36"/>
-      <c r="AEQ9" s="36"/>
-      <c r="AER9" s="36"/>
-      <c r="AES9" s="36"/>
-      <c r="AET9" s="36"/>
-      <c r="AEU9" s="36"/>
-      <c r="AEV9" s="36"/>
-      <c r="AEW9" s="36"/>
-      <c r="AEX9" s="36"/>
-      <c r="AEY9" s="36"/>
-      <c r="AEZ9" s="36"/>
-      <c r="AFA9" s="36"/>
-      <c r="AFB9" s="36"/>
-      <c r="AFC9" s="36"/>
-      <c r="AFD9" s="36"/>
-      <c r="AFE9" s="36"/>
-      <c r="AFF9" s="36"/>
-      <c r="AFG9" s="36"/>
-      <c r="AFH9" s="36"/>
-      <c r="AFI9" s="36"/>
-      <c r="AFJ9" s="36"/>
-      <c r="AFK9" s="36"/>
-      <c r="AFL9" s="36"/>
-      <c r="AFM9" s="36"/>
-      <c r="AFN9" s="36"/>
-      <c r="AFO9" s="36"/>
-      <c r="AFP9" s="36"/>
-      <c r="AFQ9" s="36"/>
-      <c r="AFR9" s="36"/>
-      <c r="AFS9" s="36"/>
-      <c r="AFT9" s="36"/>
-      <c r="AFU9" s="36"/>
-      <c r="AFV9" s="36"/>
-      <c r="AFW9" s="36"/>
-      <c r="AFX9" s="36"/>
-      <c r="AFY9" s="36"/>
-      <c r="AFZ9" s="36"/>
-      <c r="AGA9" s="36"/>
-      <c r="AGB9" s="36"/>
-      <c r="AGC9" s="36"/>
-      <c r="AGD9" s="36"/>
-      <c r="AGE9" s="36"/>
-      <c r="AGF9" s="36"/>
-      <c r="AGG9" s="36"/>
-      <c r="AGH9" s="36"/>
-      <c r="AGI9" s="36"/>
-      <c r="AGJ9" s="36"/>
-      <c r="AGK9" s="36"/>
-      <c r="AGL9" s="36"/>
-      <c r="AGM9" s="36"/>
-      <c r="AGN9" s="36"/>
-      <c r="AGO9" s="36"/>
-      <c r="AGP9" s="36"/>
-      <c r="AGQ9" s="36"/>
-      <c r="AGR9" s="36"/>
-      <c r="AGS9" s="36"/>
-      <c r="AGT9" s="36"/>
-      <c r="AGU9" s="36"/>
-      <c r="AGV9" s="36"/>
-      <c r="AGW9" s="36"/>
-      <c r="AGX9" s="36"/>
-      <c r="AGY9" s="36"/>
-      <c r="AGZ9" s="36"/>
-      <c r="AHA9" s="36"/>
-      <c r="AHB9" s="36"/>
-      <c r="AHC9" s="36"/>
-      <c r="AHD9" s="36"/>
-      <c r="AHE9" s="36"/>
-      <c r="AHF9" s="36"/>
-      <c r="AHG9" s="36"/>
-      <c r="AHH9" s="36"/>
-      <c r="AHI9" s="36"/>
-      <c r="AHJ9" s="36"/>
-      <c r="AHK9" s="36"/>
-      <c r="AHL9" s="36"/>
-      <c r="AHM9" s="36"/>
-      <c r="AHN9" s="36"/>
-      <c r="AHO9" s="36"/>
-      <c r="AHP9" s="36"/>
-      <c r="AHQ9" s="36"/>
-      <c r="AHR9" s="36"/>
-      <c r="AHS9" s="36"/>
-      <c r="AHT9" s="36"/>
-      <c r="AHU9" s="36"/>
-      <c r="AHV9" s="36"/>
-      <c r="AHW9" s="36"/>
-      <c r="AHX9" s="36"/>
-      <c r="AHY9" s="36"/>
-      <c r="AHZ9" s="36"/>
-      <c r="AIA9" s="36"/>
-      <c r="AIB9" s="36"/>
-      <c r="AIC9" s="36"/>
-      <c r="AID9" s="36"/>
-      <c r="AIE9" s="36"/>
-      <c r="AIF9" s="36"/>
-      <c r="AIG9" s="36"/>
-      <c r="AIH9" s="36"/>
-      <c r="AII9" s="36"/>
-      <c r="AIJ9" s="36"/>
-      <c r="AIK9" s="36"/>
-      <c r="AIL9" s="36"/>
-      <c r="AIM9" s="36"/>
-      <c r="AIN9" s="36"/>
-      <c r="AIO9" s="36"/>
-      <c r="AIP9" s="36"/>
-      <c r="AIQ9" s="36"/>
-      <c r="AIR9" s="36"/>
-      <c r="AIS9" s="36"/>
-      <c r="AIT9" s="36"/>
-      <c r="AIU9" s="36"/>
-      <c r="AIV9" s="36"/>
-      <c r="AIW9" s="36"/>
-      <c r="AIX9" s="36"/>
-      <c r="AIY9" s="36"/>
-      <c r="AIZ9" s="36"/>
-      <c r="AJA9" s="36"/>
-      <c r="AJB9" s="36"/>
-      <c r="AJC9" s="36"/>
-      <c r="AJD9" s="36"/>
-      <c r="AJE9" s="36"/>
-      <c r="AJF9" s="36"/>
-      <c r="AJG9" s="36"/>
-      <c r="AJH9" s="36"/>
-      <c r="AJI9" s="36"/>
-      <c r="AJJ9" s="36"/>
-      <c r="AJK9" s="36"/>
-      <c r="AJL9" s="36"/>
-      <c r="AJM9" s="36"/>
-      <c r="AJN9" s="36"/>
-      <c r="AJO9" s="36"/>
-      <c r="AJP9" s="36"/>
-      <c r="AJQ9" s="36"/>
-      <c r="AJR9" s="36"/>
-      <c r="AJS9" s="36"/>
-      <c r="AJT9" s="36"/>
-      <c r="AJU9" s="36"/>
-      <c r="AJV9" s="36"/>
-      <c r="AJW9" s="36"/>
-      <c r="AJX9" s="36"/>
-      <c r="AJY9" s="36"/>
-      <c r="AJZ9" s="36"/>
-      <c r="AKA9" s="36"/>
-      <c r="AKB9" s="36"/>
-      <c r="AKC9" s="36"/>
-      <c r="AKD9" s="36"/>
-      <c r="AKE9" s="36"/>
-      <c r="AKF9" s="36"/>
-      <c r="AKG9" s="36"/>
-      <c r="AKH9" s="36"/>
-      <c r="AKI9" s="36"/>
-      <c r="AKJ9" s="36"/>
-      <c r="AKK9" s="36"/>
-      <c r="AKL9" s="36"/>
-      <c r="AKM9" s="36"/>
-      <c r="AKN9" s="36"/>
-      <c r="AKO9" s="36"/>
-      <c r="AKP9" s="36"/>
-      <c r="AKQ9" s="36"/>
-      <c r="AKR9" s="36"/>
-      <c r="AKS9" s="36"/>
-      <c r="AKT9" s="36"/>
-      <c r="AKU9" s="36"/>
-      <c r="AKV9" s="36"/>
-      <c r="AKW9" s="36"/>
-      <c r="AKX9" s="36"/>
-      <c r="AKY9" s="36"/>
-      <c r="AKZ9" s="36"/>
-      <c r="ALA9" s="36"/>
-      <c r="ALB9" s="36"/>
-      <c r="ALC9" s="36"/>
-      <c r="ALD9" s="36"/>
-      <c r="ALE9" s="36"/>
-      <c r="ALF9" s="36"/>
-      <c r="ALG9" s="36"/>
-      <c r="ALH9" s="36"/>
-      <c r="ALI9" s="36"/>
-      <c r="ALJ9" s="36"/>
-      <c r="ALK9" s="36"/>
-      <c r="ALL9" s="36"/>
-      <c r="ALM9" s="36"/>
-      <c r="ALN9" s="36"/>
-      <c r="ALO9" s="36"/>
-      <c r="ALP9" s="36"/>
-      <c r="ALQ9" s="36"/>
-      <c r="ALR9" s="36"/>
-      <c r="ALS9" s="36"/>
-      <c r="ALT9" s="36"/>
-      <c r="ALU9" s="36"/>
-      <c r="ALV9" s="36"/>
-      <c r="ALW9" s="36"/>
-      <c r="ALX9" s="36"/>
-      <c r="ALY9" s="36"/>
-      <c r="ALZ9" s="36"/>
-      <c r="AMA9" s="36"/>
-      <c r="AMB9" s="36"/>
-      <c r="AMC9" s="36"/>
-      <c r="AMD9" s="36"/>
-      <c r="AME9" s="36"/>
-      <c r="AMF9" s="36"/>
-      <c r="AMG9" s="36"/>
-      <c r="AMH9" s="36"/>
-      <c r="AMI9" s="36"/>
-      <c r="AMJ9" s="36"/>
-      <c r="AMK9" s="36"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="32"/>
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="32"/>
+      <c r="BK9" s="32"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32"/>
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="32"/>
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="32"/>
+      <c r="BV9" s="32"/>
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="32"/>
+      <c r="BY9" s="32"/>
+      <c r="BZ9" s="32"/>
+      <c r="CA9" s="32"/>
+      <c r="CB9" s="32"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="32"/>
+      <c r="CE9" s="32"/>
+      <c r="CF9" s="32"/>
+      <c r="CG9" s="32"/>
+      <c r="CH9" s="32"/>
+      <c r="CI9" s="32"/>
+      <c r="CJ9" s="32"/>
+      <c r="CK9" s="32"/>
+      <c r="CL9" s="32"/>
+      <c r="CM9" s="32"/>
+      <c r="CN9" s="32"/>
+      <c r="CO9" s="32"/>
+      <c r="CP9" s="32"/>
+      <c r="CQ9" s="32"/>
+      <c r="CR9" s="32"/>
+      <c r="CS9" s="32"/>
+      <c r="CT9" s="32"/>
+      <c r="CU9" s="32"/>
+      <c r="CV9" s="32"/>
+      <c r="CW9" s="32"/>
+      <c r="CX9" s="32"/>
+      <c r="CY9" s="32"/>
+      <c r="CZ9" s="32"/>
+      <c r="DA9" s="32"/>
+      <c r="DB9" s="32"/>
+      <c r="DC9" s="32"/>
+      <c r="DD9" s="32"/>
+      <c r="DE9" s="32"/>
+      <c r="DF9" s="32"/>
+      <c r="DG9" s="32"/>
+      <c r="DH9" s="32"/>
+      <c r="DI9" s="32"/>
+      <c r="DJ9" s="32"/>
+      <c r="DK9" s="32"/>
+      <c r="DL9" s="32"/>
+      <c r="DM9" s="32"/>
+      <c r="DN9" s="32"/>
+      <c r="DO9" s="32"/>
+      <c r="DP9" s="32"/>
+      <c r="DQ9" s="32"/>
+      <c r="DR9" s="32"/>
+      <c r="DS9" s="32"/>
+      <c r="DT9" s="32"/>
+      <c r="DU9" s="32"/>
+      <c r="DV9" s="32"/>
+      <c r="DW9" s="32"/>
+      <c r="DX9" s="32"/>
+      <c r="DY9" s="32"/>
+      <c r="DZ9" s="32"/>
+      <c r="EA9" s="32"/>
+      <c r="EB9" s="32"/>
+      <c r="EC9" s="32"/>
+      <c r="ED9" s="32"/>
+      <c r="EE9" s="32"/>
+      <c r="EF9" s="32"/>
+      <c r="EG9" s="32"/>
+      <c r="EH9" s="32"/>
+      <c r="EI9" s="32"/>
+      <c r="EJ9" s="32"/>
+      <c r="EK9" s="32"/>
+      <c r="EL9" s="32"/>
+      <c r="EM9" s="32"/>
+      <c r="EN9" s="32"/>
+      <c r="EO9" s="32"/>
+      <c r="EP9" s="32"/>
+      <c r="EQ9" s="32"/>
+      <c r="ER9" s="32"/>
+      <c r="ES9" s="32"/>
+      <c r="ET9" s="32"/>
+      <c r="EU9" s="32"/>
+      <c r="EV9" s="32"/>
+      <c r="EW9" s="32"/>
+      <c r="EX9" s="32"/>
+      <c r="EY9" s="32"/>
+      <c r="EZ9" s="32"/>
+      <c r="FA9" s="32"/>
+      <c r="FB9" s="32"/>
+      <c r="FC9" s="32"/>
+      <c r="FD9" s="32"/>
+      <c r="FE9" s="32"/>
+      <c r="FF9" s="32"/>
+      <c r="FG9" s="32"/>
+      <c r="FH9" s="32"/>
+      <c r="FI9" s="32"/>
+      <c r="FJ9" s="32"/>
+      <c r="FK9" s="32"/>
+      <c r="FL9" s="32"/>
+      <c r="FM9" s="32"/>
+      <c r="FN9" s="32"/>
+      <c r="FO9" s="32"/>
+      <c r="FP9" s="32"/>
+      <c r="FQ9" s="32"/>
+      <c r="FR9" s="32"/>
+      <c r="FS9" s="32"/>
+      <c r="FT9" s="32"/>
+      <c r="FU9" s="32"/>
+      <c r="FV9" s="32"/>
+      <c r="FW9" s="32"/>
+      <c r="FX9" s="32"/>
+      <c r="FY9" s="32"/>
+      <c r="FZ9" s="32"/>
+      <c r="GA9" s="32"/>
+      <c r="GB9" s="32"/>
+      <c r="GC9" s="32"/>
+      <c r="GD9" s="32"/>
+      <c r="GE9" s="32"/>
+      <c r="GF9" s="32"/>
+      <c r="GG9" s="32"/>
+      <c r="GH9" s="32"/>
+      <c r="GI9" s="32"/>
+      <c r="GJ9" s="32"/>
+      <c r="GK9" s="32"/>
+      <c r="GL9" s="32"/>
+      <c r="GM9" s="32"/>
+      <c r="GN9" s="32"/>
+      <c r="GO9" s="32"/>
+      <c r="GP9" s="32"/>
+      <c r="GQ9" s="32"/>
+      <c r="GR9" s="32"/>
+      <c r="GS9" s="32"/>
+      <c r="GT9" s="32"/>
+      <c r="GU9" s="32"/>
+      <c r="GV9" s="32"/>
+      <c r="GW9" s="32"/>
+      <c r="GX9" s="32"/>
+      <c r="GY9" s="32"/>
+      <c r="GZ9" s="32"/>
+      <c r="HA9" s="32"/>
+      <c r="HB9" s="32"/>
+      <c r="HC9" s="32"/>
+      <c r="HD9" s="32"/>
+      <c r="HE9" s="32"/>
+      <c r="HF9" s="32"/>
+      <c r="HG9" s="32"/>
+      <c r="HH9" s="32"/>
+      <c r="HI9" s="32"/>
+      <c r="HJ9" s="32"/>
+      <c r="HK9" s="32"/>
+      <c r="HL9" s="32"/>
+      <c r="HM9" s="32"/>
+      <c r="HN9" s="32"/>
+      <c r="HO9" s="32"/>
+      <c r="HP9" s="32"/>
+      <c r="HQ9" s="32"/>
+      <c r="HR9" s="32"/>
+      <c r="HS9" s="32"/>
+      <c r="HT9" s="32"/>
+      <c r="HU9" s="32"/>
+      <c r="HV9" s="32"/>
+      <c r="HW9" s="32"/>
+      <c r="HX9" s="32"/>
+      <c r="HY9" s="32"/>
+      <c r="HZ9" s="32"/>
+      <c r="IA9" s="32"/>
+      <c r="IB9" s="32"/>
+      <c r="IC9" s="32"/>
+      <c r="ID9" s="32"/>
+      <c r="IE9" s="32"/>
+      <c r="IF9" s="32"/>
+      <c r="IG9" s="32"/>
+      <c r="IH9" s="32"/>
+      <c r="II9" s="32"/>
+      <c r="IJ9" s="32"/>
+      <c r="IK9" s="32"/>
+      <c r="IL9" s="32"/>
+      <c r="IM9" s="32"/>
+      <c r="IN9" s="32"/>
+      <c r="IO9" s="32"/>
+      <c r="IP9" s="32"/>
+      <c r="IQ9" s="32"/>
+      <c r="IR9" s="32"/>
+      <c r="IS9" s="32"/>
+      <c r="IT9" s="32"/>
+      <c r="IU9" s="32"/>
+      <c r="IV9" s="32"/>
+      <c r="IW9" s="32"/>
+      <c r="IX9" s="32"/>
+      <c r="IY9" s="32"/>
+      <c r="IZ9" s="32"/>
+      <c r="JA9" s="32"/>
+      <c r="JB9" s="32"/>
+      <c r="JC9" s="32"/>
+      <c r="JD9" s="32"/>
+      <c r="JE9" s="32"/>
+      <c r="JF9" s="32"/>
+      <c r="JG9" s="32"/>
+      <c r="JH9" s="32"/>
+      <c r="JI9" s="32"/>
+      <c r="JJ9" s="32"/>
+      <c r="JK9" s="32"/>
+      <c r="JL9" s="32"/>
+      <c r="JM9" s="32"/>
+      <c r="JN9" s="32"/>
+      <c r="JO9" s="32"/>
+      <c r="JP9" s="32"/>
+      <c r="JQ9" s="32"/>
+      <c r="JR9" s="32"/>
+      <c r="JS9" s="32"/>
+      <c r="JT9" s="32"/>
+      <c r="JU9" s="32"/>
+      <c r="JV9" s="32"/>
+      <c r="JW9" s="32"/>
+      <c r="JX9" s="32"/>
+      <c r="JY9" s="32"/>
+      <c r="JZ9" s="32"/>
+      <c r="KA9" s="32"/>
+      <c r="KB9" s="32"/>
+      <c r="KC9" s="32"/>
+      <c r="KD9" s="32"/>
+      <c r="KE9" s="32"/>
+      <c r="KF9" s="32"/>
+      <c r="KG9" s="32"/>
+      <c r="KH9" s="32"/>
+      <c r="KI9" s="32"/>
+      <c r="KJ9" s="32"/>
+      <c r="KK9" s="32"/>
+      <c r="KL9" s="32"/>
+      <c r="KM9" s="32"/>
+      <c r="KN9" s="32"/>
+      <c r="KO9" s="32"/>
+      <c r="KP9" s="32"/>
+      <c r="KQ9" s="32"/>
+      <c r="KR9" s="32"/>
+      <c r="KS9" s="32"/>
+      <c r="KT9" s="32"/>
+      <c r="KU9" s="32"/>
+      <c r="KV9" s="32"/>
+      <c r="KW9" s="32"/>
+      <c r="KX9" s="32"/>
+      <c r="KY9" s="32"/>
+      <c r="KZ9" s="32"/>
+      <c r="LA9" s="32"/>
+      <c r="LB9" s="32"/>
+      <c r="LC9" s="32"/>
+      <c r="LD9" s="32"/>
+      <c r="LE9" s="32"/>
+      <c r="LF9" s="32"/>
+      <c r="LG9" s="32"/>
+      <c r="LH9" s="32"/>
+      <c r="LI9" s="32"/>
+      <c r="LJ9" s="32"/>
+      <c r="LK9" s="32"/>
+      <c r="LL9" s="32"/>
+      <c r="LM9" s="32"/>
+      <c r="LN9" s="32"/>
+      <c r="LO9" s="32"/>
+      <c r="LP9" s="32"/>
+      <c r="LQ9" s="32"/>
+      <c r="LR9" s="32"/>
+      <c r="LS9" s="32"/>
+      <c r="LT9" s="32"/>
+      <c r="LU9" s="32"/>
+      <c r="LV9" s="32"/>
+      <c r="LW9" s="32"/>
+      <c r="LX9" s="32"/>
+      <c r="LY9" s="32"/>
+      <c r="LZ9" s="32"/>
+      <c r="MA9" s="32"/>
+      <c r="MB9" s="32"/>
+      <c r="MC9" s="32"/>
+      <c r="MD9" s="32"/>
+      <c r="ME9" s="32"/>
+      <c r="MF9" s="32"/>
+      <c r="MG9" s="32"/>
+      <c r="MH9" s="32"/>
+      <c r="MI9" s="32"/>
+      <c r="MJ9" s="32"/>
+      <c r="MK9" s="32"/>
+      <c r="ML9" s="32"/>
+      <c r="MM9" s="32"/>
+      <c r="MN9" s="32"/>
+      <c r="MO9" s="32"/>
+      <c r="MP9" s="32"/>
+      <c r="MQ9" s="32"/>
+      <c r="MR9" s="32"/>
+      <c r="MS9" s="32"/>
+      <c r="MT9" s="32"/>
+      <c r="MU9" s="32"/>
+      <c r="MV9" s="32"/>
+      <c r="MW9" s="32"/>
+      <c r="MX9" s="32"/>
+      <c r="MY9" s="32"/>
+      <c r="MZ9" s="32"/>
+      <c r="NA9" s="32"/>
+      <c r="NB9" s="32"/>
+      <c r="NC9" s="32"/>
+      <c r="ND9" s="32"/>
+      <c r="NE9" s="32"/>
+      <c r="NF9" s="32"/>
+      <c r="NG9" s="32"/>
+      <c r="NH9" s="32"/>
+      <c r="NI9" s="32"/>
+      <c r="NJ9" s="32"/>
+      <c r="NK9" s="32"/>
+      <c r="NL9" s="32"/>
+      <c r="NM9" s="32"/>
+      <c r="NN9" s="32"/>
+      <c r="NO9" s="32"/>
+      <c r="NP9" s="32"/>
+      <c r="NQ9" s="32"/>
+      <c r="NR9" s="32"/>
+      <c r="NS9" s="32"/>
+      <c r="NT9" s="32"/>
+      <c r="NU9" s="32"/>
+      <c r="NV9" s="32"/>
+      <c r="NW9" s="32"/>
+      <c r="NX9" s="32"/>
+      <c r="NY9" s="32"/>
+      <c r="NZ9" s="32"/>
+      <c r="OA9" s="32"/>
+      <c r="OB9" s="32"/>
+      <c r="OC9" s="32"/>
+      <c r="OD9" s="32"/>
+      <c r="OE9" s="32"/>
+      <c r="OF9" s="32"/>
+      <c r="OG9" s="32"/>
+      <c r="OH9" s="32"/>
+      <c r="OI9" s="32"/>
+      <c r="OJ9" s="32"/>
+      <c r="OK9" s="32"/>
+      <c r="OL9" s="32"/>
+      <c r="OM9" s="32"/>
+      <c r="ON9" s="32"/>
+      <c r="OO9" s="32"/>
+      <c r="OP9" s="32"/>
+      <c r="OQ9" s="32"/>
+      <c r="OR9" s="32"/>
+      <c r="OS9" s="32"/>
+      <c r="OT9" s="32"/>
+      <c r="OU9" s="32"/>
+      <c r="OV9" s="32"/>
+      <c r="OW9" s="32"/>
+      <c r="OX9" s="32"/>
+      <c r="OY9" s="32"/>
+      <c r="OZ9" s="32"/>
+      <c r="PA9" s="32"/>
+      <c r="PB9" s="32"/>
+      <c r="PC9" s="32"/>
+      <c r="PD9" s="32"/>
+      <c r="PE9" s="32"/>
+      <c r="PF9" s="32"/>
+      <c r="PG9" s="32"/>
+      <c r="PH9" s="32"/>
+      <c r="PI9" s="32"/>
+      <c r="PJ9" s="32"/>
+      <c r="PK9" s="32"/>
+      <c r="PL9" s="32"/>
+      <c r="PM9" s="32"/>
+      <c r="PN9" s="32"/>
+      <c r="PO9" s="32"/>
+      <c r="PP9" s="32"/>
+      <c r="PQ9" s="32"/>
+      <c r="PR9" s="32"/>
+      <c r="PS9" s="32"/>
+      <c r="PT9" s="32"/>
+      <c r="PU9" s="32"/>
+      <c r="PV9" s="32"/>
+      <c r="PW9" s="32"/>
+      <c r="PX9" s="32"/>
+      <c r="PY9" s="32"/>
+      <c r="PZ9" s="32"/>
+      <c r="QA9" s="32"/>
+      <c r="QB9" s="32"/>
+      <c r="QC9" s="32"/>
+      <c r="QD9" s="32"/>
+      <c r="QE9" s="32"/>
+      <c r="QF9" s="32"/>
+      <c r="QG9" s="32"/>
+      <c r="QH9" s="32"/>
+      <c r="QI9" s="32"/>
+      <c r="QJ9" s="32"/>
+      <c r="QK9" s="32"/>
+      <c r="QL9" s="32"/>
+      <c r="QM9" s="32"/>
+      <c r="QN9" s="32"/>
+      <c r="QO9" s="32"/>
+      <c r="QP9" s="32"/>
+      <c r="QQ9" s="32"/>
+      <c r="QR9" s="32"/>
+      <c r="QS9" s="32"/>
+      <c r="QT9" s="32"/>
+      <c r="QU9" s="32"/>
+      <c r="QV9" s="32"/>
+      <c r="QW9" s="32"/>
+      <c r="QX9" s="32"/>
+      <c r="QY9" s="32"/>
+      <c r="QZ9" s="32"/>
+      <c r="RA9" s="32"/>
+      <c r="RB9" s="32"/>
+      <c r="RC9" s="32"/>
+      <c r="RD9" s="32"/>
+      <c r="RE9" s="32"/>
+      <c r="RF9" s="32"/>
+      <c r="RG9" s="32"/>
+      <c r="RH9" s="32"/>
+      <c r="RI9" s="32"/>
+      <c r="RJ9" s="32"/>
+      <c r="RK9" s="32"/>
+      <c r="RL9" s="32"/>
+      <c r="RM9" s="32"/>
+      <c r="RN9" s="32"/>
+      <c r="RO9" s="32"/>
+      <c r="RP9" s="32"/>
+      <c r="RQ9" s="32"/>
+      <c r="RR9" s="32"/>
+      <c r="RS9" s="32"/>
+      <c r="RT9" s="32"/>
+      <c r="RU9" s="32"/>
+      <c r="RV9" s="32"/>
+      <c r="RW9" s="32"/>
+      <c r="RX9" s="32"/>
+      <c r="RY9" s="32"/>
+      <c r="RZ9" s="32"/>
+      <c r="SA9" s="32"/>
+      <c r="SB9" s="32"/>
+      <c r="SC9" s="32"/>
+      <c r="SD9" s="32"/>
+      <c r="SE9" s="32"/>
+      <c r="SF9" s="32"/>
+      <c r="SG9" s="32"/>
+      <c r="SH9" s="32"/>
+      <c r="SI9" s="32"/>
+      <c r="SJ9" s="32"/>
+      <c r="SK9" s="32"/>
+      <c r="SL9" s="32"/>
+      <c r="SM9" s="32"/>
+      <c r="SN9" s="32"/>
+      <c r="SO9" s="32"/>
+      <c r="SP9" s="32"/>
+      <c r="SQ9" s="32"/>
+      <c r="SR9" s="32"/>
+      <c r="SS9" s="32"/>
+      <c r="ST9" s="32"/>
+      <c r="SU9" s="32"/>
+      <c r="SV9" s="32"/>
+      <c r="SW9" s="32"/>
+      <c r="SX9" s="32"/>
+      <c r="SY9" s="32"/>
+      <c r="SZ9" s="32"/>
+      <c r="TA9" s="32"/>
+      <c r="TB9" s="32"/>
+      <c r="TC9" s="32"/>
+      <c r="TD9" s="32"/>
+      <c r="TE9" s="32"/>
+      <c r="TF9" s="32"/>
+      <c r="TG9" s="32"/>
+      <c r="TH9" s="32"/>
+      <c r="TI9" s="32"/>
+      <c r="TJ9" s="32"/>
+      <c r="TK9" s="32"/>
+      <c r="TL9" s="32"/>
+      <c r="TM9" s="32"/>
+      <c r="TN9" s="32"/>
+      <c r="TO9" s="32"/>
+      <c r="TP9" s="32"/>
+      <c r="TQ9" s="32"/>
+      <c r="TR9" s="32"/>
+      <c r="TS9" s="32"/>
+      <c r="TT9" s="32"/>
+      <c r="TU9" s="32"/>
+      <c r="TV9" s="32"/>
+      <c r="TW9" s="32"/>
+      <c r="TX9" s="32"/>
+      <c r="TY9" s="32"/>
+      <c r="TZ9" s="32"/>
+      <c r="UA9" s="32"/>
+      <c r="UB9" s="32"/>
+      <c r="UC9" s="32"/>
+      <c r="UD9" s="32"/>
+      <c r="UE9" s="32"/>
+      <c r="UF9" s="32"/>
+      <c r="UG9" s="32"/>
+      <c r="UH9" s="32"/>
+      <c r="UI9" s="32"/>
+      <c r="UJ9" s="32"/>
+      <c r="UK9" s="32"/>
+      <c r="UL9" s="32"/>
+      <c r="UM9" s="32"/>
+      <c r="UN9" s="32"/>
+      <c r="UO9" s="32"/>
+      <c r="UP9" s="32"/>
+      <c r="UQ9" s="32"/>
+      <c r="UR9" s="32"/>
+      <c r="US9" s="32"/>
+      <c r="UT9" s="32"/>
+      <c r="UU9" s="32"/>
+      <c r="UV9" s="32"/>
+      <c r="UW9" s="32"/>
+      <c r="UX9" s="32"/>
+      <c r="UY9" s="32"/>
+      <c r="UZ9" s="32"/>
+      <c r="VA9" s="32"/>
+      <c r="VB9" s="32"/>
+      <c r="VC9" s="32"/>
+      <c r="VD9" s="32"/>
+      <c r="VE9" s="32"/>
+      <c r="VF9" s="32"/>
+      <c r="VG9" s="32"/>
+      <c r="VH9" s="32"/>
+      <c r="VI9" s="32"/>
+      <c r="VJ9" s="32"/>
+      <c r="VK9" s="32"/>
+      <c r="VL9" s="32"/>
+      <c r="VM9" s="32"/>
+      <c r="VN9" s="32"/>
+      <c r="VO9" s="32"/>
+      <c r="VP9" s="32"/>
+      <c r="VQ9" s="32"/>
+      <c r="VR9" s="32"/>
+      <c r="VS9" s="32"/>
+      <c r="VT9" s="32"/>
+      <c r="VU9" s="32"/>
+      <c r="VV9" s="32"/>
+      <c r="VW9" s="32"/>
+      <c r="VX9" s="32"/>
+      <c r="VY9" s="32"/>
+      <c r="VZ9" s="32"/>
+      <c r="WA9" s="32"/>
+      <c r="WB9" s="32"/>
+      <c r="WC9" s="32"/>
+      <c r="WD9" s="32"/>
+      <c r="WE9" s="32"/>
+      <c r="WF9" s="32"/>
+      <c r="WG9" s="32"/>
+      <c r="WH9" s="32"/>
+      <c r="WI9" s="32"/>
+      <c r="WJ9" s="32"/>
+      <c r="WK9" s="32"/>
+      <c r="WL9" s="32"/>
+      <c r="WM9" s="32"/>
+      <c r="WN9" s="32"/>
+      <c r="WO9" s="32"/>
+      <c r="WP9" s="32"/>
+      <c r="WQ9" s="32"/>
+      <c r="WR9" s="32"/>
+      <c r="WS9" s="32"/>
+      <c r="WT9" s="32"/>
+      <c r="WU9" s="32"/>
+      <c r="WV9" s="32"/>
+      <c r="WW9" s="32"/>
+      <c r="WX9" s="32"/>
+      <c r="WY9" s="32"/>
+      <c r="WZ9" s="32"/>
+      <c r="XA9" s="32"/>
+      <c r="XB9" s="32"/>
+      <c r="XC9" s="32"/>
+      <c r="XD9" s="32"/>
+      <c r="XE9" s="32"/>
+      <c r="XF9" s="32"/>
+      <c r="XG9" s="32"/>
+      <c r="XH9" s="32"/>
+      <c r="XI9" s="32"/>
+      <c r="XJ9" s="32"/>
+      <c r="XK9" s="32"/>
+      <c r="XL9" s="32"/>
+      <c r="XM9" s="32"/>
+      <c r="XN9" s="32"/>
+      <c r="XO9" s="32"/>
+      <c r="XP9" s="32"/>
+      <c r="XQ9" s="32"/>
+      <c r="XR9" s="32"/>
+      <c r="XS9" s="32"/>
+      <c r="XT9" s="32"/>
+      <c r="XU9" s="32"/>
+      <c r="XV9" s="32"/>
+      <c r="XW9" s="32"/>
+      <c r="XX9" s="32"/>
+      <c r="XY9" s="32"/>
+      <c r="XZ9" s="32"/>
+      <c r="YA9" s="32"/>
+      <c r="YB9" s="32"/>
+      <c r="YC9" s="32"/>
+      <c r="YD9" s="32"/>
+      <c r="YE9" s="32"/>
+      <c r="YF9" s="32"/>
+      <c r="YG9" s="32"/>
+      <c r="YH9" s="32"/>
+      <c r="YI9" s="32"/>
+      <c r="YJ9" s="32"/>
+      <c r="YK9" s="32"/>
+      <c r="YL9" s="32"/>
+      <c r="YM9" s="32"/>
+      <c r="YN9" s="32"/>
+      <c r="YO9" s="32"/>
+      <c r="YP9" s="32"/>
+      <c r="YQ9" s="32"/>
+      <c r="YR9" s="32"/>
+      <c r="YS9" s="32"/>
+      <c r="YT9" s="32"/>
+      <c r="YU9" s="32"/>
+      <c r="YV9" s="32"/>
+      <c r="YW9" s="32"/>
+      <c r="YX9" s="32"/>
+      <c r="YY9" s="32"/>
+      <c r="YZ9" s="32"/>
+      <c r="ZA9" s="32"/>
+      <c r="ZB9" s="32"/>
+      <c r="ZC9" s="32"/>
+      <c r="ZD9" s="32"/>
+      <c r="ZE9" s="32"/>
+      <c r="ZF9" s="32"/>
+      <c r="ZG9" s="32"/>
+      <c r="ZH9" s="32"/>
+      <c r="ZI9" s="32"/>
+      <c r="ZJ9" s="32"/>
+      <c r="ZK9" s="32"/>
+      <c r="ZL9" s="32"/>
+      <c r="ZM9" s="32"/>
+      <c r="ZN9" s="32"/>
+      <c r="ZO9" s="32"/>
+      <c r="ZP9" s="32"/>
+      <c r="ZQ9" s="32"/>
+      <c r="ZR9" s="32"/>
+      <c r="ZS9" s="32"/>
+      <c r="ZT9" s="32"/>
+      <c r="ZU9" s="32"/>
+      <c r="ZV9" s="32"/>
+      <c r="ZW9" s="32"/>
+      <c r="ZX9" s="32"/>
+      <c r="ZY9" s="32"/>
+      <c r="ZZ9" s="32"/>
+      <c r="AAA9" s="32"/>
+      <c r="AAB9" s="32"/>
+      <c r="AAC9" s="32"/>
+      <c r="AAD9" s="32"/>
+      <c r="AAE9" s="32"/>
+      <c r="AAF9" s="32"/>
+      <c r="AAG9" s="32"/>
+      <c r="AAH9" s="32"/>
+      <c r="AAI9" s="32"/>
+      <c r="AAJ9" s="32"/>
+      <c r="AAK9" s="32"/>
+      <c r="AAL9" s="32"/>
+      <c r="AAM9" s="32"/>
+      <c r="AAN9" s="32"/>
+      <c r="AAO9" s="32"/>
+      <c r="AAP9" s="32"/>
+      <c r="AAQ9" s="32"/>
+      <c r="AAR9" s="32"/>
+      <c r="AAS9" s="32"/>
+      <c r="AAT9" s="32"/>
+      <c r="AAU9" s="32"/>
+      <c r="AAV9" s="32"/>
+      <c r="AAW9" s="32"/>
+      <c r="AAX9" s="32"/>
+      <c r="AAY9" s="32"/>
+      <c r="AAZ9" s="32"/>
+      <c r="ABA9" s="32"/>
+      <c r="ABB9" s="32"/>
+      <c r="ABC9" s="32"/>
+      <c r="ABD9" s="32"/>
+      <c r="ABE9" s="32"/>
+      <c r="ABF9" s="32"/>
+      <c r="ABG9" s="32"/>
+      <c r="ABH9" s="32"/>
+      <c r="ABI9" s="32"/>
+      <c r="ABJ9" s="32"/>
+      <c r="ABK9" s="32"/>
+      <c r="ABL9" s="32"/>
+      <c r="ABM9" s="32"/>
+      <c r="ABN9" s="32"/>
+      <c r="ABO9" s="32"/>
+      <c r="ABP9" s="32"/>
+      <c r="ABQ9" s="32"/>
+      <c r="ABR9" s="32"/>
+      <c r="ABS9" s="32"/>
+      <c r="ABT9" s="32"/>
+      <c r="ABU9" s="32"/>
+      <c r="ABV9" s="32"/>
+      <c r="ABW9" s="32"/>
+      <c r="ABX9" s="32"/>
+      <c r="ABY9" s="32"/>
+      <c r="ABZ9" s="32"/>
+      <c r="ACA9" s="32"/>
+      <c r="ACB9" s="32"/>
+      <c r="ACC9" s="32"/>
+      <c r="ACD9" s="32"/>
+      <c r="ACE9" s="32"/>
+      <c r="ACF9" s="32"/>
+      <c r="ACG9" s="32"/>
+      <c r="ACH9" s="32"/>
+      <c r="ACI9" s="32"/>
+      <c r="ACJ9" s="32"/>
+      <c r="ACK9" s="32"/>
+      <c r="ACL9" s="32"/>
+      <c r="ACM9" s="32"/>
+      <c r="ACN9" s="32"/>
+      <c r="ACO9" s="32"/>
+      <c r="ACP9" s="32"/>
+      <c r="ACQ9" s="32"/>
+      <c r="ACR9" s="32"/>
+      <c r="ACS9" s="32"/>
+      <c r="ACT9" s="32"/>
+      <c r="ACU9" s="32"/>
+      <c r="ACV9" s="32"/>
+      <c r="ACW9" s="32"/>
+      <c r="ACX9" s="32"/>
+      <c r="ACY9" s="32"/>
+      <c r="ACZ9" s="32"/>
+      <c r="ADA9" s="32"/>
+      <c r="ADB9" s="32"/>
+      <c r="ADC9" s="32"/>
+      <c r="ADD9" s="32"/>
+      <c r="ADE9" s="32"/>
+      <c r="ADF9" s="32"/>
+      <c r="ADG9" s="32"/>
+      <c r="ADH9" s="32"/>
+      <c r="ADI9" s="32"/>
+      <c r="ADJ9" s="32"/>
+      <c r="ADK9" s="32"/>
+      <c r="ADL9" s="32"/>
+      <c r="ADM9" s="32"/>
+      <c r="ADN9" s="32"/>
+      <c r="ADO9" s="32"/>
+      <c r="ADP9" s="32"/>
+      <c r="ADQ9" s="32"/>
+      <c r="ADR9" s="32"/>
+      <c r="ADS9" s="32"/>
+      <c r="ADT9" s="32"/>
+      <c r="ADU9" s="32"/>
+      <c r="ADV9" s="32"/>
+      <c r="ADW9" s="32"/>
+      <c r="ADX9" s="32"/>
+      <c r="ADY9" s="32"/>
+      <c r="ADZ9" s="32"/>
+      <c r="AEA9" s="32"/>
+      <c r="AEB9" s="32"/>
+      <c r="AEC9" s="32"/>
+      <c r="AED9" s="32"/>
+      <c r="AEE9" s="32"/>
+      <c r="AEF9" s="32"/>
+      <c r="AEG9" s="32"/>
+      <c r="AEH9" s="32"/>
+      <c r="AEI9" s="32"/>
+      <c r="AEJ9" s="32"/>
+      <c r="AEK9" s="32"/>
+      <c r="AEL9" s="32"/>
+      <c r="AEM9" s="32"/>
+      <c r="AEN9" s="32"/>
+      <c r="AEO9" s="32"/>
+      <c r="AEP9" s="32"/>
+      <c r="AEQ9" s="32"/>
+      <c r="AER9" s="32"/>
+      <c r="AES9" s="32"/>
+      <c r="AET9" s="32"/>
+      <c r="AEU9" s="32"/>
+      <c r="AEV9" s="32"/>
+      <c r="AEW9" s="32"/>
+      <c r="AEX9" s="32"/>
+      <c r="AEY9" s="32"/>
+      <c r="AEZ9" s="32"/>
+      <c r="AFA9" s="32"/>
+      <c r="AFB9" s="32"/>
+      <c r="AFC9" s="32"/>
+      <c r="AFD9" s="32"/>
+      <c r="AFE9" s="32"/>
+      <c r="AFF9" s="32"/>
+      <c r="AFG9" s="32"/>
+      <c r="AFH9" s="32"/>
+      <c r="AFI9" s="32"/>
+      <c r="AFJ9" s="32"/>
+      <c r="AFK9" s="32"/>
+      <c r="AFL9" s="32"/>
+      <c r="AFM9" s="32"/>
+      <c r="AFN9" s="32"/>
+      <c r="AFO9" s="32"/>
+      <c r="AFP9" s="32"/>
+      <c r="AFQ9" s="32"/>
+      <c r="AFR9" s="32"/>
+      <c r="AFS9" s="32"/>
+      <c r="AFT9" s="32"/>
+      <c r="AFU9" s="32"/>
+      <c r="AFV9" s="32"/>
+      <c r="AFW9" s="32"/>
+      <c r="AFX9" s="32"/>
+      <c r="AFY9" s="32"/>
+      <c r="AFZ9" s="32"/>
+      <c r="AGA9" s="32"/>
+      <c r="AGB9" s="32"/>
+      <c r="AGC9" s="32"/>
+      <c r="AGD9" s="32"/>
+      <c r="AGE9" s="32"/>
+      <c r="AGF9" s="32"/>
+      <c r="AGG9" s="32"/>
+      <c r="AGH9" s="32"/>
+      <c r="AGI9" s="32"/>
+      <c r="AGJ9" s="32"/>
+      <c r="AGK9" s="32"/>
+      <c r="AGL9" s="32"/>
+      <c r="AGM9" s="32"/>
+      <c r="AGN9" s="32"/>
+      <c r="AGO9" s="32"/>
+      <c r="AGP9" s="32"/>
+      <c r="AGQ9" s="32"/>
+      <c r="AGR9" s="32"/>
+      <c r="AGS9" s="32"/>
+      <c r="AGT9" s="32"/>
+      <c r="AGU9" s="32"/>
+      <c r="AGV9" s="32"/>
+      <c r="AGW9" s="32"/>
+      <c r="AGX9" s="32"/>
+      <c r="AGY9" s="32"/>
+      <c r="AGZ9" s="32"/>
+      <c r="AHA9" s="32"/>
+      <c r="AHB9" s="32"/>
+      <c r="AHC9" s="32"/>
+      <c r="AHD9" s="32"/>
+      <c r="AHE9" s="32"/>
+      <c r="AHF9" s="32"/>
+      <c r="AHG9" s="32"/>
+      <c r="AHH9" s="32"/>
+      <c r="AHI9" s="32"/>
+      <c r="AHJ9" s="32"/>
+      <c r="AHK9" s="32"/>
+      <c r="AHL9" s="32"/>
+      <c r="AHM9" s="32"/>
+      <c r="AHN9" s="32"/>
+      <c r="AHO9" s="32"/>
+      <c r="AHP9" s="32"/>
+      <c r="AHQ9" s="32"/>
+      <c r="AHR9" s="32"/>
+      <c r="AHS9" s="32"/>
+      <c r="AHT9" s="32"/>
+      <c r="AHU9" s="32"/>
+      <c r="AHV9" s="32"/>
+      <c r="AHW9" s="32"/>
+      <c r="AHX9" s="32"/>
+      <c r="AHY9" s="32"/>
+      <c r="AHZ9" s="32"/>
+      <c r="AIA9" s="32"/>
+      <c r="AIB9" s="32"/>
+      <c r="AIC9" s="32"/>
+      <c r="AID9" s="32"/>
+      <c r="AIE9" s="32"/>
+      <c r="AIF9" s="32"/>
+      <c r="AIG9" s="32"/>
+      <c r="AIH9" s="32"/>
+      <c r="AII9" s="32"/>
+      <c r="AIJ9" s="32"/>
+      <c r="AIK9" s="32"/>
+      <c r="AIL9" s="32"/>
+      <c r="AIM9" s="32"/>
+      <c r="AIN9" s="32"/>
+      <c r="AIO9" s="32"/>
+      <c r="AIP9" s="32"/>
+      <c r="AIQ9" s="32"/>
+      <c r="AIR9" s="32"/>
+      <c r="AIS9" s="32"/>
+      <c r="AIT9" s="32"/>
+      <c r="AIU9" s="32"/>
+      <c r="AIV9" s="32"/>
+      <c r="AIW9" s="32"/>
+      <c r="AIX9" s="32"/>
+      <c r="AIY9" s="32"/>
+      <c r="AIZ9" s="32"/>
+      <c r="AJA9" s="32"/>
+      <c r="AJB9" s="32"/>
+      <c r="AJC9" s="32"/>
+      <c r="AJD9" s="32"/>
+      <c r="AJE9" s="32"/>
+      <c r="AJF9" s="32"/>
+      <c r="AJG9" s="32"/>
+      <c r="AJH9" s="32"/>
+      <c r="AJI9" s="32"/>
+      <c r="AJJ9" s="32"/>
+      <c r="AJK9" s="32"/>
+      <c r="AJL9" s="32"/>
+      <c r="AJM9" s="32"/>
+      <c r="AJN9" s="32"/>
+      <c r="AJO9" s="32"/>
+      <c r="AJP9" s="32"/>
+      <c r="AJQ9" s="32"/>
+      <c r="AJR9" s="32"/>
+      <c r="AJS9" s="32"/>
+      <c r="AJT9" s="32"/>
+      <c r="AJU9" s="32"/>
+      <c r="AJV9" s="32"/>
+      <c r="AJW9" s="32"/>
+      <c r="AJX9" s="32"/>
+      <c r="AJY9" s="32"/>
+      <c r="AJZ9" s="32"/>
+      <c r="AKA9" s="32"/>
+      <c r="AKB9" s="32"/>
+      <c r="AKC9" s="32"/>
+      <c r="AKD9" s="32"/>
+      <c r="AKE9" s="32"/>
+      <c r="AKF9" s="32"/>
+      <c r="AKG9" s="32"/>
+      <c r="AKH9" s="32"/>
+      <c r="AKI9" s="32"/>
+      <c r="AKJ9" s="32"/>
+      <c r="AKK9" s="32"/>
+      <c r="AKL9" s="32"/>
+      <c r="AKM9" s="32"/>
+      <c r="AKN9" s="32"/>
+      <c r="AKO9" s="32"/>
+      <c r="AKP9" s="32"/>
+      <c r="AKQ9" s="32"/>
+      <c r="AKR9" s="32"/>
+      <c r="AKS9" s="32"/>
+      <c r="AKT9" s="32"/>
+      <c r="AKU9" s="32"/>
+      <c r="AKV9" s="32"/>
+      <c r="AKW9" s="32"/>
+      <c r="AKX9" s="32"/>
+      <c r="AKY9" s="32"/>
+      <c r="AKZ9" s="32"/>
+      <c r="ALA9" s="32"/>
+      <c r="ALB9" s="32"/>
+      <c r="ALC9" s="32"/>
+      <c r="ALD9" s="32"/>
+      <c r="ALE9" s="32"/>
+      <c r="ALF9" s="32"/>
+      <c r="ALG9" s="32"/>
+      <c r="ALH9" s="32"/>
+      <c r="ALI9" s="32"/>
+      <c r="ALJ9" s="32"/>
+      <c r="ALK9" s="32"/>
+      <c r="ALL9" s="32"/>
+      <c r="ALM9" s="32"/>
+      <c r="ALN9" s="32"/>
+      <c r="ALO9" s="32"/>
+      <c r="ALP9" s="32"/>
+      <c r="ALQ9" s="32"/>
+      <c r="ALR9" s="32"/>
+      <c r="ALS9" s="32"/>
+      <c r="ALT9" s="32"/>
+      <c r="ALU9" s="32"/>
+      <c r="ALV9" s="32"/>
+      <c r="ALW9" s="32"/>
+      <c r="ALX9" s="32"/>
+      <c r="ALY9" s="32"/>
+      <c r="ALZ9" s="32"/>
+      <c r="AMA9" s="32"/>
+      <c r="AMB9" s="32"/>
+      <c r="AMC9" s="32"/>
+      <c r="AMD9" s="32"/>
+      <c r="AME9" s="32"/>
+      <c r="AMF9" s="32"/>
+      <c r="AMG9" s="32"/>
+      <c r="AMH9" s="32"/>
+      <c r="AMI9" s="32"/>
+      <c r="AMJ9" s="32"/>
+      <c r="AMK9" s="32"/>
     </row>
     <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="43">
         <v>28</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="43">
         <v>33</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="43">
         <v>40</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="43">
         <v>41</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="43">
         <v>44</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="43">
         <v>48</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="43">
         <v>53</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="43">
         <v>55</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="43">
         <v>59</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="43">
         <v>62</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="43">
         <v>63</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="43">
         <v>66</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="43">
         <v>67</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="43">
         <v>61</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="43">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="43">
+        <v>6.8223934999999999E-2</v>
+      </c>
+      <c r="C11" s="43">
+        <v>7.3936685000000002E-2</v>
+      </c>
+      <c r="D11" s="43">
+        <v>8.5411685000000001E-2</v>
+      </c>
+      <c r="E11" s="43">
+        <v>8.4051122000000006E-2</v>
+      </c>
+      <c r="F11" s="43">
+        <v>9.2109112000000007E-2</v>
+      </c>
+      <c r="G11" s="43">
+        <v>9.7155783999999995E-2</v>
+      </c>
+      <c r="H11" s="43">
+        <v>0.108660435</v>
+      </c>
+      <c r="I11" s="43">
+        <v>0.109467303</v>
+      </c>
+      <c r="J11" s="43">
+        <v>0.113163925</v>
+      </c>
+      <c r="K11" s="43">
+        <v>0.108742466</v>
+      </c>
+      <c r="L11" s="43">
+        <v>0.124107856</v>
+      </c>
+      <c r="M11" s="43">
+        <v>0.12151754100000001</v>
+      </c>
+      <c r="N11" s="43">
+        <v>0.12963685599999999</v>
+      </c>
+      <c r="O11" s="25">
+        <v>0.125379031</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0.131918217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B12" s="34">
+        <f>29/156</f>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="C12" s="34">
+        <f t="shared" ref="C12:P12" si="0">29/156</f>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="D12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="E12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="F12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="G12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="H12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="J12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="K12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="L12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="M12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="N12" s="33">
+        <f>29/156</f>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="O12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="P12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="Q12" s="34"/>
+    </row>
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="34">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="G13" s="34">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="H13" s="34">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I13" s="34">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="J13" s="34">
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="K13" s="34">
+        <v>0.16899999999999998</v>
+      </c>
+      <c r="L13" s="34">
+        <v>0.16699999999999998</v>
+      </c>
+      <c r="M13" s="33">
         <v>0.16500000000000001</v>
       </c>
-      <c r="C11" s="30">
+      <c r="N13" s="33">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="O13" s="34">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="P13" s="34">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="34">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C14" s="34">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D14" s="34">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E14" s="33">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F14" s="34">
+        <v>7.5749999999999998E-2</v>
+      </c>
+      <c r="G14" s="34">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="H14" s="34">
+        <v>8.3250000000000005E-2</v>
+      </c>
+      <c r="I14" s="34">
+        <v>8.7000000000000008E-2</v>
+      </c>
+      <c r="J14" s="34">
+        <v>9.0750000000000011E-2</v>
+      </c>
+      <c r="K14" s="34">
+        <v>9.4500000000000015E-2</v>
+      </c>
+      <c r="L14" s="34">
+        <v>9.8250000000000018E-2</v>
+      </c>
+      <c r="M14" s="33">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="N14" s="33">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="O14" s="34">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P14" s="34">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="34">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C15" s="34">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D15" s="34">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E15" s="33">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F15" s="34">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G15" s="34">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H15" s="34">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I15" s="34">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J15" s="34">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K15" s="34">
+        <v>6.3E-2</v>
+      </c>
+      <c r="L15" s="34">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M15" s="33">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="D11" s="30">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E11" s="28">
+      <c r="N15" s="33">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="O15" s="34">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="P15" s="34">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="35">
+        <v>9.7870000000000013E-2</v>
+      </c>
+      <c r="G16" s="35">
+        <v>9.574000000000002E-2</v>
+      </c>
+      <c r="H16" s="35">
+        <v>9.3610000000000027E-2</v>
+      </c>
+      <c r="I16" s="35">
+        <v>9.1480000000000034E-2</v>
+      </c>
+      <c r="J16" s="35">
+        <v>8.9350000000000041E-2</v>
+      </c>
+      <c r="K16" s="35">
+        <v>8.7220000000000047E-2</v>
+      </c>
+      <c r="L16" s="35">
+        <v>8.5090000000000054E-2</v>
+      </c>
+      <c r="M16" s="36">
         <v>8.3000000000000004E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="23">
-        <v>0.18589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="23">
-        <v>6.8223934999999999E-2</v>
-      </c>
-      <c r="C13" s="23">
-        <v>7.3936685000000002E-2</v>
-      </c>
-      <c r="D13" s="23">
-        <v>8.5411685000000001E-2</v>
-      </c>
-      <c r="E13" s="23">
-        <v>8.4051122000000006E-2</v>
-      </c>
-      <c r="F13" s="23">
-        <v>9.2109112000000007E-2</v>
-      </c>
-      <c r="G13" s="23">
-        <v>9.7155783999999995E-2</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0.108660435</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0.109467303</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0.113163925</v>
-      </c>
-      <c r="K13" s="23">
-        <v>0.108742466</v>
-      </c>
-      <c r="L13" s="23">
-        <v>0.124107856</v>
-      </c>
-      <c r="M13" s="23">
-        <v>0.12151754100000001</v>
-      </c>
-      <c r="N13" s="23">
-        <v>0.12963685599999999</v>
-      </c>
-      <c r="O13" s="25">
-        <v>0.125379031</v>
-      </c>
-      <c r="P13" s="25">
-        <v>0.131918217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="N16" s="36">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="O16" s="35">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="P16" s="35">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B17" s="33">
         <v>717555</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C17" s="33">
         <v>788109</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D17" s="33">
         <v>834650</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E17" s="33">
         <v>876869</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F17" s="33">
         <v>866690</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G17" s="33">
         <v>904668</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H17" s="33">
         <v>901797</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I17" s="33">
         <v>937806</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J17" s="33">
         <v>982396</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K17" s="33">
         <v>1083783</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L17" s="33">
         <v>973020</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M17" s="33">
         <v>1049066</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N17" s="33">
         <v>1005895</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O17" s="33">
         <v>953924</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P17" s="33">
         <v>958682</v>
       </c>
     </row>

--- a/DataSheet_cddep.xlsx
+++ b/DataSheet_cddep.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="3735" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="3735" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="United States" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -379,6 +379,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6640,10 +6641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK17"/>
+  <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9547,6 +9548,9 @@
         <v>958682</v>
       </c>
     </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="44"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16802,7 +16806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
